--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tribhuwan.tewari\Desktop\Time Table EVEN 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BC6693-E7EF-4E48-8672-2FFAEF724703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A53A56-0ABF-4A47-A58A-B9EC5A858902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$188</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="z2ygc8YGc3LxX8fgbDWnasbutonDUtLEfg4aA8syq/M="/>
@@ -264,15 +264,9 @@
     <t>PB1(CS121)-CL04/AJS, IMR</t>
   </si>
   <si>
-    <t>PA10(CS121)-CL23/APJ, MEE</t>
-  </si>
-  <si>
     <t>PA7(CS121)-CL01/SHP, APR</t>
   </si>
   <si>
-    <t>PB2(CS121)-CL05/ROH, SOS</t>
-  </si>
-  <si>
     <t>PB14(CS121)-CL05/KP, SUD</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>LB1,B2(CI121)-FF2/APJ</t>
   </si>
   <si>
-    <t>LB9,B10(MA211)-FF2/RSC</t>
-  </si>
-  <si>
     <t>LB9,B10(CI121)-FF2/ASA</t>
   </si>
   <si>
@@ -453,9 +444,6 @@
     <t>TB11(CI121)-TS10/ASA</t>
   </si>
   <si>
-    <t>TC1(GE112)-TS11/NTS</t>
-  </si>
-  <si>
     <t>TB1(MA211)-TS8/YG</t>
   </si>
   <si>
@@ -465,9 +453,6 @@
     <t>TA10(CI121)-TS11/ASA</t>
   </si>
   <si>
-    <t>TB6(HS111)-TS11/MEE</t>
-  </si>
-  <si>
     <t>TB2(MA211)-TS10/MSD</t>
   </si>
   <si>
@@ -492,21 +477,12 @@
     <t>PA17(CS121)-CL09/APR, AM</t>
   </si>
   <si>
-    <t>PB3(CS121)-CL01/SMS, PRV</t>
-  </si>
-  <si>
     <t>PA16(PH271)-PL2/RKG/GPK</t>
   </si>
   <si>
     <t>PA18(CS121)-CL08/TNV, SHB</t>
   </si>
   <si>
-    <t>PB4(CS121)-CL05/PSO, ROH</t>
-  </si>
-  <si>
-    <t>PD1(CS121)-CL01/KP, SHB</t>
-  </si>
-  <si>
     <t>PG3(HS111)--LL/HK</t>
   </si>
   <si>
@@ -573,9 +549,6 @@
     <t>LA15,A16(PH211)-FF2/INC</t>
   </si>
   <si>
-    <t>LA15,A16(MA211)-FF2/DGA</t>
-  </si>
-  <si>
     <t>LG1,G2(CI121)-FF2/RTK</t>
   </si>
   <si>
@@ -756,9 +729,6 @@
     <t>THU</t>
   </si>
   <si>
-    <t>TA1(CI121)-TS6/AW</t>
-  </si>
-  <si>
     <t>LC1,C2,C3(HS111)- G1/VGU</t>
   </si>
   <si>
@@ -915,9 +885,6 @@
     <t>PB11(CS121)-CL01/AM, PAR</t>
   </si>
   <si>
-    <t>PA2(CS121)-CL01/ANP, NSA</t>
-  </si>
-  <si>
     <t>PB12(CS121)-CL07/ANP, ASA</t>
   </si>
   <si>
@@ -1143,9 +1110,6 @@
     <t>LA3,A4(PH211)-G1/RKD</t>
   </si>
   <si>
-    <t>LA5,A6(MA211)-FF1/ANK</t>
-  </si>
-  <si>
     <t>LA7,A8(MA211)-G1/HZR</t>
   </si>
   <si>
@@ -1227,16 +1191,10 @@
     <t>PB8(GE112)-EW2/ADM</t>
   </si>
   <si>
-    <t>PB5(CS121)-CL01/ANP, ASA</t>
-  </si>
-  <si>
     <t>PD2(CS121)- CL09/KRL, SOS</t>
   </si>
   <si>
     <t>PB6(CS121)-CL05/MAY, SHR</t>
-  </si>
-  <si>
-    <t>PG1(CS121)-CL01/SRG, SMS</t>
   </si>
   <si>
     <t>PG3(PH271)-PL1/DAM/INC</t>
@@ -1741,9 +1699,6 @@
     <t>LA17,A18(PH211)-CS2/GPK</t>
   </si>
   <si>
-    <t>LA17,A18(MA211)-CS5/RSA</t>
-  </si>
-  <si>
     <t>LB3,B4(CI121)-FF7/ANP</t>
   </si>
   <si>
@@ -1831,18 +1786,6 @@
     <t>LC1,C2,C3(PH212)-FF4/SDC</t>
   </si>
   <si>
-    <t>LC1,C2,C3(MA212)-G6/AN</t>
-  </si>
-  <si>
-    <t>PG2(CS121)-CL09/MAY, NSA</t>
-  </si>
-  <si>
-    <t>PG3(CS121)-CL07/KP, PSO</t>
-  </si>
-  <si>
-    <t>PB7(CS121)-CL01/APR, PRV</t>
-  </si>
-  <si>
     <t>PA6(CS121)-CL02/MEE, PSO</t>
   </si>
   <si>
@@ -1885,9 +1828,6 @@
     <t>TA16(GE112)-F10/NBH</t>
   </si>
   <si>
-    <t>TG2(CI121)-F7/NIY</t>
-  </si>
-  <si>
     <t>TC3(B11CI121)-F4/ALK</t>
   </si>
   <si>
@@ -1988,13 +1928,73 @@
   </si>
   <si>
     <t>PG4(GE112)-EW1/GGL,GRP</t>
+  </si>
+  <si>
+    <t>TG2(CI121)-TR326/NIY</t>
+  </si>
+  <si>
+    <t>TB6(HS111)-TR302/MEE</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(MA212)-G4/AN</t>
+  </si>
+  <si>
+    <t>TC1(GE112)-TS20/NTS</t>
+  </si>
+  <si>
+    <t>LA17,A18(MA211)-G4/RSA</t>
+  </si>
+  <si>
+    <t>LA15,A16(MA211)-FF9/DGA</t>
+  </si>
+  <si>
+    <t>LB9,B10(MA211)-G5/RSC</t>
+  </si>
+  <si>
+    <t>LA5,A6(MA211)-G3/ANK</t>
+  </si>
+  <si>
+    <t>PA2(CS121)-CL01/ANP, KP</t>
+  </si>
+  <si>
+    <t>PB5(CS121)-CL01/KP, ASA</t>
+  </si>
+  <si>
+    <t>PD1(CS121)-CL01/ANP, SHB</t>
+  </si>
+  <si>
+    <t>PB7(CS121)-CL01/APR, KRL</t>
+  </si>
+  <si>
+    <t>PG3(CS121)-CL07/PSO,PRV</t>
+  </si>
+  <si>
+    <t>PB4(CS121)-CL05/PSO, ANV</t>
+  </si>
+  <si>
+    <t>PG1(CS121)-CL01/SRG, ANV</t>
+  </si>
+  <si>
+    <t>PB3(CS121)-CL01/ASI, PRV</t>
+  </si>
+  <si>
+    <t>PG2(CS121)-CL09/MAY, AYS</t>
+  </si>
+  <si>
+    <t>PA10(CS121)-CL24/APJ, MEE</t>
+  </si>
+  <si>
+    <t>TA1(CI121)-TS11/AW</t>
+  </si>
+  <si>
+    <t>PB2(CS121)-CL05/JSM, ROH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2089,6 +2089,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2257,7 +2263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2322,9 +2328,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2376,11 +2379,20 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2390,6 +2402,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2403,12 +2416,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2416,23 +2440,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2651,10 +2675,10 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H93" sqref="H93:I93"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2676,16 +2700,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2749,11 +2773,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>590</v>
+      <c r="B3" s="46" t="s">
+        <v>575</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>10</v>
@@ -2761,7 +2785,7 @@
       <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="27"/>
@@ -2793,9 +2817,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="47" t="s">
-        <v>253</v>
+      <c r="A4" s="65"/>
+      <c r="B4" s="46" t="s">
+        <v>243</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>16</v>
@@ -2803,7 +2827,7 @@
       <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
@@ -2833,8 +2857,8 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="24" t="s">
@@ -2843,8 +2867,8 @@
       <c r="D5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="46" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="24" t="s">
@@ -2873,17 +2897,17 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="24" t="s">
         <v>30</v>
       </c>
@@ -2913,8 +2937,8 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="65"/>
+      <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -2923,7 +2947,7 @@
       <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="63"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="24" t="s">
         <v>42</v>
       </c>
@@ -2955,8 +2979,8 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -2965,7 +2989,7 @@
       <c r="D8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="24" t="s">
         <v>48</v>
       </c>
@@ -2995,15 +3019,15 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="E9" s="63"/>
+        <v>549</v>
+      </c>
+      <c r="E9" s="68"/>
       <c r="F9" s="24" t="s">
         <v>54</v>
       </c>
@@ -3033,16 +3057,20 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="47" t="s">
-        <v>617</v>
-      </c>
-      <c r="C10" s="27"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>636</v>
+      </c>
       <c r="D10" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="29"/>
+        <v>550</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="24" t="s">
+        <v>637</v>
+      </c>
       <c r="G10" s="25" t="s">
         <v>49</v>
       </c>
@@ -3071,18 +3099,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="49" t="s">
-        <v>618</v>
-      </c>
+      <c r="A11" s="65"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="29"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="24" t="s">
+        <v>639</v>
+      </c>
       <c r="G11" s="25" t="s">
         <v>55</v>
       </c>
@@ -3093,7 +3121,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>51</v>
@@ -3113,9 +3141,9 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="49" t="s">
-        <v>619</v>
+      <c r="A12" s="65"/>
+      <c r="B12" s="48" t="s">
+        <v>599</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>57</v>
@@ -3123,9 +3151,11 @@
       <c r="D12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25" t="s">
+      <c r="E12" s="68"/>
+      <c r="F12" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="G12" s="48" t="s">
         <v>59</v>
       </c>
       <c r="H12" s="24" t="s">
@@ -3151,9 +3181,9 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="47" t="s">
-        <v>620</v>
+      <c r="A13" s="65"/>
+      <c r="B13" s="46" t="s">
+        <v>600</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>61</v>
@@ -3161,7 +3191,7 @@
       <c r="D13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="63"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>63</v>
@@ -3189,7 +3219,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="27"/>
       <c r="C14" s="24" t="s">
         <v>65</v>
@@ -3197,7 +3227,7 @@
       <c r="D14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="63"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
@@ -3223,15 +3253,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="28"/>
       <c r="C15" s="24" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
@@ -3257,11 +3287,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="63"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -3285,21 +3315,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="51" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3319,21 +3349,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="51" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="51" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="52"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3353,21 +3383,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="65" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="52"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="70" t="s">
+        <v>650</v>
+      </c>
+      <c r="I19" s="56"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3387,21 +3417,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3421,21 +3451,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="56"/>
+      <c r="H21" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="52"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3455,21 +3485,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="52"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3489,21 +3519,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="52"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3523,21 +3553,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="52"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3557,13 +3587,13 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="64"/>
+      <c r="C25" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -3615,32 +3645,32 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="D27" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="E27" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="H27" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
@@ -3661,27 +3691,29 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="49" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="E28" s="68"/>
+      <c r="F28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>107</v>
-      </c>
       <c r="H28" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="I28" s="25"/>
+        <v>570</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -3701,25 +3733,23 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="E29" s="68"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="H29" s="24" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="2"/>
@@ -3741,25 +3771,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="G30" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="H30" s="24" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="2"/>
@@ -3781,23 +3811,21 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="63"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="68"/>
       <c r="F31" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>122</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G31" s="51"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="2"/>
@@ -3819,21 +3847,21 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="27"/>
       <c r="D32" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="68"/>
+      <c r="F32" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="E32" s="63"/>
-      <c r="F32" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="2"/>
@@ -3855,24 +3883,22 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="47" t="s">
-        <v>621</v>
+      <c r="A33" s="65"/>
+      <c r="B33" s="46" t="s">
+        <v>601</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="E33" s="63"/>
+        <v>551</v>
+      </c>
+      <c r="E33" s="68"/>
       <c r="F33" s="24" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>569</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>570</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="H33" s="51"/>
       <c r="I33" s="24"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
@@ -3893,20 +3919,20 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="47" t="s">
-        <v>622</v>
+      <c r="A34" s="65"/>
+      <c r="B34" s="46" t="s">
+        <v>602</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E34" s="63"/>
+      <c r="D34" s="46" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" s="68"/>
       <c r="F34" s="24" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="27"/>
@@ -3929,17 +3955,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="47" t="s">
-        <v>623</v>
+      <c r="A35" s="65"/>
+      <c r="B35" s="46" t="s">
+        <v>603</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="E35" s="63"/>
+        <v>604</v>
+      </c>
+      <c r="E35" s="68"/>
       <c r="F35" s="24" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -3963,18 +3989,22 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E36" s="63"/>
-      <c r="F36" s="24"/>
+        <v>125</v>
+      </c>
+      <c r="E36" s="68"/>
+      <c r="F36" s="24" t="s">
+        <v>635</v>
+      </c>
       <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="H36" s="24" t="s">
+        <v>651</v>
+      </c>
       <c r="I36" s="28"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
@@ -3995,23 +4025,23 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="27"/>
       <c r="C37" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="68"/>
+      <c r="F37" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="H37" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="2"/>
@@ -4033,23 +4063,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="28"/>
       <c r="C38" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="68"/>
+      <c r="F38" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="2"/>
@@ -4071,23 +4101,21 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="27"/>
       <c r="C39" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="68"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="63"/>
-      <c r="F39" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>143</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="2"/>
@@ -4109,21 +4137,19 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="63"/>
+        <v>140</v>
+      </c>
+      <c r="D40" s="51"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="28"/>
       <c r="G40" s="25" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I40" s="28"/>
       <c r="J40" s="2"/>
@@ -4145,14 +4171,14 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="63"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="28"/>
@@ -4175,13 +4201,13 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="63"/>
+      <c r="C42" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -4205,21 +4231,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="52"/>
+      <c r="C43" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="56"/>
+      <c r="H43" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="56"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4239,21 +4265,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="I44" s="52"/>
+      <c r="C44" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="I44" s="56"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4273,21 +4299,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="27"/>
-      <c r="C45" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="52"/>
-      <c r="H45" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="I45" s="52"/>
+      <c r="C45" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="70" t="s">
+        <v>646</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="I45" s="56"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4307,21 +4333,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="65" t="s">
-        <v>601</v>
-      </c>
-      <c r="I46" s="66"/>
+      <c r="C46" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="56"/>
+      <c r="H46" s="70" t="s">
+        <v>649</v>
+      </c>
+      <c r="I46" s="56"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4341,21 +4367,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" s="52"/>
+      <c r="C47" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="56"/>
+      <c r="H47" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="I47" s="56"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4375,21 +4401,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" s="52"/>
+      <c r="C48" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="56"/>
+      <c r="H48" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="I48" s="56"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4409,21 +4435,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="52"/>
+      <c r="C49" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="56"/>
+      <c r="H49" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="56"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4443,17 +4469,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="24"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="63"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-      <c r="H50" s="51" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="52"/>
+      <c r="H50" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="56"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4473,17 +4499,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="64"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="I51" s="52"/>
+      <c r="H51" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="56"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4531,22 +4557,22 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
-        <v>172</v>
+      <c r="A53" s="64" t="s">
+        <v>164</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="62" t="s">
+      <c r="E53" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="24" t="s">
@@ -4571,25 +4597,25 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="24" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="63"/>
+        <v>166</v>
+      </c>
+      <c r="E54" s="75"/>
       <c r="F54" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I54" s="24" t="s">
         <v>17</v>
@@ -4613,27 +4639,24 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="24" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="63"/>
+        <v>171</v>
+      </c>
+      <c r="E55" s="75"/>
       <c r="F55" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="H55" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="I55" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="I55" s="49" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="2"/>
@@ -4655,28 +4678,28 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="24" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E56" s="63"/>
+        <v>174</v>
+      </c>
+      <c r="E56" s="75"/>
       <c r="F56" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="3"/>
@@ -4697,24 +4720,24 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27"/>
       <c r="D57" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E57" s="63"/>
+        <v>178</v>
+      </c>
+      <c r="E57" s="75"/>
       <c r="F57" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4735,15 +4758,15 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="24"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="63"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="24" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
@@ -4766,22 +4789,22 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="24" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E59" s="63"/>
+        <v>189</v>
+      </c>
+      <c r="E59" s="75"/>
       <c r="F59" s="24" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -4804,25 +4827,25 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="24" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="63"/>
+        <v>193</v>
+      </c>
+      <c r="E60" s="75"/>
       <c r="F60" s="24" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="2"/>
@@ -4844,23 +4867,23 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C61" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E61" s="63"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="24" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="24" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I61" s="27"/>
       <c r="J61" s="2"/>
@@ -4882,21 +4905,21 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="24" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="63"/>
+        <v>199</v>
+      </c>
+      <c r="E62" s="75"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="2"/>
@@ -4918,26 +4941,26 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="24" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="63"/>
+        <v>203</v>
+      </c>
+      <c r="E63" s="75"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
@@ -4958,23 +4981,23 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="24" t="s">
-        <v>625</v>
+      <c r="A64" s="65"/>
+      <c r="B64" s="49" t="s">
+        <v>605</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="E64" s="63"/>
+        <v>611</v>
+      </c>
+      <c r="E64" s="75"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="2"/>
@@ -4996,20 +5019,20 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="24" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="E65" s="63"/>
+        <v>610</v>
+      </c>
+      <c r="E65" s="75"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
@@ -5032,18 +5055,18 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="27"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="E66" s="63"/>
+        <v>609</v>
+      </c>
+      <c r="E66" s="75"/>
       <c r="F66" s="24" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="25"/>
@@ -5066,10 +5089,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="24"/>
       <c r="C67" s="28"/>
-      <c r="E67" s="63"/>
+      <c r="E67" s="75"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
@@ -5093,19 +5116,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="24"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="65" t="s">
-        <v>650</v>
-      </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="I68" s="52"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="71" t="s">
+        <v>630</v>
+      </c>
+      <c r="G68" s="60"/>
+      <c r="H68" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="I68" s="60"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5125,21 +5148,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="I69" s="52"/>
+      <c r="C69" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="60"/>
+      <c r="H69" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I69" s="60"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5159,21 +5182,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="G70" s="52"/>
-      <c r="H70" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="I70" s="52"/>
+      <c r="C70" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="60"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G70" s="60"/>
+      <c r="H70" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="I70" s="60"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5193,21 +5216,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="G71" s="52"/>
-      <c r="H71" s="65" t="s">
-        <v>604</v>
-      </c>
-      <c r="I71" s="52"/>
+      <c r="C71" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" s="60"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" s="60"/>
+      <c r="H71" s="70" t="s">
+        <v>585</v>
+      </c>
+      <c r="I71" s="60"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5227,21 +5250,21 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="G72" s="52"/>
-      <c r="H72" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I72" s="52"/>
+      <c r="C72" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="60"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="G72" s="60"/>
+      <c r="H72" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72" s="60"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5261,21 +5284,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="60"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="G73" s="52"/>
-      <c r="H73" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="I73" s="52"/>
+      <c r="C73" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="G73" s="60"/>
+      <c r="H73" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="I73" s="60"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5295,21 +5318,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="I74" s="52"/>
+      <c r="C74" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="60"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="G74" s="60"/>
+      <c r="H74" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="I74" s="60"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5329,17 +5352,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="D75" s="52"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="G75" s="52"/>
+      <c r="C75" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="G75" s="60"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="2"/>
@@ -5361,17 +5384,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="G76" s="52"/>
+      <c r="C76" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="G76" s="60"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="2"/>
@@ -5393,13 +5416,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="64"/>
+      <c r="C77" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="76"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -5451,32 +5474,30 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="59" t="s">
-        <v>241</v>
+      <c r="A79" s="64" t="s">
+        <v>232</v>
       </c>
       <c r="B79" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="62" t="s">
+      <c r="E79" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G79" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="24" t="s">
-        <v>242</v>
-      </c>
+      <c r="H79" s="51"/>
       <c r="I79" s="24" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
@@ -5497,9 +5518,9 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="24" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>26</v>
@@ -5507,18 +5528,18 @@
       <c r="D80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="63"/>
+      <c r="E80" s="68"/>
       <c r="F80" s="24" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5539,9 +5560,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="24" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>31</v>
@@ -5549,18 +5570,18 @@
       <c r="D81" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="63"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="G81" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G81" s="46" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5581,23 +5602,23 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E82" s="63"/>
-      <c r="F82" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" s="68"/>
+      <c r="F82" s="46" t="s">
         <v>28</v>
       </c>
       <c r="G82" s="24" t="s">
         <v>35</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="I82" s="27"/>
       <c r="J82" s="2"/>
@@ -5619,17 +5640,17 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="60"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="24" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="63"/>
+        <v>243</v>
+      </c>
+      <c r="E83" s="68"/>
       <c r="F83" s="24" t="s">
         <v>34</v>
       </c>
@@ -5637,7 +5658,7 @@
         <v>41</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I83" s="27"/>
       <c r="J83" s="2"/>
@@ -5659,25 +5680,25 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="60"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" s="30" t="s">
-        <v>578</v>
+        <v>241</v>
+      </c>
+      <c r="C84" s="53" t="s">
+        <v>563</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="E84" s="63"/>
+        <v>247</v>
+      </c>
+      <c r="E84" s="68"/>
       <c r="F84" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="2"/>
@@ -5699,22 +5720,25 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="60"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="24" t="s">
-        <v>255</v>
+        <v>245</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>638</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E85" s="63"/>
+        <v>249</v>
+      </c>
+      <c r="E85" s="68"/>
       <c r="F85" s="24" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="I85" s="27"/>
       <c r="J85" s="2"/>
@@ -5736,24 +5760,25 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="60"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="24" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E86" s="63"/>
+        <v>252</v>
+      </c>
+      <c r="E86" s="68"/>
       <c r="F86" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="H86" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="I86" s="52"/>
+        <v>566</v>
+      </c>
+      <c r="G86" s="51"/>
+      <c r="H86" s="70" t="s">
+        <v>254</v>
+      </c>
+      <c r="I86" s="56"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5773,25 +5798,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="60"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="24" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="E87" s="63"/>
+        <v>255</v>
+      </c>
+      <c r="D87" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87" s="68"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="H87" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="I87" s="52"/>
+        <v>615</v>
+      </c>
+      <c r="H87" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="I87" s="56"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5811,27 +5836,27 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="60"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="24" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="E88" s="63"/>
+        <v>259</v>
+      </c>
+      <c r="E88" s="68"/>
       <c r="F88" s="24" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="H88" s="51" t="s">
-        <v>272</v>
-      </c>
-      <c r="I88" s="52"/>
+        <v>261</v>
+      </c>
+      <c r="H88" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="I88" s="56"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5851,25 +5876,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="60"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="24" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="E89" s="63"/>
+        <v>614</v>
+      </c>
+      <c r="E89" s="68"/>
       <c r="F89" s="24" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G89" s="27"/>
-      <c r="H89" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="I89" s="52"/>
+      <c r="H89" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="I89" s="56"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -5889,20 +5914,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="60"/>
-      <c r="C90" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" s="27"/>
-      <c r="E90" s="63"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="E90" s="68"/>
       <c r="F90" s="24" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G90" s="27"/>
-      <c r="H90" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="I90" s="52"/>
+      <c r="H90" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="I90" s="56"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -5922,21 +5950,21 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="60"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="51" t="s">
-        <v>280</v>
-      </c>
-      <c r="G91" s="52"/>
-      <c r="H91" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="I91" s="52"/>
+      <c r="C91" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="56"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="G91" s="56"/>
+      <c r="H91" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="I91" s="56"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -5956,23 +5984,23 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="60"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="D92" s="52"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="G92" s="52"/>
-      <c r="H92" s="65" t="s">
-        <v>602</v>
-      </c>
-      <c r="I92" s="52"/>
+      <c r="C92" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="56"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="G92" s="56"/>
+      <c r="H92" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="I92" s="56"/>
       <c r="J92" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -5992,21 +6020,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="60"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="27"/>
-      <c r="C93" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="52"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93" s="52"/>
-      <c r="H93" s="51" t="s">
-        <v>652</v>
-      </c>
-      <c r="I93" s="66"/>
+      <c r="C93" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="56"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="G93" s="56"/>
+      <c r="H93" s="55" t="s">
+        <v>632</v>
+      </c>
+      <c r="I93" s="56"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6026,17 +6054,17 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="60"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="52"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="G94" s="52"/>
+      <c r="C94" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D94" s="56"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="G94" s="56"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="2"/>
@@ -6058,17 +6086,17 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="60"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="63"/>
-      <c r="F95" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="G95" s="52"/>
+      <c r="C95" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D95" s="56"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="G95" s="56"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
       <c r="J95" s="2"/>
@@ -6090,17 +6118,17 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="60"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="G96" s="52"/>
+      <c r="C96" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="56"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="G96" s="56"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
       <c r="J96" s="2"/>
@@ -6122,17 +6150,17 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="60"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="24"/>
-      <c r="C97" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="D97" s="52"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="G97" s="52"/>
+      <c r="C97" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="D97" s="56"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="G97" s="56"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
       <c r="J97" s="2"/>
@@ -6154,17 +6182,17 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="60"/>
-      <c r="B98" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C98" s="52"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="70" t="s">
+        <v>641</v>
+      </c>
+      <c r="C98" s="56"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="G98" s="52"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="G98" s="56"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
       <c r="J98" s="2"/>
@@ -6186,18 +6214,18 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="61"/>
-      <c r="B99" s="75" t="s">
-        <v>649</v>
-      </c>
-      <c r="C99" s="76"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="72" t="s">
+        <v>629</v>
+      </c>
+      <c r="C99" s="86"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="64"/>
+      <c r="E99" s="69"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="H99" s="52"/>
+      <c r="G99" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="H99" s="56"/>
       <c r="I99" s="27"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
@@ -6246,28 +6274,27 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>585</v>
-      </c>
-      <c r="E101" s="53" t="s">
+      <c r="A101" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C101" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="E101" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="47" t="s">
+      <c r="F101" s="46" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="29"/>
       <c r="H101" s="24" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
@@ -6288,28 +6315,28 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
-      <c r="B102" s="31" t="s">
-        <v>583</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>584</v>
-      </c>
-      <c r="E102" s="54"/>
-      <c r="F102" s="47" t="s">
+      <c r="A102" s="65"/>
+      <c r="B102" s="30" t="s">
+        <v>568</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="E102" s="58"/>
+      <c r="F102" s="46" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
@@ -6330,28 +6357,28 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="60"/>
-      <c r="B103" s="31" t="s">
+      <c r="A103" s="65"/>
+      <c r="B103" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="E103" s="54"/>
-      <c r="F103" s="47" t="s">
-        <v>307</v>
+      <c r="C103" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="58"/>
+      <c r="F103" s="46" t="s">
+        <v>296</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
@@ -6372,26 +6399,26 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="60"/>
-      <c r="B104" s="31" t="s">
-        <v>605</v>
-      </c>
-      <c r="C104" s="31" t="s">
+      <c r="A104" s="65"/>
+      <c r="B104" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="58"/>
+      <c r="F104" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H104" s="29"/>
+      <c r="I104" s="49" t="s">
         <v>301</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E104" s="54"/>
-      <c r="F104" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
@@ -6412,28 +6439,28 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="60"/>
-      <c r="B105" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="31" t="s">
+      <c r="A105" s="65"/>
+      <c r="B105" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E105" s="58"/>
+      <c r="F105" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G105" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D105" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="E105" s="54"/>
-      <c r="F105" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>316</v>
-      </c>
       <c r="H105" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="I105" s="31" t="s">
-        <v>318</v>
+        <v>306</v>
+      </c>
+      <c r="I105" s="30" t="s">
+        <v>307</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6454,28 +6481,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="60"/>
-      <c r="B106" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="E106" s="54"/>
+      <c r="A106" s="65"/>
+      <c r="B106" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" s="58"/>
       <c r="F106" s="25" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6496,26 +6523,26 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="60"/>
-      <c r="B107" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>586</v>
-      </c>
-      <c r="E107" s="54"/>
+      <c r="A107" s="65"/>
+      <c r="B107" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="E107" s="58"/>
       <c r="F107" s="24" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="H107" s="27"/>
-      <c r="I107" s="31" t="s">
-        <v>330</v>
+      <c r="I107" s="30" t="s">
+        <v>319</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6536,22 +6563,22 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="60"/>
-      <c r="B108" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="E108" s="54"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="E108" s="58"/>
       <c r="F108" s="24" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H108" s="27"/>
       <c r="J108" s="2"/>
@@ -6573,20 +6600,20 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="60"/>
-      <c r="B109" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>588</v>
-      </c>
-      <c r="E109" s="54"/>
+      <c r="A109" s="65"/>
+      <c r="B109" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="E109" s="58"/>
       <c r="F109" s="27"/>
       <c r="G109" s="24" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H109" s="27"/>
       <c r="I109" s="28"/>
@@ -6609,22 +6636,19 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="60"/>
-      <c r="B110" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>600</v>
-      </c>
-      <c r="E110" s="54"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="E110" s="58"/>
       <c r="F110" s="24" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="H110" s="27"/>
       <c r="I110" s="28"/>
@@ -6647,17 +6671,17 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="E111" s="54"/>
+      <c r="A111" s="65"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="D111" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="E111" s="58"/>
       <c r="F111" s="25" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
@@ -6681,19 +6705,19 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="60"/>
-      <c r="B112" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>341</v>
-      </c>
-      <c r="E112" s="54"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E112" s="58"/>
       <c r="F112" s="25" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G112" s="27"/>
       <c r="H112" s="24"/>
@@ -6717,17 +6741,19 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="60"/>
-      <c r="B113" s="31" t="s">
-        <v>640</v>
-      </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="E113" s="54"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="E113" s="58"/>
       <c r="F113" s="25" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="27"/>
@@ -6751,21 +6777,21 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="60"/>
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="E114" s="54"/>
-      <c r="F114" s="65" t="s">
-        <v>342</v>
-      </c>
-      <c r="G114" s="52"/>
-      <c r="H114" s="51" t="s">
-        <v>343</v>
-      </c>
-      <c r="I114" s="52"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="E114" s="58"/>
+      <c r="F114" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="G114" s="60"/>
+      <c r="H114" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="I114" s="56"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -6785,21 +6811,21 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="60"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="27"/>
-      <c r="C115" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="52"/>
-      <c r="E115" s="54"/>
-      <c r="F115" s="65" t="s">
-        <v>345</v>
-      </c>
-      <c r="G115" s="52"/>
-      <c r="H115" s="51" t="s">
-        <v>346</v>
-      </c>
-      <c r="I115" s="52"/>
+      <c r="C115" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="D115" s="60"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="G115" s="60"/>
+      <c r="H115" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="I115" s="56"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -6819,21 +6845,21 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="60"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="27"/>
-      <c r="C116" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="D116" s="52"/>
-      <c r="E116" s="54"/>
-      <c r="F116" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="G116" s="52"/>
-      <c r="H116" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="I116" s="52"/>
+      <c r="C116" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" s="60"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G116" s="60"/>
+      <c r="H116" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="I116" s="56"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -6853,21 +6879,21 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="60"/>
-      <c r="B117" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C117" s="52"/>
+      <c r="A117" s="65"/>
+      <c r="B117" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="C117" s="60"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="54"/>
-      <c r="F117" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="G117" s="52"/>
-      <c r="H117" s="65" t="s">
-        <v>603</v>
-      </c>
-      <c r="I117" s="52"/>
+      <c r="E117" s="58"/>
+      <c r="F117" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G117" s="60"/>
+      <c r="H117" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="I117" s="56"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -6887,21 +6913,21 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="60"/>
-      <c r="B118" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="C118" s="52"/>
+      <c r="A118" s="65"/>
+      <c r="B118" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="C118" s="60"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="G118" s="52"/>
-      <c r="H118" s="65" t="s">
-        <v>354</v>
-      </c>
-      <c r="I118" s="52"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G118" s="60"/>
+      <c r="H118" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="I118" s="56"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -6921,21 +6947,21 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="60"/>
-      <c r="B119" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="C119" s="52"/>
+      <c r="A119" s="65"/>
+      <c r="B119" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C119" s="60"/>
       <c r="D119" s="27"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="G119" s="52"/>
-      <c r="H119" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="I119" s="52"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="G119" s="60"/>
+      <c r="H119" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="I119" s="56"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -6955,21 +6981,21 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="60"/>
-      <c r="B120" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="C120" s="52"/>
+      <c r="A120" s="65"/>
+      <c r="B120" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C120" s="60"/>
       <c r="D120" s="28"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="G120" s="52"/>
-      <c r="H120" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="I120" s="52"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="G120" s="60"/>
+      <c r="H120" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="I120" s="56"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -6989,19 +7015,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="60"/>
+      <c r="A121" s="65"/>
       <c r="B121" s="27"/>
       <c r="C121" s="24"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="G121" s="52"/>
-      <c r="H121" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="I121" s="52"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="G121" s="60"/>
+      <c r="H121" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="I121" s="60"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7021,17 +7047,17 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="60"/>
+      <c r="A122" s="65"/>
       <c r="B122" s="24"/>
       <c r="C122" s="27"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="32" t="s">
-        <v>363</v>
+      <c r="E122" s="59"/>
+      <c r="F122" s="31" t="s">
+        <v>352</v>
       </c>
       <c r="G122" s="27"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7051,18 +7077,18 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="60"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="20"/>
       <c r="C123" s="22"/>
-      <c r="D123" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="E123" s="74"/>
+      <c r="D123" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="85"/>
       <c r="F123" s="23"/>
-      <c r="G123" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="H123" s="52"/>
+      <c r="G123" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="H123" s="60"/>
       <c r="I123" s="8"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
@@ -7083,13 +7109,13 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="60"/>
+      <c r="A124" s="65"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="73" t="s">
-        <v>366</v>
-      </c>
-      <c r="E124" s="74"/>
+      <c r="D124" s="83" t="s">
+        <v>355</v>
+      </c>
+      <c r="E124" s="85"/>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
@@ -7113,13 +7139,13 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="61"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="E125" s="52"/>
+      <c r="D125" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="E125" s="60"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7171,24 +7197,21 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="59" t="s">
-        <v>368</v>
+      <c r="A127" s="64" t="s">
+        <v>357</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F127" s="68"/>
-      <c r="G127" s="69"/>
-      <c r="H127" s="52"/>
+        <v>360</v>
+      </c>
+      <c r="F127" s="78"/>
+      <c r="G127" s="79"/>
+      <c r="H127" s="60"/>
       <c r="I127" s="8"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
@@ -7209,22 +7232,22 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="60"/>
+      <c r="A128" s="65"/>
       <c r="B128" s="26" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="34"/>
+        <v>307</v>
+      </c>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="33"/>
       <c r="I128" s="8"/>
       <c r="J128" s="2"/>
       <c r="K128" s="3"/>
@@ -7245,22 +7268,22 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="60"/>
+      <c r="A129" s="65"/>
       <c r="B129" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="F129" s="35"/>
-      <c r="G129" s="35"/>
-      <c r="H129" s="34"/>
+        <v>364</v>
+      </c>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="33"/>
       <c r="I129" s="8"/>
       <c r="J129" s="2"/>
       <c r="K129" s="3"/>
@@ -7281,22 +7304,22 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="60"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="24" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="34"/>
+        <v>367</v>
+      </c>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
+      <c r="H130" s="33"/>
       <c r="I130" s="8"/>
       <c r="J130" s="2"/>
       <c r="K130" s="3"/>
@@ -7317,20 +7340,20 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="60"/>
+      <c r="A131" s="65"/>
       <c r="B131" s="24" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="24" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="34"/>
+        <v>370</v>
+      </c>
+      <c r="F131" s="34"/>
+      <c r="G131" s="34"/>
+      <c r="H131" s="33"/>
       <c r="I131" s="8"/>
       <c r="J131" s="2"/>
       <c r="K131" s="3"/>
@@ -7351,18 +7374,18 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="60"/>
+      <c r="A132" s="65"/>
       <c r="B132" s="29"/>
       <c r="C132" s="24" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E132" s="27"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="34"/>
+      <c r="F132" s="34"/>
+      <c r="G132" s="34"/>
+      <c r="H132" s="33"/>
       <c r="I132" s="8"/>
       <c r="J132" s="2"/>
       <c r="K132" s="3"/>
@@ -7383,16 +7406,16 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="60"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="29"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="E133" s="27"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="33"/>
       <c r="I133" s="8"/>
       <c r="J133" s="2"/>
       <c r="K133" s="3"/>
@@ -7413,20 +7436,20 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="60"/>
+      <c r="A134" s="65"/>
       <c r="B134" s="25" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="34"/>
+      <c r="H134" s="33"/>
       <c r="I134" s="8"/>
       <c r="J134" s="2"/>
       <c r="K134" s="3"/>
@@ -7447,18 +7470,18 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="60"/>
-      <c r="B135" s="29"/>
+      <c r="A135" s="65"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="24" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E135" s="25"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="8"/>
       <c r="J135" s="2"/>
       <c r="K135" s="3"/>
@@ -7479,18 +7502,18 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="60"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="27"/>
       <c r="C136" s="25" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E136" s="25"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="33"/>
       <c r="I136" s="8"/>
       <c r="J136" s="2"/>
       <c r="K136" s="3"/>
@@ -7511,18 +7534,18 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="60"/>
-      <c r="B137" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="C137" s="52"/>
-      <c r="D137" s="51" t="s">
-        <v>392</v>
-      </c>
-      <c r="E137" s="52"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="34"/>
+      <c r="A137" s="65"/>
+      <c r="B137" s="55" t="s">
+        <v>631</v>
+      </c>
+      <c r="C137" s="56"/>
+      <c r="D137" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="E137" s="56"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="33"/>
       <c r="I137" s="8"/>
       <c r="J137" s="2"/>
       <c r="K137" s="3"/>
@@ -7543,18 +7566,18 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="60"/>
-      <c r="B138" s="51" t="s">
-        <v>393</v>
-      </c>
-      <c r="C138" s="52"/>
-      <c r="D138" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="E138" s="52"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="34"/>
+      <c r="A138" s="65"/>
+      <c r="B138" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="C138" s="56"/>
+      <c r="D138" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="E138" s="56"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="33"/>
       <c r="I138" s="8"/>
       <c r="J138" s="2"/>
       <c r="K138" s="3"/>
@@ -7575,18 +7598,18 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="60"/>
-      <c r="B139" s="51" t="s">
-        <v>395</v>
-      </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="51" t="s">
-        <v>396</v>
-      </c>
-      <c r="E139" s="52"/>
-      <c r="F139" s="35"/>
-      <c r="G139" s="34"/>
-      <c r="H139" s="34"/>
+      <c r="A139" s="65"/>
+      <c r="B139" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="C139" s="56"/>
+      <c r="D139" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="E139" s="56"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33"/>
       <c r="I139" s="8"/>
       <c r="J139" s="2"/>
       <c r="K139" s="3"/>
@@ -7607,18 +7630,18 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="60"/>
-      <c r="B140" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="C140" s="52"/>
-      <c r="D140" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="E140" s="52"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="34"/>
+      <c r="A140" s="65"/>
+      <c r="B140" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C140" s="56"/>
+      <c r="D140" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="E140" s="56"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
       <c r="I140" s="8"/>
       <c r="J140" s="2"/>
       <c r="K140" s="3"/>
@@ -7639,18 +7662,18 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="60"/>
-      <c r="B141" s="65" t="s">
-        <v>399</v>
-      </c>
-      <c r="C141" s="52"/>
-      <c r="D141" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="E141" s="52"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="34"/>
+      <c r="A141" s="65"/>
+      <c r="B141" s="70" t="s">
+        <v>642</v>
+      </c>
+      <c r="C141" s="56"/>
+      <c r="D141" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="E141" s="56"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
       <c r="I141" s="8"/>
       <c r="J141" s="2"/>
       <c r="K141" s="3"/>
@@ -7671,18 +7694,18 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="60"/>
-      <c r="B142" s="65" t="s">
-        <v>401</v>
-      </c>
-      <c r="C142" s="52"/>
-      <c r="D142" s="51" t="s">
-        <v>402</v>
-      </c>
-      <c r="E142" s="52"/>
-      <c r="F142" s="34"/>
-      <c r="G142" s="34"/>
-      <c r="H142" s="34"/>
+      <c r="A142" s="65"/>
+      <c r="B142" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="C142" s="56"/>
+      <c r="D142" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="E142" s="56"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
       <c r="I142" s="8"/>
       <c r="J142" s="2"/>
       <c r="K142" s="3"/>
@@ -7703,16 +7726,16 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="60"/>
-      <c r="B143" s="51" t="s">
-        <v>403</v>
-      </c>
-      <c r="C143" s="52"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="52"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="34"/>
-      <c r="H143" s="34"/>
+      <c r="A143" s="65"/>
+      <c r="B143" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" s="56"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
       <c r="I143" s="8"/>
       <c r="J143" s="2"/>
       <c r="K143" s="3"/>
@@ -7733,11 +7756,11 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="60"/>
-      <c r="B144" s="73" t="s">
-        <v>404</v>
-      </c>
-      <c r="C144" s="74"/>
+      <c r="A144" s="65"/>
+      <c r="B144" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="C144" s="85"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="8"/>
@@ -7763,7 +7786,7 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="60"/>
+      <c r="A145" s="65"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -7790,7 +7813,7 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="61"/>
+      <c r="A146" s="66"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="10"/>
@@ -7845,17 +7868,17 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="67" t="s">
-        <v>405</v>
-      </c>
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="57"/>
-      <c r="F148" s="57"/>
-      <c r="G148" s="57"/>
-      <c r="H148" s="57"/>
-      <c r="I148" s="58"/>
+      <c r="A148" s="77" t="s">
+        <v>391</v>
+      </c>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="63"/>
       <c r="J148" s="2"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -7903,17 +7926,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="B150" s="69"/>
-      <c r="C150" s="69"/>
-      <c r="D150" s="69"/>
-      <c r="E150" s="69"/>
-      <c r="F150" s="69"/>
-      <c r="G150" s="69"/>
-      <c r="H150" s="69"/>
-      <c r="I150" s="52"/>
+      <c r="A150" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150" s="79"/>
+      <c r="C150" s="79"/>
+      <c r="D150" s="79"/>
+      <c r="E150" s="79"/>
+      <c r="F150" s="79"/>
+      <c r="G150" s="79"/>
+      <c r="H150" s="79"/>
+      <c r="I150" s="60"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -7933,17 +7956,17 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="37"/>
-      <c r="B151" s="68" t="s">
-        <v>407</v>
-      </c>
-      <c r="C151" s="69"/>
-      <c r="D151" s="69"/>
-      <c r="E151" s="69"/>
-      <c r="F151" s="69"/>
-      <c r="G151" s="69"/>
-      <c r="H151" s="69"/>
-      <c r="I151" s="52"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="78" t="s">
+        <v>393</v>
+      </c>
+      <c r="C151" s="79"/>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="79"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="60"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -7963,17 +7986,17 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="37"/>
-      <c r="B152" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="C152" s="69"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="69"/>
-      <c r="F152" s="69"/>
-      <c r="G152" s="69"/>
-      <c r="H152" s="69"/>
-      <c r="I152" s="52"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="E152" s="79"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="79"/>
+      <c r="H152" s="79"/>
+      <c r="I152" s="60"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -7993,17 +8016,17 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="37"/>
-      <c r="B153" s="68" t="s">
-        <v>409</v>
-      </c>
-      <c r="C153" s="69"/>
-      <c r="D153" s="69"/>
-      <c r="E153" s="69"/>
-      <c r="F153" s="69"/>
-      <c r="G153" s="69"/>
-      <c r="H153" s="69"/>
-      <c r="I153" s="52"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="79"/>
+      <c r="D153" s="79"/>
+      <c r="E153" s="79"/>
+      <c r="F153" s="79"/>
+      <c r="G153" s="79"/>
+      <c r="H153" s="79"/>
+      <c r="I153" s="60"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8023,17 +8046,17 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="37"/>
-      <c r="B154" s="68" t="s">
-        <v>410</v>
-      </c>
-      <c r="C154" s="69"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="69"/>
-      <c r="F154" s="69"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="69"/>
-      <c r="I154" s="52"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="79"/>
+      <c r="D154" s="79"/>
+      <c r="E154" s="79"/>
+      <c r="F154" s="79"/>
+      <c r="G154" s="79"/>
+      <c r="H154" s="79"/>
+      <c r="I154" s="60"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8053,17 +8076,17 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="37"/>
-      <c r="B155" s="68" t="s">
-        <v>411</v>
-      </c>
-      <c r="C155" s="69"/>
-      <c r="D155" s="69"/>
-      <c r="E155" s="69"/>
-      <c r="F155" s="69"/>
-      <c r="G155" s="69"/>
-      <c r="H155" s="69"/>
-      <c r="I155" s="52"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="79"/>
+      <c r="D155" s="79"/>
+      <c r="E155" s="79"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="79"/>
+      <c r="H155" s="79"/>
+      <c r="I155" s="60"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8083,17 +8106,17 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="37"/>
-      <c r="B156" s="72" t="s">
-        <v>412</v>
-      </c>
-      <c r="C156" s="69"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="69"/>
-      <c r="F156" s="69"/>
-      <c r="G156" s="69"/>
-      <c r="H156" s="69"/>
-      <c r="I156" s="52"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="84" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" s="79"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="79"/>
+      <c r="I156" s="60"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8113,17 +8136,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="68" t="s">
-        <v>413</v>
-      </c>
-      <c r="B157" s="69"/>
-      <c r="C157" s="69"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="69"/>
-      <c r="F157" s="69"/>
-      <c r="G157" s="69"/>
-      <c r="H157" s="69"/>
-      <c r="I157" s="52"/>
+      <c r="A157" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157" s="79"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="60"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8143,21 +8166,21 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="71"/>
-      <c r="B158" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="C158" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="D158" s="70" t="s">
-        <v>416</v>
-      </c>
-      <c r="E158" s="69"/>
-      <c r="F158" s="69"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="52"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D158" s="80" t="s">
+        <v>402</v>
+      </c>
+      <c r="E158" s="79"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="79"/>
+      <c r="I158" s="60"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8177,19 +8200,19 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="63"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="D159" s="70" t="s">
-        <v>418</v>
-      </c>
-      <c r="E159" s="69"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="52"/>
+      <c r="A159" s="75"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D159" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="E159" s="79"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="79"/>
+      <c r="H159" s="79"/>
+      <c r="I159" s="60"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8209,19 +8232,19 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="64"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E160" s="69"/>
-      <c r="F160" s="69"/>
-      <c r="G160" s="69"/>
-      <c r="H160" s="69"/>
-      <c r="I160" s="52"/>
+      <c r="A160" s="76"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="D160" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="E160" s="79"/>
+      <c r="F160" s="79"/>
+      <c r="G160" s="79"/>
+      <c r="H160" s="79"/>
+      <c r="I160" s="60"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8241,15 +8264,15 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="35"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="39"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="35"/>
-      <c r="I161" s="35"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="34"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8269,30 +8292,30 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="71"/>
-      <c r="B162" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="C162" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="D162" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="E162" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="F162" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="G162" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="H162" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="I162" s="40" t="s">
-        <v>423</v>
+      <c r="A162" s="82"/>
+      <c r="B162" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="C162" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="D162" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="E162" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="F162" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="G162" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="H162" s="39" t="s">
+        <v>408</v>
+      </c>
+      <c r="I162" s="39" t="s">
+        <v>409</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
@@ -8313,30 +8336,30 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="63"/>
-      <c r="B163" s="36" t="s">
-        <v>424</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="D163" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="E163" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="F163" s="36" t="s">
-        <v>428</v>
-      </c>
-      <c r="G163" s="36" t="s">
-        <v>429</v>
-      </c>
-      <c r="H163" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="I163" s="43" t="s">
-        <v>431</v>
+      <c r="A163" s="75"/>
+      <c r="B163" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E163" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="F163" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="G163" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="H163" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="I163" s="42" t="s">
+        <v>417</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
@@ -8357,30 +8380,30 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="63"/>
-      <c r="B164" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="C164" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>434</v>
-      </c>
-      <c r="E164" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="F164" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="G164" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="H164" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="I164" s="43" t="s">
-        <v>439</v>
+      <c r="A164" s="75"/>
+      <c r="B164" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="E164" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="F164" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="G164" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="H164" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="I164" s="42" t="s">
+        <v>425</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
@@ -8401,30 +8424,30 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="63"/>
-      <c r="B165" s="36" t="s">
-        <v>440</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="D165" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="E165" s="36" t="s">
-        <v>443</v>
-      </c>
-      <c r="F165" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="G165" s="36" t="s">
-        <v>445</v>
-      </c>
-      <c r="H165" s="42" t="s">
-        <v>446</v>
-      </c>
-      <c r="I165" s="43" t="s">
-        <v>447</v>
+      <c r="A165" s="75"/>
+      <c r="B165" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E165" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="F165" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="G165" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="H165" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="I165" s="42" t="s">
+        <v>433</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8445,25 +8468,25 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
-      <c r="B166" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="C166" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="E166" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="F166" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="G166" s="36"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="44"/>
+      <c r="A166" s="75"/>
+      <c r="B166" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="D166" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="E166" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="F166" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="G166" s="35"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="43"/>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
@@ -8483,28 +8506,28 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
-      <c r="B167" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="C167" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="D167" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="E167" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="F167" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="G167" s="36"/>
-      <c r="H167" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="I167" s="44" t="s">
-        <v>459</v>
+      <c r="A167" s="75"/>
+      <c r="B167" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E167" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="F167" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="G167" s="35"/>
+      <c r="H167" s="41" t="s">
+        <v>444</v>
+      </c>
+      <c r="I167" s="43" t="s">
+        <v>445</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8525,28 +8548,28 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="63"/>
-      <c r="B168" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="C168" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>462</v>
-      </c>
-      <c r="E168" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="F168" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="G168" s="36"/>
-      <c r="H168" s="42" t="s">
-        <v>465</v>
-      </c>
-      <c r="I168" s="44" t="s">
-        <v>466</v>
+      <c r="A168" s="75"/>
+      <c r="B168" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="E168" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="F168" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="G168" s="35"/>
+      <c r="H168" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="I168" s="43" t="s">
+        <v>452</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
@@ -8567,30 +8590,30 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="63"/>
-      <c r="B169" s="36" t="s">
-        <v>467</v>
-      </c>
-      <c r="C169" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="D169" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="E169" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="F169" s="36" t="s">
-        <v>471</v>
-      </c>
-      <c r="G169" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="H169" s="42" t="s">
-        <v>473</v>
-      </c>
-      <c r="I169" s="44" t="s">
-        <v>474</v>
+      <c r="A169" s="75"/>
+      <c r="B169" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="F169" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="G169" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="H169" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="I169" s="43" t="s">
+        <v>460</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
@@ -8611,30 +8634,30 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="63"/>
-      <c r="B170" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="D170" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="E170" s="36" t="s">
-        <v>478</v>
-      </c>
-      <c r="F170" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="G170" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="H170" s="42" t="s">
-        <v>481</v>
-      </c>
-      <c r="I170" s="44" t="s">
-        <v>482</v>
+      <c r="A170" s="75"/>
+      <c r="B170" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>462</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="E170" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F170" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="G170" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="H170" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="I170" s="43" t="s">
+        <v>468</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8655,28 +8678,28 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="63"/>
-      <c r="B171" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="C171" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="D171" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="E171" s="36" t="s">
-        <v>486</v>
-      </c>
-      <c r="F171" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="G171" s="36"/>
-      <c r="H171" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="I171" s="44" t="s">
-        <v>489</v>
+      <c r="A171" s="75"/>
+      <c r="B171" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="E171" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="F171" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="G171" s="35"/>
+      <c r="H171" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="I171" s="43" t="s">
+        <v>475</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8697,30 +8720,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
-      <c r="B172" s="36" t="s">
-        <v>490</v>
-      </c>
-      <c r="C172" s="36" t="s">
-        <v>491</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="E172" s="36" t="s">
-        <v>493</v>
-      </c>
-      <c r="F172" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="G172" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="H172" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="I172" s="44" t="s">
-        <v>497</v>
+      <c r="A172" s="75"/>
+      <c r="B172" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>477</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="E172" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="F172" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="G172" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="H172" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="I172" s="43" t="s">
+        <v>483</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8741,30 +8764,30 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="63"/>
-      <c r="B173" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="D173" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="E173" s="36" t="s">
-        <v>501</v>
-      </c>
-      <c r="F173" s="36" t="s">
-        <v>502</v>
-      </c>
-      <c r="G173" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="H173" s="42" t="s">
-        <v>504</v>
-      </c>
-      <c r="I173" s="45" t="s">
-        <v>505</v>
+      <c r="A173" s="75"/>
+      <c r="B173" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>486</v>
+      </c>
+      <c r="E173" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="F173" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="G173" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="H173" s="41" t="s">
+        <v>490</v>
+      </c>
+      <c r="I173" s="44" t="s">
+        <v>491</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8785,30 +8808,30 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="63"/>
-      <c r="B174" s="36" t="s">
-        <v>506</v>
-      </c>
-      <c r="C174" s="36" t="s">
-        <v>507</v>
-      </c>
-      <c r="D174" s="36" t="s">
-        <v>508</v>
-      </c>
-      <c r="E174" s="36" t="s">
-        <v>509</v>
-      </c>
-      <c r="F174" s="36" t="s">
-        <v>510</v>
-      </c>
-      <c r="G174" s="36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H174" s="42" t="s">
-        <v>512</v>
-      </c>
-      <c r="I174" s="43" t="s">
-        <v>513</v>
+      <c r="A174" s="75"/>
+      <c r="B174" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>493</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="F174" s="35" t="s">
+        <v>496</v>
+      </c>
+      <c r="G174" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="H174" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="I174" s="42" t="s">
+        <v>499</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -8829,28 +8852,28 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="63"/>
-      <c r="B175" s="36" t="s">
-        <v>514</v>
-      </c>
-      <c r="C175" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="D175" s="36" t="s">
-        <v>516</v>
-      </c>
-      <c r="E175" s="36" t="s">
-        <v>517</v>
-      </c>
-      <c r="F175" s="36" t="s">
-        <v>518</v>
-      </c>
-      <c r="G175" s="36"/>
-      <c r="H175" s="42" t="s">
-        <v>519</v>
-      </c>
-      <c r="I175" s="43" t="s">
-        <v>520</v>
+      <c r="A175" s="75"/>
+      <c r="B175" s="35" t="s">
+        <v>500</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>501</v>
+      </c>
+      <c r="D175" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="E175" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="F175" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="G175" s="35"/>
+      <c r="H175" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="I175" s="42" t="s">
+        <v>506</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -8871,27 +8894,27 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="63"/>
-      <c r="B176" s="36" t="s">
-        <v>521</v>
-      </c>
-      <c r="C176" s="36" t="s">
-        <v>522</v>
-      </c>
-      <c r="D176" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="E176" s="36" t="s">
-        <v>524</v>
-      </c>
-      <c r="F176" s="36" t="s">
-        <v>525</v>
-      </c>
-      <c r="G176" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="H176" s="46"/>
-      <c r="I176" s="46"/>
+      <c r="A176" s="75"/>
+      <c r="B176" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="F176" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="G176" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="H176" s="45"/>
+      <c r="I176" s="45"/>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -8911,25 +8934,25 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="63"/>
-      <c r="B177" s="36" t="s">
-        <v>527</v>
-      </c>
-      <c r="C177" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="D177" s="36" t="s">
-        <v>529</v>
-      </c>
-      <c r="E177" s="36" t="s">
-        <v>530</v>
-      </c>
-      <c r="F177" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="G177" s="36"/>
-      <c r="H177" s="46"/>
-      <c r="I177" s="46"/>
+      <c r="A177" s="75"/>
+      <c r="B177" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D177" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E177" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="F177" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G177" s="35"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -8949,27 +8972,27 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="63"/>
-      <c r="B178" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="D178" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="E178" s="36" t="s">
-        <v>535</v>
-      </c>
-      <c r="F178" s="36" t="s">
-        <v>536</v>
-      </c>
-      <c r="G178" s="36" t="s">
-        <v>537</v>
-      </c>
-      <c r="H178" s="46"/>
-      <c r="I178" s="46"/>
+      <c r="A178" s="75"/>
+      <c r="B178" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="E178" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="G178" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="H178" s="45"/>
+      <c r="I178" s="45"/>
       <c r="J178" s="2"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -8989,27 +9012,27 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="63"/>
-      <c r="B179" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="D179" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="E179" s="36" t="s">
-        <v>541</v>
-      </c>
-      <c r="F179" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="G179" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
+      <c r="A179" s="75"/>
+      <c r="B179" s="35" t="s">
+        <v>524</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="E179" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="F179" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="G179" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="H179" s="45"/>
+      <c r="I179" s="45"/>
       <c r="J179" s="2"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -9029,27 +9052,27 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="64"/>
-      <c r="B180" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="D180" s="36" t="s">
-        <v>546</v>
-      </c>
-      <c r="E180" s="36" t="s">
-        <v>547</v>
-      </c>
-      <c r="F180" s="36" t="s">
-        <v>548</v>
-      </c>
-      <c r="G180" s="36" t="s">
-        <v>549</v>
-      </c>
-      <c r="H180" s="46"/>
-      <c r="I180" s="46"/>
+      <c r="A180" s="76"/>
+      <c r="B180" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="E180" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="F180" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="G180" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="H180" s="45"/>
+      <c r="I180" s="45"/>
       <c r="J180" s="2"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -9071,20 +9094,20 @@
     <row r="181" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="9" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H181" s="18"/>
       <c r="I181" s="18"/>
@@ -9109,16 +9132,16 @@
     <row r="182" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -9145,14 +9168,14 @@
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="9" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
@@ -9182,7 +9205,7 @@
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\2 Year\TT_6JAN\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A53A56-0ABF-4A47-A58A-B9EC5A858902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2FAEA-37D0-439A-9829-7070A4BF2125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="652">
   <si>
     <t>B.TECH II SEMESTER EVEN 2026</t>
   </si>
@@ -267,9 +267,6 @@
     <t>PA7(CS121)-CL01/SHP, APR</t>
   </si>
   <si>
-    <t>PB14(CS121)-CL05/KP, SUD</t>
-  </si>
-  <si>
     <t>PG4(CS121)-CL05/AVR,TNV</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>LB3,B4(CI121)-FF3/ANP</t>
   </si>
   <si>
-    <t>LB11,B12(MA211)-FF3/HPT</t>
-  </si>
-  <si>
     <t>LB11,B12(CI121)-FF3/AM</t>
   </si>
   <si>
@@ -675,19 +669,10 @@
     <t>PB2(PH271)-PL2/NKS/VRT</t>
   </si>
   <si>
-    <t>PA5(CS121)-CL01/TNV, IMR</t>
-  </si>
-  <si>
     <t>PB12(PH271)-PL2/NAR/ANU</t>
   </si>
   <si>
-    <t>PA3(CS121)-CL15/ASA, MEE</t>
-  </si>
-  <si>
     <t>PB9(CS121)-CL13/AM, SHB</t>
-  </si>
-  <si>
-    <t>PA4(CS121)-CL02/KRL, SUD</t>
   </si>
   <si>
     <t>PB5(HS111)--LL/PAC</t>
@@ -1978,9 +1963,6 @@
     <t>PB3(CS121)-CL01/ASI, PRV</t>
   </si>
   <si>
-    <t>PG2(CS121)-CL09/MAY, AYS</t>
-  </si>
-  <si>
     <t>PA10(CS121)-CL24/APJ, MEE</t>
   </si>
   <si>
@@ -1988,13 +1970,72 @@
   </si>
   <si>
     <t>PB2(CS121)-CL05/JSM, ROH</t>
+  </si>
+  <si>
+    <r>
+      <t>LB11,B12(MA211)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>G9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/HPT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PB14(CS121)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CL21</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/KP, SUD</t>
+    </r>
+  </si>
+  <si>
+    <t>PA3,A4(CS121)-CL01,02/MEE,KRL,SUD</t>
+  </si>
+  <si>
+    <t>PG2(CS121)-CL09/IMR, AYS</t>
+  </si>
+  <si>
+    <t>PA5(CS121)-CL01/TNV, MAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2097,6 +2138,26 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2263,7 +2324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2389,10 +2450,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2402,61 +2515,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2675,10 +2740,10 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H70" sqref="H70:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2700,16 +2765,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2773,11 +2838,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>10</v>
@@ -2785,7 +2850,7 @@
       <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="78" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="27"/>
@@ -2817,9 +2882,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="46" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>16</v>
@@ -2827,7 +2892,7 @@
       <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
@@ -2857,7 +2922,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
@@ -2867,7 +2932,7 @@
       <c r="D5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="46" t="s">
         <v>24</v>
       </c>
@@ -2897,7 +2962,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="46" t="s">
         <v>27</v>
       </c>
@@ -2907,7 +2972,7 @@
       <c r="D6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="24" t="s">
         <v>30</v>
       </c>
@@ -2937,7 +3002,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +3012,7 @@
       <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="24" t="s">
         <v>42</v>
       </c>
@@ -2979,7 +3044,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="46" t="s">
         <v>39</v>
       </c>
@@ -2989,7 +3054,7 @@
       <c r="D8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="24" t="s">
         <v>48</v>
       </c>
@@ -3019,15 +3084,15 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="E9" s="68"/>
+        <v>544</v>
+      </c>
+      <c r="E9" s="80"/>
       <c r="F9" s="24" t="s">
         <v>54</v>
       </c>
@@ -3057,19 +3122,19 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="46" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="E10" s="68"/>
+        <v>545</v>
+      </c>
+      <c r="E10" s="80"/>
       <c r="F10" s="24" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>49</v>
@@ -3099,7 +3164,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="51"/>
       <c r="C11" s="24" t="s">
         <v>52</v>
@@ -3107,9 +3172,9 @@
       <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="24" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>55</v>
@@ -3121,7 +3186,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>51</v>
@@ -3141,9 +3206,9 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="48" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>57</v>
@@ -3151,9 +3216,9 @@
       <c r="D12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="24" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>59</v>
@@ -3181,9 +3246,9 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="46" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>61</v>
@@ -3191,7 +3256,7 @@
       <c r="D13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>63</v>
@@ -3219,7 +3284,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="27"/>
       <c r="C14" s="24" t="s">
         <v>65</v>
@@ -3227,7 +3292,7 @@
       <c r="D14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
@@ -3253,15 +3318,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="28"/>
       <c r="C15" s="24" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
@@ -3287,11 +3352,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -3315,21 +3380,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="59"/>
+      <c r="H17" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3349,21 +3414,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="55" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="72" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3383,21 +3448,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="70" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="70" t="s">
-        <v>650</v>
-      </c>
-      <c r="I19" s="56"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="60" t="s">
+        <v>644</v>
+      </c>
+      <c r="I19" s="59"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3417,21 +3482,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="70" t="s">
-        <v>652</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="56"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="60" t="s">
+        <v>646</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="I20" s="59"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3451,21 +3516,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="55" t="s">
+      <c r="G21" s="59"/>
+      <c r="H21" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="56"/>
+      <c r="I21" s="59"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3485,21 +3550,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="55" t="s">
+      <c r="G22" s="59"/>
+      <c r="H22" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="56"/>
+      <c r="I22" s="59"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3519,21 +3584,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="55" t="s">
+      <c r="G23" s="59"/>
+      <c r="H23" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="56"/>
+      <c r="I23" s="59"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3553,21 +3618,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="55" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="59"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3587,13 +3652,13 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="69"/>
+      <c r="C25" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -3645,32 +3710,32 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="C27" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="E27" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="H27" s="24" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
@@ -3691,28 +3756,28 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E28" s="80"/>
+      <c r="F28" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="24" t="s">
+      <c r="G28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>105</v>
-      </c>
       <c r="H28" s="24" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
@@ -3733,23 +3798,23 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="80"/>
       <c r="F29" s="51"/>
       <c r="G29" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="2"/>
@@ -3771,25 +3836,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="D30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="E30" s="80"/>
+      <c r="F30" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="H30" s="24" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="2"/>
@@ -3811,19 +3876,19 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>579</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="80"/>
+      <c r="F31" s="24" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="24" t="s">
-        <v>118</v>
       </c>
       <c r="G31" s="51"/>
       <c r="H31" s="24"/>
@@ -3847,21 +3912,21 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="52"/>
       <c r="C32" s="27"/>
       <c r="D32" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="80"/>
+      <c r="F32" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="24" t="s">
+      <c r="H32" s="24" t="s">
         <v>121</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="2"/>
@@ -3883,20 +3948,20 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="46" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="E33" s="68"/>
+        <v>546</v>
+      </c>
+      <c r="E33" s="80"/>
       <c r="F33" s="24" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="24"/>
@@ -3919,20 +3984,20 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="46" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="46" t="s">
-        <v>552</v>
-      </c>
-      <c r="E34" s="68"/>
+        <v>547</v>
+      </c>
+      <c r="E34" s="80"/>
       <c r="F34" s="24" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="27"/>
@@ -3955,17 +4020,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="46" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="E35" s="68"/>
+        <v>599</v>
+      </c>
+      <c r="E35" s="80"/>
       <c r="F35" s="24" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -3989,21 +4054,21 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="46"/>
       <c r="C36" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E36" s="68"/>
+        <v>123</v>
+      </c>
+      <c r="E36" s="80"/>
       <c r="F36" s="24" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="24" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="2"/>
@@ -4025,23 +4090,23 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="27"/>
       <c r="C37" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="G37" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="25" t="s">
+      <c r="H37" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="2"/>
@@ -4063,23 +4128,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="28"/>
       <c r="C38" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="80"/>
+      <c r="F38" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="G38" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="25" t="s">
+      <c r="H38" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="G38" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="I38" s="28"/>
       <c r="J38" s="2"/>
@@ -4101,21 +4166,21 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="27"/>
       <c r="C39" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="68"/>
+        <v>135</v>
+      </c>
+      <c r="E39" s="80"/>
       <c r="F39" s="51"/>
       <c r="G39" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="2"/>
@@ -4137,19 +4202,19 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D40" s="51"/>
-      <c r="E40" s="68"/>
+      <c r="E40" s="80"/>
       <c r="F40" s="28"/>
       <c r="G40" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I40" s="28"/>
       <c r="J40" s="2"/>
@@ -4171,14 +4236,14 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="68"/>
+      <c r="E41" s="80"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="28"/>
@@ -4201,13 +4266,13 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="68"/>
+      <c r="C42" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="80"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -4231,21 +4296,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43" s="56"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4265,21 +4330,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="70" t="s">
-        <v>648</v>
-      </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="I44" s="56"/>
+      <c r="C44" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="59"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="G44" s="59"/>
+      <c r="H44" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="59"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4299,21 +4364,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="27"/>
-      <c r="C45" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="70" t="s">
-        <v>646</v>
-      </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="70" t="s">
-        <v>643</v>
-      </c>
-      <c r="I45" s="56"/>
+      <c r="C45" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="G45" s="59"/>
+      <c r="H45" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="I45" s="59"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4333,21 +4398,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G46" s="56"/>
-      <c r="H46" s="70" t="s">
-        <v>649</v>
-      </c>
-      <c r="I46" s="56"/>
+      <c r="C46" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="59"/>
+      <c r="H46" s="87" t="s">
+        <v>650</v>
+      </c>
+      <c r="I46" s="88"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4367,21 +4432,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="59"/>
+      <c r="H47" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I47" s="56"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4401,21 +4466,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="I48" s="56"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4435,21 +4500,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="59"/>
+      <c r="H49" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="56"/>
-      <c r="H49" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" s="56"/>
+      <c r="I49" s="59"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4469,17 +4534,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="24"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="80"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-      <c r="H50" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="56"/>
+      <c r="H50" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="I50" s="59"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4499,17 +4564,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="69"/>
+      <c r="E51" s="81"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" s="56"/>
+      <c r="H51" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="I51" s="59"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4528,7 +4593,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -4557,22 +4622,22 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
-        <v>164</v>
+      <c r="A53" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="78" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="24" t="s">
@@ -4597,25 +4662,25 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="24" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C54" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="69"/>
+      <c r="F54" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="G54" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="24" t="s">
+      <c r="H54" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>169</v>
       </c>
       <c r="I54" s="24" t="s">
         <v>17</v>
@@ -4639,22 +4704,22 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="24" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C55" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="H55" s="49" t="s">
         <v>171</v>
-      </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>173</v>
       </c>
       <c r="I55" s="49" t="s">
         <v>24</v>
@@ -4678,28 +4743,28 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="24" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D56" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="69"/>
+      <c r="F56" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="H56" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="24" t="s">
+      <c r="I56" s="24" t="s">
         <v>175</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>570</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>177</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="3"/>
@@ -4720,24 +4785,24 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27"/>
       <c r="D57" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="69"/>
+      <c r="F57" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H57" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="75"/>
-      <c r="F57" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="24" t="s">
+      <c r="I57" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="H57" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4758,15 +4823,15 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="24"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="75"/>
+      <c r="E58" s="69"/>
       <c r="F58" s="24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
@@ -4789,22 +4854,22 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="75"/>
+        <v>187</v>
+      </c>
+      <c r="E59" s="69"/>
       <c r="F59" s="24" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
@@ -4827,25 +4892,25 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
+      <c r="A60" s="56"/>
       <c r="B60" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="75"/>
+        <v>191</v>
+      </c>
+      <c r="E60" s="69"/>
       <c r="F60" s="24" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I60" s="27"/>
       <c r="J60" s="2"/>
@@ -4867,23 +4932,23 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="75"/>
+        <v>195</v>
+      </c>
+      <c r="E61" s="69"/>
       <c r="F61" s="24" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G61" s="24"/>
       <c r="H61" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I61" s="27"/>
       <c r="J61" s="2"/>
@@ -4905,21 +4970,21 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
+      <c r="A62" s="56"/>
       <c r="B62" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E62" s="75"/>
+        <v>197</v>
+      </c>
+      <c r="E62" s="69"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I62" s="27"/>
       <c r="J62" s="2"/>
@@ -4941,26 +5006,26 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="75"/>
+        <v>201</v>
+      </c>
+      <c r="E63" s="69"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="H63" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="25" t="s">
         <v>200</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
@@ -4981,23 +5046,23 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="49" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="E64" s="75"/>
+        <v>606</v>
+      </c>
+      <c r="E64" s="69"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I64" s="25"/>
       <c r="J64" s="2"/>
@@ -5019,20 +5084,20 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="24" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="E65" s="75"/>
+        <v>605</v>
+      </c>
+      <c r="E65" s="69"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
@@ -5055,18 +5120,18 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
+      <c r="A66" s="56"/>
       <c r="B66" s="27"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="E66" s="75"/>
+        <v>604</v>
+      </c>
+      <c r="E66" s="69"/>
       <c r="F66" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="25"/>
@@ -5089,10 +5154,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="24"/>
       <c r="C67" s="28"/>
-      <c r="E67" s="75"/>
+      <c r="E67" s="69"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
@@ -5116,19 +5181,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
+      <c r="A68" s="56"/>
       <c r="B68" s="24"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="75"/>
-      <c r="F68" s="71" t="s">
-        <v>630</v>
-      </c>
-      <c r="G68" s="60"/>
-      <c r="H68" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="I68" s="60"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="79" t="s">
+        <v>625</v>
+      </c>
+      <c r="G68" s="61"/>
+      <c r="H68" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" s="61"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5148,21 +5213,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="G69" s="61"/>
+      <c r="H69" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="G69" s="60"/>
-      <c r="H69" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="I69" s="60"/>
+      <c r="I69" s="61"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5182,21 +5247,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="75"/>
-      <c r="F70" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="60"/>
-      <c r="H70" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="I70" s="60"/>
+      <c r="C70" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="61"/>
+      <c r="H70" s="87" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="88"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5216,21 +5281,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="60"/>
-      <c r="H71" s="70" t="s">
-        <v>585</v>
-      </c>
-      <c r="I71" s="60"/>
+      <c r="C71" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="61"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="87" t="s">
+        <v>649</v>
+      </c>
+      <c r="G71" s="88"/>
+      <c r="H71" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="I71" s="61"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5250,21 +5315,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
+      <c r="A72" s="56"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="70" t="s">
-        <v>218</v>
-      </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="75"/>
-      <c r="F72" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="G72" s="60"/>
-      <c r="H72" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="I72" s="60"/>
+      <c r="C72" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="61"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I72" s="61"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5284,21 +5347,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="70" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="G73" s="60"/>
-      <c r="H73" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="I73" s="60"/>
+      <c r="C73" s="60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="61"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="G73" s="61"/>
+      <c r="H73" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" s="61"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5318,21 +5381,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="55" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="G74" s="60"/>
-      <c r="H74" s="55" t="s">
-        <v>226</v>
-      </c>
-      <c r="I74" s="60"/>
+      <c r="C74" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="61"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="G74" s="61"/>
+      <c r="H74" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="I74" s="61"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5352,17 +5415,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
+      <c r="A75" s="56"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="G75" s="60"/>
+      <c r="C75" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="61"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="G75" s="61"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="2"/>
@@ -5384,17 +5447,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="56"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="G76" s="60"/>
+      <c r="C76" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="61"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" s="61"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="2"/>
@@ -5416,13 +5479,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="76"/>
+      <c r="C77" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="61"/>
+      <c r="E77" s="70"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -5445,7 +5508,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -5474,30 +5537,30 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
-        <v>232</v>
+      <c r="A79" s="55" t="s">
+        <v>227</v>
       </c>
       <c r="B79" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="67" t="s">
+      <c r="E79" s="78" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G79" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="51"/>
       <c r="I79" s="24" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
@@ -5518,9 +5581,9 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="24" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>26</v>
@@ -5528,18 +5591,18 @@
       <c r="D80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="68"/>
+      <c r="E80" s="80"/>
       <c r="F80" s="24" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G80" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5560,9 +5623,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="24" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>31</v>
@@ -5570,18 +5633,18 @@
       <c r="D81" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="68"/>
+      <c r="E81" s="80"/>
       <c r="F81" s="24" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G81" s="46" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5602,15 +5665,15 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="E82" s="68"/>
+        <v>234</v>
+      </c>
+      <c r="E82" s="80"/>
       <c r="F82" s="46" t="s">
         <v>28</v>
       </c>
@@ -5618,7 +5681,7 @@
         <v>35</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I82" s="27"/>
       <c r="J82" s="2"/>
@@ -5640,17 +5703,17 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E83" s="68"/>
+      <c r="E83" s="80"/>
       <c r="F83" s="24" t="s">
         <v>34</v>
       </c>
@@ -5658,7 +5721,7 @@
         <v>41</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I83" s="27"/>
       <c r="J83" s="2"/>
@@ -5680,25 +5743,25 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="24" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E84" s="68"/>
+        <v>242</v>
+      </c>
+      <c r="E84" s="80"/>
       <c r="F84" s="24" t="s">
         <v>40</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="2"/>
@@ -5720,25 +5783,25 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="E85" s="68"/>
+        <v>244</v>
+      </c>
+      <c r="E85" s="80"/>
       <c r="F85" s="24" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I85" s="27"/>
       <c r="J85" s="2"/>
@@ -5760,25 +5823,25 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="24" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="E86" s="68"/>
+        <v>247</v>
+      </c>
+      <c r="E86" s="80"/>
       <c r="F86" s="24" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G86" s="51"/>
-      <c r="H86" s="70" t="s">
-        <v>254</v>
-      </c>
-      <c r="I86" s="56"/>
+      <c r="H86" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="I86" s="59"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5798,25 +5861,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C87" s="24" t="s">
-        <v>255</v>
-      </c>
       <c r="D87" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="E87" s="68"/>
+        <v>251</v>
+      </c>
+      <c r="E87" s="80"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="H87" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="I87" s="56"/>
+        <v>610</v>
+      </c>
+      <c r="H87" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="I87" s="59"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5836,27 +5899,27 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="24" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E88" s="68"/>
+        <v>254</v>
+      </c>
+      <c r="E88" s="80"/>
       <c r="F88" s="24" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="H88" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="I88" s="56"/>
+        <v>256</v>
+      </c>
+      <c r="H88" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="I88" s="59"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5876,25 +5939,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="24" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="E89" s="68"/>
+        <v>609</v>
+      </c>
+      <c r="E89" s="80"/>
       <c r="F89" s="24" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G89" s="27"/>
-      <c r="H89" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="I89" s="56"/>
+      <c r="H89" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="I89" s="59"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -5914,23 +5977,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="51"/>
       <c r="C90" s="48" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D90" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="E90" s="68"/>
+        <v>628</v>
+      </c>
+      <c r="E90" s="80"/>
       <c r="F90" s="24" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G90" s="27"/>
-      <c r="H90" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="I90" s="56"/>
+      <c r="H90" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="I90" s="59"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -5950,21 +6013,21 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" s="56"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="G91" s="56"/>
-      <c r="H91" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="I91" s="56"/>
+      <c r="C91" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="59"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="G91" s="59"/>
+      <c r="H91" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="I91" s="59"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -5984,23 +6047,23 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="I92" s="56"/>
+      <c r="C92" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="59"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="G92" s="59"/>
+      <c r="H92" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="I92" s="59"/>
       <c r="J92" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6020,21 +6083,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="27"/>
-      <c r="C93" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="55" t="s">
-        <v>276</v>
-      </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="55" t="s">
-        <v>632</v>
-      </c>
-      <c r="I93" s="56"/>
+      <c r="C93" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="59"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" s="59"/>
+      <c r="H93" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="I93" s="59"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6054,17 +6117,17 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="55" t="s">
-        <v>277</v>
-      </c>
-      <c r="D94" s="56"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="G94" s="56"/>
+      <c r="C94" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="59"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="G94" s="59"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="2"/>
@@ -6086,17 +6149,17 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="D95" s="56"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="G95" s="56"/>
+      <c r="C95" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="59"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="G95" s="59"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
       <c r="J95" s="2"/>
@@ -6118,17 +6181,17 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="G96" s="56"/>
+      <c r="C96" s="58" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="59"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="G96" s="59"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
       <c r="J96" s="2"/>
@@ -6150,17 +6213,17 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="24"/>
-      <c r="C97" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="G97" s="56"/>
+      <c r="C97" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="59"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="G97" s="59"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
       <c r="J97" s="2"/>
@@ -6182,17 +6245,17 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="70" t="s">
-        <v>641</v>
-      </c>
-      <c r="C98" s="56"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="C98" s="59"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="G98" s="56"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="G98" s="59"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
       <c r="J98" s="2"/>
@@ -6214,18 +6277,18 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="72" t="s">
-        <v>629</v>
-      </c>
-      <c r="C99" s="86"/>
+      <c r="A99" s="57"/>
+      <c r="B99" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="C99" s="67"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="69"/>
+      <c r="E99" s="81"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="H99" s="56"/>
+      <c r="G99" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="H99" s="59"/>
       <c r="I99" s="27"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
@@ -6274,16 +6337,16 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64" t="s">
-        <v>287</v>
+      <c r="A101" s="55" t="s">
+        <v>282</v>
       </c>
       <c r="C101" s="49" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="E101" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="E101" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="46" t="s">
@@ -6291,10 +6354,10 @@
       </c>
       <c r="G101" s="29"/>
       <c r="H101" s="24" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I101" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
@@ -6315,28 +6378,28 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
+      <c r="A102" s="56"/>
       <c r="B102" s="30" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="E102" s="58"/>
+        <v>564</v>
+      </c>
+      <c r="E102" s="84"/>
       <c r="F102" s="46" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
@@ -6357,28 +6420,28 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="E103" s="58"/>
+        <v>290</v>
+      </c>
+      <c r="E103" s="84"/>
       <c r="F103" s="46" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I103" s="24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
@@ -6399,26 +6462,26 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
+      <c r="A104" s="56"/>
       <c r="B104" s="30" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E104" s="58"/>
+        <v>109</v>
+      </c>
+      <c r="E104" s="84"/>
       <c r="F104" s="46" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H104" s="29"/>
       <c r="I104" s="49" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
@@ -6439,28 +6502,28 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
+      <c r="A105" s="56"/>
       <c r="B105" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" s="84"/>
+      <c r="F105" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="I105" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E105" s="58"/>
-      <c r="F105" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="I105" s="30" t="s">
-        <v>307</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6481,28 +6544,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
+      <c r="A106" s="56"/>
       <c r="B106" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="84"/>
+      <c r="F106" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="H106" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="I106" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="E106" s="58"/>
-      <c r="F106" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>314</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6523,26 +6586,26 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="30" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="E107" s="58"/>
+        <v>566</v>
+      </c>
+      <c r="E107" s="84"/>
       <c r="F107" s="24" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H107" s="27"/>
       <c r="I107" s="30" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6563,22 +6626,22 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
+      <c r="A108" s="56"/>
       <c r="B108" s="30" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="E108" s="58"/>
+        <v>567</v>
+      </c>
+      <c r="E108" s="84"/>
       <c r="F108" s="24" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H108" s="27"/>
       <c r="J108" s="2"/>
@@ -6600,20 +6663,20 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="30" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="E109" s="58"/>
+        <v>568</v>
+      </c>
+      <c r="E109" s="84"/>
       <c r="F109" s="27"/>
       <c r="G109" s="24" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H109" s="27"/>
       <c r="I109" s="28"/>
@@ -6636,19 +6699,19 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
+      <c r="A110" s="56"/>
       <c r="B110" s="30" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="E110" s="58"/>
+        <v>322</v>
+      </c>
+      <c r="E110" s="84"/>
       <c r="F110" s="24" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H110" s="27"/>
       <c r="I110" s="28"/>
@@ -6671,17 +6734,17 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
+      <c r="A111" s="56"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D111" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="E111" s="58"/>
+        <v>324</v>
+      </c>
+      <c r="E111" s="84"/>
       <c r="F111" s="25" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
@@ -6705,19 +6768,19 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
+      <c r="A112" s="56"/>
       <c r="B112" s="30" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="E112" s="58"/>
+        <v>325</v>
+      </c>
+      <c r="E112" s="84"/>
       <c r="F112" s="25" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G112" s="27"/>
       <c r="H112" s="24"/>
@@ -6741,19 +6804,19 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
+      <c r="A113" s="56"/>
       <c r="B113" s="30" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>621</v>
-      </c>
-      <c r="E113" s="58"/>
+        <v>616</v>
+      </c>
+      <c r="E113" s="84"/>
       <c r="F113" s="25" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="27"/>
@@ -6777,21 +6840,21 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
+      <c r="A114" s="56"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
       <c r="D114" s="30" t="s">
-        <v>624</v>
-      </c>
-      <c r="E114" s="58"/>
-      <c r="F114" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="G114" s="60"/>
-      <c r="H114" s="55" t="s">
-        <v>332</v>
-      </c>
-      <c r="I114" s="56"/>
+        <v>619</v>
+      </c>
+      <c r="E114" s="84"/>
+      <c r="F114" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114" s="61"/>
+      <c r="H114" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="I114" s="59"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -6811,21 +6874,21 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
+      <c r="A115" s="56"/>
       <c r="B115" s="27"/>
-      <c r="C115" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="D115" s="60"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="G115" s="60"/>
-      <c r="H115" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="I115" s="56"/>
+      <c r="C115" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="D115" s="61"/>
+      <c r="E115" s="84"/>
+      <c r="F115" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G115" s="61"/>
+      <c r="H115" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="I115" s="59"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -6845,21 +6908,21 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
+      <c r="A116" s="56"/>
       <c r="B116" s="27"/>
-      <c r="C116" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="D116" s="60"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="G116" s="60"/>
-      <c r="H116" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="I116" s="56"/>
+      <c r="C116" s="58" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" s="61"/>
+      <c r="E116" s="84"/>
+      <c r="F116" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="G116" s="61"/>
+      <c r="H116" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="I116" s="59"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -6879,21 +6942,21 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="65"/>
-      <c r="B117" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="C117" s="60"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="61"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="G117" s="60"/>
-      <c r="H117" s="70" t="s">
-        <v>644</v>
-      </c>
-      <c r="I117" s="56"/>
+      <c r="E117" s="84"/>
+      <c r="F117" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="G117" s="61"/>
+      <c r="H117" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="I117" s="59"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -6913,21 +6976,21 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="C118" s="60"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="61"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="55" t="s">
-        <v>342</v>
-      </c>
-      <c r="G118" s="60"/>
-      <c r="H118" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="I118" s="56"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="G118" s="61"/>
+      <c r="H118" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="I118" s="59"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -6947,21 +7010,21 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="C119" s="60"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="C119" s="61"/>
       <c r="D119" s="27"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="G119" s="60"/>
-      <c r="H119" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="I119" s="56"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="G119" s="61"/>
+      <c r="H119" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="I119" s="59"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -6981,21 +7044,21 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
-      <c r="B120" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" s="60"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="58" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="61"/>
       <c r="D120" s="28"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="55" t="s">
-        <v>348</v>
-      </c>
-      <c r="G120" s="60"/>
-      <c r="H120" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="I120" s="56"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="58" t="s">
+        <v>343</v>
+      </c>
+      <c r="G120" s="61"/>
+      <c r="H120" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="I120" s="59"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7015,19 +7078,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="65"/>
+      <c r="A121" s="56"/>
       <c r="B121" s="27"/>
       <c r="C121" s="24"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="G121" s="60"/>
-      <c r="H121" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="I121" s="60"/>
+      <c r="E121" s="84"/>
+      <c r="F121" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="G121" s="61"/>
+      <c r="H121" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="I121" s="61"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7047,13 +7110,13 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="65"/>
+      <c r="A122" s="56"/>
       <c r="B122" s="24"/>
       <c r="C122" s="27"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="59"/>
+      <c r="E122" s="85"/>
       <c r="F122" s="31" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G122" s="27"/>
       <c r="H122" s="32"/>
@@ -7077,18 +7140,18 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="65"/>
+      <c r="A123" s="56"/>
       <c r="B123" s="20"/>
       <c r="C123" s="22"/>
-      <c r="D123" s="83" t="s">
-        <v>353</v>
-      </c>
-      <c r="E123" s="85"/>
+      <c r="D123" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="E123" s="63"/>
       <c r="F123" s="23"/>
-      <c r="G123" s="55" t="s">
-        <v>354</v>
-      </c>
-      <c r="H123" s="60"/>
+      <c r="G123" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="H123" s="61"/>
       <c r="I123" s="8"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
@@ -7109,13 +7172,13 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
+      <c r="A124" s="56"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="83" t="s">
-        <v>355</v>
-      </c>
-      <c r="E124" s="85"/>
+      <c r="D124" s="62" t="s">
+        <v>350</v>
+      </c>
+      <c r="E124" s="63"/>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
@@ -7139,13 +7202,13 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
+      <c r="A125" s="57"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="E125" s="60"/>
+      <c r="D125" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E125" s="61"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7197,21 +7260,21 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="64" t="s">
-        <v>357</v>
+      <c r="A127" s="55" t="s">
+        <v>352</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="F127" s="78"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="60"/>
+        <v>355</v>
+      </c>
+      <c r="F127" s="64"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="61"/>
       <c r="I127" s="8"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
@@ -7232,18 +7295,18 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="65"/>
+      <c r="A128" s="56"/>
       <c r="B128" s="26" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D128" s="24" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
@@ -7268,18 +7331,18 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
+      <c r="A129" s="56"/>
       <c r="B129" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
@@ -7304,18 +7367,18 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
+      <c r="A130" s="56"/>
       <c r="B130" s="24" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D130" s="24" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -7340,16 +7403,16 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
+      <c r="A131" s="56"/>
       <c r="B131" s="24" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C131" s="29"/>
       <c r="D131" s="24" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
@@ -7374,13 +7437,13 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
+      <c r="A132" s="56"/>
       <c r="B132" s="29"/>
       <c r="C132" s="24" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E132" s="27"/>
       <c r="F132" s="34"/>
@@ -7406,11 +7469,11 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
+      <c r="A133" s="56"/>
       <c r="B133" s="29"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E133" s="27"/>
       <c r="F133" s="34"/>
@@ -7436,15 +7499,15 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="65"/>
+      <c r="A134" s="56"/>
       <c r="B134" s="25" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D134" s="24" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="34"/>
@@ -7470,13 +7533,13 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="65"/>
+      <c r="A135" s="56"/>
       <c r="B135" s="54"/>
       <c r="C135" s="24" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E135" s="25"/>
       <c r="F135" s="34"/>
@@ -7502,13 +7565,13 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
+      <c r="A136" s="56"/>
       <c r="B136" s="27"/>
       <c r="C136" s="25" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E136" s="25"/>
       <c r="F136" s="34"/>
@@ -7534,15 +7597,15 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="65"/>
-      <c r="B137" s="55" t="s">
-        <v>631</v>
-      </c>
-      <c r="C137" s="56"/>
-      <c r="D137" s="55" t="s">
-        <v>380</v>
-      </c>
-      <c r="E137" s="56"/>
+      <c r="A137" s="56"/>
+      <c r="B137" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="C137" s="59"/>
+      <c r="D137" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="E137" s="59"/>
       <c r="F137" s="34"/>
       <c r="G137" s="35"/>
       <c r="H137" s="33"/>
@@ -7566,15 +7629,15 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="65"/>
-      <c r="B138" s="55" t="s">
-        <v>381</v>
-      </c>
-      <c r="C138" s="56"/>
-      <c r="D138" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="E138" s="56"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="C138" s="59"/>
+      <c r="D138" s="58" t="s">
+        <v>377</v>
+      </c>
+      <c r="E138" s="59"/>
       <c r="F138" s="34"/>
       <c r="G138" s="35"/>
       <c r="H138" s="33"/>
@@ -7598,15 +7661,15 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="65"/>
-      <c r="B139" s="55" t="s">
-        <v>383</v>
-      </c>
-      <c r="C139" s="56"/>
-      <c r="D139" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="E139" s="56"/>
+      <c r="A139" s="56"/>
+      <c r="B139" s="58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C139" s="59"/>
+      <c r="D139" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="E139" s="59"/>
       <c r="F139" s="34"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
@@ -7630,15 +7693,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="65"/>
-      <c r="B140" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="C140" s="56"/>
-      <c r="D140" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="E140" s="56"/>
+      <c r="A140" s="56"/>
+      <c r="B140" s="58" t="s">
+        <v>380</v>
+      </c>
+      <c r="C140" s="59"/>
+      <c r="D140" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="E140" s="59"/>
       <c r="F140" s="34"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
@@ -7662,15 +7725,15 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="65"/>
-      <c r="B141" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="C141" s="56"/>
-      <c r="D141" s="83" t="s">
-        <v>387</v>
-      </c>
-      <c r="E141" s="56"/>
+      <c r="A141" s="56"/>
+      <c r="B141" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="C141" s="59"/>
+      <c r="D141" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="E141" s="59"/>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
@@ -7694,15 +7757,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="65"/>
-      <c r="B142" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="E142" s="56"/>
+      <c r="A142" s="56"/>
+      <c r="B142" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C142" s="59"/>
+      <c r="D142" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="E142" s="59"/>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
@@ -7726,13 +7789,13 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="65"/>
-      <c r="B143" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="C143" s="56"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="56"/>
+      <c r="A143" s="56"/>
+      <c r="B143" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="C143" s="59"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="59"/>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
@@ -7756,11 +7819,11 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="65"/>
-      <c r="B144" s="83" t="s">
-        <v>390</v>
-      </c>
-      <c r="C144" s="85"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" s="63"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="8"/>
@@ -7786,7 +7849,7 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="65"/>
+      <c r="A145" s="56"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -7813,7 +7876,7 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="66"/>
+      <c r="A146" s="57"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="10"/>
@@ -7868,17 +7931,17 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="77" t="s">
-        <v>391</v>
-      </c>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="62"/>
-      <c r="G148" s="62"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="63"/>
+      <c r="A148" s="74" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" s="75"/>
+      <c r="C148" s="75"/>
+      <c r="D148" s="75"/>
+      <c r="E148" s="75"/>
+      <c r="F148" s="75"/>
+      <c r="G148" s="75"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="76"/>
       <c r="J148" s="2"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -7926,17 +7989,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="B150" s="79"/>
-      <c r="C150" s="79"/>
-      <c r="D150" s="79"/>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
-      <c r="H150" s="79"/>
-      <c r="I150" s="60"/>
+      <c r="A150" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150" s="65"/>
+      <c r="C150" s="65"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="61"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -7957,16 +8020,16 @@
     </row>
     <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
-      <c r="B151" s="78" t="s">
-        <v>393</v>
-      </c>
-      <c r="C151" s="79"/>
-      <c r="D151" s="79"/>
-      <c r="E151" s="79"/>
-      <c r="F151" s="79"/>
-      <c r="G151" s="79"/>
-      <c r="H151" s="79"/>
-      <c r="I151" s="60"/>
+      <c r="B151" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C151" s="65"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="61"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -7987,16 +8050,16 @@
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
-      <c r="B152" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="C152" s="79"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="79"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="79"/>
-      <c r="H152" s="79"/>
-      <c r="I152" s="60"/>
+      <c r="B152" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="C152" s="65"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="61"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8017,16 +8080,16 @@
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
-      <c r="B153" s="78" t="s">
-        <v>395</v>
-      </c>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="79"/>
-      <c r="F153" s="79"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="60"/>
+      <c r="B153" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="C153" s="65"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="65"/>
+      <c r="I153" s="61"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8047,16 +8110,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
-      <c r="B154" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="C154" s="79"/>
-      <c r="D154" s="79"/>
-      <c r="E154" s="79"/>
-      <c r="F154" s="79"/>
-      <c r="G154" s="79"/>
-      <c r="H154" s="79"/>
-      <c r="I154" s="60"/>
+      <c r="B154" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" s="65"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="65"/>
+      <c r="H154" s="65"/>
+      <c r="I154" s="61"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8077,16 +8140,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
-      <c r="B155" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="C155" s="79"/>
-      <c r="D155" s="79"/>
-      <c r="E155" s="79"/>
-      <c r="F155" s="79"/>
-      <c r="G155" s="79"/>
-      <c r="H155" s="79"/>
-      <c r="I155" s="60"/>
+      <c r="B155" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65"/>
+      <c r="H155" s="65"/>
+      <c r="I155" s="61"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8107,16 +8170,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
-      <c r="B156" s="84" t="s">
-        <v>398</v>
-      </c>
-      <c r="C156" s="79"/>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="79"/>
-      <c r="H156" s="79"/>
-      <c r="I156" s="60"/>
+      <c r="B156" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" s="65"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="65"/>
+      <c r="I156" s="61"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8136,17 +8199,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="B157" s="79"/>
-      <c r="C157" s="79"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="79"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="79"/>
-      <c r="H157" s="79"/>
-      <c r="I157" s="60"/>
+      <c r="A157" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="B157" s="65"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="65"/>
+      <c r="F157" s="65"/>
+      <c r="G157" s="65"/>
+      <c r="H157" s="65"/>
+      <c r="I157" s="61"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8166,21 +8229,21 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="82"/>
+      <c r="A158" s="68"/>
       <c r="B158" s="36" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="D158" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="60"/>
+        <v>396</v>
+      </c>
+      <c r="D158" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="E158" s="65"/>
+      <c r="F158" s="65"/>
+      <c r="G158" s="65"/>
+      <c r="H158" s="65"/>
+      <c r="I158" s="61"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8200,19 +8263,19 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="75"/>
+      <c r="A159" s="69"/>
       <c r="B159" s="36"/>
       <c r="C159" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="D159" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="E159" s="79"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="79"/>
-      <c r="H159" s="79"/>
-      <c r="I159" s="60"/>
+        <v>398</v>
+      </c>
+      <c r="D159" s="72" t="s">
+        <v>399</v>
+      </c>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
+      <c r="H159" s="65"/>
+      <c r="I159" s="61"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8232,19 +8295,19 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="76"/>
+      <c r="A160" s="70"/>
       <c r="B160" s="36"/>
       <c r="C160" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="D160" s="81" t="s">
-        <v>406</v>
-      </c>
-      <c r="E160" s="79"/>
-      <c r="F160" s="79"/>
-      <c r="G160" s="79"/>
-      <c r="H160" s="79"/>
-      <c r="I160" s="60"/>
+        <v>400</v>
+      </c>
+      <c r="D160" s="72" t="s">
+        <v>401</v>
+      </c>
+      <c r="E160" s="65"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="65"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="61"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8292,30 +8355,30 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="82"/>
+      <c r="A162" s="68"/>
       <c r="B162" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C162" s="40" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D162" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E162" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F162" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G162" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H162" s="39" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I162" s="39" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
@@ -8336,30 +8399,30 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="75"/>
+      <c r="A163" s="69"/>
       <c r="B163" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="E163" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="F163" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="G163" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="C163" s="35" t="s">
+      <c r="H163" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="D163" s="35" t="s">
+      <c r="I163" s="42" t="s">
         <v>412</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="F163" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="G163" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="H163" s="41" t="s">
-        <v>416</v>
-      </c>
-      <c r="I163" s="42" t="s">
-        <v>417</v>
       </c>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
@@ -8380,30 +8443,30 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="75"/>
+      <c r="A164" s="69"/>
       <c r="B164" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E164" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="F164" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="G164" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="C164" s="35" t="s">
+      <c r="H164" s="50" t="s">
         <v>419</v>
       </c>
-      <c r="D164" s="35" t="s">
+      <c r="I164" s="42" t="s">
         <v>420</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="F164" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="G164" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="H164" s="50" t="s">
-        <v>424</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>425</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
@@ -8424,30 +8487,30 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="75"/>
+      <c r="A165" s="69"/>
       <c r="B165" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C165" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="E165" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="F165" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="G165" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="C165" s="35" t="s">
+      <c r="H165" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="D165" s="35" t="s">
+      <c r="I165" s="42" t="s">
         <v>428</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="F165" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="G165" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="H165" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>433</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8468,21 +8531,21 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="75"/>
+      <c r="A166" s="69"/>
       <c r="B166" s="35" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G166" s="35"/>
       <c r="H166" s="41"/>
@@ -8506,28 +8569,28 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="75"/>
+      <c r="A167" s="69"/>
       <c r="B167" s="35" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F167" s="35" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G167" s="35"/>
       <c r="H167" s="41" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I167" s="43" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8548,28 +8611,28 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="75"/>
+      <c r="A168" s="69"/>
       <c r="B168" s="35" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E168" s="35" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F168" s="35" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G168" s="35"/>
       <c r="H168" s="41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="I168" s="43" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
@@ -8590,30 +8653,30 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="75"/>
+      <c r="A169" s="69"/>
       <c r="B169" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="C169" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="F169" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="G169" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="C169" s="35" t="s">
+      <c r="H169" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="D169" s="35" t="s">
+      <c r="I169" s="43" t="s">
         <v>455</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="F169" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="G169" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="H169" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="I169" s="43" t="s">
-        <v>460</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
@@ -8634,30 +8697,30 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="75"/>
+      <c r="A170" s="69"/>
       <c r="B170" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C170" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="E170" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="F170" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="G170" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="C170" s="35" t="s">
+      <c r="H170" s="41" t="s">
         <v>462</v>
       </c>
-      <c r="D170" s="35" t="s">
+      <c r="I170" s="43" t="s">
         <v>463</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="F170" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="G170" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="H170" s="41" t="s">
-        <v>467</v>
-      </c>
-      <c r="I170" s="43" t="s">
-        <v>468</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8678,28 +8741,28 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="75"/>
+      <c r="A171" s="69"/>
       <c r="B171" s="35" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F171" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G171" s="35"/>
       <c r="H171" s="41" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8720,30 +8783,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="75"/>
+      <c r="A172" s="69"/>
       <c r="B172" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="E172" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="F172" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="G172" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="C172" s="35" t="s">
+      <c r="H172" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="I172" s="43" t="s">
         <v>478</v>
-      </c>
-      <c r="E172" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="F172" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="G172" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="H172" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="I172" s="43" t="s">
-        <v>483</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8764,30 +8827,30 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="75"/>
+      <c r="A173" s="69"/>
       <c r="B173" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="E173" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="F173" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="G173" s="35" t="s">
         <v>484</v>
       </c>
-      <c r="C173" s="35" t="s">
+      <c r="H173" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="D173" s="35" t="s">
+      <c r="I173" s="44" t="s">
         <v>486</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="F173" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="G173" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="H173" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="I173" s="44" t="s">
-        <v>491</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8808,30 +8871,30 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="75"/>
+      <c r="A174" s="69"/>
       <c r="B174" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>489</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="F174" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="G174" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="C174" s="35" t="s">
+      <c r="H174" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="I174" s="42" t="s">
         <v>494</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="F174" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="G174" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="H174" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="I174" s="42" t="s">
-        <v>499</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -8852,28 +8915,28 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="75"/>
+      <c r="A175" s="69"/>
       <c r="B175" s="35" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F175" s="35" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G175" s="35"/>
       <c r="H175" s="41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="I175" s="42" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -8894,24 +8957,24 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="75"/>
+      <c r="A176" s="69"/>
       <c r="B176" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>503</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="F176" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="G176" s="35" t="s">
         <v>507</v>
-      </c>
-      <c r="C176" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="E176" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="F176" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="G176" s="35" t="s">
-        <v>512</v>
       </c>
       <c r="H176" s="45"/>
       <c r="I176" s="45"/>
@@ -8934,21 +8997,21 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="75"/>
+      <c r="A177" s="69"/>
       <c r="B177" s="35" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E177" s="35" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="G177" s="35"/>
       <c r="H177" s="45"/>
@@ -8972,24 +9035,24 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="75"/>
+      <c r="A178" s="69"/>
       <c r="B178" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="E178" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="F178" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="G178" s="35" t="s">
         <v>518</v>
-      </c>
-      <c r="C178" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="D178" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="F178" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="G178" s="35" t="s">
-        <v>523</v>
       </c>
       <c r="H178" s="45"/>
       <c r="I178" s="45"/>
@@ -9012,24 +9075,24 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="75"/>
+      <c r="A179" s="69"/>
       <c r="B179" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="E179" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="F179" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="G179" s="35" t="s">
         <v>524</v>
-      </c>
-      <c r="C179" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="D179" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="E179" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="F179" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="G179" s="35" t="s">
-        <v>529</v>
       </c>
       <c r="H179" s="45"/>
       <c r="I179" s="45"/>
@@ -9052,24 +9115,24 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="76"/>
+      <c r="A180" s="70"/>
       <c r="B180" s="35" t="s">
+        <v>525</v>
+      </c>
+      <c r="C180" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="D180" s="35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E180" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="F180" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="G180" s="35" t="s">
         <v>530</v>
-      </c>
-      <c r="C180" s="35" t="s">
-        <v>531</v>
-      </c>
-      <c r="D180" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="E180" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="F180" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="G180" s="35" t="s">
-        <v>535</v>
       </c>
       <c r="H180" s="45"/>
       <c r="I180" s="45"/>
@@ -9094,20 +9157,20 @@
     <row r="181" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E181" s="9" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F181" s="9"/>
       <c r="G181" s="9" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H181" s="18"/>
       <c r="I181" s="18"/>
@@ -9132,16 +9195,16 @@
     <row r="182" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="19" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E182" s="9" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
@@ -9168,14 +9231,14 @@
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="9" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
@@ -9205,7 +9268,7 @@
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -32107,6 +32170,150 @@
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E101:E122"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A27:A51"/>
+    <mergeCell ref="E27:E51"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="E53:E77"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E79:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="A148:I148"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A162:A180"/>
+    <mergeCell ref="B152:I152"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="A79:A99"/>
     <mergeCell ref="A101:A125"/>
     <mergeCell ref="A127:A146"/>
     <mergeCell ref="F91:G91"/>
@@ -32131,150 +32338,6 @@
     <mergeCell ref="H93:I93"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B99:C99"/>
-    <mergeCell ref="A162:A180"/>
-    <mergeCell ref="B152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="B156:I156"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A99"/>
-    <mergeCell ref="A148:I148"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E101:E122"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\2 Year\TT_6JAN\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2FAEA-37D0-439A-9829-7070A4BF2125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9846DC2D-D78A-48C3-B81B-F36C06D2749A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1841,9 +1841,6 @@
   </si>
   <si>
     <t>TA3(HS111)-TS20/MDU</t>
-  </si>
-  <si>
-    <t>TA7(HS111)-TS12/MB</t>
   </si>
   <si>
     <t>TA18(CI121)-TS13/SRG</t>
@@ -2029,6 +2026,9 @@
   </si>
   <si>
     <t>PA5(CS121)-CL01/TNV, MAY</t>
+  </si>
+  <si>
+    <t>TA7(HS111)-TS11/MB</t>
   </si>
 </sst>
 </file>
@@ -2324,7 +2324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2450,62 +2450,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2515,13 +2463,68 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2740,10 +2743,10 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H70" sqref="H70:I70"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2765,16 +2768,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2838,7 +2841,7 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -2850,7 +2853,7 @@
       <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="27"/>
@@ -2882,7 +2885,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="46" t="s">
         <v>238</v>
       </c>
@@ -2892,7 +2895,7 @@
       <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
@@ -2922,7 +2925,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
@@ -2932,7 +2935,7 @@
       <c r="D5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="46" t="s">
         <v>24</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="46" t="s">
         <v>27</v>
       </c>
@@ -2972,7 +2975,7 @@
       <c r="D6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="24" t="s">
         <v>30</v>
       </c>
@@ -3002,7 +3005,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="24" t="s">
         <v>42</v>
       </c>
@@ -3044,7 +3047,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="46" t="s">
         <v>39</v>
       </c>
@@ -3054,7 +3057,7 @@
       <c r="D8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="24" t="s">
         <v>48</v>
       </c>
@@ -3084,7 +3087,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="46" t="s">
         <v>45</v>
       </c>
@@ -3092,7 +3095,7 @@
       <c r="D9" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="24" t="s">
         <v>54</v>
       </c>
@@ -3122,19 +3125,19 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="46" t="s">
         <v>593</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>49</v>
@@ -3164,7 +3167,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="51"/>
       <c r="C11" s="24" t="s">
         <v>52</v>
@@ -3172,9 +3175,9 @@
       <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>55</v>
@@ -3206,7 +3209,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="48" t="s">
         <v>594</v>
       </c>
@@ -3216,9 +3219,9 @@
       <c r="D12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>59</v>
@@ -3246,7 +3249,7 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="46" t="s">
         <v>595</v>
       </c>
@@ -3256,7 +3259,7 @@
       <c r="D13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>63</v>
@@ -3284,7 +3287,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="27"/>
       <c r="C14" s="24" t="s">
         <v>65</v>
@@ -3292,7 +3295,7 @@
       <c r="D14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
@@ -3318,7 +3321,7 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="28"/>
       <c r="C15" s="24" t="s">
         <v>584</v>
@@ -3326,7 +3329,7 @@
       <c r="D15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="80"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
@@ -3352,11 +3355,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="80"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -3380,21 +3383,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="58" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="58" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="59"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3414,21 +3417,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="58" t="s">
+      <c r="D18" s="56"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="66" t="s">
+      <c r="G18" s="56"/>
+      <c r="H18" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="59"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3448,21 +3451,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="60" t="s">
+      <c r="D19" s="56"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="60" t="s">
-        <v>644</v>
-      </c>
-      <c r="I19" s="59"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="70" t="s">
+        <v>643</v>
+      </c>
+      <c r="I19" s="56"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3482,21 +3485,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="60" t="s">
-        <v>646</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60" t="s">
-        <v>648</v>
-      </c>
-      <c r="I20" s="59"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="70" t="s">
+        <v>645</v>
+      </c>
+      <c r="G20" s="56"/>
+      <c r="H20" s="70" t="s">
+        <v>647</v>
+      </c>
+      <c r="I20" s="56"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3516,21 +3519,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="58" t="s">
+      <c r="D21" s="56"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="58" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="59"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3550,21 +3553,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="58" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="58" t="s">
+      <c r="G22" s="56"/>
+      <c r="H22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="59"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3584,21 +3587,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="58" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58" t="s">
+      <c r="G23" s="56"/>
+      <c r="H23" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="59"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3618,21 +3621,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="58" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58" t="s">
+      <c r="G24" s="56"/>
+      <c r="H24" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="59"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3652,13 +3655,13 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="81"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="69"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -3710,7 +3713,7 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="64" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -3722,7 +3725,7 @@
       <c r="D27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -3756,7 +3759,7 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="48" t="s">
         <v>100</v>
       </c>
@@ -3766,7 +3769,7 @@
       <c r="D28" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="80"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="24" t="s">
         <v>103</v>
       </c>
@@ -3798,7 +3801,7 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="48" t="s">
         <v>105</v>
       </c>
@@ -3808,7 +3811,7 @@
       <c r="D29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="51"/>
       <c r="G29" s="24" t="s">
         <v>108</v>
@@ -3836,7 +3839,7 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="48" t="s">
         <v>110</v>
       </c>
@@ -3846,9 +3849,9 @@
       <c r="D30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="80"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="24" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>113</v>
@@ -3876,7 +3879,7 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="65"/>
       <c r="B31" s="48" t="s">
         <v>114</v>
       </c>
@@ -3886,7 +3889,7 @@
       <c r="D31" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="24" t="s">
         <v>116</v>
       </c>
@@ -3912,13 +3915,15 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="52"/>
-      <c r="C32" s="27"/>
+      <c r="C32" s="89" t="s">
+        <v>651</v>
+      </c>
       <c r="D32" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="24" t="s">
         <v>119</v>
       </c>
@@ -3948,7 +3953,7 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="46" t="s">
         <v>596</v>
       </c>
@@ -3956,7 +3961,7 @@
       <c r="D33" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="24" t="s">
         <v>548</v>
       </c>
@@ -3984,7 +3989,7 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="46" t="s">
         <v>597</v>
       </c>
@@ -3992,7 +3997,7 @@
       <c r="D34" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="E34" s="80"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="24" t="s">
         <v>549</v>
       </c>
@@ -4020,7 +4025,7 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="46" t="s">
         <v>598</v>
       </c>
@@ -4028,7 +4033,7 @@
       <c r="D35" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="E35" s="80"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="24" t="s">
         <v>583</v>
       </c>
@@ -4054,7 +4059,7 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="46"/>
       <c r="C36" s="24" t="s">
         <v>122</v>
@@ -4062,13 +4067,13 @@
       <c r="D36" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="80"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="2"/>
@@ -4090,7 +4095,7 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="27"/>
       <c r="C37" s="24" t="s">
         <v>124</v>
@@ -4098,7 +4103,7 @@
       <c r="D37" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="25" t="s">
         <v>126</v>
       </c>
@@ -4128,7 +4133,7 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
+      <c r="A38" s="65"/>
       <c r="B38" s="28"/>
       <c r="C38" s="24" t="s">
         <v>129</v>
@@ -4136,7 +4141,7 @@
       <c r="D38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="80"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="25" t="s">
         <v>131</v>
       </c>
@@ -4166,7 +4171,7 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
+      <c r="A39" s="65"/>
       <c r="B39" s="27"/>
       <c r="C39" s="24" t="s">
         <v>134</v>
@@ -4174,7 +4179,7 @@
       <c r="D39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="51"/>
       <c r="G39" s="25" t="s">
         <v>136</v>
@@ -4202,13 +4207,13 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="56"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D40" s="51"/>
-      <c r="E40" s="80"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="28"/>
       <c r="G40" s="25" t="s">
         <v>139</v>
@@ -4236,11 +4241,10 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="80"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25" t="s">
         <v>141</v>
@@ -4266,13 +4270,13 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="80"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -4296,21 +4300,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="58" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="58" t="s">
+      <c r="G43" s="56"/>
+      <c r="H43" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="59"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4330,21 +4334,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="60" t="s">
-        <v>643</v>
-      </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="58" t="s">
+      <c r="D44" s="56"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="70" t="s">
+        <v>642</v>
+      </c>
+      <c r="G44" s="56"/>
+      <c r="H44" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="59"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4364,21 +4368,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="27"/>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="70" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="60" t="s">
-        <v>638</v>
-      </c>
-      <c r="I45" s="59"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="70" t="s">
+        <v>640</v>
+      </c>
+      <c r="G45" s="56"/>
+      <c r="H45" s="70" t="s">
+        <v>637</v>
+      </c>
+      <c r="I45" s="56"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4398,21 +4402,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="58" t="s">
+      <c r="D46" s="56"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="59"/>
-      <c r="H46" s="87" t="s">
-        <v>650</v>
-      </c>
-      <c r="I46" s="88"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="71" t="s">
+        <v>649</v>
+      </c>
+      <c r="I46" s="72"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4432,21 +4436,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="58" t="s">
+      <c r="D47" s="56"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="59"/>
-      <c r="H47" s="58" t="s">
+      <c r="G47" s="56"/>
+      <c r="H47" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="59"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4466,21 +4470,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="58" t="s">
+      <c r="D48" s="56"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="59"/>
-      <c r="H48" s="58" t="s">
+      <c r="G48" s="56"/>
+      <c r="H48" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="59"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4500,21 +4504,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="58" t="s">
+      <c r="D49" s="56"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="59"/>
-      <c r="H49" s="79" t="s">
+      <c r="G49" s="56"/>
+      <c r="H49" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="I49" s="59"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4534,17 +4538,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="24"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="80"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="59"/>
+      <c r="I50" s="56"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4564,17 +4568,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="81"/>
+      <c r="E51" s="69"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="59"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4622,7 +4626,7 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="64" t="s">
         <v>162</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -4630,7 +4634,7 @@
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="78" t="s">
+      <c r="E53" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="24" t="s">
@@ -4662,7 +4666,7 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="24" t="s">
         <v>572</v>
       </c>
@@ -4672,7 +4676,7 @@
       <c r="D54" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="69"/>
+      <c r="E54" s="77"/>
       <c r="F54" s="24" t="s">
         <v>165</v>
       </c>
@@ -4704,7 +4708,7 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="24" t="s">
         <v>573</v>
       </c>
@@ -4714,7 +4718,7 @@
       <c r="D55" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="69"/>
+      <c r="E55" s="77"/>
       <c r="F55" s="24" t="s">
         <v>170</v>
       </c>
@@ -4743,7 +4747,7 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="24" t="s">
         <v>574</v>
       </c>
@@ -4753,7 +4757,7 @@
       <c r="D56" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="69"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="24" t="s">
         <v>173</v>
       </c>
@@ -4785,13 +4789,13 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27"/>
       <c r="D57" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="69"/>
+      <c r="E57" s="77"/>
       <c r="F57" s="24" t="s">
         <v>121</v>
       </c>
@@ -4823,10 +4827,10 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="24"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="69"/>
+      <c r="E58" s="77"/>
       <c r="F58" s="24" t="s">
         <v>588</v>
       </c>
@@ -4854,7 +4858,7 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="24" t="s">
         <v>180</v>
       </c>
@@ -4864,7 +4868,7 @@
       <c r="D59" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E59" s="69"/>
+      <c r="E59" s="77"/>
       <c r="F59" s="24" t="s">
         <v>552</v>
       </c>
@@ -4892,7 +4896,7 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="24" t="s">
         <v>183</v>
       </c>
@@ -4902,7 +4906,7 @@
       <c r="D60" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="69"/>
+      <c r="E60" s="77"/>
       <c r="F60" s="24" t="s">
         <v>553</v>
       </c>
@@ -4932,7 +4936,7 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="24" t="s">
         <v>185</v>
       </c>
@@ -4942,7 +4946,7 @@
       <c r="D61" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="69"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="24" t="s">
         <v>551</v>
       </c>
@@ -4970,7 +4974,7 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
+      <c r="A62" s="65"/>
       <c r="B62" s="24" t="s">
         <v>189</v>
       </c>
@@ -4980,7 +4984,7 @@
       <c r="D62" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="69"/>
+      <c r="E62" s="77"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
@@ -5006,7 +5010,7 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
+      <c r="A63" s="65"/>
       <c r="B63" s="24" t="s">
         <v>193</v>
       </c>
@@ -5016,7 +5020,7 @@
       <c r="D63" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="69"/>
+      <c r="E63" s="77"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24" t="s">
         <v>198</v>
@@ -5046,7 +5050,7 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="A64" s="65"/>
       <c r="B64" s="49" t="s">
         <v>600</v>
       </c>
@@ -5054,9 +5058,9 @@
         <v>602</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="E64" s="69"/>
+        <v>605</v>
+      </c>
+      <c r="E64" s="77"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
         <v>202</v>
@@ -5084,7 +5088,7 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+      <c r="A65" s="65"/>
       <c r="B65" s="24" t="s">
         <v>601</v>
       </c>
@@ -5092,9 +5096,9 @@
         <v>603</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="E65" s="69"/>
+        <v>604</v>
+      </c>
+      <c r="E65" s="77"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
         <v>204</v>
@@ -5120,13 +5124,10 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+      <c r="A66" s="65"/>
       <c r="B66" s="27"/>
       <c r="C66" s="24"/>
-      <c r="D66" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="E66" s="69"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="24" t="s">
         <v>205</v>
       </c>
@@ -5154,10 +5155,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+      <c r="A67" s="65"/>
       <c r="B67" s="24"/>
       <c r="C67" s="28"/>
-      <c r="E67" s="69"/>
+      <c r="E67" s="77"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
@@ -5181,19 +5182,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="56"/>
+      <c r="A68" s="65"/>
       <c r="B68" s="24"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="79" t="s">
-        <v>625</v>
-      </c>
-      <c r="G68" s="61"/>
-      <c r="H68" s="58" t="s">
+      <c r="E68" s="77"/>
+      <c r="F68" s="73" t="s">
+        <v>624</v>
+      </c>
+      <c r="G68" s="60"/>
+      <c r="H68" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="I68" s="61"/>
+      <c r="I68" s="60"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5213,21 +5214,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="56"/>
+      <c r="A69" s="65"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="58" t="s">
+      <c r="D69" s="60"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="G69" s="61"/>
-      <c r="H69" s="58" t="s">
+      <c r="G69" s="60"/>
+      <c r="H69" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="I69" s="61"/>
+      <c r="I69" s="60"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5247,21 +5248,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
+      <c r="A70" s="65"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="58" t="s">
+      <c r="D70" s="60"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="H70" s="87" t="s">
-        <v>651</v>
-      </c>
-      <c r="I70" s="88"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="71" t="s">
+        <v>650</v>
+      </c>
+      <c r="I70" s="72"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5281,21 +5282,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="A71" s="65"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="87" t="s">
-        <v>649</v>
-      </c>
-      <c r="G71" s="88"/>
-      <c r="H71" s="60" t="s">
+      <c r="D71" s="60"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="G71" s="72"/>
+      <c r="H71" s="70" t="s">
         <v>580</v>
       </c>
-      <c r="I71" s="61"/>
+      <c r="I71" s="60"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5315,19 +5316,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="A72" s="65"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="58" t="s">
+      <c r="D72" s="60"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="I72" s="61"/>
+      <c r="I72" s="60"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5347,21 +5348,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
+      <c r="A73" s="65"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="58" t="s">
+      <c r="D73" s="60"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="G73" s="61"/>
-      <c r="H73" s="58" t="s">
+      <c r="G73" s="60"/>
+      <c r="H73" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="I73" s="61"/>
+      <c r="I73" s="60"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5381,21 +5382,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
+      <c r="A74" s="65"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="73" t="s">
+      <c r="D74" s="60"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="G74" s="61"/>
-      <c r="H74" s="58" t="s">
+      <c r="G74" s="60"/>
+      <c r="H74" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="I74" s="61"/>
+      <c r="I74" s="60"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5415,17 +5416,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="65"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="58" t="s">
+      <c r="D75" s="60"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="G75" s="61"/>
+      <c r="G75" s="60"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="2"/>
@@ -5447,17 +5448,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="58" t="s">
+      <c r="C76" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="58" t="s">
+      <c r="D76" s="60"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="61"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="2"/>
@@ -5479,13 +5480,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="70"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="78"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -5537,7 +5538,7 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="64" t="s">
         <v>227</v>
       </c>
       <c r="B79" s="24" t="s">
@@ -5549,7 +5550,7 @@
       <c r="D79" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="78" t="s">
+      <c r="E79" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="24" t="s">
@@ -5581,7 +5582,7 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="65"/>
       <c r="B80" s="24" t="s">
         <v>556</v>
       </c>
@@ -5591,7 +5592,7 @@
       <c r="D80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="80"/>
+      <c r="E80" s="68"/>
       <c r="F80" s="24" t="s">
         <v>354</v>
       </c>
@@ -5623,7 +5624,7 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="65"/>
       <c r="B81" s="24" t="s">
         <v>557</v>
       </c>
@@ -5633,7 +5634,7 @@
       <c r="D81" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="80"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="24" t="s">
         <v>230</v>
       </c>
@@ -5665,7 +5666,7 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="65"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24" t="s">
         <v>237</v>
@@ -5673,7 +5674,7 @@
       <c r="D82" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="80"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="46" t="s">
         <v>28</v>
       </c>
@@ -5703,7 +5704,7 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="65"/>
       <c r="B83" s="24" t="s">
         <v>233</v>
       </c>
@@ -5713,7 +5714,7 @@
       <c r="D83" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="80"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="24" t="s">
         <v>34</v>
       </c>
@@ -5743,7 +5744,7 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="65"/>
       <c r="B84" s="24" t="s">
         <v>236</v>
       </c>
@@ -5753,7 +5754,7 @@
       <c r="D84" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="80"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="24" t="s">
         <v>40</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>560</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I84" s="27"/>
       <c r="J84" s="2"/>
@@ -5783,17 +5784,17 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="65"/>
       <c r="B85" s="24" t="s">
         <v>240</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="80"/>
+      <c r="E85" s="68"/>
       <c r="F85" s="24" t="s">
         <v>559</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>562</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I85" s="27"/>
       <c r="J85" s="2"/>
@@ -5823,7 +5824,7 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="65"/>
       <c r="B86" s="24" t="s">
         <v>243</v>
       </c>
@@ -5833,15 +5834,15 @@
       <c r="D86" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="80"/>
+      <c r="E86" s="68"/>
       <c r="F86" s="24" t="s">
         <v>561</v>
       </c>
       <c r="G86" s="51"/>
-      <c r="H86" s="60" t="s">
+      <c r="H86" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="I86" s="59"/>
+      <c r="I86" s="56"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5861,7 +5862,7 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="65"/>
       <c r="B87" s="24" t="s">
         <v>245</v>
       </c>
@@ -5871,15 +5872,15 @@
       <c r="D87" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="80"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="H87" s="58" t="s">
+        <v>609</v>
+      </c>
+      <c r="H87" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="I87" s="59"/>
+      <c r="I87" s="56"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5899,9 +5900,9 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="65"/>
       <c r="B88" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>253</v>
@@ -5909,17 +5910,17 @@
       <c r="D88" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="80"/>
+      <c r="E88" s="68"/>
       <c r="F88" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H88" s="58" t="s">
+      <c r="H88" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="I88" s="59"/>
+      <c r="I88" s="56"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5939,25 +5940,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>258</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="E89" s="80"/>
+        <v>608</v>
+      </c>
+      <c r="E89" s="68"/>
       <c r="F89" s="24" t="s">
         <v>259</v>
       </c>
       <c r="G89" s="27"/>
-      <c r="H89" s="58" t="s">
+      <c r="H89" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="I89" s="59"/>
+      <c r="I89" s="56"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -5977,23 +5978,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="65"/>
       <c r="B90" s="51"/>
       <c r="C90" s="48" t="s">
         <v>261</v>
       </c>
       <c r="D90" s="48" t="s">
-        <v>628</v>
-      </c>
-      <c r="E90" s="80"/>
+        <v>627</v>
+      </c>
+      <c r="E90" s="68"/>
       <c r="F90" s="24" t="s">
         <v>262</v>
       </c>
       <c r="G90" s="27"/>
-      <c r="H90" s="58" t="s">
+      <c r="H90" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="I90" s="59"/>
+      <c r="I90" s="56"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6013,21 +6014,21 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="65"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="59"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="58" t="s">
+      <c r="D91" s="56"/>
+      <c r="E91" s="68"/>
+      <c r="F91" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="G91" s="59"/>
-      <c r="H91" s="58" t="s">
+      <c r="G91" s="56"/>
+      <c r="H91" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="I91" s="59"/>
+      <c r="I91" s="56"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6047,21 +6048,21 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="65"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="58" t="s">
+      <c r="C92" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="D92" s="59"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="58" t="s">
+      <c r="D92" s="56"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="G92" s="59"/>
-      <c r="H92" s="60" t="s">
-        <v>640</v>
-      </c>
-      <c r="I92" s="59"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="70" t="s">
+        <v>639</v>
+      </c>
+      <c r="I92" s="56"/>
       <c r="J92" s="2" t="s">
         <v>269</v>
       </c>
@@ -6083,21 +6084,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="65"/>
       <c r="B93" s="27"/>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="59"/>
-      <c r="E93" s="80"/>
-      <c r="F93" s="58" t="s">
+      <c r="D93" s="56"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="G93" s="59"/>
-      <c r="H93" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="I93" s="59"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="55" t="s">
+        <v>626</v>
+      </c>
+      <c r="I93" s="56"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6117,17 +6118,17 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="65"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="58" t="s">
+      <c r="C94" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="59"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="58" t="s">
+      <c r="D94" s="56"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="G94" s="59"/>
+      <c r="G94" s="56"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="2"/>
@@ -6149,17 +6150,17 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="58" t="s">
+      <c r="D95" s="56"/>
+      <c r="E95" s="68"/>
+      <c r="F95" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="G95" s="59"/>
+      <c r="G95" s="56"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
       <c r="J95" s="2"/>
@@ -6181,17 +6182,17 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="65"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="58" t="s">
+      <c r="C96" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="59"/>
-      <c r="E96" s="80"/>
-      <c r="F96" s="58" t="s">
+      <c r="D96" s="56"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="G96" s="59"/>
+      <c r="G96" s="56"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
       <c r="J96" s="2"/>
@@ -6213,17 +6214,17 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="24"/>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="D97" s="59"/>
-      <c r="E97" s="80"/>
-      <c r="F97" s="60" t="s">
+      <c r="D97" s="56"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="G97" s="59"/>
+      <c r="G97" s="56"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
       <c r="J97" s="2"/>
@@ -6245,17 +6246,17 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
-      <c r="B98" s="60" t="s">
-        <v>636</v>
-      </c>
-      <c r="C98" s="59"/>
+      <c r="A98" s="65"/>
+      <c r="B98" s="70" t="s">
+        <v>635</v>
+      </c>
+      <c r="C98" s="56"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="80"/>
-      <c r="F98" s="60" t="s">
+      <c r="E98" s="68"/>
+      <c r="F98" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="G98" s="59"/>
+      <c r="G98" s="56"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
       <c r="J98" s="2"/>
@@ -6277,18 +6278,18 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
-      <c r="B99" s="66" t="s">
-        <v>624</v>
-      </c>
-      <c r="C99" s="67"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="74" t="s">
+        <v>623</v>
+      </c>
+      <c r="C99" s="88"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="81"/>
+      <c r="E99" s="69"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="58" t="s">
+      <c r="G99" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="H99" s="59"/>
+      <c r="H99" s="56"/>
       <c r="I99" s="27"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
@@ -6337,7 +6338,7 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="55" t="s">
+      <c r="A101" s="64" t="s">
         <v>282</v>
       </c>
       <c r="C101" s="49" t="s">
@@ -6346,7 +6347,7 @@
       <c r="D101" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="E101" s="83" t="s">
+      <c r="E101" s="57" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="46" t="s">
@@ -6378,7 +6379,7 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="56"/>
+      <c r="A102" s="65"/>
       <c r="B102" s="30" t="s">
         <v>563</v>
       </c>
@@ -6388,7 +6389,7 @@
       <c r="D102" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="E102" s="84"/>
+      <c r="E102" s="58"/>
       <c r="F102" s="46" t="s">
         <v>18</v>
       </c>
@@ -6420,7 +6421,7 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="56"/>
+      <c r="A103" s="65"/>
       <c r="B103" s="30" t="s">
         <v>42</v>
       </c>
@@ -6430,7 +6431,7 @@
       <c r="D103" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="84"/>
+      <c r="E103" s="58"/>
       <c r="F103" s="46" t="s">
         <v>291</v>
       </c>
@@ -6462,7 +6463,7 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="56"/>
+      <c r="A104" s="65"/>
       <c r="B104" s="30" t="s">
         <v>581</v>
       </c>
@@ -6472,7 +6473,7 @@
       <c r="D104" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E104" s="84"/>
+      <c r="E104" s="58"/>
       <c r="F104" s="46" t="s">
         <v>294</v>
       </c>
@@ -6502,7 +6503,7 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="56"/>
+      <c r="A105" s="65"/>
       <c r="B105" s="30" t="s">
         <v>297</v>
       </c>
@@ -6512,7 +6513,7 @@
       <c r="D105" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E105" s="84"/>
+      <c r="E105" s="58"/>
       <c r="F105" s="49" t="s">
         <v>299</v>
       </c>
@@ -6544,7 +6545,7 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
+      <c r="A106" s="65"/>
       <c r="B106" s="30" t="s">
         <v>303</v>
       </c>
@@ -6554,7 +6555,7 @@
       <c r="D106" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="E106" s="84"/>
+      <c r="E106" s="58"/>
       <c r="F106" s="25" t="s">
         <v>306</v>
       </c>
@@ -6586,7 +6587,7 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="56"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="30" t="s">
         <v>310</v>
       </c>
@@ -6596,7 +6597,7 @@
       <c r="D107" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="E107" s="84"/>
+      <c r="E107" s="58"/>
       <c r="F107" s="24" t="s">
         <v>312</v>
       </c>
@@ -6626,7 +6627,7 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="30" t="s">
         <v>315</v>
       </c>
@@ -6636,7 +6637,7 @@
       <c r="D108" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="E108" s="84"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="24" t="s">
         <v>317</v>
       </c>
@@ -6663,7 +6664,7 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="56"/>
+      <c r="A109" s="65"/>
       <c r="B109" s="30" t="s">
         <v>319</v>
       </c>
@@ -6673,7 +6674,7 @@
       <c r="D109" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="E109" s="84"/>
+      <c r="E109" s="58"/>
       <c r="F109" s="27"/>
       <c r="G109" s="24" t="s">
         <v>321</v>
@@ -6699,19 +6700,19 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="56"/>
+      <c r="A110" s="65"/>
       <c r="B110" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="E110" s="84"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="24" t="s">
         <v>323</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H110" s="27"/>
       <c r="I110" s="28"/>
@@ -6734,17 +6735,17 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="56"/>
+      <c r="A111" s="65"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D111" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="E111" s="84"/>
+      <c r="E111" s="58"/>
       <c r="F111" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G111" s="27"/>
       <c r="H111" s="27"/>
@@ -6768,19 +6769,19 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="56"/>
+      <c r="A112" s="65"/>
       <c r="B112" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D112" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="E112" s="84"/>
+      <c r="E112" s="58"/>
       <c r="F112" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G112" s="27"/>
       <c r="H112" s="24"/>
@@ -6804,19 +6805,19 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="56"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="D113" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="C113" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="E113" s="84"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="27"/>
@@ -6840,21 +6841,21 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="56"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
       <c r="D114" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="E114" s="84"/>
-      <c r="F114" s="60" t="s">
+        <v>618</v>
+      </c>
+      <c r="E114" s="58"/>
+      <c r="F114" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="61"/>
-      <c r="H114" s="58" t="s">
+      <c r="G114" s="60"/>
+      <c r="H114" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="I114" s="59"/>
+      <c r="I114" s="56"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -6874,21 +6875,21 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="56"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="27"/>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="D115" s="61"/>
-      <c r="E115" s="84"/>
-      <c r="F115" s="60" t="s">
+      <c r="D115" s="60"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="G115" s="61"/>
-      <c r="H115" s="58" t="s">
+      <c r="G115" s="60"/>
+      <c r="H115" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="I115" s="59"/>
+      <c r="I115" s="56"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -6908,21 +6909,21 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="56"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="27"/>
-      <c r="C116" s="58" t="s">
+      <c r="C116" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="D116" s="61"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="58" t="s">
+      <c r="D116" s="60"/>
+      <c r="E116" s="58"/>
+      <c r="F116" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="G116" s="61"/>
-      <c r="H116" s="58" t="s">
+      <c r="G116" s="60"/>
+      <c r="H116" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="I116" s="59"/>
+      <c r="I116" s="56"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -6942,21 +6943,21 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="56"/>
-      <c r="B117" s="58" t="s">
+      <c r="A117" s="65"/>
+      <c r="B117" s="55" t="s">
         <v>334</v>
       </c>
-      <c r="C117" s="61"/>
+      <c r="C117" s="60"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="58" t="s">
+      <c r="E117" s="58"/>
+      <c r="F117" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="G117" s="61"/>
-      <c r="H117" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="I117" s="59"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="70" t="s">
+        <v>638</v>
+      </c>
+      <c r="I117" s="56"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -6976,21 +6977,21 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="56"/>
-      <c r="B118" s="58" t="s">
+      <c r="A118" s="65"/>
+      <c r="B118" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="C118" s="61"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="58" t="s">
+      <c r="E118" s="58"/>
+      <c r="F118" s="55" t="s">
         <v>337</v>
       </c>
-      <c r="G118" s="61"/>
-      <c r="H118" s="60" t="s">
+      <c r="G118" s="60"/>
+      <c r="H118" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="I118" s="59"/>
+      <c r="I118" s="56"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7010,21 +7011,21 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="56"/>
-      <c r="B119" s="58" t="s">
+      <c r="A119" s="65"/>
+      <c r="B119" s="55" t="s">
         <v>339</v>
       </c>
-      <c r="C119" s="61"/>
+      <c r="C119" s="60"/>
       <c r="D119" s="27"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="58" t="s">
+      <c r="E119" s="58"/>
+      <c r="F119" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="G119" s="61"/>
-      <c r="H119" s="58" t="s">
+      <c r="G119" s="60"/>
+      <c r="H119" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="I119" s="59"/>
+      <c r="I119" s="56"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7044,21 +7045,21 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="56"/>
-      <c r="B120" s="58" t="s">
+      <c r="A120" s="65"/>
+      <c r="B120" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="C120" s="61"/>
+      <c r="C120" s="60"/>
       <c r="D120" s="28"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="58" t="s">
+      <c r="E120" s="58"/>
+      <c r="F120" s="55" t="s">
         <v>343</v>
       </c>
-      <c r="G120" s="61"/>
-      <c r="H120" s="58" t="s">
+      <c r="G120" s="60"/>
+      <c r="H120" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="I120" s="59"/>
+      <c r="I120" s="56"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7078,19 +7079,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="56"/>
+      <c r="A121" s="65"/>
       <c r="B121" s="27"/>
       <c r="C121" s="24"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="84"/>
-      <c r="F121" s="58" t="s">
+      <c r="E121" s="58"/>
+      <c r="F121" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="58" t="s">
+      <c r="G121" s="60"/>
+      <c r="H121" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="I121" s="61"/>
+      <c r="I121" s="60"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7110,11 +7111,11 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="56"/>
+      <c r="A122" s="65"/>
       <c r="B122" s="24"/>
       <c r="C122" s="27"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="85"/>
+      <c r="E122" s="59"/>
       <c r="F122" s="31" t="s">
         <v>347</v>
       </c>
@@ -7140,18 +7141,18 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="56"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="20"/>
       <c r="C123" s="22"/>
-      <c r="D123" s="62" t="s">
+      <c r="D123" s="85" t="s">
         <v>348</v>
       </c>
-      <c r="E123" s="63"/>
+      <c r="E123" s="87"/>
       <c r="F123" s="23"/>
-      <c r="G123" s="58" t="s">
+      <c r="G123" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="H123" s="61"/>
+      <c r="H123" s="60"/>
       <c r="I123" s="8"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
@@ -7172,13 +7173,13 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="56"/>
+      <c r="A124" s="65"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="62" t="s">
+      <c r="D124" s="85" t="s">
         <v>350</v>
       </c>
-      <c r="E124" s="63"/>
+      <c r="E124" s="87"/>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
@@ -7202,13 +7203,13 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="57"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="58" t="s">
+      <c r="D125" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="E125" s="61"/>
+      <c r="E125" s="60"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7260,7 +7261,7 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="55" t="s">
+      <c r="A127" s="64" t="s">
         <v>352</v>
       </c>
       <c r="B127" s="24" t="s">
@@ -7272,9 +7273,9 @@
       <c r="E127" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="F127" s="64"/>
-      <c r="G127" s="65"/>
-      <c r="H127" s="61"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="60"/>
       <c r="I127" s="8"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
@@ -7295,7 +7296,7 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="56"/>
+      <c r="A128" s="65"/>
       <c r="B128" s="26" t="s">
         <v>569</v>
       </c>
@@ -7331,7 +7332,7 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="56"/>
+      <c r="A129" s="65"/>
       <c r="B129" s="24" t="s">
         <v>118</v>
       </c>
@@ -7367,7 +7368,7 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="56"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="24" t="s">
         <v>360</v>
       </c>
@@ -7403,7 +7404,7 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="56"/>
+      <c r="A131" s="65"/>
       <c r="B131" s="24" t="s">
         <v>363</v>
       </c>
@@ -7437,7 +7438,7 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="56"/>
+      <c r="A132" s="65"/>
       <c r="B132" s="29"/>
       <c r="C132" s="24" t="s">
         <v>366</v>
@@ -7469,7 +7470,7 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="56"/>
+      <c r="A133" s="65"/>
       <c r="B133" s="29"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
@@ -7499,7 +7500,7 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="56"/>
+      <c r="A134" s="65"/>
       <c r="B134" s="25" t="s">
         <v>368</v>
       </c>
@@ -7533,7 +7534,7 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="56"/>
+      <c r="A135" s="65"/>
       <c r="B135" s="54"/>
       <c r="C135" s="24" t="s">
         <v>371</v>
@@ -7565,7 +7566,7 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="56"/>
+      <c r="A136" s="65"/>
       <c r="B136" s="27"/>
       <c r="C136" s="25" t="s">
         <v>373</v>
@@ -7597,15 +7598,15 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="56"/>
-      <c r="B137" s="58" t="s">
-        <v>626</v>
-      </c>
-      <c r="C137" s="59"/>
-      <c r="D137" s="58" t="s">
+      <c r="A137" s="65"/>
+      <c r="B137" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="C137" s="56"/>
+      <c r="D137" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="E137" s="59"/>
+      <c r="E137" s="56"/>
       <c r="F137" s="34"/>
       <c r="G137" s="35"/>
       <c r="H137" s="33"/>
@@ -7629,15 +7630,15 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="56"/>
-      <c r="B138" s="58" t="s">
+      <c r="A138" s="65"/>
+      <c r="B138" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="C138" s="59"/>
-      <c r="D138" s="58" t="s">
+      <c r="C138" s="56"/>
+      <c r="D138" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="E138" s="59"/>
+      <c r="E138" s="56"/>
       <c r="F138" s="34"/>
       <c r="G138" s="35"/>
       <c r="H138" s="33"/>
@@ -7661,15 +7662,15 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="56"/>
-      <c r="B139" s="58" t="s">
+      <c r="A139" s="65"/>
+      <c r="B139" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="C139" s="59"/>
-      <c r="D139" s="58" t="s">
+      <c r="C139" s="56"/>
+      <c r="D139" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="E139" s="59"/>
+      <c r="E139" s="56"/>
       <c r="F139" s="34"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
@@ -7693,15 +7694,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="56"/>
-      <c r="B140" s="58" t="s">
+      <c r="A140" s="65"/>
+      <c r="B140" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="C140" s="59"/>
-      <c r="D140" s="58" t="s">
+      <c r="C140" s="56"/>
+      <c r="D140" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="E140" s="59"/>
+      <c r="E140" s="56"/>
       <c r="F140" s="34"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
@@ -7725,15 +7726,15 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="56"/>
-      <c r="B141" s="60" t="s">
-        <v>637</v>
-      </c>
-      <c r="C141" s="59"/>
-      <c r="D141" s="62" t="s">
+      <c r="A141" s="65"/>
+      <c r="B141" s="70" t="s">
+        <v>636</v>
+      </c>
+      <c r="C141" s="56"/>
+      <c r="D141" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="E141" s="59"/>
+      <c r="E141" s="56"/>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
@@ -7757,15 +7758,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="56"/>
-      <c r="B142" s="60" t="s">
+      <c r="A142" s="65"/>
+      <c r="B142" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="C142" s="59"/>
-      <c r="D142" s="62" t="s">
-        <v>642</v>
-      </c>
-      <c r="E142" s="59"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="85" t="s">
+        <v>641</v>
+      </c>
+      <c r="E142" s="56"/>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
@@ -7789,13 +7790,13 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="56"/>
-      <c r="B143" s="58" t="s">
+      <c r="A143" s="65"/>
+      <c r="B143" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="C143" s="59"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="59"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="55"/>
+      <c r="E143" s="56"/>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
@@ -7819,11 +7820,11 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="56"/>
-      <c r="B144" s="62" t="s">
+      <c r="A144" s="65"/>
+      <c r="B144" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="C144" s="63"/>
+      <c r="C144" s="87"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="8"/>
@@ -7849,7 +7850,7 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="56"/>
+      <c r="A145" s="65"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -7876,7 +7877,7 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="57"/>
+      <c r="A146" s="66"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="10"/>
@@ -7931,17 +7932,17 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="74" t="s">
+      <c r="A148" s="79" t="s">
         <v>386</v>
       </c>
-      <c r="B148" s="75"/>
-      <c r="C148" s="75"/>
-      <c r="D148" s="75"/>
-      <c r="E148" s="75"/>
-      <c r="F148" s="75"/>
-      <c r="G148" s="75"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="76"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="62"/>
+      <c r="D148" s="62"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="63"/>
       <c r="J148" s="2"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -7989,17 +7990,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="64" t="s">
+      <c r="A150" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="B150" s="65"/>
-      <c r="C150" s="65"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-      <c r="G150" s="65"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="61"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="81"/>
+      <c r="D150" s="81"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="81"/>
+      <c r="I150" s="60"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8020,16 +8021,16 @@
     </row>
     <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
-      <c r="B151" s="64" t="s">
+      <c r="B151" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-      <c r="G151" s="65"/>
-      <c r="H151" s="65"/>
-      <c r="I151" s="61"/>
+      <c r="C151" s="81"/>
+      <c r="D151" s="81"/>
+      <c r="E151" s="81"/>
+      <c r="F151" s="81"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="81"/>
+      <c r="I151" s="60"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8050,16 +8051,16 @@
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
-      <c r="B152" s="64" t="s">
+      <c r="B152" s="80" t="s">
         <v>389</v>
       </c>
-      <c r="C152" s="65"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-      <c r="G152" s="65"/>
-      <c r="H152" s="65"/>
-      <c r="I152" s="61"/>
+      <c r="C152" s="81"/>
+      <c r="D152" s="81"/>
+      <c r="E152" s="81"/>
+      <c r="F152" s="81"/>
+      <c r="G152" s="81"/>
+      <c r="H152" s="81"/>
+      <c r="I152" s="60"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8080,16 +8081,16 @@
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
-      <c r="B153" s="64" t="s">
+      <c r="B153" s="80" t="s">
         <v>390</v>
       </c>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="65"/>
-      <c r="F153" s="65"/>
-      <c r="G153" s="65"/>
-      <c r="H153" s="65"/>
-      <c r="I153" s="61"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="81"/>
+      <c r="G153" s="81"/>
+      <c r="H153" s="81"/>
+      <c r="I153" s="60"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8110,16 +8111,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
-      <c r="B154" s="64" t="s">
+      <c r="B154" s="80" t="s">
         <v>391</v>
       </c>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="65"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="65"/>
-      <c r="H154" s="65"/>
-      <c r="I154" s="61"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="81"/>
+      <c r="E154" s="81"/>
+      <c r="F154" s="81"/>
+      <c r="G154" s="81"/>
+      <c r="H154" s="81"/>
+      <c r="I154" s="60"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8140,16 +8141,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
-      <c r="B155" s="64" t="s">
+      <c r="B155" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="65"/>
-      <c r="H155" s="65"/>
-      <c r="I155" s="61"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="81"/>
+      <c r="F155" s="81"/>
+      <c r="G155" s="81"/>
+      <c r="H155" s="81"/>
+      <c r="I155" s="60"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8170,16 +8171,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
-      <c r="B156" s="71" t="s">
+      <c r="B156" s="86" t="s">
         <v>393</v>
       </c>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-      <c r="G156" s="65"/>
-      <c r="H156" s="65"/>
-      <c r="I156" s="61"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="81"/>
+      <c r="E156" s="81"/>
+      <c r="F156" s="81"/>
+      <c r="G156" s="81"/>
+      <c r="H156" s="81"/>
+      <c r="I156" s="60"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8199,17 +8200,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="64" t="s">
+      <c r="A157" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="65"/>
-      <c r="F157" s="65"/>
-      <c r="G157" s="65"/>
-      <c r="H157" s="65"/>
-      <c r="I157" s="61"/>
+      <c r="B157" s="81"/>
+      <c r="C157" s="81"/>
+      <c r="D157" s="81"/>
+      <c r="E157" s="81"/>
+      <c r="F157" s="81"/>
+      <c r="G157" s="81"/>
+      <c r="H157" s="81"/>
+      <c r="I157" s="60"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8229,21 +8230,21 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="68"/>
+      <c r="A158" s="84"/>
       <c r="B158" s="36" t="s">
         <v>395</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="D158" s="77" t="s">
+      <c r="D158" s="82" t="s">
         <v>397</v>
       </c>
-      <c r="E158" s="65"/>
-      <c r="F158" s="65"/>
-      <c r="G158" s="65"/>
-      <c r="H158" s="65"/>
-      <c r="I158" s="61"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="81"/>
+      <c r="H158" s="81"/>
+      <c r="I158" s="60"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8263,19 +8264,19 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="69"/>
+      <c r="A159" s="77"/>
       <c r="B159" s="36"/>
       <c r="C159" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="D159" s="72" t="s">
+      <c r="D159" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="E159" s="65"/>
-      <c r="F159" s="65"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="65"/>
-      <c r="I159" s="61"/>
+      <c r="E159" s="81"/>
+      <c r="F159" s="81"/>
+      <c r="G159" s="81"/>
+      <c r="H159" s="81"/>
+      <c r="I159" s="60"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8295,19 +8296,19 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="70"/>
+      <c r="A160" s="78"/>
       <c r="B160" s="36"/>
       <c r="C160" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="D160" s="72" t="s">
+      <c r="D160" s="83" t="s">
         <v>401</v>
       </c>
-      <c r="E160" s="65"/>
-      <c r="F160" s="65"/>
-      <c r="G160" s="65"/>
-      <c r="H160" s="65"/>
-      <c r="I160" s="61"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="81"/>
+      <c r="G160" s="81"/>
+      <c r="H160" s="81"/>
+      <c r="I160" s="60"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8355,7 +8356,7 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="68"/>
+      <c r="A162" s="84"/>
       <c r="B162" s="39" t="s">
         <v>402</v>
       </c>
@@ -8399,7 +8400,7 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="69"/>
+      <c r="A163" s="77"/>
       <c r="B163" s="35" t="s">
         <v>405</v>
       </c>
@@ -8443,7 +8444,7 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="69"/>
+      <c r="A164" s="77"/>
       <c r="B164" s="35" t="s">
         <v>413</v>
       </c>
@@ -8487,7 +8488,7 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="69"/>
+      <c r="A165" s="77"/>
       <c r="B165" s="35" t="s">
         <v>421</v>
       </c>
@@ -8531,7 +8532,7 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="69"/>
+      <c r="A166" s="77"/>
       <c r="B166" s="35" t="s">
         <v>429</v>
       </c>
@@ -8569,7 +8570,7 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="69"/>
+      <c r="A167" s="77"/>
       <c r="B167" s="35" t="s">
         <v>434</v>
       </c>
@@ -8611,7 +8612,7 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="69"/>
+      <c r="A168" s="77"/>
       <c r="B168" s="35" t="s">
         <v>441</v>
       </c>
@@ -8653,7 +8654,7 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="69"/>
+      <c r="A169" s="77"/>
       <c r="B169" s="35" t="s">
         <v>448</v>
       </c>
@@ -8697,7 +8698,7 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="69"/>
+      <c r="A170" s="77"/>
       <c r="B170" s="35" t="s">
         <v>456</v>
       </c>
@@ -8741,7 +8742,7 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="69"/>
+      <c r="A171" s="77"/>
       <c r="B171" s="35" t="s">
         <v>464</v>
       </c>
@@ -8783,7 +8784,7 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="69"/>
+      <c r="A172" s="77"/>
       <c r="B172" s="35" t="s">
         <v>471</v>
       </c>
@@ -8827,7 +8828,7 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="69"/>
+      <c r="A173" s="77"/>
       <c r="B173" s="35" t="s">
         <v>479</v>
       </c>
@@ -8871,7 +8872,7 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="69"/>
+      <c r="A174" s="77"/>
       <c r="B174" s="35" t="s">
         <v>487</v>
       </c>
@@ -8915,7 +8916,7 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="69"/>
+      <c r="A175" s="77"/>
       <c r="B175" s="35" t="s">
         <v>495</v>
       </c>
@@ -8957,7 +8958,7 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="69"/>
+      <c r="A176" s="77"/>
       <c r="B176" s="35" t="s">
         <v>502</v>
       </c>
@@ -8997,7 +8998,7 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="69"/>
+      <c r="A177" s="77"/>
       <c r="B177" s="35" t="s">
         <v>508</v>
       </c>
@@ -9035,7 +9036,7 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="69"/>
+      <c r="A178" s="77"/>
       <c r="B178" s="35" t="s">
         <v>513</v>
       </c>
@@ -9075,7 +9076,7 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="69"/>
+      <c r="A179" s="77"/>
       <c r="B179" s="35" t="s">
         <v>519</v>
       </c>
@@ -9115,7 +9116,7 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="70"/>
+      <c r="A180" s="78"/>
       <c r="B180" s="35" t="s">
         <v>525</v>
       </c>
@@ -32170,6 +32171,150 @@
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="A101:A125"/>
+    <mergeCell ref="A127:A146"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="A162:A180"/>
+    <mergeCell ref="B152:I152"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="A79:A99"/>
+    <mergeCell ref="A148:I148"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="E53:E77"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E79:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A27:A51"/>
+    <mergeCell ref="E27:E51"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="E101:E122"/>
     <mergeCell ref="H73:I73"/>
@@ -32194,150 +32339,6 @@
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="A148:I148"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A162:A180"/>
-    <mergeCell ref="B152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="B156:I156"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A99"/>
-    <mergeCell ref="A101:A125"/>
-    <mergeCell ref="A127:A146"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9846DC2D-D78A-48C3-B81B-F36C06D2749A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1217353D-3558-4FA5-95CA-AD1A89C32E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1943,9 +1943,6 @@
   </si>
   <si>
     <t>PD1(CS121)-CL01/ANP, SHB</t>
-  </si>
-  <si>
-    <t>PB7(CS121)-CL01/APR, KRL</t>
   </si>
   <si>
     <t>PG3(CS121)-CL07/PSO,PRV</t>
@@ -2022,13 +2019,28 @@
     <t>PA3,A4(CS121)-CL01,02/MEE,KRL,SUD</t>
   </si>
   <si>
-    <t>PG2(CS121)-CL09/IMR, AYS</t>
-  </si>
-  <si>
     <t>PA5(CS121)-CL01/TNV, MAY</t>
   </si>
   <si>
     <t>TA7(HS111)-TS11/MB</t>
+  </si>
+  <si>
+    <t>PG2(CS121)-CL09/IMR, KRL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PB7(CS121)-CL01/APR, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AYS</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2450,10 +2462,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2463,66 +2534,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2743,10 +2755,10 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2768,16 +2780,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2841,7 +2853,7 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -2853,7 +2865,7 @@
       <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="27"/>
@@ -2885,7 +2897,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="46" t="s">
         <v>238</v>
       </c>
@@ -2895,7 +2907,7 @@
       <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
@@ -2925,7 +2937,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="46" t="s">
         <v>21</v>
       </c>
@@ -2935,7 +2947,7 @@
       <c r="D5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="46" t="s">
         <v>24</v>
       </c>
@@ -2965,7 +2977,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="46" t="s">
         <v>27</v>
       </c>
@@ -2975,7 +2987,7 @@
       <c r="D6" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="24" t="s">
         <v>30</v>
       </c>
@@ -3005,7 +3017,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
@@ -3015,7 +3027,7 @@
       <c r="D7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="24" t="s">
         <v>42</v>
       </c>
@@ -3047,7 +3059,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="46" t="s">
         <v>39</v>
       </c>
@@ -3057,7 +3069,7 @@
       <c r="D8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="24" t="s">
         <v>48</v>
       </c>
@@ -3087,7 +3099,7 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="46" t="s">
         <v>45</v>
       </c>
@@ -3095,7 +3107,7 @@
       <c r="D9" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="24" t="s">
         <v>54</v>
       </c>
@@ -3125,7 +3137,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="46" t="s">
         <v>593</v>
       </c>
@@ -3135,7 +3147,7 @@
       <c r="D10" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="24" t="s">
         <v>631</v>
       </c>
@@ -3167,7 +3179,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="51"/>
       <c r="C11" s="24" t="s">
         <v>52</v>
@@ -3175,7 +3187,7 @@
       <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="24" t="s">
         <v>633</v>
       </c>
@@ -3209,7 +3221,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="48" t="s">
         <v>594</v>
       </c>
@@ -3219,7 +3231,7 @@
       <c r="D12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="24" t="s">
         <v>634</v>
       </c>
@@ -3249,7 +3261,7 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="46" t="s">
         <v>595</v>
       </c>
@@ -3259,7 +3271,7 @@
       <c r="D13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
         <v>63</v>
@@ -3287,7 +3299,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="27"/>
       <c r="C14" s="24" t="s">
         <v>65</v>
@@ -3295,7 +3307,7 @@
       <c r="D14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="81"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24" t="s">
@@ -3321,7 +3333,7 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="28"/>
       <c r="C15" s="24" t="s">
         <v>584</v>
@@ -3329,7 +3341,7 @@
       <c r="D15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="81"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
@@ -3355,11 +3367,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="68"/>
+      <c r="E16" s="81"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -3383,21 +3395,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="55" t="s">
+      <c r="G17" s="60"/>
+      <c r="H17" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="56"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3417,21 +3429,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="55" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="60"/>
+      <c r="H18" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="56"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3451,21 +3463,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="70" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="70" t="s">
-        <v>643</v>
-      </c>
-      <c r="I19" s="56"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="61" t="s">
+        <v>642</v>
+      </c>
+      <c r="I19" s="60"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3485,21 +3497,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="28"/>
-      <c r="C20" s="70" t="s">
+      <c r="C20" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="70" t="s">
-        <v>647</v>
-      </c>
-      <c r="I20" s="56"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="I20" s="60"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3519,21 +3531,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="55" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="55" t="s">
+      <c r="G21" s="60"/>
+      <c r="H21" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="56"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3553,21 +3565,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="28"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="55" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55" t="s">
+      <c r="G22" s="60"/>
+      <c r="H22" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="56"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3587,21 +3599,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="55" t="s">
+      <c r="D23" s="60"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55" t="s">
+      <c r="G23" s="60"/>
+      <c r="H23" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="56"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3621,21 +3633,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="28"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="55" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="55" t="s">
+      <c r="G24" s="60"/>
+      <c r="H24" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="56"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3655,13 +3667,13 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="28"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -3713,7 +3725,7 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="56" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="48" t="s">
@@ -3725,7 +3737,7 @@
       <c r="D27" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="24" t="s">
@@ -3759,7 +3771,7 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="48" t="s">
         <v>100</v>
       </c>
@@ -3769,7 +3781,7 @@
       <c r="D28" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="24" t="s">
         <v>103</v>
       </c>
@@ -3801,7 +3813,7 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="48" t="s">
         <v>105</v>
       </c>
@@ -3811,7 +3823,7 @@
       <c r="D29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="51"/>
       <c r="G29" s="24" t="s">
         <v>108</v>
@@ -3839,7 +3851,7 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="48" t="s">
         <v>110</v>
       </c>
@@ -3849,9 +3861,9 @@
       <c r="D30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>113</v>
@@ -3879,7 +3891,7 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="48" t="s">
         <v>114</v>
       </c>
@@ -3889,7 +3901,7 @@
       <c r="D31" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="24" t="s">
         <v>116</v>
       </c>
@@ -3915,15 +3927,15 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="52"/>
-      <c r="C32" s="89" t="s">
-        <v>651</v>
+      <c r="C32" s="55" t="s">
+        <v>649</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="24" t="s">
         <v>119</v>
       </c>
@@ -3953,7 +3965,7 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="46" t="s">
         <v>596</v>
       </c>
@@ -3961,7 +3973,7 @@
       <c r="D33" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="E33" s="68"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="24" t="s">
         <v>548</v>
       </c>
@@ -3989,7 +4001,7 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="46" t="s">
         <v>597</v>
       </c>
@@ -3997,7 +4009,7 @@
       <c r="D34" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="E34" s="68"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="24" t="s">
         <v>549</v>
       </c>
@@ -4025,7 +4037,7 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="46" t="s">
         <v>598</v>
       </c>
@@ -4033,7 +4045,7 @@
       <c r="D35" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="E35" s="68"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="24" t="s">
         <v>583</v>
       </c>
@@ -4059,7 +4071,7 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="46"/>
       <c r="C36" s="24" t="s">
         <v>122</v>
@@ -4067,13 +4079,13 @@
       <c r="D36" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="68"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="24" t="s">
         <v>629</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I36" s="28"/>
       <c r="J36" s="2"/>
@@ -4095,7 +4107,7 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="27"/>
       <c r="C37" s="24" t="s">
         <v>124</v>
@@ -4103,7 +4115,7 @@
       <c r="D37" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="25" t="s">
         <v>126</v>
       </c>
@@ -4133,7 +4145,7 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="57"/>
       <c r="B38" s="28"/>
       <c r="C38" s="24" t="s">
         <v>129</v>
@@ -4141,7 +4153,7 @@
       <c r="D38" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="68"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="25" t="s">
         <v>131</v>
       </c>
@@ -4171,7 +4183,7 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="27"/>
       <c r="C39" s="24" t="s">
         <v>134</v>
@@ -4179,7 +4191,7 @@
       <c r="D39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="68"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="51"/>
       <c r="G39" s="25" t="s">
         <v>136</v>
@@ -4207,13 +4219,13 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25" t="s">
         <v>138</v>
       </c>
       <c r="D40" s="51"/>
-      <c r="E40" s="68"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="28"/>
       <c r="G40" s="25" t="s">
         <v>139</v>
@@ -4241,10 +4253,10 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+      <c r="A41" s="57"/>
       <c r="B41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="68"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25" t="s">
         <v>141</v>
@@ -4270,13 +4282,13 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="24"/>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="68"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -4300,21 +4312,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="24"/>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="55" t="s">
+      <c r="D43" s="60"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="55" t="s">
+      <c r="G43" s="60"/>
+      <c r="H43" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="56"/>
+      <c r="I43" s="60"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4334,21 +4346,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="57"/>
       <c r="B44" s="27"/>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="55" t="s">
+      <c r="D44" s="60"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="61" t="s">
+        <v>641</v>
+      </c>
+      <c r="G44" s="60"/>
+      <c r="H44" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="56"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4368,21 +4380,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="27"/>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="70" t="s">
-        <v>640</v>
-      </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="70" t="s">
+      <c r="D45" s="60"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="61" t="s">
+        <v>639</v>
+      </c>
+      <c r="G45" s="60"/>
+      <c r="H45" s="61" t="s">
         <v>637</v>
       </c>
-      <c r="I45" s="56"/>
+      <c r="I45" s="60"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4402,21 +4414,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="57"/>
       <c r="B46" s="27"/>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="55" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="56"/>
-      <c r="H46" s="71" t="s">
-        <v>649</v>
-      </c>
-      <c r="I46" s="72"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="83" t="s">
+        <v>650</v>
+      </c>
+      <c r="I46" s="84"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4436,21 +4448,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="24"/>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="55" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="56"/>
-      <c r="H47" s="55" t="s">
+      <c r="G47" s="60"/>
+      <c r="H47" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="56"/>
+      <c r="I47" s="60"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4470,21 +4482,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="24"/>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="55" t="s">
+      <c r="D48" s="60"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="55" t="s">
+      <c r="G48" s="60"/>
+      <c r="H48" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="56"/>
+      <c r="I48" s="60"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4504,21 +4516,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="55" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="56"/>
-      <c r="H49" s="73" t="s">
+      <c r="G49" s="60"/>
+      <c r="H49" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="I49" s="56"/>
+      <c r="I49" s="60"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4538,17 +4550,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="24"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="56"/>
+      <c r="I50" s="60"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4568,17 +4580,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
+      <c r="A51" s="58"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="69"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
-      <c r="H51" s="55" t="s">
+      <c r="H51" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="56"/>
+      <c r="I51" s="60"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4626,7 +4638,7 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="56" t="s">
         <v>162</v>
       </c>
       <c r="B53" s="24" t="s">
@@ -4634,7 +4646,7 @@
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="29"/>
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="24" t="s">
@@ -4666,7 +4678,7 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="24" t="s">
         <v>572</v>
       </c>
@@ -4676,7 +4688,7 @@
       <c r="D54" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="77"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="24" t="s">
         <v>165</v>
       </c>
@@ -4708,7 +4720,7 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="24" t="s">
         <v>573</v>
       </c>
@@ -4718,7 +4730,7 @@
       <c r="D55" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="77"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="24" t="s">
         <v>170</v>
       </c>
@@ -4747,7 +4759,7 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="24" t="s">
         <v>574</v>
       </c>
@@ -4757,7 +4769,7 @@
       <c r="D56" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="77"/>
+      <c r="E56" s="70"/>
       <c r="F56" s="24" t="s">
         <v>173</v>
       </c>
@@ -4789,13 +4801,13 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27"/>
       <c r="D57" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="77"/>
+      <c r="E57" s="70"/>
       <c r="F57" s="24" t="s">
         <v>121</v>
       </c>
@@ -4827,10 +4839,10 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="24"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="77"/>
+      <c r="E58" s="70"/>
       <c r="F58" s="24" t="s">
         <v>588</v>
       </c>
@@ -4858,7 +4870,7 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="24" t="s">
         <v>180</v>
       </c>
@@ -4868,7 +4880,7 @@
       <c r="D59" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E59" s="77"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="24" t="s">
         <v>552</v>
       </c>
@@ -4896,7 +4908,7 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="24" t="s">
         <v>183</v>
       </c>
@@ -4906,7 +4918,7 @@
       <c r="D60" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="77"/>
+      <c r="E60" s="70"/>
       <c r="F60" s="24" t="s">
         <v>553</v>
       </c>
@@ -4936,7 +4948,7 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="24" t="s">
         <v>185</v>
       </c>
@@ -4946,7 +4958,7 @@
       <c r="D61" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E61" s="77"/>
+      <c r="E61" s="70"/>
       <c r="F61" s="24" t="s">
         <v>551</v>
       </c>
@@ -4974,7 +4986,7 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
+      <c r="A62" s="57"/>
       <c r="B62" s="24" t="s">
         <v>189</v>
       </c>
@@ -4984,7 +4996,7 @@
       <c r="D62" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="77"/>
+      <c r="E62" s="70"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24" t="s">
@@ -5010,7 +5022,7 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="24" t="s">
         <v>193</v>
       </c>
@@ -5020,7 +5032,7 @@
       <c r="D63" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="77"/>
+      <c r="E63" s="70"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24" t="s">
         <v>198</v>
@@ -5050,7 +5062,7 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
+      <c r="A64" s="57"/>
       <c r="B64" s="49" t="s">
         <v>600</v>
       </c>
@@ -5060,7 +5072,7 @@
       <c r="D64" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="E64" s="77"/>
+      <c r="E64" s="70"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
         <v>202</v>
@@ -5088,7 +5100,7 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="24" t="s">
         <v>601</v>
       </c>
@@ -5098,7 +5110,7 @@
       <c r="D65" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="E65" s="77"/>
+      <c r="E65" s="70"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24" t="s">
         <v>204</v>
@@ -5124,10 +5136,10 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="27"/>
       <c r="C66" s="24"/>
-      <c r="E66" s="77"/>
+      <c r="E66" s="70"/>
       <c r="F66" s="24" t="s">
         <v>205</v>
       </c>
@@ -5155,10 +5167,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="24"/>
       <c r="C67" s="28"/>
-      <c r="E67" s="77"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
       <c r="H67" s="24"/>
@@ -5182,19 +5194,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
+      <c r="A68" s="57"/>
       <c r="B68" s="24"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="73" t="s">
+      <c r="E68" s="70"/>
+      <c r="F68" s="80" t="s">
         <v>624</v>
       </c>
-      <c r="G68" s="60"/>
-      <c r="H68" s="55" t="s">
+      <c r="G68" s="62"/>
+      <c r="H68" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="I68" s="60"/>
+      <c r="I68" s="62"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5214,21 +5226,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="55" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="G69" s="60"/>
-      <c r="H69" s="55" t="s">
+      <c r="G69" s="62"/>
+      <c r="H69" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="I69" s="60"/>
+      <c r="I69" s="62"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5248,21 +5260,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="55" t="s">
+      <c r="D70" s="62"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="G70" s="60"/>
-      <c r="H70" s="71" t="s">
-        <v>650</v>
-      </c>
-      <c r="I70" s="72"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="83" t="s">
+        <v>648</v>
+      </c>
+      <c r="I70" s="84"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5282,21 +5294,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="71" t="s">
-        <v>648</v>
-      </c>
-      <c r="G71" s="72"/>
-      <c r="H71" s="70" t="s">
+      <c r="D71" s="62"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="G71" s="84"/>
+      <c r="H71" s="61" t="s">
         <v>580</v>
       </c>
-      <c r="I71" s="60"/>
+      <c r="I71" s="62"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5316,19 +5328,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="70" t="s">
+      <c r="C72" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="55" t="s">
+      <c r="D72" s="62"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="I72" s="60"/>
+      <c r="I72" s="62"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5348,21 +5360,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="70" t="s">
+      <c r="C73" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="55" t="s">
+      <c r="D73" s="62"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="G73" s="60"/>
-      <c r="H73" s="55" t="s">
+      <c r="G73" s="62"/>
+      <c r="H73" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="I73" s="60"/>
+      <c r="I73" s="62"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5382,21 +5394,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="24"/>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="76" t="s">
+      <c r="D74" s="62"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="G74" s="60"/>
-      <c r="H74" s="55" t="s">
+      <c r="G74" s="62"/>
+      <c r="H74" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="I74" s="60"/>
+      <c r="I74" s="62"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5416,17 +5428,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
+      <c r="A75" s="57"/>
       <c r="B75" s="24"/>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="55" t="s">
+      <c r="D75" s="62"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="G75" s="60"/>
+      <c r="G75" s="62"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="2"/>
@@ -5448,17 +5460,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="57"/>
       <c r="B76" s="24"/>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="55" t="s">
+      <c r="D76" s="62"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="G76" s="60"/>
+      <c r="G76" s="62"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="2"/>
@@ -5480,13 +5492,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="27"/>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="78"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="71"/>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -5538,7 +5550,7 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="56" t="s">
         <v>227</v>
       </c>
       <c r="B79" s="24" t="s">
@@ -5550,7 +5562,7 @@
       <c r="D79" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="67" t="s">
+      <c r="E79" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="24" t="s">
@@ -5582,7 +5594,7 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="24" t="s">
         <v>556</v>
       </c>
@@ -5592,7 +5604,7 @@
       <c r="D80" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="68"/>
+      <c r="E80" s="81"/>
       <c r="F80" s="24" t="s">
         <v>354</v>
       </c>
@@ -5624,7 +5636,7 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="24" t="s">
         <v>557</v>
       </c>
@@ -5634,7 +5646,7 @@
       <c r="D81" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="68"/>
+      <c r="E81" s="81"/>
       <c r="F81" s="24" t="s">
         <v>230</v>
       </c>
@@ -5666,7 +5678,7 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="24"/>
       <c r="C82" s="24" t="s">
         <v>237</v>
@@ -5674,7 +5686,7 @@
       <c r="D82" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="68"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="46" t="s">
         <v>28</v>
       </c>
@@ -5704,7 +5716,7 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="24" t="s">
         <v>233</v>
       </c>
@@ -5714,7 +5726,7 @@
       <c r="D83" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="68"/>
+      <c r="E83" s="81"/>
       <c r="F83" s="24" t="s">
         <v>34</v>
       </c>
@@ -5744,7 +5756,7 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="24" t="s">
         <v>236</v>
       </c>
@@ -5754,7 +5766,7 @@
       <c r="D84" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="68"/>
+      <c r="E84" s="81"/>
       <c r="F84" s="24" t="s">
         <v>40</v>
       </c>
@@ -5784,7 +5796,7 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="24" t="s">
         <v>240</v>
       </c>
@@ -5794,7 +5806,7 @@
       <c r="D85" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="E85" s="68"/>
+      <c r="E85" s="81"/>
       <c r="F85" s="24" t="s">
         <v>559</v>
       </c>
@@ -5824,7 +5836,7 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="24" t="s">
         <v>243</v>
       </c>
@@ -5834,15 +5846,15 @@
       <c r="D86" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="68"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="24" t="s">
         <v>561</v>
       </c>
       <c r="G86" s="51"/>
-      <c r="H86" s="70" t="s">
+      <c r="H86" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="I86" s="56"/>
+      <c r="I86" s="60"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5862,7 +5874,7 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="24" t="s">
         <v>245</v>
       </c>
@@ -5872,15 +5884,15 @@
       <c r="D87" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="68"/>
+      <c r="E87" s="81"/>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="H87" s="55" t="s">
+      <c r="H87" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="I87" s="56"/>
+      <c r="I87" s="60"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5900,7 +5912,7 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="24" t="s">
         <v>606</v>
       </c>
@@ -5910,17 +5922,17 @@
       <c r="D88" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="68"/>
+      <c r="E88" s="81"/>
       <c r="F88" s="24" t="s">
         <v>255</v>
       </c>
       <c r="G88" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="H88" s="55" t="s">
+      <c r="H88" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="I88" s="56"/>
+      <c r="I88" s="60"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5940,7 +5952,7 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="24" t="s">
         <v>607</v>
       </c>
@@ -5950,15 +5962,15 @@
       <c r="D89" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="E89" s="68"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="24" t="s">
         <v>259</v>
       </c>
       <c r="G89" s="27"/>
-      <c r="H89" s="55" t="s">
+      <c r="H89" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="I89" s="56"/>
+      <c r="I89" s="60"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -5978,7 +5990,7 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="51"/>
       <c r="C90" s="48" t="s">
         <v>261</v>
@@ -5986,15 +5998,15 @@
       <c r="D90" s="48" t="s">
         <v>627</v>
       </c>
-      <c r="E90" s="68"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="24" t="s">
         <v>262</v>
       </c>
       <c r="G90" s="27"/>
-      <c r="H90" s="55" t="s">
+      <c r="H90" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="I90" s="56"/>
+      <c r="I90" s="60"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6014,21 +6026,21 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="56"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="55" t="s">
+      <c r="D91" s="60"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="G91" s="56"/>
-      <c r="H91" s="55" t="s">
+      <c r="G91" s="60"/>
+      <c r="H91" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="I91" s="56"/>
+      <c r="I91" s="60"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6048,21 +6060,21 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="55" t="s">
+      <c r="D92" s="60"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="70" t="s">
-        <v>639</v>
-      </c>
-      <c r="I92" s="56"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="61" t="s">
+        <v>638</v>
+      </c>
+      <c r="I92" s="60"/>
       <c r="J92" s="2" t="s">
         <v>269</v>
       </c>
@@ -6084,21 +6096,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="27"/>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="56"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="55" t="s">
+      <c r="D93" s="60"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="55" t="s">
+      <c r="G93" s="60"/>
+      <c r="H93" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="I93" s="56"/>
+      <c r="I93" s="60"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6118,17 +6130,17 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="27"/>
-      <c r="C94" s="55" t="s">
+      <c r="C94" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="56"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="55" t="s">
+      <c r="D94" s="60"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="G94" s="56"/>
+      <c r="G94" s="60"/>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
       <c r="J94" s="2"/>
@@ -6150,17 +6162,17 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="27"/>
-      <c r="C95" s="55" t="s">
+      <c r="C95" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="56"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="55" t="s">
+      <c r="D95" s="60"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="G95" s="56"/>
+      <c r="G95" s="60"/>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
       <c r="J95" s="2"/>
@@ -6182,17 +6194,17 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="24"/>
-      <c r="C96" s="55" t="s">
+      <c r="C96" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="55" t="s">
+      <c r="D96" s="60"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="G96" s="56"/>
+      <c r="G96" s="60"/>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
       <c r="J96" s="2"/>
@@ -6214,17 +6226,17 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="24"/>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="D97" s="56"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="70" t="s">
+      <c r="D97" s="60"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="G97" s="56"/>
+      <c r="G97" s="60"/>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
       <c r="J97" s="2"/>
@@ -6246,17 +6258,17 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="70" t="s">
+      <c r="A98" s="57"/>
+      <c r="B98" s="61" t="s">
         <v>635</v>
       </c>
-      <c r="C98" s="56"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="70" t="s">
+      <c r="E98" s="81"/>
+      <c r="F98" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="G98" s="56"/>
+      <c r="G98" s="60"/>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
       <c r="J98" s="2"/>
@@ -6278,18 +6290,18 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="74" t="s">
+      <c r="A99" s="58"/>
+      <c r="B99" s="67" t="s">
         <v>623</v>
       </c>
-      <c r="C99" s="88"/>
+      <c r="C99" s="68"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="69"/>
+      <c r="E99" s="82"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="H99" s="56"/>
+      <c r="H99" s="60"/>
       <c r="I99" s="27"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
@@ -6338,7 +6350,7 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="56" t="s">
         <v>282</v>
       </c>
       <c r="C101" s="49" t="s">
@@ -6347,7 +6359,7 @@
       <c r="D101" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="E101" s="57" t="s">
+      <c r="E101" s="86" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="46" t="s">
@@ -6379,7 +6391,7 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="30" t="s">
         <v>563</v>
       </c>
@@ -6389,7 +6401,7 @@
       <c r="D102" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="E102" s="58"/>
+      <c r="E102" s="87"/>
       <c r="F102" s="46" t="s">
         <v>18</v>
       </c>
@@ -6421,7 +6433,7 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="30" t="s">
         <v>42</v>
       </c>
@@ -6431,7 +6443,7 @@
       <c r="D103" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="58"/>
+      <c r="E103" s="87"/>
       <c r="F103" s="46" t="s">
         <v>291</v>
       </c>
@@ -6463,7 +6475,7 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="30" t="s">
         <v>581</v>
       </c>
@@ -6473,7 +6485,7 @@
       <c r="D104" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E104" s="58"/>
+      <c r="E104" s="87"/>
       <c r="F104" s="46" t="s">
         <v>294</v>
       </c>
@@ -6503,7 +6515,7 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="30" t="s">
         <v>297</v>
       </c>
@@ -6513,7 +6525,7 @@
       <c r="D105" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E105" s="58"/>
+      <c r="E105" s="87"/>
       <c r="F105" s="49" t="s">
         <v>299</v>
       </c>
@@ -6545,7 +6557,7 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
+      <c r="A106" s="57"/>
       <c r="B106" s="30" t="s">
         <v>303</v>
       </c>
@@ -6555,7 +6567,7 @@
       <c r="D106" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="E106" s="58"/>
+      <c r="E106" s="87"/>
       <c r="F106" s="25" t="s">
         <v>306</v>
       </c>
@@ -6587,7 +6599,7 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="30" t="s">
         <v>310</v>
       </c>
@@ -6597,7 +6609,7 @@
       <c r="D107" s="30" t="s">
         <v>566</v>
       </c>
-      <c r="E107" s="58"/>
+      <c r="E107" s="87"/>
       <c r="F107" s="24" t="s">
         <v>312</v>
       </c>
@@ -6627,7 +6639,7 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="30" t="s">
         <v>315</v>
       </c>
@@ -6637,7 +6649,7 @@
       <c r="D108" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="E108" s="58"/>
+      <c r="E108" s="87"/>
       <c r="F108" s="24" t="s">
         <v>317</v>
       </c>
@@ -6664,7 +6676,7 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="30" t="s">
         <v>319</v>
       </c>
@@ -6674,7 +6686,7 @@
       <c r="D109" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="E109" s="58"/>
+      <c r="E109" s="87"/>
       <c r="F109" s="27"/>
       <c r="G109" s="24" t="s">
         <v>321</v>
@@ -6700,14 +6712,14 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
+      <c r="A110" s="57"/>
       <c r="B110" s="30" t="s">
         <v>612</v>
       </c>
       <c r="C110" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="E110" s="58"/>
+      <c r="E110" s="87"/>
       <c r="F110" s="24" t="s">
         <v>323</v>
       </c>
@@ -6735,7 +6747,7 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30" t="s">
         <v>616</v>
@@ -6743,7 +6755,7 @@
       <c r="D111" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="E111" s="58"/>
+      <c r="E111" s="87"/>
       <c r="F111" s="25" t="s">
         <v>619</v>
       </c>
@@ -6769,7 +6781,7 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="30" t="s">
         <v>613</v>
       </c>
@@ -6779,7 +6791,7 @@
       <c r="D112" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="E112" s="58"/>
+      <c r="E112" s="87"/>
       <c r="F112" s="25" t="s">
         <v>620</v>
       </c>
@@ -6805,7 +6817,7 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="30" t="s">
         <v>614</v>
       </c>
@@ -6815,7 +6827,7 @@
       <c r="D113" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="E113" s="58"/>
+      <c r="E113" s="87"/>
       <c r="F113" s="25" t="s">
         <v>621</v>
       </c>
@@ -6841,21 +6853,21 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
       <c r="D114" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="E114" s="58"/>
-      <c r="F114" s="70" t="s">
+      <c r="E114" s="87"/>
+      <c r="F114" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="G114" s="60"/>
-      <c r="H114" s="55" t="s">
+      <c r="G114" s="62"/>
+      <c r="H114" s="59" t="s">
         <v>327</v>
       </c>
-      <c r="I114" s="56"/>
+      <c r="I114" s="60"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -6875,21 +6887,21 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="27"/>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="D115" s="60"/>
-      <c r="E115" s="58"/>
-      <c r="F115" s="70" t="s">
+      <c r="D115" s="62"/>
+      <c r="E115" s="87"/>
+      <c r="F115" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="G115" s="60"/>
-      <c r="H115" s="55" t="s">
+      <c r="G115" s="62"/>
+      <c r="H115" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="I115" s="56"/>
+      <c r="I115" s="60"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -6909,21 +6921,21 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="27"/>
-      <c r="C116" s="55" t="s">
+      <c r="C116" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="D116" s="60"/>
-      <c r="E116" s="58"/>
-      <c r="F116" s="55" t="s">
+      <c r="D116" s="62"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="59" t="s">
         <v>332</v>
       </c>
-      <c r="G116" s="60"/>
-      <c r="H116" s="55" t="s">
+      <c r="G116" s="62"/>
+      <c r="H116" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="I116" s="56"/>
+      <c r="I116" s="60"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -6943,21 +6955,21 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="65"/>
-      <c r="B117" s="55" t="s">
+      <c r="A117" s="57"/>
+      <c r="B117" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="C117" s="60"/>
+      <c r="C117" s="62"/>
       <c r="D117" s="24"/>
-      <c r="E117" s="58"/>
-      <c r="F117" s="55" t="s">
+      <c r="E117" s="87"/>
+      <c r="F117" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="G117" s="60"/>
-      <c r="H117" s="70" t="s">
-        <v>638</v>
-      </c>
-      <c r="I117" s="56"/>
+      <c r="G117" s="62"/>
+      <c r="H117" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="I117" s="60"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -6977,21 +6989,21 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="55" t="s">
+      <c r="A118" s="57"/>
+      <c r="B118" s="59" t="s">
         <v>336</v>
       </c>
-      <c r="C118" s="60"/>
+      <c r="C118" s="62"/>
       <c r="D118" s="27"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="55" t="s">
+      <c r="E118" s="87"/>
+      <c r="F118" s="59" t="s">
         <v>337</v>
       </c>
-      <c r="G118" s="60"/>
-      <c r="H118" s="70" t="s">
+      <c r="G118" s="62"/>
+      <c r="H118" s="61" t="s">
         <v>338</v>
       </c>
-      <c r="I118" s="56"/>
+      <c r="I118" s="60"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7011,21 +7023,21 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="55" t="s">
+      <c r="A119" s="57"/>
+      <c r="B119" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="C119" s="60"/>
+      <c r="C119" s="62"/>
       <c r="D119" s="27"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="55" t="s">
+      <c r="E119" s="87"/>
+      <c r="F119" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="G119" s="60"/>
-      <c r="H119" s="55" t="s">
+      <c r="G119" s="62"/>
+      <c r="H119" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="I119" s="56"/>
+      <c r="I119" s="60"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7045,21 +7057,21 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
-      <c r="B120" s="55" t="s">
+      <c r="A120" s="57"/>
+      <c r="B120" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="62"/>
       <c r="D120" s="28"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="55" t="s">
+      <c r="E120" s="87"/>
+      <c r="F120" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="G120" s="60"/>
-      <c r="H120" s="55" t="s">
+      <c r="G120" s="62"/>
+      <c r="H120" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="I120" s="56"/>
+      <c r="I120" s="60"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7079,19 +7091,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="65"/>
+      <c r="A121" s="57"/>
       <c r="B121" s="27"/>
       <c r="C121" s="24"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="58"/>
-      <c r="F121" s="55" t="s">
+      <c r="E121" s="87"/>
+      <c r="F121" s="59" t="s">
         <v>345</v>
       </c>
-      <c r="G121" s="60"/>
-      <c r="H121" s="55" t="s">
+      <c r="G121" s="62"/>
+      <c r="H121" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="I121" s="60"/>
+      <c r="I121" s="62"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7111,11 +7123,11 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="65"/>
+      <c r="A122" s="57"/>
       <c r="B122" s="24"/>
       <c r="C122" s="27"/>
       <c r="D122" s="28"/>
-      <c r="E122" s="59"/>
+      <c r="E122" s="88"/>
       <c r="F122" s="31" t="s">
         <v>347</v>
       </c>
@@ -7141,18 +7153,18 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="65"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="20"/>
       <c r="C123" s="22"/>
-      <c r="D123" s="85" t="s">
+      <c r="D123" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="E123" s="87"/>
+      <c r="E123" s="64"/>
       <c r="F123" s="23"/>
-      <c r="G123" s="55" t="s">
+      <c r="G123" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="H123" s="60"/>
+      <c r="H123" s="62"/>
       <c r="I123" s="8"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
@@ -7173,13 +7185,13 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="65"/>
+      <c r="A124" s="57"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
-      <c r="D124" s="85" t="s">
+      <c r="D124" s="63" t="s">
         <v>350</v>
       </c>
-      <c r="E124" s="87"/>
+      <c r="E124" s="64"/>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
@@ -7203,13 +7215,13 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
+      <c r="A125" s="58"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="55" t="s">
+      <c r="D125" s="59" t="s">
         <v>351</v>
       </c>
-      <c r="E125" s="60"/>
+      <c r="E125" s="62"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
@@ -7261,7 +7273,7 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="64" t="s">
+      <c r="A127" s="56" t="s">
         <v>352</v>
       </c>
       <c r="B127" s="24" t="s">
@@ -7273,9 +7285,9 @@
       <c r="E127" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="F127" s="80"/>
-      <c r="G127" s="81"/>
-      <c r="H127" s="60"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="62"/>
       <c r="I127" s="8"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
@@ -7296,7 +7308,7 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="65"/>
+      <c r="A128" s="57"/>
       <c r="B128" s="26" t="s">
         <v>569</v>
       </c>
@@ -7332,7 +7344,7 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="24" t="s">
         <v>118</v>
       </c>
@@ -7368,7 +7380,7 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="65"/>
+      <c r="A130" s="57"/>
       <c r="B130" s="24" t="s">
         <v>360</v>
       </c>
@@ -7404,7 +7416,7 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="65"/>
+      <c r="A131" s="57"/>
       <c r="B131" s="24" t="s">
         <v>363</v>
       </c>
@@ -7438,7 +7450,7 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="65"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="29"/>
       <c r="C132" s="24" t="s">
         <v>366</v>
@@ -7470,7 +7482,7 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="65"/>
+      <c r="A133" s="57"/>
       <c r="B133" s="29"/>
       <c r="C133" s="24"/>
       <c r="D133" s="24" t="s">
@@ -7500,7 +7512,7 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="65"/>
+      <c r="A134" s="57"/>
       <c r="B134" s="25" t="s">
         <v>368</v>
       </c>
@@ -7534,7 +7546,7 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="65"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="54"/>
       <c r="C135" s="24" t="s">
         <v>371</v>
@@ -7566,7 +7578,7 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
+      <c r="A136" s="57"/>
       <c r="B136" s="27"/>
       <c r="C136" s="25" t="s">
         <v>373</v>
@@ -7598,15 +7610,15 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="65"/>
-      <c r="B137" s="55" t="s">
+      <c r="A137" s="57"/>
+      <c r="B137" s="59" t="s">
         <v>625</v>
       </c>
-      <c r="C137" s="56"/>
-      <c r="D137" s="55" t="s">
+      <c r="C137" s="60"/>
+      <c r="D137" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="E137" s="56"/>
+      <c r="E137" s="60"/>
       <c r="F137" s="34"/>
       <c r="G137" s="35"/>
       <c r="H137" s="33"/>
@@ -7630,15 +7642,15 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="65"/>
-      <c r="B138" s="55" t="s">
+      <c r="A138" s="57"/>
+      <c r="B138" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="C138" s="56"/>
-      <c r="D138" s="55" t="s">
+      <c r="C138" s="60"/>
+      <c r="D138" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="E138" s="56"/>
+      <c r="E138" s="60"/>
       <c r="F138" s="34"/>
       <c r="G138" s="35"/>
       <c r="H138" s="33"/>
@@ -7662,15 +7674,15 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="65"/>
-      <c r="B139" s="55" t="s">
+      <c r="A139" s="57"/>
+      <c r="B139" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="C139" s="56"/>
-      <c r="D139" s="55" t="s">
+      <c r="C139" s="60"/>
+      <c r="D139" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="E139" s="56"/>
+      <c r="E139" s="60"/>
       <c r="F139" s="34"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
@@ -7694,15 +7706,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="65"/>
-      <c r="B140" s="55" t="s">
+      <c r="A140" s="57"/>
+      <c r="B140" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="C140" s="56"/>
-      <c r="D140" s="55" t="s">
+      <c r="C140" s="60"/>
+      <c r="D140" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="E140" s="56"/>
+      <c r="E140" s="60"/>
       <c r="F140" s="34"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
@@ -7726,15 +7738,15 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="65"/>
-      <c r="B141" s="70" t="s">
+      <c r="A141" s="57"/>
+      <c r="B141" s="61" t="s">
         <v>636</v>
       </c>
-      <c r="C141" s="56"/>
-      <c r="D141" s="85" t="s">
+      <c r="C141" s="60"/>
+      <c r="D141" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="E141" s="56"/>
+      <c r="E141" s="60"/>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
@@ -7758,15 +7770,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="65"/>
-      <c r="B142" s="70" t="s">
+      <c r="A142" s="57"/>
+      <c r="B142" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="C142" s="56"/>
-      <c r="D142" s="85" t="s">
-        <v>641</v>
-      </c>
-      <c r="E142" s="56"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="63" t="s">
+        <v>640</v>
+      </c>
+      <c r="E142" s="60"/>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
@@ -7790,13 +7802,13 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="65"/>
-      <c r="B143" s="55" t="s">
+      <c r="A143" s="57"/>
+      <c r="B143" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="C143" s="56"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="56"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="60"/>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
@@ -7820,11 +7832,11 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="65"/>
-      <c r="B144" s="85" t="s">
+      <c r="A144" s="57"/>
+      <c r="B144" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="C144" s="87"/>
+      <c r="C144" s="64"/>
       <c r="D144" s="21"/>
       <c r="E144" s="21"/>
       <c r="F144" s="8"/>
@@ -7850,7 +7862,7 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="65"/>
+      <c r="A145" s="57"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
       <c r="D145" s="21"/>
@@ -7877,7 +7889,7 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="66"/>
+      <c r="A146" s="58"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="10"/>
@@ -7932,17 +7944,17 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="79" t="s">
+      <c r="A148" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="62"/>
-      <c r="G148" s="62"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="63"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="76"/>
+      <c r="H148" s="76"/>
+      <c r="I148" s="77"/>
       <c r="J148" s="2"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -7990,17 +8002,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="80" t="s">
+      <c r="A150" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="B150" s="81"/>
-      <c r="C150" s="81"/>
-      <c r="D150" s="81"/>
-      <c r="E150" s="81"/>
-      <c r="F150" s="81"/>
-      <c r="G150" s="81"/>
-      <c r="H150" s="81"/>
-      <c r="I150" s="60"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="I150" s="62"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8021,16 +8033,16 @@
     </row>
     <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36"/>
-      <c r="B151" s="80" t="s">
+      <c r="B151" s="65" t="s">
         <v>388</v>
       </c>
-      <c r="C151" s="81"/>
-      <c r="D151" s="81"/>
-      <c r="E151" s="81"/>
-      <c r="F151" s="81"/>
-      <c r="G151" s="81"/>
-      <c r="H151" s="81"/>
-      <c r="I151" s="60"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="62"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8051,16 +8063,16 @@
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
-      <c r="B152" s="80" t="s">
+      <c r="B152" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="C152" s="81"/>
-      <c r="D152" s="81"/>
-      <c r="E152" s="81"/>
-      <c r="F152" s="81"/>
-      <c r="G152" s="81"/>
-      <c r="H152" s="81"/>
-      <c r="I152" s="60"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="62"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8081,16 +8093,16 @@
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
-      <c r="B153" s="80" t="s">
+      <c r="B153" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="C153" s="81"/>
-      <c r="D153" s="81"/>
-      <c r="E153" s="81"/>
-      <c r="F153" s="81"/>
-      <c r="G153" s="81"/>
-      <c r="H153" s="81"/>
-      <c r="I153" s="60"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="62"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8111,16 +8123,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
-      <c r="B154" s="80" t="s">
+      <c r="B154" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="C154" s="81"/>
-      <c r="D154" s="81"/>
-      <c r="E154" s="81"/>
-      <c r="F154" s="81"/>
-      <c r="G154" s="81"/>
-      <c r="H154" s="81"/>
-      <c r="I154" s="60"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="62"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8141,16 +8153,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
-      <c r="B155" s="80" t="s">
+      <c r="B155" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="C155" s="81"/>
-      <c r="D155" s="81"/>
-      <c r="E155" s="81"/>
-      <c r="F155" s="81"/>
-      <c r="G155" s="81"/>
-      <c r="H155" s="81"/>
-      <c r="I155" s="60"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="66"/>
+      <c r="H155" s="66"/>
+      <c r="I155" s="62"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8171,16 +8183,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
-      <c r="B156" s="86" t="s">
+      <c r="B156" s="72" t="s">
         <v>393</v>
       </c>
-      <c r="C156" s="81"/>
-      <c r="D156" s="81"/>
-      <c r="E156" s="81"/>
-      <c r="F156" s="81"/>
-      <c r="G156" s="81"/>
-      <c r="H156" s="81"/>
-      <c r="I156" s="60"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="62"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8200,17 +8212,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="80" t="s">
+      <c r="A157" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="B157" s="81"/>
-      <c r="C157" s="81"/>
-      <c r="D157" s="81"/>
-      <c r="E157" s="81"/>
-      <c r="F157" s="81"/>
-      <c r="G157" s="81"/>
-      <c r="H157" s="81"/>
-      <c r="I157" s="60"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="66"/>
+      <c r="H157" s="66"/>
+      <c r="I157" s="62"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8230,21 +8242,21 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="84"/>
+      <c r="A158" s="69"/>
       <c r="B158" s="36" t="s">
         <v>395</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="D158" s="82" t="s">
+      <c r="D158" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="E158" s="81"/>
-      <c r="F158" s="81"/>
-      <c r="G158" s="81"/>
-      <c r="H158" s="81"/>
-      <c r="I158" s="60"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="62"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8264,19 +8276,19 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="77"/>
+      <c r="A159" s="70"/>
       <c r="B159" s="36"/>
       <c r="C159" s="37" t="s">
         <v>398</v>
       </c>
-      <c r="D159" s="83" t="s">
+      <c r="D159" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="E159" s="81"/>
-      <c r="F159" s="81"/>
-      <c r="G159" s="81"/>
-      <c r="H159" s="81"/>
-      <c r="I159" s="60"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="62"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8296,19 +8308,19 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="78"/>
+      <c r="A160" s="71"/>
       <c r="B160" s="36"/>
       <c r="C160" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="D160" s="83" t="s">
+      <c r="D160" s="73" t="s">
         <v>401</v>
       </c>
-      <c r="E160" s="81"/>
-      <c r="F160" s="81"/>
-      <c r="G160" s="81"/>
-      <c r="H160" s="81"/>
-      <c r="I160" s="60"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
+      <c r="I160" s="62"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8356,7 +8368,7 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="84"/>
+      <c r="A162" s="69"/>
       <c r="B162" s="39" t="s">
         <v>402</v>
       </c>
@@ -8400,7 +8412,7 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="77"/>
+      <c r="A163" s="70"/>
       <c r="B163" s="35" t="s">
         <v>405</v>
       </c>
@@ -8444,7 +8456,7 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="77"/>
+      <c r="A164" s="70"/>
       <c r="B164" s="35" t="s">
         <v>413</v>
       </c>
@@ -8488,7 +8500,7 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="77"/>
+      <c r="A165" s="70"/>
       <c r="B165" s="35" t="s">
         <v>421</v>
       </c>
@@ -8532,7 +8544,7 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="77"/>
+      <c r="A166" s="70"/>
       <c r="B166" s="35" t="s">
         <v>429</v>
       </c>
@@ -8570,7 +8582,7 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="77"/>
+      <c r="A167" s="70"/>
       <c r="B167" s="35" t="s">
         <v>434</v>
       </c>
@@ -8612,7 +8624,7 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="77"/>
+      <c r="A168" s="70"/>
       <c r="B168" s="35" t="s">
         <v>441</v>
       </c>
@@ -8654,7 +8666,7 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="77"/>
+      <c r="A169" s="70"/>
       <c r="B169" s="35" t="s">
         <v>448</v>
       </c>
@@ -8698,7 +8710,7 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="77"/>
+      <c r="A170" s="70"/>
       <c r="B170" s="35" t="s">
         <v>456</v>
       </c>
@@ -8742,7 +8754,7 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="77"/>
+      <c r="A171" s="70"/>
       <c r="B171" s="35" t="s">
         <v>464</v>
       </c>
@@ -8784,7 +8796,7 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="77"/>
+      <c r="A172" s="70"/>
       <c r="B172" s="35" t="s">
         <v>471</v>
       </c>
@@ -8828,7 +8840,7 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="77"/>
+      <c r="A173" s="70"/>
       <c r="B173" s="35" t="s">
         <v>479</v>
       </c>
@@ -8872,7 +8884,7 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="77"/>
+      <c r="A174" s="70"/>
       <c r="B174" s="35" t="s">
         <v>487</v>
       </c>
@@ -8916,7 +8928,7 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="77"/>
+      <c r="A175" s="70"/>
       <c r="B175" s="35" t="s">
         <v>495</v>
       </c>
@@ -8958,7 +8970,7 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="77"/>
+      <c r="A176" s="70"/>
       <c r="B176" s="35" t="s">
         <v>502</v>
       </c>
@@ -8998,7 +9010,7 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="77"/>
+      <c r="A177" s="70"/>
       <c r="B177" s="35" t="s">
         <v>508</v>
       </c>
@@ -9036,7 +9048,7 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="77"/>
+      <c r="A178" s="70"/>
       <c r="B178" s="35" t="s">
         <v>513</v>
       </c>
@@ -9076,7 +9088,7 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="77"/>
+      <c r="A179" s="70"/>
       <c r="B179" s="35" t="s">
         <v>519</v>
       </c>
@@ -9116,7 +9128,7 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="78"/>
+      <c r="A180" s="71"/>
       <c r="B180" s="35" t="s">
         <v>525</v>
       </c>
@@ -32171,6 +32183,150 @@
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E101:E122"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A27:A51"/>
+    <mergeCell ref="E27:E51"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="E53:E77"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E79:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="A148:I148"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D159:I159"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A162:A180"/>
+    <mergeCell ref="B152:I152"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="A157:I157"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="A79:A99"/>
     <mergeCell ref="A101:A125"/>
     <mergeCell ref="A127:A146"/>
     <mergeCell ref="F91:G91"/>
@@ -32195,150 +32351,6 @@
     <mergeCell ref="H93:I93"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B99:C99"/>
-    <mergeCell ref="A162:A180"/>
-    <mergeCell ref="B152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="B156:I156"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A99"/>
-    <mergeCell ref="A148:I148"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E101:E122"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0481a8c71f235ca0/Desktop/TT 2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1217353D-3558-4FA5-95CA-AD1A89C32E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{1217353D-3558-4FA5-95CA-AD1A89C32E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C860B3-E162-4DCC-8FE1-33BA3CBA9692}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH II SEM " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$188</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$190</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="z2ygc8YGc3LxX8fgbDWnasbutonDUtLEfg4aA8syq/M="/>
     </ext>
@@ -567,9 +578,6 @@
     <t>LD1,D2(CI121)-FF4/SRG</t>
   </si>
   <si>
-    <t>LG3,G4(HS111)-FF4/SGL</t>
-  </si>
-  <si>
     <t>TA5(HS111)-TS6/PRI</t>
   </si>
   <si>
@@ -1089,9 +1097,6 @@
     <t>SAT</t>
   </si>
   <si>
-    <t>LB9,B10(HS111)-G1/RAV</t>
-  </si>
-  <si>
     <t>LA3,A4(PH211)-G1/RKD</t>
   </si>
   <si>
@@ -1113,9 +1118,6 @@
     <t>TA15(MA211)-TS7/DGA</t>
   </si>
   <si>
-    <t>LB9,B10(MA211)-FF4/RSC</t>
-  </si>
-  <si>
     <t>TB14(MA211)-TS7/ANK</t>
   </si>
   <si>
@@ -1129,9 +1131,6 @@
   </si>
   <si>
     <t>TB7(GE112)-TS6/GGL</t>
-  </si>
-  <si>
-    <t>LG3,G4(MA211)-CS5/DCS</t>
   </si>
   <si>
     <t>TA3(CI121)-TS6/AW</t>
@@ -1804,12 +1803,6 @@
     <t>LA5,A6(MA211)-FF3/ANK</t>
   </si>
   <si>
-    <t>LC1,C2,C3(MA212)-CR325/AN</t>
-  </si>
-  <si>
-    <t>LC1,C2,C3(PH212)-CR325/SDC</t>
-  </si>
-  <si>
     <t>TA16(GE112)-F10/NBH</t>
   </si>
   <si>
@@ -1882,9 +1875,6 @@
     <t>TG3(GE112)-TS12/ADM</t>
   </si>
   <si>
-    <t>TC1(PH212)-TS13/DAM</t>
-  </si>
-  <si>
     <t>TC2(MA212)-TS8/ANK</t>
   </si>
   <si>
@@ -1922,9 +1912,6 @@
   </si>
   <si>
     <t>TC1(GE112)-TS20/NTS</t>
-  </si>
-  <si>
-    <t>LA17,A18(MA211)-G4/RSA</t>
   </si>
   <si>
     <t>LA15,A16(MA211)-FF9/DGA</t>
@@ -2042,12 +2029,36 @@
       <t>AYS</t>
     </r>
   </si>
+  <si>
+    <t>LA17,A18(MA211)-G8/RSA</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(MA212)-FF5/AN</t>
+  </si>
+  <si>
+    <t>LG3,G4(MA211)-CS2/DCS</t>
+  </si>
+  <si>
+    <t>LG3,G4(HS111)-CS3/SGL</t>
+  </si>
+  <si>
+    <t>LB9,B10(MA211)-G8/RSC</t>
+  </si>
+  <si>
+    <t>LB9,B10(HS111)-G7/RAV</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(PH212)-CR501/SDC</t>
+  </si>
+  <si>
+    <t>TC1(PH212)-TR302/DAM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2170,6 +2181,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2336,8 +2354,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="97">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2380,13 +2398,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2400,7 +2417,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2446,7 +2463,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2455,15 +2472,22 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2474,14 +2498,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2508,7 +2532,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2520,11 +2543,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2535,6 +2558,24 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2552,6 +2593,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2752,13 +2797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46:I46"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2780,16 +2825,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2853,29 +2898,29 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="2"/>
@@ -2897,27 +2942,27 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2937,27 +2982,27 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="46" t="s">
+      <c r="E5" s="82"/>
+      <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -2977,27 +3022,27 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="24" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -3017,27 +3062,27 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="2"/>
@@ -3059,25 +3104,25 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="82"/>
+      <c r="F8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
@@ -3099,21 +3144,21 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="20" t="s">
-        <v>544</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="24" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
@@ -3137,25 +3182,22 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="E10" s="82"/>
+      <c r="G10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
@@ -3179,29 +3221,29 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="24" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="24" t="s">
-        <v>633</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="91" t="s">
+        <v>625</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>51</v>
@@ -3221,27 +3263,27 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="48" t="s">
-        <v>594</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="82"/>
+      <c r="F12" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3261,25 +3303,25 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="46" t="s">
-        <v>595</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -3299,21 +3341,21 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="24" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24" t="s">
+      <c r="E14" s="82"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -3333,21 +3375,21 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D15" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -3367,15 +3409,15 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -3395,21 +3437,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="59" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="59" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="59" t="s">
+      <c r="G17" s="62"/>
+      <c r="H17" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="60"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3429,21 +3471,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="59" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="67" t="s">
+      <c r="G18" s="62"/>
+      <c r="H18" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="60"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3463,21 +3505,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="59" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="61" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="61" t="s">
-        <v>642</v>
-      </c>
-      <c r="I19" s="60"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="63" t="s">
+        <v>634</v>
+      </c>
+      <c r="I19" s="62"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3497,21 +3539,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="61" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="61" t="s">
-        <v>644</v>
-      </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61" t="s">
-        <v>646</v>
-      </c>
-      <c r="I20" s="60"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="63" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63" t="s">
+        <v>638</v>
+      </c>
+      <c r="I20" s="62"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3531,21 +3573,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="61" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="59" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="59" t="s">
+      <c r="G21" s="62"/>
+      <c r="H21" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="60"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3565,21 +3607,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="59" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="59" t="s">
+      <c r="D22" s="62"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="59" t="s">
+      <c r="G22" s="62"/>
+      <c r="H22" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="60"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3599,21 +3641,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="59" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="59" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="59" t="s">
+      <c r="G23" s="62"/>
+      <c r="H23" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3633,21 +3675,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="59" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="59" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="60"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3667,17 +3709,17 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="11"/>
@@ -3725,31 +3767,31 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="79" t="s">
+      <c r="E27" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>99</v>
       </c>
       <c r="J27" s="2"/>
@@ -3771,27 +3813,27 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="82"/>
+      <c r="F28" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="I28" s="24" t="s">
+      <c r="H28" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>117</v>
       </c>
       <c r="J28" s="2"/>
@@ -3813,25 +3855,27 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="81"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="24" t="s">
+      <c r="E29" s="82"/>
+      <c r="F29" s="93" t="s">
+        <v>649</v>
+      </c>
+      <c r="G29" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>586</v>
-      </c>
-      <c r="I29" s="28"/>
+      <c r="H29" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="I29" s="27"/>
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -3851,27 +3895,27 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="59"/>
+      <c r="B30" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="E30" s="82"/>
+      <c r="F30" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="I30" s="28"/>
+      <c r="H30" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="I30" s="27"/>
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3891,23 +3935,25 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="48" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="81"/>
-      <c r="F31" s="24" t="s">
+      <c r="E31" s="82"/>
+      <c r="F31" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3927,25 +3973,25 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="55" t="s">
-        <v>649</v>
-      </c>
-      <c r="D32" s="24" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="81"/>
-      <c r="F32" s="24" t="s">
+      <c r="E32" s="82"/>
+      <c r="F32" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="I32" s="24"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="2"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3965,23 +4011,23 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="46" t="s">
-        <v>596</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="24" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="E33" s="82"/>
+      <c r="F33" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>550</v>
-      </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="24"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -4001,23 +4047,23 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="46" t="s">
-        <v>597</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="46" t="s">
-        <v>547</v>
-      </c>
-      <c r="E34" s="81"/>
-      <c r="F34" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="27"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="E34" s="82"/>
+      <c r="F34" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="H34" s="23"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -4037,21 +4083,21 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="E35" s="81"/>
-      <c r="F35" s="24" t="s">
-        <v>583</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="24"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E35" s="82"/>
+      <c r="F35" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -4071,23 +4117,23 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="81"/>
-      <c r="F36" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24" t="s">
-        <v>643</v>
-      </c>
-      <c r="I36" s="28"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="G36" s="26"/>
+      <c r="H36" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="I36" s="27"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -4107,25 +4153,25 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="25" t="s">
+      <c r="E37" s="82"/>
+      <c r="F37" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I37" s="28"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -4145,25 +4191,25 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="24" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="81"/>
-      <c r="F38" s="25" t="s">
+      <c r="E38" s="82"/>
+      <c r="F38" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="I38" s="28"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4183,23 +4229,23 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="24" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="25" t="s">
+      <c r="E39" s="82"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="28"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -4219,21 +4265,21 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="25" t="s">
+      <c r="A40" s="59"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="51"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="25" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="25" t="s">
+      <c r="H40" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="28"/>
+      <c r="I40" s="27"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -4253,16 +4299,16 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25" t="s">
+      <c r="A41" s="59"/>
+      <c r="B41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="28"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -4282,17 +4328,17 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="59" t="s">
+      <c r="A42" s="59"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4312,21 +4358,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="59" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="59" t="s">
+      <c r="D43" s="62"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59" t="s">
+      <c r="G43" s="62"/>
+      <c r="H43" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="60"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4346,21 +4392,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="61" t="s">
+      <c r="A44" s="59"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="60"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="61" t="s">
-        <v>641</v>
-      </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="59" t="s">
+      <c r="D44" s="62"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="63" t="s">
+        <v>633</v>
+      </c>
+      <c r="G44" s="62"/>
+      <c r="H44" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="60"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4380,21 +4426,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="61" t="s">
+      <c r="A45" s="59"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="61" t="s">
-        <v>639</v>
-      </c>
-      <c r="G45" s="60"/>
-      <c r="H45" s="61" t="s">
-        <v>637</v>
-      </c>
-      <c r="I45" s="60"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="G45" s="62"/>
+      <c r="H45" s="63" t="s">
+        <v>629</v>
+      </c>
+      <c r="I45" s="62"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4414,21 +4460,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="59" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="59" t="s">
+      <c r="D46" s="62"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="83" t="s">
-        <v>650</v>
-      </c>
-      <c r="I46" s="84"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="84" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="85"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4448,21 +4494,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="59" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="59" t="s">
+      <c r="D47" s="62"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="60"/>
-      <c r="H47" s="59" t="s">
+      <c r="G47" s="62"/>
+      <c r="H47" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="60"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4482,21 +4528,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="59" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="59" t="s">
+      <c r="D48" s="62"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="59" t="s">
+      <c r="G48" s="62"/>
+      <c r="H48" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="60"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4516,21 +4562,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="59" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="59" t="s">
+      <c r="D49" s="62"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="80" t="s">
+      <c r="G49" s="62"/>
+      <c r="H49" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="I49" s="60"/>
+      <c r="I49" s="62"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4550,17 +4596,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="59" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="60"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4580,17 +4626,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="59" t="s">
+      <c r="A51" s="60"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="60"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4638,25 +4684,27 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="79" t="s">
+      <c r="B53" s="23" t="s">
+        <v>567</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="24" t="s">
+      <c r="F53" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="H53" s="26"/>
+      <c r="I53" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J53" s="2"/>
@@ -4678,27 +4726,27 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="24" t="s">
-        <v>572</v>
-      </c>
-      <c r="C54" s="24" t="s">
+      <c r="A54" s="59"/>
+      <c r="B54" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="24" t="s">
+      <c r="E54" s="72"/>
+      <c r="F54" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="H54" s="24" t="s">
+      <c r="H54" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="I54" s="24" t="s">
+      <c r="I54" s="23" t="s">
         <v>17</v>
       </c>
       <c r="J54" s="2"/>
@@ -4720,24 +4768,24 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="C55" s="24" t="s">
+      <c r="A55" s="59"/>
+      <c r="B55" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="C55" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="70"/>
-      <c r="F55" s="24" t="s">
+      <c r="E55" s="72"/>
+      <c r="F55" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H55" s="49" t="s">
+      <c r="H55" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="I55" s="49" t="s">
+      <c r="I55" s="48" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="2"/>
@@ -4759,27 +4807,27 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="24" t="s">
+      <c r="E56" s="72"/>
+      <c r="F56" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G56" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="H56" s="24" t="s">
+      <c r="G56" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="H56" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I56" s="24" t="s">
+      <c r="I56" s="23" t="s">
         <v>175</v>
       </c>
       <c r="J56" s="2"/>
@@ -4801,24 +4849,24 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="24" t="s">
+      <c r="A57" s="59"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="70"/>
-      <c r="F57" s="24" t="s">
+      <c r="E57" s="72"/>
+      <c r="F57" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H57" s="24" t="s">
+      <c r="H57" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="I57" s="24" t="s">
-        <v>179</v>
+      <c r="I57" s="23" t="s">
+        <v>624</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4839,18 +4887,18 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="24"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="23"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="2"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -4870,25 +4918,25 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="24" t="s">
+      <c r="A59" s="59"/>
+      <c r="B59" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
+      <c r="D59" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="72"/>
+      <c r="F59" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="2"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -4908,27 +4956,27 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="24" t="s">
+      <c r="A60" s="59"/>
+      <c r="B60" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E60" s="70"/>
-      <c r="F60" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="G60" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I60" s="27"/>
+      <c r="D60" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="72"/>
+      <c r="F60" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I60" s="26"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -4948,25 +4996,25 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="24" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="70"/>
-      <c r="F61" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I61" s="27"/>
+      <c r="D61" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="72"/>
+      <c r="F61" s="23" t="s">
+        <v>547</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I61" s="26"/>
       <c r="J61" s="2"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4986,23 +5034,23 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="24" t="s">
+      <c r="A62" s="59"/>
+      <c r="B62" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="70"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24" t="s">
+      <c r="D62" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I62" s="27"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="I62" s="26"/>
       <c r="J62" s="2"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -5022,26 +5070,26 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="24" t="s">
+      <c r="A63" s="59"/>
+      <c r="B63" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E63" s="70"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24" t="s">
+      <c r="D63" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="72"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="I63" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="I63" s="25" t="s">
-        <v>200</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
@@ -5062,25 +5110,25 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24" t="s">
+      <c r="A64" s="59"/>
+      <c r="B64" s="48" t="s">
+        <v>594</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="E64" s="72"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="H64" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="I64" s="25"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="2"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -5100,23 +5148,23 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="E65" s="72"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
       <c r="J65" s="2"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -5136,18 +5184,20 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="24"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="24" t="s">
+      <c r="A66" s="59"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="96" t="s">
+        <v>651</v>
+      </c>
+      <c r="E66" s="72"/>
+      <c r="F66" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="H66" s="24"/>
-      <c r="I66" s="25"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="2"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -5167,14 +5217,14 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="28"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="27"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="2"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -5194,19 +5244,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="80" t="s">
-        <v>624</v>
-      </c>
-      <c r="G68" s="62"/>
-      <c r="H68" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="I68" s="62"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="81" t="s">
+        <v>617</v>
+      </c>
+      <c r="G68" s="64"/>
+      <c r="H68" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I68" s="64"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5226,21 +5276,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="59" t="s">
+      <c r="A69" s="59"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="64"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="59" t="s">
+      <c r="G69" s="64"/>
+      <c r="H69" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="G69" s="62"/>
-      <c r="H69" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="I69" s="62"/>
+      <c r="I69" s="64"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5260,21 +5310,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="59" t="s">
+      <c r="A70" s="59"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="64"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="G70" s="62"/>
-      <c r="H70" s="83" t="s">
-        <v>648</v>
-      </c>
-      <c r="I70" s="84"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="84" t="s">
+        <v>640</v>
+      </c>
+      <c r="I70" s="85"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5294,21 +5344,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="G71" s="84"/>
-      <c r="H71" s="61" t="s">
-        <v>580</v>
-      </c>
-      <c r="I71" s="62"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="84" t="s">
+        <v>639</v>
+      </c>
+      <c r="G71" s="85"/>
+      <c r="H71" s="63" t="s">
+        <v>576</v>
+      </c>
+      <c r="I71" s="64"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5328,19 +5378,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="61" t="s">
+      <c r="A72" s="59"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="64"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="I72" s="62"/>
+      <c r="I72" s="64"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5360,21 +5410,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="61" t="s">
+      <c r="A73" s="59"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="59" t="s">
+      <c r="G73" s="64"/>
+      <c r="H73" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="G73" s="62"/>
-      <c r="H73" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="I73" s="62"/>
+      <c r="I73" s="64"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5394,21 +5444,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="59" t="s">
+      <c r="A74" s="59"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="64"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="74" t="s">
+      <c r="G74" s="64"/>
+      <c r="H74" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="G74" s="62"/>
-      <c r="H74" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="I74" s="62"/>
+      <c r="I74" s="64"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5428,19 +5478,19 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="59" t="s">
+      <c r="A75" s="59"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="64"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="G75" s="62"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="2"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -5460,19 +5510,19 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="59" t="s">
+      <c r="A76" s="59"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="64"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="G76" s="62"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
       <c r="J76" s="2"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -5492,17 +5542,17 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="64"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
       <c r="J77" s="2"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -5550,30 +5600,30 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="50"/>
+      <c r="I79" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="G79" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="51"/>
-      <c r="I79" s="24" t="s">
-        <v>228</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
@@ -5594,28 +5644,28 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
-      <c r="B80" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="C80" s="24" t="s">
+      <c r="A80" s="59"/>
+      <c r="B80" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="81"/>
-      <c r="F80" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="G80" s="24" t="s">
+      <c r="E80" s="82"/>
+      <c r="F80" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="G80" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>577</v>
+      <c r="H80" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="I80" s="23" t="s">
+        <v>573</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5636,28 +5686,28 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
-      <c r="B81" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="C81" s="24" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="C81" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="81"/>
-      <c r="F81" s="24" t="s">
+      <c r="E81" s="82"/>
+      <c r="F81" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="G81" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="24" t="s">
+      <c r="I81" s="92" t="s">
         <v>231</v>
-      </c>
-      <c r="I81" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5678,25 +5728,25 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="24" t="s">
+      <c r="A82" s="59"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="82"/>
+      <c r="F82" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E82" s="81"/>
-      <c r="F82" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="I82" s="27"/>
+      <c r="I82" s="26"/>
       <c r="J82" s="2"/>
       <c r="K82" s="3"/>
       <c r="L82" s="11"/>
@@ -5716,27 +5766,27 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
-      <c r="B83" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D83" s="24" t="s">
+      <c r="A83" s="59"/>
+      <c r="B83" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83" s="82"/>
+      <c r="F83" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="E83" s="81"/>
-      <c r="F83" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I83" s="27"/>
+      <c r="I83" s="26"/>
       <c r="J83" s="2"/>
       <c r="K83" s="3"/>
       <c r="L83" s="11"/>
@@ -5756,27 +5806,27 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="53" t="s">
-        <v>558</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" s="81"/>
-      <c r="F84" s="24" t="s">
+      <c r="A84" s="59"/>
+      <c r="B84" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="82"/>
+      <c r="F84" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G84" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="H84" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="I84" s="27"/>
+      <c r="G84" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="I84" s="26"/>
       <c r="J84" s="2"/>
       <c r="K84" s="3"/>
       <c r="L84" s="11"/>
@@ -5796,27 +5846,24 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>632</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="E85" s="81"/>
-      <c r="F85" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="H85" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="I85" s="27"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" s="82"/>
+      <c r="F85" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="I85" s="26"/>
       <c r="J85" s="2"/>
       <c r="K85" s="3"/>
       <c r="L85" s="11"/>
@@ -5836,25 +5883,25 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C86" s="24" t="s">
+      <c r="A86" s="59"/>
+      <c r="B86" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="E86" s="81"/>
-      <c r="F86" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="G86" s="51"/>
-      <c r="H86" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="I86" s="60"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="I86" s="62"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5874,25 +5921,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="C87" s="24" t="s">
+      <c r="A87" s="59"/>
+      <c r="B87" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="E87" s="82"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="H87" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="E87" s="81"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="H87" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="I87" s="60"/>
+      <c r="I87" s="62"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5912,27 +5959,27 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="C88" s="24" t="s">
+      <c r="A88" s="59"/>
+      <c r="B88" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D88" s="24" t="s">
+      <c r="E88" s="82"/>
+      <c r="F88" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="E88" s="81"/>
-      <c r="F88" s="24" t="s">
+      <c r="G88" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="G88" s="24" t="s">
+      <c r="H88" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="H88" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="I88" s="60"/>
+      <c r="I88" s="62"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5952,25 +5999,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="C89" s="24" t="s">
+      <c r="A89" s="59"/>
+      <c r="B89" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="E89" s="82"/>
+      <c r="F89" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="E89" s="81"/>
-      <c r="F89" s="24" t="s">
+      <c r="G89" s="26"/>
+      <c r="H89" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G89" s="27"/>
-      <c r="H89" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="I89" s="60"/>
+      <c r="I89" s="62"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -5990,23 +6037,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="48" t="s">
+      <c r="A90" s="59"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>620</v>
+      </c>
+      <c r="E90" s="82"/>
+      <c r="F90" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D90" s="48" t="s">
-        <v>627</v>
-      </c>
-      <c r="E90" s="81"/>
-      <c r="F90" s="24" t="s">
+      <c r="G90" s="26"/>
+      <c r="H90" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="G90" s="27"/>
-      <c r="H90" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="I90" s="60"/>
+      <c r="I90" s="62"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6026,21 +6073,17 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="59" t="s">
-        <v>265</v>
-      </c>
-      <c r="G91" s="60"/>
-      <c r="H91" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="I91" s="60"/>
+      <c r="A91" s="59"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="E91" s="82"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="56"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6060,24 +6103,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="59" t="s">
-        <v>267</v>
-      </c>
-      <c r="D92" s="60"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="G92" s="60"/>
-      <c r="H92" s="61" t="s">
-        <v>638</v>
-      </c>
-      <c r="I92" s="60"/>
-      <c r="J92" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="A92" s="59"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="91" t="s">
+        <v>648</v>
+      </c>
+      <c r="E92" s="82"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="2"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -6096,21 +6133,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="59" t="s">
-        <v>270</v>
-      </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="G93" s="60"/>
-      <c r="H93" s="59" t="s">
-        <v>626</v>
-      </c>
-      <c r="I93" s="60"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="62"/>
+      <c r="E93" s="82"/>
+      <c r="F93" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="G93" s="62"/>
+      <c r="H93" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="I93" s="62"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6130,20 +6167,24 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="59" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" s="60"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="G94" s="60"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="2"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="D94" s="62"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="G94" s="62"/>
+      <c r="H94" s="63" t="s">
+        <v>630</v>
+      </c>
+      <c r="I94" s="62"/>
+      <c r="J94" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -6162,19 +6203,21 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="59" t="s">
-        <v>275</v>
-      </c>
-      <c r="G95" s="60"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="62"/>
+      <c r="E95" s="82"/>
+      <c r="F95" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="G95" s="62"/>
+      <c r="H95" s="61" t="s">
+        <v>619</v>
+      </c>
+      <c r="I95" s="62"/>
       <c r="J95" s="2"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6194,19 +6237,19 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D96" s="60"/>
-      <c r="E96" s="81"/>
-      <c r="F96" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="G96" s="60"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="62"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="G96" s="62"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="2"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -6226,19 +6269,19 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="G97" s="60"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" s="62"/>
+      <c r="E97" s="82"/>
+      <c r="F97" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="G97" s="62"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
       <c r="J97" s="2"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -6258,19 +6301,19 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
-      <c r="B98" s="61" t="s">
-        <v>635</v>
-      </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="G98" s="60"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="62"/>
+      <c r="E98" s="82"/>
+      <c r="F98" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="G98" s="62"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
       <c r="J98" s="2"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -6289,20 +6332,20 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
-      <c r="B99" s="67" t="s">
-        <v>623</v>
-      </c>
-      <c r="C99" s="68"/>
-      <c r="D99" s="28"/>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" s="62"/>
       <c r="E99" s="82"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="H99" s="60"/>
-      <c r="I99" s="27"/>
+      <c r="F99" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="G99" s="62"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -6321,16 +6364,19 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="63" t="s">
+        <v>627</v>
+      </c>
+      <c r="C100" s="62"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="63" t="s">
+        <v>279</v>
+      </c>
+      <c r="G100" s="62"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
       <c r="J100" s="2"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -6349,29 +6395,20 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="49" t="s">
-        <v>578</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="E101" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="29"/>
-      <c r="H101" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>95</v>
-      </c>
+    <row r="101" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="60"/>
+      <c r="B101" s="69" t="s">
+        <v>616</v>
+      </c>
+      <c r="C101" s="70"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="H101" s="62"/>
+      <c r="I101" s="26"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -6390,30 +6427,16 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="C102" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="D102" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="E102" s="87"/>
-      <c r="F102" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="H102" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="I102" s="24" t="s">
-        <v>288</v>
-      </c>
+    <row r="102" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -6432,33 +6455,32 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="30" t="s">
+    <row r="103" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>574</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="E103" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D103" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="E103" s="87"/>
-      <c r="F103" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="H103" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I103" s="24" t="s">
-        <v>293</v>
+      <c r="I103" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="11"/>
+      <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -6474,31 +6496,33 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="C104" s="30" t="s">
+    <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="59"/>
+      <c r="B104" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="C104" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>560</v>
+      </c>
+      <c r="E104" s="88"/>
+      <c r="F104" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="D104" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="87"/>
-      <c r="F104" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="G104" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="H104" s="29"/>
-      <c r="I104" s="49" t="s">
-        <v>296</v>
+      <c r="H104" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
-      <c r="L104" s="11"/>
+      <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -6515,28 +6539,28 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
-      <c r="B105" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="C105" s="30" t="s">
+      <c r="A105" s="59"/>
+      <c r="B105" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="96" t="s">
         <v>289</v>
       </c>
-      <c r="D105" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E105" s="87"/>
-      <c r="F105" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="I105" s="30" t="s">
-        <v>302</v>
+      <c r="E105" s="88"/>
+      <c r="F105" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6557,32 +6581,30 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C106" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="D106" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E106" s="87"/>
-      <c r="F106" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="I106" s="24" t="s">
-        <v>309</v>
+      <c r="A106" s="59"/>
+      <c r="B106" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="C106" s="96" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E106" s="88"/>
+      <c r="F106" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H106" s="28"/>
+      <c r="I106" s="48" t="s">
+        <v>295</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="L106" s="11"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -6598,31 +6620,33 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="57"/>
-      <c r="B107" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="D107" s="30" t="s">
-        <v>566</v>
-      </c>
-      <c r="E107" s="87"/>
-      <c r="F107" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="H107" s="27"/>
-      <c r="I107" s="30" t="s">
-        <v>314</v>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="59"/>
+      <c r="B107" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="E107" s="88"/>
+      <c r="F107" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="I107" s="29" t="s">
+        <v>301</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
+      <c r="L107" s="11"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -6639,24 +6663,29 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
-      <c r="B108" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D108" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="E108" s="87"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E108" s="88"/>
       <c r="F108" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="H108" s="27"/>
+        <v>305</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>308</v>
+      </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
@@ -6675,24 +6704,28 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="57"/>
-      <c r="B109" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="E109" s="87"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="H109" s="27"/>
-      <c r="I109" s="28"/>
+    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="59"/>
+      <c r="B109" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="E109" s="88"/>
+      <c r="F109" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H109" s="26"/>
+      <c r="I109" s="29" t="s">
+        <v>313</v>
+      </c>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -6712,22 +6745,24 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
-      <c r="B110" s="30" t="s">
-        <v>612</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E110" s="87"/>
-      <c r="F110" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="H110" s="27"/>
-      <c r="I110" s="28"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="E110" s="88"/>
+      <c r="F110" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H110" s="26"/>
       <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -6747,21 +6782,23 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="57"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="D111" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="E111" s="87"/>
-      <c r="F111" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="28"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="96" t="s">
+        <v>318</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="E111" s="88"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H111" s="26"/>
+      <c r="I111" s="27"/>
       <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -6781,23 +6818,22 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="30" t="s">
-        <v>613</v>
-      </c>
-      <c r="C112" s="30" t="s">
-        <v>617</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="E112" s="87"/>
-      <c r="F112" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="G112" s="27"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="28"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="96" t="s">
+        <v>606</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E112" s="88"/>
+      <c r="F112" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="H112" s="26"/>
+      <c r="I112" s="27"/>
       <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -6817,22 +6853,20 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="57"/>
-      <c r="B113" s="30" t="s">
-        <v>614</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>628</v>
-      </c>
-      <c r="D113" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="E113" s="87"/>
-      <c r="F113" s="25" t="s">
-        <v>621</v>
-      </c>
-      <c r="G113" s="24"/>
-      <c r="H113" s="27"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="D113" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="E113" s="88"/>
+      <c r="F113" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
       <c r="I113" s="27"/>
       <c r="J113" s="2"/>
       <c r="K113" s="3"/>
@@ -6853,21 +6887,20 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30" t="s">
-        <v>618</v>
-      </c>
-      <c r="E114" s="87"/>
-      <c r="F114" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="G114" s="62"/>
-      <c r="H114" s="59" t="s">
-        <v>327</v>
-      </c>
-      <c r="I114" s="60"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="E114" s="88"/>
+      <c r="F114" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="G114" s="26"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="27"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -6887,21 +6920,23 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="D115" s="62"/>
-      <c r="E115" s="87"/>
-      <c r="F115" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="G115" s="62"/>
-      <c r="H115" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="I115" s="60"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="E115" s="88"/>
+      <c r="F115" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="G115" s="23"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -6921,21 +6956,23 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="59" t="s">
-        <v>331</v>
-      </c>
-      <c r="D116" s="62"/>
-      <c r="E116" s="87"/>
-      <c r="F116" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="G116" s="62"/>
-      <c r="H116" s="59" t="s">
-        <v>333</v>
-      </c>
-      <c r="I116" s="60"/>
+      <c r="A116" s="59"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="E116" s="88"/>
+      <c r="F116" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="G116" s="64"/>
+      <c r="H116" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="I116" s="62"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -6955,21 +6992,21 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
-      <c r="B117" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="C117" s="62"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="59" t="s">
-        <v>335</v>
-      </c>
-      <c r="G117" s="62"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="D117" s="64"/>
+      <c r="E117" s="88"/>
+      <c r="F117" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="G117" s="64"/>
       <c r="H117" s="61" t="s">
-        <v>651</v>
-      </c>
-      <c r="I117" s="60"/>
+        <v>329</v>
+      </c>
+      <c r="I117" s="62"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -6989,21 +7026,21 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
-      <c r="B118" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="C118" s="62"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="87"/>
-      <c r="F118" s="59" t="s">
-        <v>337</v>
-      </c>
-      <c r="G118" s="62"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="61" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" s="64"/>
+      <c r="E118" s="88"/>
+      <c r="F118" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="G118" s="64"/>
       <c r="H118" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="I118" s="60"/>
+        <v>332</v>
+      </c>
+      <c r="I118" s="62"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7023,21 +7060,21 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
-      <c r="B119" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="C119" s="62"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="G119" s="62"/>
-      <c r="H119" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="I119" s="60"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="61" t="s">
+        <v>333</v>
+      </c>
+      <c r="C119" s="64"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="88"/>
+      <c r="F119" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="G119" s="64"/>
+      <c r="H119" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="I119" s="62"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7057,21 +7094,21 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
-      <c r="B120" s="59" t="s">
-        <v>342</v>
-      </c>
-      <c r="C120" s="62"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="87"/>
-      <c r="F120" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="G120" s="62"/>
-      <c r="H120" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="I120" s="60"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C120" s="64"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="G120" s="64"/>
+      <c r="H120" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="I120" s="62"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7091,17 +7128,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="87"/>
-      <c r="F121" s="59" t="s">
-        <v>345</v>
-      </c>
-      <c r="G121" s="62"/>
-      <c r="H121" s="59" t="s">
-        <v>346</v>
+      <c r="A121" s="59"/>
+      <c r="B121" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="C121" s="64"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="G121" s="64"/>
+      <c r="H121" s="61" t="s">
+        <v>340</v>
       </c>
       <c r="I121" s="62"/>
       <c r="J121" s="2"/>
@@ -7123,17 +7162,21 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="28"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="64"/>
+      <c r="D122" s="27"/>
       <c r="E122" s="88"/>
-      <c r="F122" s="31" t="s">
-        <v>347</v>
-      </c>
-      <c r="G122" s="27"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
+      <c r="F122" s="95" t="s">
+        <v>342</v>
+      </c>
+      <c r="G122" s="64"/>
+      <c r="H122" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="I122" s="62"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7153,19 +7196,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="63" t="s">
-        <v>348</v>
-      </c>
-      <c r="E123" s="64"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="H123" s="62"/>
-      <c r="I123" s="8"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="G123" s="64"/>
+      <c r="H123" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="I123" s="64"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7185,21 +7228,21 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="21"/>
-      <c r="D124" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E124" s="64"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
-      <c r="I124" s="9"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="G124" s="26"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
       <c r="J124" s="2"/>
       <c r="K124" s="3"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
@@ -7215,21 +7258,23 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="59" t="s">
-        <v>351</v>
-      </c>
-      <c r="E125" s="62"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="21"/>
+      <c r="D125" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="66"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="H125" s="64"/>
+      <c r="I125" s="8"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
@@ -7244,20 +7289,22 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="59"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="E126" s="66"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="9"/>
       <c r="J126" s="2"/>
       <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
@@ -7272,27 +7319,22 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="B127" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="F127" s="65"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="8"/>
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="60"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E127" s="64"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
@@ -7307,24 +7349,16 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="57"/>
-      <c r="B128" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="C128" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="8"/>
+    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
       <c r="J128" s="2"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
@@ -7343,23 +7377,19 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="57"/>
-      <c r="B129" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="33"/>
+    <row r="129" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F129" s="67"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="64"/>
       <c r="I129" s="8"/>
       <c r="J129" s="2"/>
       <c r="K129" s="3"/>
@@ -7380,22 +7410,22 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="57"/>
-      <c r="B130" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="F130" s="34"/>
-      <c r="G130" s="34"/>
-      <c r="H130" s="33"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="32"/>
       <c r="I130" s="8"/>
       <c r="J130" s="2"/>
       <c r="K130" s="3"/>
@@ -7416,20 +7446,22 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="57"/>
-      <c r="B131" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="C131" s="29"/>
-      <c r="D131" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
-      <c r="H131" s="33"/>
+      <c r="A131" s="59"/>
+      <c r="B131" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="32"/>
       <c r="I131" s="8"/>
       <c r="J131" s="2"/>
       <c r="K131" s="3"/>
@@ -7450,18 +7482,16 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="57"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D132" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="34"/>
-      <c r="G132" s="34"/>
-      <c r="H132" s="33"/>
+      <c r="A132" s="59"/>
+      <c r="B132" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E132" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="32"/>
       <c r="I132" s="8"/>
       <c r="J132" s="2"/>
       <c r="K132" s="3"/>
@@ -7482,16 +7512,20 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="57"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="24"/>
-      <c r="D133" s="24" t="s">
-        <v>591</v>
-      </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="33"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" s="28"/>
+      <c r="D133" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="32"/>
       <c r="I133" s="8"/>
       <c r="J133" s="2"/>
       <c r="K133" s="3"/>
@@ -7512,20 +7546,17 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="57"/>
-      <c r="B134" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="C134" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D134" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="34"/>
-      <c r="H134" s="33"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E134" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="32"/>
       <c r="I134" s="8"/>
       <c r="J134" s="2"/>
       <c r="K134" s="3"/>
@@ -7546,18 +7577,13 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="57"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D135" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="E135" s="25"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="34"/>
-      <c r="H135" s="33"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="23"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="32"/>
       <c r="I135" s="8"/>
       <c r="J135" s="2"/>
       <c r="K135" s="3"/>
@@ -7578,18 +7604,20 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="57"/>
-      <c r="B136" s="27"/>
-      <c r="C136" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="D136" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="E136" s="25"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="34"/>
-      <c r="H136" s="33"/>
+      <c r="A136" s="59"/>
+      <c r="B136" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E136" s="23"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="32"/>
       <c r="I136" s="8"/>
       <c r="J136" s="2"/>
       <c r="K136" s="3"/>
@@ -7610,18 +7638,18 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="57"/>
-      <c r="B137" s="59" t="s">
-        <v>625</v>
-      </c>
-      <c r="C137" s="60"/>
-      <c r="D137" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="E137" s="60"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="33"/>
+      <c r="A137" s="59"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="33"/>
+      <c r="H137" s="32"/>
       <c r="I137" s="8"/>
       <c r="J137" s="2"/>
       <c r="K137" s="3"/>
@@ -7642,18 +7670,18 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="57"/>
-      <c r="B138" s="59" t="s">
-        <v>376</v>
-      </c>
-      <c r="C138" s="60"/>
-      <c r="D138" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="E138" s="60"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="33"/>
+      <c r="A138" s="59"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="33"/>
+      <c r="H138" s="32"/>
       <c r="I138" s="8"/>
       <c r="J138" s="2"/>
       <c r="K138" s="3"/>
@@ -7674,18 +7702,18 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="57"/>
-      <c r="B139" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="C139" s="60"/>
-      <c r="D139" s="59" t="s">
-        <v>379</v>
-      </c>
-      <c r="E139" s="60"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
+      <c r="A139" s="59"/>
+      <c r="B139" s="61" t="s">
+        <v>618</v>
+      </c>
+      <c r="C139" s="62"/>
+      <c r="D139" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="E139" s="62"/>
+      <c r="F139" s="33"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="32"/>
       <c r="I139" s="8"/>
       <c r="J139" s="2"/>
       <c r="K139" s="3"/>
@@ -7706,18 +7734,18 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="57"/>
-      <c r="B140" s="59" t="s">
-        <v>380</v>
-      </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="E140" s="60"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
+      <c r="A140" s="59"/>
+      <c r="B140" s="61" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="62"/>
+      <c r="D140" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="E140" s="62"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="34"/>
+      <c r="H140" s="32"/>
       <c r="I140" s="8"/>
       <c r="J140" s="2"/>
       <c r="K140" s="3"/>
@@ -7738,18 +7766,18 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="57"/>
+      <c r="A141" s="59"/>
       <c r="B141" s="61" t="s">
-        <v>636</v>
-      </c>
-      <c r="C141" s="60"/>
-      <c r="D141" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="E141" s="60"/>
+        <v>374</v>
+      </c>
+      <c r="C141" s="62"/>
+      <c r="D141" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="E141" s="62"/>
       <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
       <c r="I141" s="8"/>
       <c r="J141" s="2"/>
       <c r="K141" s="3"/>
@@ -7770,18 +7798,18 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="57"/>
+      <c r="A142" s="59"/>
       <c r="B142" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="63" t="s">
-        <v>640</v>
-      </c>
-      <c r="E142" s="60"/>
+        <v>376</v>
+      </c>
+      <c r="C142" s="62"/>
+      <c r="D142" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E142" s="62"/>
       <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
       <c r="I142" s="8"/>
       <c r="J142" s="2"/>
       <c r="K142" s="3"/>
@@ -7802,16 +7830,18 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="57"/>
-      <c r="B143" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="C143" s="60"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="60"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
+      <c r="A143" s="59"/>
+      <c r="B143" s="63" t="s">
+        <v>628</v>
+      </c>
+      <c r="C143" s="62"/>
+      <c r="D143" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="E143" s="62"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
       <c r="I143" s="8"/>
       <c r="J143" s="2"/>
       <c r="K143" s="3"/>
@@ -7832,16 +7862,18 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
+      <c r="A144" s="59"/>
       <c r="B144" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="C144" s="64"/>
-      <c r="D144" s="21"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
+        <v>379</v>
+      </c>
+      <c r="C144" s="62"/>
+      <c r="D144" s="65" t="s">
+        <v>632</v>
+      </c>
+      <c r="E144" s="62"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
       <c r="I144" s="8"/>
       <c r="J144" s="2"/>
       <c r="K144" s="3"/>
@@ -7862,13 +7894,16 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
-      <c r="B145" s="21"/>
-      <c r="C145" s="21"/>
-      <c r="D145" s="21"/>
-      <c r="E145" s="21"/>
-      <c r="F145" s="8"/>
-      <c r="H145" s="8"/>
+      <c r="A145" s="59"/>
+      <c r="B145" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" s="62"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
       <c r="I145" s="8"/>
       <c r="J145" s="2"/>
       <c r="K145" s="3"/>
@@ -7889,10 +7924,13 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="10"/>
+      <c r="A146" s="59"/>
+      <c r="B146" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" s="66"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
@@ -7915,16 +7953,15 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16"/>
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="59"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
       <c r="J147" s="2"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -7943,18 +7980,15 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="75" t="s">
-        <v>386</v>
-      </c>
-      <c r="B148" s="76"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="76"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="76"/>
-      <c r="H148" s="76"/>
-      <c r="I148" s="77"/>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="60"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
       <c r="J148" s="2"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
@@ -7973,16 +8007,16 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
+    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="12"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
       <c r="J149" s="2"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -8002,17 +8036,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="65" t="s">
-        <v>387</v>
-      </c>
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="62"/>
+      <c r="A150" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="B150" s="78"/>
+      <c r="C150" s="78"/>
+      <c r="D150" s="78"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="78"/>
+      <c r="H150" s="78"/>
+      <c r="I150" s="66"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8031,18 +8065,16 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="65" t="s">
-        <v>388</v>
-      </c>
-      <c r="C151" s="66"/>
-      <c r="D151" s="66"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="62"/>
+    <row r="151" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8062,17 +8094,17 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="65" t="s">
-        <v>389</v>
-      </c>
-      <c r="C152" s="66"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="66"/>
-      <c r="H152" s="66"/>
-      <c r="I152" s="62"/>
+      <c r="A152" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="B152" s="68"/>
+      <c r="C152" s="68"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="68"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="68"/>
+      <c r="H152" s="68"/>
+      <c r="I152" s="64"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8092,17 +8124,17 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="65" t="s">
-        <v>390</v>
-      </c>
-      <c r="C153" s="66"/>
-      <c r="D153" s="66"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="66"/>
-      <c r="H153" s="66"/>
-      <c r="I153" s="62"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="68"/>
+      <c r="H153" s="68"/>
+      <c r="I153" s="64"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8122,17 +8154,17 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="65" t="s">
-        <v>391</v>
-      </c>
-      <c r="C154" s="66"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
-      <c r="G154" s="66"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="62"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C154" s="68"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="68"/>
+      <c r="H154" s="68"/>
+      <c r="I154" s="64"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8152,17 +8184,17 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="C155" s="66"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="66"/>
-      <c r="H155" s="66"/>
-      <c r="I155" s="62"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
+      <c r="H155" s="68"/>
+      <c r="I155" s="64"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8182,17 +8214,17 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="C156" s="66"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="62"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="68"/>
+      <c r="F156" s="68"/>
+      <c r="G156" s="68"/>
+      <c r="H156" s="68"/>
+      <c r="I156" s="64"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8212,17 +8244,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="B157" s="66"/>
-      <c r="C157" s="66"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="66"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="66"/>
-      <c r="I157" s="62"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="C157" s="68"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="I157" s="64"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8242,21 +8274,17 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="69"/>
-      <c r="B158" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="C158" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="D158" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="E158" s="66"/>
-      <c r="F158" s="66"/>
-      <c r="G158" s="66"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="62"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="68"/>
+      <c r="I158" s="64"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8276,19 +8304,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="70"/>
-      <c r="B159" s="36"/>
-      <c r="C159" s="37" t="s">
-        <v>398</v>
-      </c>
-      <c r="D159" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="E159" s="66"/>
-      <c r="F159" s="66"/>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="62"/>
+      <c r="A159" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="B159" s="68"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="68"/>
+      <c r="I159" s="64"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8309,18 +8335,20 @@
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="71"/>
-      <c r="B160" s="36"/>
-      <c r="C160" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="D160" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="E160" s="66"/>
-      <c r="F160" s="66"/>
-      <c r="G160" s="66"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="62"/>
+      <c r="B160" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="C160" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D160" s="79" t="s">
+        <v>393</v>
+      </c>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
+      <c r="H160" s="68"/>
+      <c r="I160" s="64"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8339,16 +8367,20 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="34"/>
-      <c r="B161" s="36"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="34"/>
-      <c r="G161" s="34"/>
-      <c r="H161" s="34"/>
-      <c r="I161" s="34"/>
+    <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="72"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="D161" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="68"/>
+      <c r="H161" s="68"/>
+      <c r="I161" s="64"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8367,32 +8399,20 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="69"/>
-      <c r="B162" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="C162" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="D162" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="E162" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="F162" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="G162" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="H162" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="I162" s="39" t="s">
-        <v>404</v>
-      </c>
+    <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="73"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D162" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="68"/>
+      <c r="I162" s="64"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8411,32 +8431,16 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="70"/>
-      <c r="B163" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="F163" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="G163" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="H163" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="I163" s="42" t="s">
-        <v>412</v>
-      </c>
+    <row r="163" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="33"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="33"/>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -8455,31 +8459,31 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="70"/>
-      <c r="B164" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="F164" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="G164" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="H164" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="I164" s="42" t="s">
-        <v>420</v>
+    <row r="164" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="71"/>
+      <c r="B164" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C164" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="F164" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="G164" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="H164" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="I164" s="38" t="s">
+        <v>400</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
@@ -8499,31 +8503,31 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="70"/>
-      <c r="B165" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="C165" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="F165" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="G165" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="H165" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="I165" s="42" t="s">
-        <v>428</v>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="72"/>
+      <c r="B165" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E165" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F165" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="G165" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="H165" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="I165" s="41" t="s">
+        <v>408</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8543,26 +8547,32 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="70"/>
-      <c r="B166" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="C166" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="E166" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="F166" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="G166" s="35"/>
-      <c r="H166" s="41"/>
-      <c r="I166" s="43"/>
+    <row r="166" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="72"/>
+      <c r="B166" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="F166" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="G166" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H166" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="I166" s="41" t="s">
+        <v>416</v>
+      </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
@@ -8581,29 +8591,31 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="70"/>
-      <c r="B167" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="D167" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="F167" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="G167" s="35"/>
-      <c r="H167" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="I167" s="43" t="s">
-        <v>440</v>
+    <row r="167" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="72"/>
+      <c r="B167" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E167" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="F167" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="G167" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="H167" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="I167" s="41" t="s">
+        <v>424</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8623,30 +8635,26 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="70"/>
-      <c r="B168" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="E168" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="F168" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="G168" s="35"/>
-      <c r="H168" s="41" t="s">
-        <v>446</v>
-      </c>
-      <c r="I168" s="43" t="s">
-        <v>447</v>
-      </c>
+    <row r="168" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="72"/>
+      <c r="B168" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E168" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="F168" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="G168" s="34"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="42"/>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -8666,30 +8674,28 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="70"/>
-      <c r="B169" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="C169" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="F169" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="G169" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="H169" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="I169" s="43" t="s">
-        <v>455</v>
+      <c r="A169" s="72"/>
+      <c r="B169" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>432</v>
+      </c>
+      <c r="E169" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="F169" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="G169" s="34"/>
+      <c r="H169" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="I169" s="42" t="s">
+        <v>436</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
@@ -8710,30 +8716,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="70"/>
-      <c r="B170" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="C170" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="D170" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="F170" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="G170" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="H170" s="41" t="s">
-        <v>462</v>
-      </c>
-      <c r="I170" s="43" t="s">
-        <v>463</v>
+      <c r="A170" s="72"/>
+      <c r="B170" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="F170" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="G170" s="34"/>
+      <c r="H170" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="I170" s="42" t="s">
+        <v>443</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8754,28 +8758,30 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="70"/>
-      <c r="B171" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="C171" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="D171" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="F171" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="G171" s="35"/>
-      <c r="H171" s="41" t="s">
-        <v>469</v>
-      </c>
-      <c r="I171" s="43" t="s">
-        <v>470</v>
+      <c r="A171" s="72"/>
+      <c r="B171" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>445</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="G171" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="H171" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="I171" s="42" t="s">
+        <v>451</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8796,30 +8802,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="70"/>
-      <c r="B172" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="C172" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="D172" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="E172" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="F172" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="G172" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="H172" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="I172" s="43" t="s">
-        <v>478</v>
+      <c r="A172" s="72"/>
+      <c r="B172" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="F172" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="G172" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="H172" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="I172" s="42" t="s">
+        <v>459</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8840,30 +8846,28 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="70"/>
-      <c r="B173" s="35" t="s">
-        <v>479</v>
-      </c>
-      <c r="C173" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="F173" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="G173" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="H173" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="I173" s="44" t="s">
-        <v>486</v>
+      <c r="A173" s="72"/>
+      <c r="B173" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="D173" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="F173" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="G173" s="34"/>
+      <c r="H173" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="I173" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8884,30 +8888,30 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="70"/>
-      <c r="B174" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="C174" s="35" t="s">
-        <v>488</v>
-      </c>
-      <c r="D174" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="F174" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="G174" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="H174" s="41" t="s">
-        <v>493</v>
+      <c r="A174" s="72"/>
+      <c r="B174" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>468</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="F174" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="G174" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="H174" s="40" t="s">
+        <v>473</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -8928,28 +8932,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="70"/>
-      <c r="B175" s="35" t="s">
-        <v>495</v>
-      </c>
-      <c r="C175" s="35" t="s">
-        <v>496</v>
-      </c>
-      <c r="D175" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="F175" s="35" t="s">
-        <v>499</v>
-      </c>
-      <c r="G175" s="35"/>
-      <c r="H175" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="I175" s="42" t="s">
-        <v>501</v>
+      <c r="A175" s="72"/>
+      <c r="B175" s="34" t="s">
+        <v>475</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>477</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>478</v>
+      </c>
+      <c r="F175" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="G175" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="H175" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="I175" s="43" t="s">
+        <v>482</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -8969,28 +8975,32 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="70"/>
-      <c r="B176" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="C176" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="E176" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="F176" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="G176" s="35" t="s">
-        <v>507</v>
-      </c>
-      <c r="H176" s="45"/>
-      <c r="I176" s="45"/>
+    <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="72"/>
+      <c r="B176" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="D176" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="E176" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="F176" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="G176" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="H176" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="I176" s="41" t="s">
+        <v>490</v>
+      </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
@@ -9009,26 +9019,30 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="70"/>
-      <c r="B177" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="C177" s="35" t="s">
-        <v>509</v>
-      </c>
-      <c r="D177" s="35" t="s">
-        <v>510</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="F177" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="G177" s="35"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="45"/>
+    <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="72"/>
+      <c r="B177" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>492</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="E177" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="F177" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="G177" s="34"/>
+      <c r="H177" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="I177" s="41" t="s">
+        <v>497</v>
+      </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -9048,27 +9062,27 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="70"/>
-      <c r="B178" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="C178" s="35" t="s">
-        <v>514</v>
-      </c>
-      <c r="D178" s="35" t="s">
-        <v>515</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="F178" s="35" t="s">
-        <v>517</v>
-      </c>
-      <c r="G178" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="H178" s="45"/>
-      <c r="I178" s="45"/>
+      <c r="A178" s="72"/>
+      <c r="B178" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="E178" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="G178" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="H178" s="44"/>
+      <c r="I178" s="44"/>
       <c r="J178" s="2"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -9088,27 +9102,25 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="70"/>
-      <c r="B179" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="C179" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="D179" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="E179" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="F179" s="35" t="s">
-        <v>523</v>
-      </c>
-      <c r="G179" s="35" t="s">
-        <v>524</v>
-      </c>
-      <c r="H179" s="45"/>
-      <c r="I179" s="45"/>
+      <c r="A179" s="72"/>
+      <c r="B179" s="34" t="s">
+        <v>504</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E179" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="F179" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="G179" s="34"/>
+      <c r="H179" s="44"/>
+      <c r="I179" s="44"/>
       <c r="J179" s="2"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -9128,27 +9140,27 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="71"/>
-      <c r="B180" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="C180" s="35" t="s">
-        <v>526</v>
-      </c>
-      <c r="D180" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="E180" s="35" t="s">
-        <v>528</v>
-      </c>
-      <c r="F180" s="35" t="s">
-        <v>529</v>
-      </c>
-      <c r="G180" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="H180" s="45"/>
-      <c r="I180" s="45"/>
+      <c r="A180" s="72"/>
+      <c r="B180" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>510</v>
+      </c>
+      <c r="D180" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="E180" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="F180" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="G180" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="H180" s="44"/>
+      <c r="I180" s="44"/>
       <c r="J180" s="2"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -9167,26 +9179,28 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="B181" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="E181" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="F181" s="9"/>
-      <c r="G181" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="H181" s="18"/>
-      <c r="I181" s="18"/>
+    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="72"/>
+      <c r="B181" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="D181" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="E181" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="F181" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="G181" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="H181" s="44"/>
+      <c r="I181" s="44"/>
       <c r="J181" s="2"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -9205,24 +9219,28 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="B182" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="E182" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
+    <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="73"/>
+      <c r="B182" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="D182" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="E182" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="F182" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="G182" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="H182" s="44"/>
+      <c r="I182" s="44"/>
       <c r="J182" s="2"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -9241,20 +9259,24 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="9" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="D183" s="9"/>
+        <v>528</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>529</v>
+      </c>
       <c r="E183" s="9" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
+      <c r="G183" s="9" t="s">
+        <v>531</v>
+      </c>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
       <c r="J183" s="2"/>
@@ -9275,18 +9297,24 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
+    <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8"/>
+      <c r="B184" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>534</v>
+      </c>
       <c r="E184" s="9" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
       <c r="J184" s="2"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -9305,12 +9333,18 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
+      <c r="B185" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>537</v>
+      </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9"/>
+      <c r="E185" s="9" t="s">
+        <v>538</v>
+      </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
       <c r="H185" s="18"/>
@@ -9338,7 +9372,9 @@
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-      <c r="E186" s="9"/>
+      <c r="E186" s="9" t="s">
+        <v>539</v>
+      </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
       <c r="H186" s="18"/>
@@ -9361,14 +9397,14 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="18"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="18"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
       <c r="H187" s="18"/>
       <c r="I187" s="18"/>
       <c r="J187" s="2"/>
@@ -9392,11 +9428,11 @@
     <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="9"/>
-      <c r="C188" s="18"/>
+      <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="18"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
       <c r="J188" s="2"/>
@@ -9418,15 +9454,15 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="2"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
       <c r="J189" s="2"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -9446,15 +9482,15 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="3"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="2"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="18"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="18"/>
       <c r="J190" s="2"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
@@ -9475,7 +9511,7 @@
     </row>
     <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-      <c r="B191" s="3"/>
+      <c r="B191" s="11"/>
       <c r="C191" s="3"/>
       <c r="D191" s="11"/>
       <c r="E191" s="3"/>
@@ -9503,7 +9539,7 @@
     </row>
     <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-      <c r="B192" s="3"/>
+      <c r="B192" s="11"/>
       <c r="C192" s="3"/>
       <c r="D192" s="11"/>
       <c r="E192" s="3"/>
@@ -9533,7 +9569,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
+      <c r="D193" s="11"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="2"/>
@@ -9561,9 +9597,9 @@
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
+      <c r="D194" s="11"/>
       <c r="E194" s="3"/>
-      <c r="F194" s="2"/>
+      <c r="F194" s="3"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -9591,7 +9627,7 @@
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-      <c r="F195" s="2"/>
+      <c r="F195" s="3"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -10066,7 +10102,7 @@
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
-      <c r="E212" s="2"/>
+      <c r="E212" s="3"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
@@ -10094,7 +10130,7 @@
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
-      <c r="E213" s="2"/>
+      <c r="E213" s="3"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
@@ -10569,7 +10605,7 @@
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="3"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -10597,7 +10633,7 @@
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="3"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -11184,7 +11220,7 @@
     <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
-      <c r="C252" s="2"/>
+      <c r="C252" s="3"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -11212,7 +11248,7 @@
     <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
-      <c r="C253" s="2"/>
+      <c r="C253" s="3"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -11659,7 +11695,7 @@
     </row>
     <row r="269" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+      <c r="B269" s="3"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -11687,7 +11723,7 @@
     </row>
     <row r="270" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
+      <c r="B270" s="3"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -14569,17 +14605,17 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="3"/>
+    <row r="373" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
       <c r="G373" s="2"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="J373" s="3"/>
+      <c r="H373" s="2"/>
+      <c r="I373" s="2"/>
+      <c r="J373" s="2"/>
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
       <c r="M373" s="3"/>
@@ -14597,17 +14633,17 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="3"/>
+    <row r="374" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="J374" s="3"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="2"/>
+      <c r="J374" s="2"/>
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
       <c r="M374" s="3"/>
@@ -14632,7 +14668,7 @@
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
+      <c r="G375" s="2"/>
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
       <c r="J375" s="3"/>
@@ -14655,7 +14691,7 @@
     </row>
     <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
-      <c r="B376" s="3"/>
+      <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -14683,8 +14719,8 @@
     </row>
     <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
-      <c r="B377" s="3"/>
-      <c r="C377" s="3"/>
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
@@ -14712,7 +14748,7 @@
     <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
-      <c r="C378" s="3"/>
+      <c r="C378" s="2"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
@@ -14906,60 +14942,60 @@
       <c r="Z384" s="3"/>
     </row>
     <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="11"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
-      <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
-      <c r="H385" s="11"/>
-      <c r="I385" s="11"/>
-      <c r="J385" s="11"/>
-      <c r="K385" s="11"/>
-      <c r="L385" s="11"/>
-      <c r="M385" s="11"/>
-      <c r="N385" s="11"/>
-      <c r="O385" s="11"/>
-      <c r="P385" s="11"/>
-      <c r="Q385" s="11"/>
-      <c r="R385" s="11"/>
-      <c r="S385" s="11"/>
-      <c r="T385" s="11"/>
-      <c r="U385" s="11"/>
-      <c r="V385" s="11"/>
-      <c r="W385" s="11"/>
-      <c r="X385" s="11"/>
-      <c r="Y385" s="11"/>
-      <c r="Z385" s="11"/>
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="3"/>
+      <c r="E385" s="3"/>
+      <c r="F385" s="3"/>
+      <c r="G385" s="3"/>
+      <c r="H385" s="3"/>
+      <c r="I385" s="3"/>
+      <c r="J385" s="3"/>
+      <c r="K385" s="3"/>
+      <c r="L385" s="3"/>
+      <c r="M385" s="3"/>
+      <c r="N385" s="3"/>
+      <c r="O385" s="3"/>
+      <c r="P385" s="3"/>
+      <c r="Q385" s="3"/>
+      <c r="R385" s="3"/>
+      <c r="S385" s="3"/>
+      <c r="T385" s="3"/>
+      <c r="U385" s="3"/>
+      <c r="V385" s="3"/>
+      <c r="W385" s="3"/>
+      <c r="X385" s="3"/>
+      <c r="Y385" s="3"/>
+      <c r="Z385" s="3"/>
     </row>
     <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="11"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
-      <c r="F386" s="11"/>
-      <c r="G386" s="11"/>
-      <c r="H386" s="11"/>
-      <c r="I386" s="11"/>
-      <c r="J386" s="11"/>
-      <c r="K386" s="11"/>
-      <c r="L386" s="11"/>
-      <c r="M386" s="11"/>
-      <c r="N386" s="11"/>
-      <c r="O386" s="11"/>
-      <c r="P386" s="11"/>
-      <c r="Q386" s="11"/>
-      <c r="R386" s="11"/>
-      <c r="S386" s="11"/>
-      <c r="T386" s="11"/>
-      <c r="U386" s="11"/>
-      <c r="V386" s="11"/>
-      <c r="W386" s="11"/>
-      <c r="X386" s="11"/>
-      <c r="Y386" s="11"/>
-      <c r="Z386" s="11"/>
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="3"/>
+      <c r="E386" s="3"/>
+      <c r="F386" s="3"/>
+      <c r="G386" s="3"/>
+      <c r="H386" s="3"/>
+      <c r="I386" s="3"/>
+      <c r="J386" s="3"/>
+      <c r="K386" s="3"/>
+      <c r="L386" s="3"/>
+      <c r="M386" s="3"/>
+      <c r="N386" s="3"/>
+      <c r="O386" s="3"/>
+      <c r="P386" s="3"/>
+      <c r="Q386" s="3"/>
+      <c r="R386" s="3"/>
+      <c r="S386" s="3"/>
+      <c r="T386" s="3"/>
+      <c r="U386" s="3"/>
+      <c r="V386" s="3"/>
+      <c r="W386" s="3"/>
+      <c r="X386" s="3"/>
+      <c r="Y386" s="3"/>
+      <c r="Z386" s="3"/>
     </row>
     <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11"/>
@@ -32181,10 +32217,66 @@
       <c r="Y1001" s="11"/>
       <c r="Z1001" s="11"/>
     </row>
+    <row r="1002" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="11"/>
+      <c r="B1002" s="11"/>
+      <c r="C1002" s="11"/>
+      <c r="D1002" s="11"/>
+      <c r="E1002" s="11"/>
+      <c r="F1002" s="11"/>
+      <c r="G1002" s="11"/>
+      <c r="H1002" s="11"/>
+      <c r="I1002" s="11"/>
+      <c r="J1002" s="11"/>
+      <c r="K1002" s="11"/>
+      <c r="L1002" s="11"/>
+      <c r="M1002" s="11"/>
+      <c r="N1002" s="11"/>
+      <c r="O1002" s="11"/>
+      <c r="P1002" s="11"/>
+      <c r="Q1002" s="11"/>
+      <c r="R1002" s="11"/>
+      <c r="S1002" s="11"/>
+      <c r="T1002" s="11"/>
+      <c r="U1002" s="11"/>
+      <c r="V1002" s="11"/>
+      <c r="W1002" s="11"/>
+      <c r="X1002" s="11"/>
+      <c r="Y1002" s="11"/>
+      <c r="Z1002" s="11"/>
+    </row>
+    <row r="1003" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="11"/>
+      <c r="B1003" s="11"/>
+      <c r="C1003" s="11"/>
+      <c r="D1003" s="11"/>
+      <c r="E1003" s="11"/>
+      <c r="F1003" s="11"/>
+      <c r="G1003" s="11"/>
+      <c r="H1003" s="11"/>
+      <c r="I1003" s="11"/>
+      <c r="J1003" s="11"/>
+      <c r="K1003" s="11"/>
+      <c r="L1003" s="11"/>
+      <c r="M1003" s="11"/>
+      <c r="N1003" s="11"/>
+      <c r="O1003" s="11"/>
+      <c r="P1003" s="11"/>
+      <c r="Q1003" s="11"/>
+      <c r="R1003" s="11"/>
+      <c r="S1003" s="11"/>
+      <c r="T1003" s="11"/>
+      <c r="U1003" s="11"/>
+      <c r="V1003" s="11"/>
+      <c r="W1003" s="11"/>
+      <c r="X1003" s="11"/>
+      <c r="Y1003" s="11"/>
+      <c r="Z1003" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="168">
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E101:E122"/>
+    <mergeCell ref="E103:E124"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="F47:G47"/>
@@ -32245,22 +32337,22 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="C93:D93"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
     <mergeCell ref="E53:E77"/>
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="E79:E101"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="G101:H101"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="C71:D71"/>
@@ -32268,49 +32360,49 @@
     <mergeCell ref="H71:I71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="C118:D118"/>
     <mergeCell ref="F118:G118"/>
     <mergeCell ref="H118:I118"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="F119:G119"/>
     <mergeCell ref="H119:I119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="A148:I148"/>
     <mergeCell ref="A150:I150"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D159:I159"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="D161:I161"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
     <mergeCell ref="B139:C139"/>
     <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B140:C140"/>
     <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
     <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
     <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A162:A180"/>
-    <mergeCell ref="B152:I152"/>
-    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A164:A182"/>
     <mergeCell ref="B154:I154"/>
     <mergeCell ref="B155:I155"/>
     <mergeCell ref="B156:I156"/>
-    <mergeCell ref="A157:I157"/>
-    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="B157:I157"/>
+    <mergeCell ref="B158:I158"/>
+    <mergeCell ref="A159:I159"/>
+    <mergeCell ref="D162:I162"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="F73:G73"/>
     <mergeCell ref="C74:D74"/>
@@ -32324,40 +32416,40 @@
     <mergeCell ref="H88:I88"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="H93:I93"/>
     <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A99"/>
-    <mergeCell ref="A101:A125"/>
-    <mergeCell ref="A127:A146"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="A79:A101"/>
+    <mergeCell ref="A103:A127"/>
+    <mergeCell ref="A129:A148"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F129:H129"/>
     <mergeCell ref="B144:C144"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="78" max="8" man="1"/>
-    <brk id="147" max="16383" man="1"/>
-    <brk id="188" max="16383" man="1"/>
+    <brk id="149" max="16383" man="1"/>
+    <brk id="190" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0481a8c71f235ca0/Desktop/TT 2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{1217353D-3558-4FA5-95CA-AD1A89C32E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09C860B3-E162-4DCC-8FE1-33BA3CBA9692}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357DBEE-5215-4B1B-B5C2-12798D46A7BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH II SEM " sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="z2ygc8YGc3LxX8fgbDWnasbutonDUtLEfg4aA8syq/M="/>
     </ext>
@@ -39,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="653">
   <si>
     <t>B.TECH II SEMESTER EVEN 2026</t>
   </si>
@@ -605,9 +594,6 @@
     <t>TB4(CI121)-TS6/ROH</t>
   </si>
   <si>
-    <t>TB11(GE112)-TS10/NBH</t>
-  </si>
-  <si>
     <t>TB6(PH211)-TS10/MTR</t>
   </si>
   <si>
@@ -701,9 +687,6 @@
     <t>PG2(HS111)-LL1/MDU</t>
   </si>
   <si>
-    <t>PB11(GE112)-EW1/NBH</t>
-  </si>
-  <si>
     <t>PA16(HS111)--LL1/EKS</t>
   </si>
   <si>
@@ -746,9 +729,6 @@
     <t>TA17(HS111)-TS10/PRI</t>
   </si>
   <si>
-    <t>TB3(GE112)-TS7/ADM</t>
-  </si>
-  <si>
     <t>LB9,B10(CI121)-FF4/ASA</t>
   </si>
   <si>
@@ -852,9 +832,6 @@
   </si>
   <si>
     <t>PB5(GE112)-EW1/SWET</t>
-  </si>
-  <si>
-    <t>PB3(GE112)-EW1/ADM</t>
   </si>
   <si>
     <t>PB6(GE112)-EW2/NTS</t>
@@ -2052,6 +2029,69 @@
   </si>
   <si>
     <t>TC1(PH212)-TR302/DAM</t>
+  </si>
+  <si>
+    <r>
+      <t>TB11(GE112)-TS10/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PB11(GE112)-EW1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TB3(GE112)-TS7/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NBH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PB3(GE112)-EW1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NBH</t>
+    </r>
+  </si>
+  <si>
+    <t>LA3,A4(MA211)-G2/MPA</t>
   </si>
 </sst>
 </file>
@@ -2489,65 +2529,22 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2557,27 +2554,70 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2800,10 +2840,10 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:E25"/>
+      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2825,16 +2865,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="66"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2898,11 +2938,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="71" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>10</v>
@@ -2910,7 +2950,7 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="74" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="26"/>
@@ -2942,9 +2982,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>16</v>
@@ -2952,7 +2992,7 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="82"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
@@ -2982,7 +3022,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
@@ -2992,7 +3032,7 @@
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
@@ -3022,7 +3062,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
@@ -3032,14 +3072,14 @@
       <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="82"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="58" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="27"/>
@@ -3062,7 +3102,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
@@ -3072,7 +3112,7 @@
       <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="23" t="s">
         <v>42</v>
       </c>
@@ -3104,7 +3144,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
@@ -3114,7 +3154,7 @@
       <c r="D8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="82"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="23" t="s">
         <v>48</v>
       </c>
@@ -3144,15 +3184,15 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="19" t="s">
-        <v>540</v>
-      </c>
-      <c r="E9" s="82"/>
+        <v>536</v>
+      </c>
+      <c r="E9" s="75"/>
       <c r="F9" s="23" t="s">
         <v>54</v>
       </c>
@@ -3182,17 +3222,17 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="45" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" s="82"/>
+        <v>537</v>
+      </c>
+      <c r="E10" s="75"/>
       <c r="G10" s="24" t="s">
         <v>49</v>
       </c>
@@ -3221,7 +3261,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="50"/>
       <c r="C11" s="23" t="s">
         <v>52</v>
@@ -3229,9 +3269,9 @@
       <c r="D11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="91" t="s">
-        <v>625</v>
+      <c r="E11" s="75"/>
+      <c r="F11" s="58" t="s">
+        <v>621</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>55</v>
@@ -3243,7 +3283,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>51</v>
@@ -3263,19 +3303,19 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="C12" s="91" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="82"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>59</v>
@@ -3303,9 +3343,9 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="45" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>61</v>
@@ -3313,7 +3353,7 @@
       <c r="D13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="82"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
         <v>63</v>
@@ -3341,7 +3381,7 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="26"/>
       <c r="C14" s="23" t="s">
         <v>65</v>
@@ -3349,7 +3389,7 @@
       <c r="D14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -3375,15 +3415,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="27"/>
       <c r="C15" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="D15" s="92" t="s">
+        <v>576</v>
+      </c>
+      <c r="D15" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -3409,11 +3449,11 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="27"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="82"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3437,21 +3477,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="61" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="61" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3471,21 +3511,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="61" t="s">
+      <c r="D18" s="63"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="69" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3505,21 +3545,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="63" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="86"/>
-      <c r="H19" s="63" t="s">
-        <v>634</v>
-      </c>
-      <c r="I19" s="62"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="77" t="s">
+        <v>630</v>
+      </c>
+      <c r="I19" s="63"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3539,21 +3579,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="63" t="s">
-        <v>636</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63" t="s">
-        <v>638</v>
-      </c>
-      <c r="I20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="77" t="s">
+        <v>632</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="77" t="s">
+        <v>634</v>
+      </c>
+      <c r="I20" s="63"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3573,21 +3613,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="61" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="61" t="s">
+      <c r="G21" s="63"/>
+      <c r="H21" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3607,21 +3647,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="61" t="s">
+      <c r="D22" s="63"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="62"/>
-      <c r="H22" s="61" t="s">
+      <c r="G22" s="63"/>
+      <c r="H22" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3641,21 +3681,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="72"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="61" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="61" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3675,21 +3715,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+      <c r="A24" s="72"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="61" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="61" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3709,13 +3749,13 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="83"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -3767,7 +3807,7 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="71" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -3779,7 +3819,7 @@
       <c r="D27" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="74" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -3789,7 +3829,7 @@
         <v>97</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>99</v>
@@ -3813,7 +3853,7 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+      <c r="A28" s="72"/>
       <c r="B28" s="47" t="s">
         <v>100</v>
       </c>
@@ -3823,7 +3863,7 @@
       <c r="D28" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="82"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="23" t="s">
         <v>103</v>
       </c>
@@ -3831,7 +3871,7 @@
         <v>104</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>117</v>
@@ -3855,7 +3895,7 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
+      <c r="A29" s="72"/>
       <c r="B29" s="47" t="s">
         <v>105</v>
       </c>
@@ -3865,15 +3905,15 @@
       <c r="D29" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="93" t="s">
-        <v>649</v>
-      </c>
-      <c r="G29" s="91" t="s">
+      <c r="E29" s="75"/>
+      <c r="F29" s="60" t="s">
+        <v>645</v>
+      </c>
+      <c r="G29" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="2"/>
@@ -3895,25 +3935,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="58" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="82"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="23" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>113</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="2"/>
@@ -3935,23 +3975,23 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
+      <c r="A31" s="72"/>
       <c r="B31" s="47" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="82"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="23" t="s">
         <v>116</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="23" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="2"/>
@@ -3973,15 +4013,15 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="72"/>
       <c r="B32" s="51"/>
       <c r="C32" s="54" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="82"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="23" t="s">
         <v>119</v>
       </c>
@@ -4011,20 +4051,20 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
+      <c r="A33" s="72"/>
       <c r="B33" s="45" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="E33" s="75"/>
+      <c r="F33" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>542</v>
-      </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>546</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="23"/>
@@ -4047,20 +4087,20 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="72"/>
       <c r="B34" s="45" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="E34" s="82"/>
+        <v>539</v>
+      </c>
+      <c r="E34" s="75"/>
       <c r="F34" s="23" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="26"/>
@@ -4083,17 +4123,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
+      <c r="A35" s="72"/>
       <c r="B35" s="45" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="E35" s="82"/>
+        <v>589</v>
+      </c>
+      <c r="E35" s="75"/>
       <c r="F35" s="23" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -4117,7 +4157,7 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="45"/>
       <c r="C36" s="23" t="s">
         <v>122</v>
@@ -4125,13 +4165,13 @@
       <c r="D36" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="82"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="23" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="23" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="2"/>
@@ -4153,15 +4193,15 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
+      <c r="A37" s="72"/>
       <c r="B37" s="26"/>
       <c r="C37" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="91" t="s">
+      <c r="D37" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="82"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="24" t="s">
         <v>126</v>
       </c>
@@ -4191,15 +4231,15 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
+      <c r="A38" s="72"/>
       <c r="B38" s="27"/>
       <c r="C38" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="82"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="24" t="s">
         <v>131</v>
       </c>
@@ -4229,7 +4269,7 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="72"/>
       <c r="B39" s="26"/>
       <c r="C39" s="23" t="s">
         <v>134</v>
@@ -4237,12 +4277,12 @@
       <c r="D39" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="82"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="50"/>
       <c r="G39" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="92" t="s">
+      <c r="H39" s="59" t="s">
         <v>137</v>
       </c>
       <c r="I39" s="27"/>
@@ -4265,13 +4305,13 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="72"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24" t="s">
         <v>138</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="82"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="27"/>
       <c r="G40" s="24" t="s">
         <v>139</v>
@@ -4299,10 +4339,10 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="72"/>
       <c r="B41" s="23"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="82"/>
+      <c r="E41" s="75"/>
       <c r="F41" s="23"/>
       <c r="G41" s="24" t="s">
         <v>141</v>
@@ -4328,13 +4368,13 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="72"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="82"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
@@ -4358,21 +4398,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
+      <c r="A43" s="72"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="61" t="s">
+      <c r="D43" s="63"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="61" t="s">
+      <c r="G43" s="63"/>
+      <c r="H43" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="I43" s="62"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4392,21 +4432,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
+      <c r="A44" s="72"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="63" t="s">
-        <v>633</v>
-      </c>
-      <c r="G44" s="62"/>
-      <c r="H44" s="61" t="s">
+      <c r="D44" s="63"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="77" t="s">
+        <v>629</v>
+      </c>
+      <c r="G44" s="63"/>
+      <c r="H44" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="62"/>
+      <c r="I44" s="63"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4426,21 +4466,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
+      <c r="A45" s="72"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="63" t="s">
-        <v>631</v>
-      </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="63" t="s">
-        <v>629</v>
-      </c>
-      <c r="I45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="77" t="s">
+        <v>627</v>
+      </c>
+      <c r="G45" s="63"/>
+      <c r="H45" s="77" t="s">
+        <v>625</v>
+      </c>
+      <c r="I45" s="63"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4460,21 +4500,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
+      <c r="A46" s="72"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="62" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="61" t="s">
+      <c r="D46" s="63"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="84" t="s">
-        <v>642</v>
-      </c>
-      <c r="I46" s="85"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="78" t="s">
+        <v>638</v>
+      </c>
+      <c r="I46" s="79"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4494,21 +4534,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
+      <c r="A47" s="72"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="61" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="61" t="s">
+      <c r="G47" s="63"/>
+      <c r="H47" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="62"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4528,21 +4568,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
+      <c r="A48" s="72"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="61" t="s">
+      <c r="C48" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="61" t="s">
+      <c r="D48" s="63"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="61" t="s">
+      <c r="G48" s="63"/>
+      <c r="H48" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="I48" s="62"/>
+      <c r="I48" s="63"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4562,21 +4602,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
+      <c r="A49" s="72"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="61" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="81" t="s">
+      <c r="G49" s="63"/>
+      <c r="H49" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="I49" s="62"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4596,17 +4636,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="72"/>
       <c r="B50" s="23"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="82"/>
+      <c r="E50" s="75"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
-      <c r="H50" s="61" t="s">
+      <c r="H50" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="62"/>
+      <c r="I50" s="63"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4626,17 +4666,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="83"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="95" t="s">
+      <c r="H51" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="I51" s="62"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4684,26 +4724,28 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="71" t="s">
         <v>162</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D53" s="28"/>
-      <c r="E53" s="80" t="s">
+      <c r="E53" s="74" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="H53" s="26"/>
+        <v>582</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>652</v>
+      </c>
       <c r="I53" s="23" t="s">
         <v>15</v>
       </c>
@@ -4726,9 +4768,9 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
+      <c r="A54" s="72"/>
       <c r="B54" s="23" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>163</v>
@@ -4736,18 +4778,15 @@
       <c r="D54" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="91" t="s">
+      <c r="E54" s="85"/>
+      <c r="F54" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G54" s="91" t="s">
+      <c r="G54" s="58" t="s">
         <v>166</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>17</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="3"/>
@@ -4768,9 +4807,9 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
+      <c r="A55" s="72"/>
       <c r="B55" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>168</v>
@@ -4778,7 +4817,7 @@
       <c r="D55" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="72"/>
+      <c r="E55" s="85"/>
       <c r="F55" s="23" t="s">
         <v>170</v>
       </c>
@@ -4807,22 +4846,22 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
+      <c r="A56" s="72"/>
       <c r="B56" s="23" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="72"/>
+      <c r="E56" s="85"/>
       <c r="F56" s="23" t="s">
         <v>173</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H56" s="23" t="s">
         <v>174</v>
@@ -4849,13 +4888,13 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
+      <c r="A57" s="72"/>
       <c r="B57" s="23"/>
       <c r="C57" s="26"/>
       <c r="D57" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="72"/>
+      <c r="E57" s="85"/>
       <c r="F57" s="23" t="s">
         <v>121</v>
       </c>
@@ -4866,7 +4905,7 @@
         <v>178</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4887,12 +4926,12 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59"/>
+      <c r="A58" s="72"/>
       <c r="B58" s="23"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="72"/>
+      <c r="E58" s="85"/>
       <c r="F58" s="23" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>181</v>
@@ -4918,7 +4957,7 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
+      <c r="A59" s="72"/>
       <c r="B59" s="23" t="s">
         <v>179</v>
       </c>
@@ -4928,12 +4967,12 @@
       <c r="D59" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="72"/>
+      <c r="E59" s="85"/>
       <c r="F59" s="23" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
@@ -4956,7 +4995,7 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+      <c r="A60" s="72"/>
       <c r="B60" s="23" t="s">
         <v>182</v>
       </c>
@@ -4964,14 +5003,14 @@
         <v>183</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="72"/>
+        <v>189</v>
+      </c>
+      <c r="E60" s="85"/>
       <c r="F60" s="23" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H60" s="23" t="s">
         <v>187</v>
@@ -4996,7 +5035,7 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+      <c r="A61" s="72"/>
       <c r="B61" s="23" t="s">
         <v>184</v>
       </c>
@@ -5004,15 +5043,15 @@
         <v>185</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="72"/>
+        <v>193</v>
+      </c>
+      <c r="E61" s="85"/>
       <c r="F61" s="23" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="2"/>
@@ -5034,21 +5073,21 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
+      <c r="A62" s="72"/>
       <c r="B62" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="D62" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="72"/>
+        <v>195</v>
+      </c>
+      <c r="E62" s="85"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="2"/>
@@ -5070,26 +5109,26 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
+      <c r="A63" s="72"/>
       <c r="B63" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>193</v>
-      </c>
       <c r="D63" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="72"/>
+        <v>199</v>
+      </c>
+      <c r="E63" s="85"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="I63" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>199</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
@@ -5110,23 +5149,23 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
+      <c r="A64" s="72"/>
       <c r="B64" s="48" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="E64" s="72"/>
+        <v>595</v>
+      </c>
+      <c r="E64" s="85"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H64" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>202</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="2"/>
@@ -5148,20 +5187,20 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
+      <c r="A65" s="72"/>
       <c r="B65" s="23" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="E65" s="72"/>
+        <v>594</v>
+      </c>
+      <c r="E65" s="85"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
@@ -5184,17 +5223,17 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
+      <c r="A66" s="72"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="96" t="s">
-        <v>651</v>
-      </c>
-      <c r="E66" s="72"/>
+      <c r="C66" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="E66" s="85"/>
       <c r="F66" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>205</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="24"/>
@@ -5217,10 +5256,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
+      <c r="A67" s="72"/>
       <c r="B67" s="23"/>
       <c r="C67" s="27"/>
-      <c r="E67" s="72"/>
+      <c r="E67" s="85"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
@@ -5244,19 +5283,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59"/>
+      <c r="A68" s="72"/>
       <c r="B68" s="23"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="81" t="s">
-        <v>617</v>
-      </c>
-      <c r="G68" s="64"/>
-      <c r="H68" s="61" t="s">
-        <v>206</v>
-      </c>
-      <c r="I68" s="64"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="80" t="s">
+        <v>613</v>
+      </c>
+      <c r="G68" s="67"/>
+      <c r="H68" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="67"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5276,21 +5315,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
+      <c r="A69" s="72"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="67"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="61" t="s">
+      <c r="G69" s="67"/>
+      <c r="H69" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="G69" s="64"/>
-      <c r="H69" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="I69" s="64"/>
+      <c r="I69" s="67"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5310,21 +5349,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
+      <c r="A70" s="72"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="61" t="s">
+      <c r="C70" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="67"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="G70" s="64"/>
-      <c r="H70" s="84" t="s">
-        <v>640</v>
-      </c>
-      <c r="I70" s="85"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="78" t="s">
+        <v>636</v>
+      </c>
+      <c r="I70" s="79"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5344,21 +5383,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
+      <c r="A71" s="72"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="84" t="s">
-        <v>639</v>
-      </c>
-      <c r="G71" s="85"/>
-      <c r="H71" s="63" t="s">
-        <v>576</v>
-      </c>
-      <c r="I71" s="64"/>
+      <c r="C71" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D71" s="67"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="78" t="s">
+        <v>635</v>
+      </c>
+      <c r="G71" s="79"/>
+      <c r="H71" s="77" t="s">
+        <v>572</v>
+      </c>
+      <c r="I71" s="67"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5378,19 +5417,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="72"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="94" t="s">
+      <c r="C72" s="87" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="67"/>
+      <c r="H72" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="I72" s="64"/>
+      <c r="I72" s="67"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5410,21 +5449,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
+      <c r="A73" s="72"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="61" t="s">
+      <c r="G73" s="67"/>
+      <c r="H73" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="G73" s="64"/>
-      <c r="H73" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="I73" s="64"/>
+      <c r="I73" s="67"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5444,21 +5483,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="59"/>
+      <c r="A74" s="72"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D74" s="67"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="64"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="G74" s="64"/>
-      <c r="H74" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="I74" s="64"/>
+      <c r="G74" s="67"/>
+      <c r="H74" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="I74" s="67"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5478,17 +5517,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="59"/>
+      <c r="A75" s="72"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="G75" s="64"/>
+      <c r="C75" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="67"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="G75" s="67"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
       <c r="J75" s="2"/>
@@ -5510,17 +5549,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
+      <c r="A76" s="72"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="G76" s="64"/>
+      <c r="C76" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="67"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="G76" s="67"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
       <c r="J76" s="2"/>
@@ -5542,13 +5581,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
+      <c r="A77" s="73"/>
       <c r="B77" s="26"/>
-      <c r="C77" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D77" s="64"/>
-      <c r="E77" s="73"/>
+      <c r="C77" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="D77" s="67"/>
+      <c r="E77" s="86"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
@@ -5600,8 +5639,8 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="58" t="s">
-        <v>226</v>
+      <c r="A79" s="71" t="s">
+        <v>224</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>20</v>
@@ -5612,18 +5651,18 @@
       <c r="D79" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="80" t="s">
+      <c r="E79" s="74" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="50"/>
       <c r="I79" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
@@ -5644,9 +5683,9 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
+      <c r="A80" s="72"/>
       <c r="B80" s="23" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>26</v>
@@ -5654,18 +5693,18 @@
       <c r="D80" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="82"/>
+      <c r="E80" s="75"/>
       <c r="F80" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5686,9 +5725,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="72"/>
       <c r="B81" s="23" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>31</v>
@@ -5696,18 +5735,18 @@
       <c r="D81" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="82"/>
+      <c r="E81" s="75"/>
       <c r="F81" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="I81" s="92" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="I81" s="59" t="s">
+        <v>229</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5728,15 +5767,15 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="72"/>
       <c r="B82" s="23"/>
-      <c r="C82" s="91" t="s">
-        <v>236</v>
+      <c r="C82" s="58" t="s">
+        <v>233</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="82"/>
+        <v>231</v>
+      </c>
+      <c r="E82" s="75"/>
       <c r="F82" s="45" t="s">
         <v>28</v>
       </c>
@@ -5744,7 +5783,7 @@
         <v>35</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="2"/>
@@ -5766,17 +5805,17 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
+      <c r="A83" s="72"/>
       <c r="B83" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E83" s="82"/>
+        <v>234</v>
+      </c>
+      <c r="E83" s="75"/>
       <c r="F83" s="23" t="s">
         <v>34</v>
       </c>
@@ -5784,7 +5823,7 @@
         <v>41</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="2"/>
@@ -5806,25 +5845,25 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+      <c r="A84" s="72"/>
       <c r="B84" s="23" t="s">
-        <v>235</v>
+        <v>650</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E84" s="82"/>
+        <v>238</v>
+      </c>
+      <c r="E84" s="75"/>
       <c r="F84" s="23" t="s">
         <v>40</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="2"/>
@@ -5846,22 +5885,22 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+      <c r="A85" s="72"/>
       <c r="B85" s="23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E85" s="82"/>
+        <v>240</v>
+      </c>
+      <c r="E85" s="75"/>
       <c r="F85" s="23" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="2"/>
@@ -5883,25 +5922,25 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
+      <c r="A86" s="72"/>
       <c r="B86" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="D86" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="75"/>
+      <c r="F86" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="D86" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E86" s="82"/>
-      <c r="F86" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="G86" s="50"/>
-      <c r="H86" s="63" t="s">
-        <v>248</v>
-      </c>
-      <c r="I86" s="62"/>
+      <c r="I86" s="63"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5921,25 +5960,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
+      <c r="A87" s="72"/>
       <c r="B87" s="23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D87" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="E87" s="82"/>
+        <v>247</v>
+      </c>
+      <c r="E87" s="75"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="H87" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="I87" s="62"/>
+        <v>599</v>
+      </c>
+      <c r="H87" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I87" s="63"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5959,27 +5998,27 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="59"/>
+      <c r="A88" s="72"/>
       <c r="B88" s="23" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C88" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" s="75"/>
+      <c r="F88" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G88" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="H88" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="E88" s="82"/>
-      <c r="F88" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="H88" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="I88" s="62"/>
+      <c r="I88" s="63"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -5999,25 +6038,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="91" t="s">
-        <v>601</v>
+      <c r="A89" s="72"/>
+      <c r="B89" s="58" t="s">
+        <v>597</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="E89" s="82"/>
+        <v>598</v>
+      </c>
+      <c r="E89" s="75"/>
       <c r="F89" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G89" s="26"/>
-      <c r="H89" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="I89" s="62"/>
+      <c r="H89" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="I89" s="63"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -6037,23 +6076,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
+      <c r="A90" s="72"/>
       <c r="B90" s="50"/>
       <c r="C90" s="47" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>620</v>
-      </c>
-      <c r="E90" s="82"/>
+        <v>616</v>
+      </c>
+      <c r="E90" s="75"/>
       <c r="F90" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G90" s="26"/>
-      <c r="H90" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="I90" s="62"/>
+      <c r="H90" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="I90" s="63"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6073,13 +6112,13 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
+      <c r="A91" s="72"/>
       <c r="B91" s="50"/>
       <c r="C91" s="57"/>
       <c r="D91" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="E91" s="82"/>
+        <v>643</v>
+      </c>
+      <c r="E91" s="75"/>
       <c r="F91" s="55"/>
       <c r="G91" s="56"/>
       <c r="H91" s="55"/>
@@ -6103,13 +6142,13 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="A92" s="72"/>
       <c r="B92" s="50"/>
       <c r="C92" s="57"/>
-      <c r="D92" s="91" t="s">
-        <v>648</v>
-      </c>
-      <c r="E92" s="82"/>
+      <c r="D92" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="E92" s="75"/>
       <c r="F92" s="55"/>
       <c r="G92" s="56"/>
       <c r="H92" s="55"/>
@@ -6133,21 +6172,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
+      <c r="A93" s="72"/>
       <c r="B93" s="26"/>
-      <c r="C93" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="D93" s="62"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="G93" s="62"/>
-      <c r="H93" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="I93" s="62"/>
+      <c r="C93" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="63"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="G93" s="63"/>
+      <c r="H93" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="I93" s="63"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6167,23 +6206,23 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
+      <c r="A94" s="72"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="D94" s="62"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="G94" s="62"/>
-      <c r="H94" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="I94" s="62"/>
+      <c r="C94" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="63"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G94" s="63"/>
+      <c r="H94" s="77" t="s">
+        <v>626</v>
+      </c>
+      <c r="I94" s="63"/>
       <c r="J94" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -6203,21 +6242,21 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
+      <c r="A95" s="72"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="G95" s="62"/>
-      <c r="H95" s="61" t="s">
-        <v>619</v>
-      </c>
-      <c r="I95" s="62"/>
+      <c r="C95" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="D95" s="63"/>
+      <c r="E95" s="75"/>
+      <c r="F95" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="G95" s="63"/>
+      <c r="H95" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="I95" s="63"/>
       <c r="J95" s="2"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6237,17 +6276,17 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
+      <c r="A96" s="72"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="D96" s="62"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="G96" s="62"/>
+      <c r="C96" s="62" t="s">
+        <v>651</v>
+      </c>
+      <c r="D96" s="63"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="G96" s="63"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
       <c r="J96" s="2"/>
@@ -6269,17 +6308,17 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="59"/>
+      <c r="A97" s="72"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="G97" s="62"/>
+      <c r="C97" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D97" s="63"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="G97" s="63"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="2"/>
@@ -6301,17 +6340,17 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="59"/>
+      <c r="A98" s="72"/>
       <c r="B98" s="23"/>
-      <c r="C98" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="D98" s="62"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="G98" s="62"/>
+      <c r="C98" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="63"/>
+      <c r="E98" s="75"/>
+      <c r="F98" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="G98" s="63"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="2"/>
@@ -6333,17 +6372,17 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
+      <c r="A99" s="72"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="D99" s="62"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="G99" s="62"/>
+      <c r="C99" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="D99" s="63"/>
+      <c r="E99" s="75"/>
+      <c r="F99" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="G99" s="63"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="2"/>
@@ -6365,16 +6404,16 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
-      <c r="B100" s="63" t="s">
-        <v>627</v>
-      </c>
-      <c r="C100" s="62"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="63" t="s">
-        <v>279</v>
-      </c>
-      <c r="G100" s="62"/>
+      <c r="A100" s="72"/>
+      <c r="B100" s="77" t="s">
+        <v>623</v>
+      </c>
+      <c r="C100" s="63"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="G100" s="63"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
       <c r="J100" s="2"/>
@@ -6396,18 +6435,18 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="60"/>
-      <c r="B101" s="69" t="s">
-        <v>616</v>
-      </c>
-      <c r="C101" s="70"/>
+      <c r="A101" s="73"/>
+      <c r="B101" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="C101" s="96"/>
       <c r="D101" s="27"/>
-      <c r="E101" s="83"/>
+      <c r="E101" s="76"/>
       <c r="F101" s="26"/>
-      <c r="G101" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="H101" s="62"/>
+      <c r="G101" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="H101" s="63"/>
       <c r="I101" s="26"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
@@ -6456,16 +6495,16 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="58" t="s">
-        <v>281</v>
+      <c r="A103" s="71" t="s">
+        <v>277</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>561</v>
-      </c>
-      <c r="E103" s="87" t="s">
+        <v>557</v>
+      </c>
+      <c r="E103" s="64" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="45" t="s">
@@ -6473,7 +6512,7 @@
       </c>
       <c r="G103" s="28"/>
       <c r="H103" s="23" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I103" s="23" t="s">
         <v>95</v>
@@ -6497,28 +6536,28 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="59"/>
+      <c r="A104" s="72"/>
       <c r="B104" s="29" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E104" s="88"/>
+        <v>556</v>
+      </c>
+      <c r="E104" s="65"/>
       <c r="F104" s="45" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
@@ -6539,28 +6578,28 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="59"/>
+      <c r="A105" s="72"/>
       <c r="B105" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="D105" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="E105" s="88"/>
+        <v>278</v>
+      </c>
+      <c r="D105" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="E105" s="65"/>
       <c r="F105" s="45" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I105" s="23" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6581,26 +6620,26 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="59"/>
+      <c r="A106" s="72"/>
       <c r="B106" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="C106" s="96" t="s">
-        <v>284</v>
+        <v>573</v>
+      </c>
+      <c r="C106" s="61" t="s">
+        <v>280</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E106" s="88"/>
+      <c r="E106" s="65"/>
       <c r="F106" s="45" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H106" s="28"/>
       <c r="I106" s="48" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6621,28 +6660,28 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="59"/>
+      <c r="A107" s="72"/>
       <c r="B107" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E107" s="65"/>
+      <c r="F107" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="H107" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C107" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="D107" s="29" t="s">
+      <c r="I107" s="29" t="s">
         <v>297</v>
-      </c>
-      <c r="E107" s="88"/>
-      <c r="F107" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="I107" s="29" t="s">
-        <v>301</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6663,28 +6702,28 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
+      <c r="A108" s="72"/>
       <c r="B108" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" s="65"/>
+      <c r="F108" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="G108" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="H108" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="I108" s="23" t="s">
         <v>304</v>
-      </c>
-      <c r="E108" s="88"/>
-      <c r="F108" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>308</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
@@ -6705,26 +6744,26 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
+      <c r="A109" s="72"/>
       <c r="B109" s="29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>562</v>
-      </c>
-      <c r="E109" s="88"/>
+        <v>558</v>
+      </c>
+      <c r="E109" s="65"/>
       <c r="F109" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H109" s="26"/>
       <c r="I109" s="29" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
@@ -6745,22 +6784,22 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
+      <c r="A110" s="72"/>
       <c r="B110" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="E110" s="88"/>
+        <v>559</v>
+      </c>
+      <c r="E110" s="65"/>
       <c r="F110" s="23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H110" s="26"/>
       <c r="J110" s="2"/>
@@ -6782,20 +6821,20 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
-      <c r="B111" s="96" t="s">
-        <v>318</v>
+      <c r="A111" s="72"/>
+      <c r="B111" s="61" t="s">
+        <v>314</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="E111" s="88"/>
+        <v>560</v>
+      </c>
+      <c r="E111" s="65"/>
       <c r="F111" s="26"/>
       <c r="G111" s="23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H111" s="26"/>
       <c r="I111" s="27"/>
@@ -6818,19 +6857,19 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
-      <c r="B112" s="96" t="s">
-        <v>606</v>
+      <c r="A112" s="72"/>
+      <c r="B112" s="61" t="s">
+        <v>602</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="E112" s="88"/>
+        <v>317</v>
+      </c>
+      <c r="E112" s="65"/>
       <c r="F112" s="23" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H112" s="26"/>
       <c r="I112" s="27"/>
@@ -6853,17 +6892,17 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="59"/>
+      <c r="A113" s="72"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="E113" s="88"/>
+        <v>319</v>
+      </c>
+      <c r="E113" s="65"/>
       <c r="F113" s="24" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G113" s="26"/>
       <c r="H113" s="26"/>
@@ -6887,16 +6926,16 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="59"/>
+      <c r="A114" s="72"/>
       <c r="B114" s="29" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="E114" s="88"/>
+        <v>320</v>
+      </c>
+      <c r="E114" s="65"/>
       <c r="F114" s="24" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G114" s="26"/>
       <c r="H114" s="23"/>
@@ -6920,19 +6959,19 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59"/>
+      <c r="A115" s="72"/>
       <c r="B115" s="29" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="E115" s="88"/>
+        <v>605</v>
+      </c>
+      <c r="E115" s="65"/>
       <c r="F115" s="24" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="26"/>
@@ -6956,23 +6995,23 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="59"/>
+      <c r="A116" s="72"/>
       <c r="B116" s="29"/>
       <c r="C116" s="23" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>611</v>
-      </c>
-      <c r="E116" s="88"/>
-      <c r="F116" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="G116" s="64"/>
-      <c r="H116" s="61" t="s">
-        <v>326</v>
-      </c>
-      <c r="I116" s="62"/>
+        <v>607</v>
+      </c>
+      <c r="E116" s="65"/>
+      <c r="F116" s="77" t="s">
+        <v>321</v>
+      </c>
+      <c r="G116" s="67"/>
+      <c r="H116" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="I116" s="63"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -6992,21 +7031,21 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="59"/>
+      <c r="A117" s="72"/>
       <c r="B117" s="26"/>
-      <c r="C117" s="61" t="s">
-        <v>327</v>
-      </c>
-      <c r="D117" s="64"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="G117" s="64"/>
-      <c r="H117" s="61" t="s">
-        <v>329</v>
-      </c>
-      <c r="I117" s="62"/>
+      <c r="C117" s="62" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117" s="67"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="77" t="s">
+        <v>324</v>
+      </c>
+      <c r="G117" s="67"/>
+      <c r="H117" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="I117" s="63"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -7026,21 +7065,21 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="59"/>
+      <c r="A118" s="72"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="D118" s="64"/>
-      <c r="E118" s="88"/>
-      <c r="F118" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="G118" s="64"/>
-      <c r="H118" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="I118" s="62"/>
+      <c r="C118" s="62" t="s">
+        <v>326</v>
+      </c>
+      <c r="D118" s="67"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G118" s="67"/>
+      <c r="H118" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="I118" s="63"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7060,21 +7099,21 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
-      <c r="B119" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="C119" s="64"/>
+      <c r="A119" s="72"/>
+      <c r="B119" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="C119" s="67"/>
       <c r="D119" s="23"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="G119" s="64"/>
-      <c r="H119" s="63" t="s">
-        <v>643</v>
-      </c>
-      <c r="I119" s="62"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="62" t="s">
+        <v>330</v>
+      </c>
+      <c r="G119" s="67"/>
+      <c r="H119" s="77" t="s">
+        <v>639</v>
+      </c>
+      <c r="I119" s="63"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7094,21 +7133,21 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
-      <c r="B120" s="61" t="s">
-        <v>335</v>
-      </c>
-      <c r="C120" s="64"/>
+      <c r="A120" s="72"/>
+      <c r="B120" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" s="67"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="88"/>
-      <c r="F120" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="G120" s="64"/>
-      <c r="H120" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="I120" s="62"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="G120" s="67"/>
+      <c r="H120" s="77" t="s">
+        <v>333</v>
+      </c>
+      <c r="I120" s="63"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7128,21 +7167,21 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
-      <c r="B121" s="61" t="s">
-        <v>338</v>
-      </c>
-      <c r="C121" s="64"/>
+      <c r="A121" s="72"/>
+      <c r="B121" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="C121" s="67"/>
       <c r="D121" s="26"/>
-      <c r="E121" s="88"/>
-      <c r="F121" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="G121" s="64"/>
-      <c r="H121" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="I121" s="62"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="G121" s="67"/>
+      <c r="H121" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="I121" s="63"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7162,21 +7201,21 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="C122" s="64"/>
+      <c r="A122" s="72"/>
+      <c r="B122" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="C122" s="67"/>
       <c r="D122" s="27"/>
-      <c r="E122" s="88"/>
-      <c r="F122" s="95" t="s">
-        <v>342</v>
-      </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="I122" s="62"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="G122" s="67"/>
+      <c r="H122" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="I122" s="63"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7196,19 +7235,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
+      <c r="A123" s="72"/>
       <c r="B123" s="26"/>
       <c r="C123" s="23"/>
       <c r="D123" s="27"/>
-      <c r="E123" s="88"/>
-      <c r="F123" s="95" t="s">
-        <v>344</v>
-      </c>
-      <c r="G123" s="64"/>
-      <c r="H123" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="I123" s="64"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="81" t="s">
+        <v>340</v>
+      </c>
+      <c r="G123" s="67"/>
+      <c r="H123" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="I123" s="67"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7228,13 +7267,13 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="59"/>
+      <c r="A124" s="72"/>
       <c r="B124" s="23"/>
       <c r="C124" s="26"/>
       <c r="D124" s="27"/>
-      <c r="E124" s="89"/>
+      <c r="E124" s="66"/>
       <c r="F124" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G124" s="26"/>
       <c r="H124" s="31"/>
@@ -7258,18 +7297,18 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
+      <c r="A125" s="72"/>
       <c r="B125" s="19"/>
       <c r="C125" s="21"/>
-      <c r="D125" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="E125" s="66"/>
+      <c r="D125" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="E125" s="70"/>
       <c r="F125" s="22"/>
-      <c r="G125" s="61" t="s">
-        <v>348</v>
-      </c>
-      <c r="H125" s="64"/>
+      <c r="G125" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="H125" s="67"/>
       <c r="I125" s="8"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
@@ -7290,13 +7329,13 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="59"/>
+      <c r="A126" s="72"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
-      <c r="D126" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="E126" s="66"/>
+      <c r="D126" s="94" t="s">
+        <v>345</v>
+      </c>
+      <c r="E126" s="70"/>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
@@ -7320,13 +7359,13 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="60"/>
+      <c r="A127" s="73"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="61" t="s">
-        <v>350</v>
-      </c>
-      <c r="E127" s="64"/>
+      <c r="D127" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="E127" s="67"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7378,18 +7417,18 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="58" t="s">
-        <v>351</v>
+      <c r="A129" s="71" t="s">
+        <v>347</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="F129" s="67"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="64"/>
+        <v>349</v>
+      </c>
+      <c r="F129" s="89"/>
+      <c r="G129" s="90"/>
+      <c r="H129" s="67"/>
       <c r="I129" s="8"/>
       <c r="J129" s="2"/>
       <c r="K129" s="3"/>
@@ -7410,18 +7449,18 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="59"/>
+      <c r="A130" s="72"/>
       <c r="B130" s="25" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -7446,18 +7485,18 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="59"/>
+      <c r="A131" s="72"/>
       <c r="B131" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D131" s="23" t="s">
         <v>173</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -7482,12 +7521,12 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="59"/>
+      <c r="A132" s="72"/>
       <c r="B132" s="23" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -7512,16 +7551,16 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="59"/>
+      <c r="A133" s="72"/>
       <c r="B133" s="23" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C133" s="28"/>
       <c r="D133" s="23" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -7546,13 +7585,13 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="59"/>
+      <c r="A134" s="72"/>
       <c r="B134" s="28"/>
       <c r="C134" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -7577,7 +7616,7 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="59"/>
+      <c r="A135" s="72"/>
       <c r="B135" s="28"/>
       <c r="C135" s="23"/>
       <c r="E135" s="26"/>
@@ -7604,15 +7643,15 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="59"/>
+      <c r="A136" s="72"/>
       <c r="B136" s="24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="33"/>
@@ -7638,13 +7677,13 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="59"/>
+      <c r="A137" s="72"/>
       <c r="B137" s="53"/>
       <c r="C137" s="23" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="33"/>
@@ -7670,13 +7709,13 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="59"/>
+      <c r="A138" s="72"/>
       <c r="B138" s="26"/>
       <c r="C138" s="24" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="33"/>
@@ -7702,15 +7741,15 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="59"/>
-      <c r="B139" s="61" t="s">
-        <v>618</v>
-      </c>
-      <c r="C139" s="62"/>
-      <c r="D139" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="E139" s="62"/>
+      <c r="A139" s="72"/>
+      <c r="B139" s="62" t="s">
+        <v>614</v>
+      </c>
+      <c r="C139" s="63"/>
+      <c r="D139" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139" s="63"/>
       <c r="F139" s="33"/>
       <c r="G139" s="34"/>
       <c r="H139" s="32"/>
@@ -7734,15 +7773,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="59"/>
-      <c r="B140" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="C140" s="62"/>
-      <c r="D140" s="61" t="s">
-        <v>373</v>
-      </c>
-      <c r="E140" s="62"/>
+      <c r="A140" s="72"/>
+      <c r="B140" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C140" s="63"/>
+      <c r="D140" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="E140" s="63"/>
       <c r="F140" s="33"/>
       <c r="G140" s="34"/>
       <c r="H140" s="32"/>
@@ -7766,15 +7805,15 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="59"/>
-      <c r="B141" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="C141" s="62"/>
-      <c r="D141" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="E141" s="62"/>
+      <c r="A141" s="72"/>
+      <c r="B141" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="C141" s="63"/>
+      <c r="D141" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E141" s="63"/>
       <c r="F141" s="33"/>
       <c r="G141" s="32"/>
       <c r="H141" s="32"/>
@@ -7798,15 +7837,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="59"/>
-      <c r="B142" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" s="62"/>
-      <c r="D142" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="E142" s="62"/>
+      <c r="A142" s="72"/>
+      <c r="B142" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="63"/>
+      <c r="D142" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="E142" s="63"/>
       <c r="F142" s="33"/>
       <c r="G142" s="32"/>
       <c r="H142" s="32"/>
@@ -7830,15 +7869,15 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="59"/>
-      <c r="B143" s="63" t="s">
-        <v>628</v>
-      </c>
-      <c r="C143" s="62"/>
-      <c r="D143" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="E143" s="62"/>
+      <c r="A143" s="72"/>
+      <c r="B143" s="77" t="s">
+        <v>624</v>
+      </c>
+      <c r="C143" s="63"/>
+      <c r="D143" s="94" t="s">
+        <v>374</v>
+      </c>
+      <c r="E143" s="63"/>
       <c r="F143" s="32"/>
       <c r="G143" s="32"/>
       <c r="H143" s="32"/>
@@ -7862,15 +7901,15 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="59"/>
-      <c r="B144" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="C144" s="62"/>
-      <c r="D144" s="65" t="s">
-        <v>632</v>
-      </c>
-      <c r="E144" s="62"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" s="63"/>
+      <c r="D144" s="94" t="s">
+        <v>628</v>
+      </c>
+      <c r="E144" s="63"/>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
@@ -7894,13 +7933,13 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="59"/>
-      <c r="B145" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="C145" s="62"/>
-      <c r="D145" s="61"/>
-      <c r="E145" s="62"/>
+      <c r="A145" s="72"/>
+      <c r="B145" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="C145" s="63"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="63"/>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
       <c r="H145" s="32"/>
@@ -7924,11 +7963,11 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="59"/>
-      <c r="B146" s="65" t="s">
-        <v>381</v>
-      </c>
-      <c r="C146" s="66"/>
+      <c r="A146" s="72"/>
+      <c r="B146" s="94" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" s="70"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="8"/>
@@ -7954,7 +7993,7 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="59"/>
+      <c r="A147" s="72"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -7981,7 +8020,7 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="60"/>
+      <c r="A148" s="73"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="10"/>
@@ -8036,17 +8075,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="B150" s="78"/>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
-      <c r="H150" s="78"/>
-      <c r="I150" s="66"/>
+      <c r="A150" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B150" s="69"/>
+      <c r="C150" s="69"/>
+      <c r="D150" s="69"/>
+      <c r="E150" s="69"/>
+      <c r="F150" s="69"/>
+      <c r="G150" s="69"/>
+      <c r="H150" s="69"/>
+      <c r="I150" s="70"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8094,17 +8133,17 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="67" t="s">
-        <v>383</v>
-      </c>
-      <c r="B152" s="68"/>
-      <c r="C152" s="68"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="68"/>
-      <c r="F152" s="68"/>
-      <c r="G152" s="68"/>
-      <c r="H152" s="68"/>
-      <c r="I152" s="64"/>
+      <c r="A152" s="89" t="s">
+        <v>379</v>
+      </c>
+      <c r="B152" s="90"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="90"/>
+      <c r="G152" s="90"/>
+      <c r="H152" s="90"/>
+      <c r="I152" s="67"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8125,16 +8164,16 @@
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="67" t="s">
-        <v>384</v>
-      </c>
-      <c r="C153" s="68"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="68"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="68"/>
-      <c r="I153" s="64"/>
+      <c r="B153" s="89" t="s">
+        <v>380</v>
+      </c>
+      <c r="C153" s="90"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="67"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8155,16 +8194,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="C154" s="68"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="68"/>
-      <c r="F154" s="68"/>
-      <c r="G154" s="68"/>
-      <c r="H154" s="68"/>
-      <c r="I154" s="64"/>
+      <c r="B154" s="89" t="s">
+        <v>381</v>
+      </c>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="90"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="90"/>
+      <c r="I154" s="67"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8185,16 +8224,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="68"/>
-      <c r="F155" s="68"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="68"/>
-      <c r="I155" s="64"/>
+      <c r="B155" s="89" t="s">
+        <v>382</v>
+      </c>
+      <c r="C155" s="90"/>
+      <c r="D155" s="90"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="90"/>
+      <c r="G155" s="90"/>
+      <c r="H155" s="90"/>
+      <c r="I155" s="67"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8215,16 +8254,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="68"/>
-      <c r="G156" s="68"/>
-      <c r="H156" s="68"/>
-      <c r="I156" s="64"/>
+      <c r="B156" s="89" t="s">
+        <v>383</v>
+      </c>
+      <c r="C156" s="90"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="90"/>
+      <c r="G156" s="90"/>
+      <c r="H156" s="90"/>
+      <c r="I156" s="67"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8245,16 +8284,16 @@
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
-      <c r="B157" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="C157" s="68"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="68"/>
-      <c r="F157" s="68"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="68"/>
-      <c r="I157" s="64"/>
+      <c r="B157" s="89" t="s">
+        <v>384</v>
+      </c>
+      <c r="C157" s="90"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="90"/>
+      <c r="G157" s="90"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="67"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8275,16 +8314,16 @@
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
-      <c r="B158" s="74" t="s">
-        <v>389</v>
-      </c>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="68"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="68"/>
-      <c r="I158" s="64"/>
+      <c r="B158" s="95" t="s">
+        <v>385</v>
+      </c>
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="90"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="90"/>
+      <c r="I158" s="67"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8304,17 +8343,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="B159" s="68"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="68"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="68"/>
-      <c r="I159" s="64"/>
+      <c r="A159" s="89" t="s">
+        <v>386</v>
+      </c>
+      <c r="B159" s="90"/>
+      <c r="C159" s="90"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
+      <c r="H159" s="90"/>
+      <c r="I159" s="67"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8334,21 +8373,21 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="71"/>
+      <c r="A160" s="93"/>
       <c r="B160" s="35" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="D160" s="79" t="s">
-        <v>393</v>
-      </c>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="68"/>
-      <c r="I160" s="64"/>
+        <v>388</v>
+      </c>
+      <c r="D160" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="E160" s="90"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="90"/>
+      <c r="H160" s="90"/>
+      <c r="I160" s="67"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8368,19 +8407,19 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="72"/>
+      <c r="A161" s="85"/>
       <c r="B161" s="35"/>
       <c r="C161" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="D161" s="75" t="s">
-        <v>395</v>
-      </c>
-      <c r="E161" s="68"/>
-      <c r="F161" s="68"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="68"/>
-      <c r="I161" s="64"/>
+        <v>390</v>
+      </c>
+      <c r="D161" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="E161" s="90"/>
+      <c r="F161" s="90"/>
+      <c r="G161" s="90"/>
+      <c r="H161" s="90"/>
+      <c r="I161" s="67"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8400,19 +8439,19 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="73"/>
+      <c r="A162" s="86"/>
       <c r="B162" s="35"/>
       <c r="C162" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="D162" s="75" t="s">
-        <v>397</v>
-      </c>
-      <c r="E162" s="68"/>
-      <c r="F162" s="68"/>
-      <c r="G162" s="68"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="64"/>
+        <v>392</v>
+      </c>
+      <c r="D162" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="E162" s="90"/>
+      <c r="F162" s="90"/>
+      <c r="G162" s="90"/>
+      <c r="H162" s="90"/>
+      <c r="I162" s="67"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8460,30 +8499,30 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="71"/>
+      <c r="A164" s="93"/>
       <c r="B164" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C164" s="39" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E164" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F164" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G164" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H164" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
@@ -8504,30 +8543,30 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="72"/>
+      <c r="A165" s="85"/>
       <c r="B165" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="E165" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="F165" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="C165" s="34" t="s">
+      <c r="G165" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="H165" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="E165" s="34" t="s">
+      <c r="I165" s="41" t="s">
         <v>404</v>
-      </c>
-      <c r="F165" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="G165" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="H165" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="I165" s="41" t="s">
-        <v>408</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8548,30 +8587,30 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="72"/>
+      <c r="A166" s="85"/>
       <c r="B166" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="F166" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="C166" s="34" t="s">
+      <c r="G166" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="H166" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="I166" s="41" t="s">
         <v>412</v>
-      </c>
-      <c r="F166" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="G166" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="H166" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="I166" s="41" t="s">
-        <v>416</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
@@ -8592,30 +8631,30 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="72"/>
+      <c r="A167" s="85"/>
       <c r="B167" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="E167" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="F167" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="G167" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="H167" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="I167" s="41" t="s">
         <v>420</v>
-      </c>
-      <c r="F167" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="G167" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="H167" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="I167" s="41" t="s">
-        <v>424</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8636,21 +8675,21 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="72"/>
+      <c r="A168" s="85"/>
       <c r="B168" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E168" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F168" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="C168" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="D168" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="F168" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="G168" s="34"/>
       <c r="H168" s="40"/>
@@ -8674,28 +8713,28 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="72"/>
+      <c r="A169" s="85"/>
       <c r="B169" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="E169" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="F169" s="34" t="s">
         <v>430</v>
-      </c>
-      <c r="C169" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="D169" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="E169" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>434</v>
       </c>
       <c r="G169" s="34"/>
       <c r="H169" s="40" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
@@ -8716,28 +8755,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="72"/>
+      <c r="A170" s="85"/>
       <c r="B170" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>434</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="F170" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="C170" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="D170" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="E170" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="F170" s="34" t="s">
-        <v>441</v>
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8758,30 +8797,30 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="72"/>
+      <c r="A171" s="85"/>
       <c r="B171" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="F171" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="C171" s="34" t="s">
+      <c r="G171" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="H171" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="I171" s="42" t="s">
         <v>447</v>
-      </c>
-      <c r="F171" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="G171" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="H171" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="I171" s="42" t="s">
-        <v>451</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8802,30 +8841,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="72"/>
+      <c r="A172" s="85"/>
       <c r="B172" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="F172" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="C172" s="34" t="s">
+      <c r="G172" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="H172" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="I172" s="42" t="s">
         <v>455</v>
-      </c>
-      <c r="F172" s="34" t="s">
-        <v>456</v>
-      </c>
-      <c r="G172" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="H172" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="I172" s="42" t="s">
-        <v>459</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8846,28 +8885,28 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="72"/>
+      <c r="A173" s="85"/>
       <c r="B173" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>457</v>
+      </c>
+      <c r="D173" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>459</v>
+      </c>
+      <c r="F173" s="34" t="s">
         <v>460</v>
-      </c>
-      <c r="C173" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="D173" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="E173" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="F173" s="34" t="s">
-        <v>464</v>
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="40" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8888,30 +8927,30 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="72"/>
+      <c r="A174" s="85"/>
       <c r="B174" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="C174" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="F174" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="C174" s="34" t="s">
+      <c r="G174" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="H174" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="E174" s="34" t="s">
+      <c r="I174" s="42" t="s">
         <v>470</v>
-      </c>
-      <c r="F174" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="G174" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="H174" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="I174" s="42" t="s">
-        <v>474</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -8932,30 +8971,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="72"/>
+      <c r="A175" s="85"/>
       <c r="B175" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="C175" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="F175" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="G175" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="H175" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="I175" s="43" t="s">
         <v>478</v>
-      </c>
-      <c r="F175" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="G175" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="H175" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="I175" s="43" t="s">
-        <v>482</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -8976,30 +9015,30 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="72"/>
+      <c r="A176" s="85"/>
       <c r="B176" s="34" t="s">
+        <v>479</v>
+      </c>
+      <c r="C176" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="D176" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="E176" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="F176" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="C176" s="34" t="s">
+      <c r="G176" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="H176" s="40" t="s">
         <v>485</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="I176" s="41" t="s">
         <v>486</v>
-      </c>
-      <c r="F176" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="G176" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="H176" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="I176" s="41" t="s">
-        <v>490</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
@@ -9020,28 +9059,28 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="72"/>
+      <c r="A177" s="85"/>
       <c r="B177" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="C177" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="E177" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="F177" s="34" t="s">
         <v>491</v>
-      </c>
-      <c r="C177" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="D177" s="34" t="s">
-        <v>493</v>
-      </c>
-      <c r="E177" s="34" t="s">
-        <v>494</v>
-      </c>
-      <c r="F177" s="34" t="s">
-        <v>495</v>
       </c>
       <c r="G177" s="34"/>
       <c r="H177" s="40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I177" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
@@ -9062,24 +9101,24 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="72"/>
+      <c r="A178" s="85"/>
       <c r="B178" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="C178" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="D178" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="E178" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="F178" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="C178" s="34" t="s">
+      <c r="G178" s="34" t="s">
         <v>499</v>
-      </c>
-      <c r="D178" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="E178" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="F178" s="34" t="s">
-        <v>502</v>
-      </c>
-      <c r="G178" s="34" t="s">
-        <v>503</v>
       </c>
       <c r="H178" s="44"/>
       <c r="I178" s="44"/>
@@ -9102,21 +9141,21 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="72"/>
+      <c r="A179" s="85"/>
       <c r="B179" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="D179" s="34" t="s">
+        <v>502</v>
+      </c>
+      <c r="E179" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="F179" s="34" t="s">
         <v>504</v>
-      </c>
-      <c r="C179" s="34" t="s">
-        <v>505</v>
-      </c>
-      <c r="D179" s="34" t="s">
-        <v>506</v>
-      </c>
-      <c r="E179" s="34" t="s">
-        <v>507</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>508</v>
       </c>
       <c r="G179" s="34"/>
       <c r="H179" s="44"/>
@@ -9140,24 +9179,24 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="72"/>
+      <c r="A180" s="85"/>
       <c r="B180" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D180" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="E180" s="34" t="s">
+        <v>508</v>
+      </c>
+      <c r="F180" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="C180" s="34" t="s">
+      <c r="G180" s="34" t="s">
         <v>510</v>
-      </c>
-      <c r="D180" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="E180" s="34" t="s">
-        <v>512</v>
-      </c>
-      <c r="F180" s="34" t="s">
-        <v>513</v>
-      </c>
-      <c r="G180" s="34" t="s">
-        <v>514</v>
       </c>
       <c r="H180" s="44"/>
       <c r="I180" s="44"/>
@@ -9180,24 +9219,24 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="72"/>
+      <c r="A181" s="85"/>
       <c r="B181" s="34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>512</v>
+      </c>
+      <c r="D181" s="34" t="s">
+        <v>513</v>
+      </c>
+      <c r="E181" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="F181" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="C181" s="34" t="s">
+      <c r="G181" s="34" t="s">
         <v>516</v>
-      </c>
-      <c r="D181" s="34" t="s">
-        <v>517</v>
-      </c>
-      <c r="E181" s="34" t="s">
-        <v>518</v>
-      </c>
-      <c r="F181" s="34" t="s">
-        <v>519</v>
-      </c>
-      <c r="G181" s="34" t="s">
-        <v>520</v>
       </c>
       <c r="H181" s="44"/>
       <c r="I181" s="44"/>
@@ -9220,24 +9259,24 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="73"/>
+      <c r="A182" s="86"/>
       <c r="B182" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D182" s="34" t="s">
+        <v>519</v>
+      </c>
+      <c r="E182" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="F182" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="C182" s="34" t="s">
+      <c r="G182" s="34" t="s">
         <v>522</v>
-      </c>
-      <c r="D182" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="E182" s="34" t="s">
-        <v>524</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>525</v>
-      </c>
-      <c r="G182" s="34" t="s">
-        <v>526</v>
       </c>
       <c r="H182" s="44"/>
       <c r="I182" s="44"/>
@@ -9262,20 +9301,20 @@
     <row r="183" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
@@ -9300,16 +9339,16 @@
     <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="9" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -9336,14 +9375,14 @@
     <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="9" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -9373,7 +9412,7 @@
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -32275,6 +32314,150 @@
     </row>
   </sheetData>
   <mergeCells count="168">
+    <mergeCell ref="A103:A127"/>
+    <mergeCell ref="A129:A148"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A164:A182"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="B157:I157"/>
+    <mergeCell ref="B158:I158"/>
+    <mergeCell ref="A159:I159"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="A79:A101"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="D161:I161"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="E53:E77"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E79:E101"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A27:A51"/>
+    <mergeCell ref="E27:E51"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="E103:E124"/>
     <mergeCell ref="H73:I73"/>
@@ -32299,150 +32482,6 @@
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E101"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="D161:I161"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A164:A182"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="B156:I156"/>
-    <mergeCell ref="B157:I157"/>
-    <mergeCell ref="B158:I158"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A101"/>
-    <mergeCell ref="A103:A127"/>
-    <mergeCell ref="A129:A148"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monika.shukla\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7357DBEE-5215-4B1B-B5C2-12798D46A7BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26643093-5ED2-4612-B481-95EFE659A557}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH II SEM " sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>LA15,A16(CI121)-FF4MAY</t>
   </si>
   <si>
-    <t>TC2(HS111)-TS6/SMO</t>
-  </si>
-  <si>
     <t>TA4(CI121)-TS10/APR</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>TG1(PH211)-TS7/DAM</t>
   </si>
   <si>
-    <t>TC1(HS111)-TS6/SMO</t>
-  </si>
-  <si>
     <t>TB9(MA211)-TS7/RSC</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
     <t>TB4(MA211)-TS10/MSD</t>
   </si>
   <si>
-    <t>TB10(HS111)-TS11/SDA</t>
-  </si>
-  <si>
     <t>TC2(GE112)-TS11/SWET</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t>PG4(CS121)-CL05/AVR,TNV</t>
   </si>
   <si>
-    <t>PB3(HS111)--LL/MDU</t>
-  </si>
-  <si>
     <t>PA1(HS111)--LL/EKS</t>
   </si>
   <si>
@@ -480,12 +468,6 @@
     <t>PG3(HS111)--LL/HK</t>
   </si>
   <si>
-    <t>PD1(HS111)--LL/KMB</t>
-  </si>
-  <si>
-    <t>PG4(HS111)--LL1/MRB</t>
-  </si>
-  <si>
     <t>PD2(HS111)--LL1/AMI</t>
   </si>
   <si>
@@ -555,9 +537,6 @@
     <t>LC1,C2,C3(B11CI121)-FF3/ALK</t>
   </si>
   <si>
-    <t>LC1,C2,C3(HS111)- FF3/VGU</t>
-  </si>
-  <si>
     <t>LA3,A4(HS111)-FF4/RSC</t>
   </si>
   <si>
@@ -576,9 +555,6 @@
     <t>LB11,B12(MA211)-CS5/HPT</t>
   </si>
   <si>
-    <t>TG4(HS111)-TS7/NSK</t>
-  </si>
-  <si>
     <t>TD2(GE112)-TS7/CDN</t>
   </si>
   <si>
@@ -705,9 +681,6 @@
     <t>THU</t>
   </si>
   <si>
-    <t>LC1,C2,C3(HS111)- G1/VGU</t>
-  </si>
-  <si>
     <t>TA4(MA211)-TS7/MSD</t>
   </si>
   <si>
@@ -801,9 +774,6 @@
     <t>PB3(PH271)-PL3/SPP/SND</t>
   </si>
   <si>
-    <t>TG2(HS111)-TS11/SP</t>
-  </si>
-  <si>
     <t>TG3(MA211)-TS8/DCS</t>
   </si>
   <si>
@@ -843,9 +813,6 @@
     <t>PB9(PH271)-PL2/RAV/EKY</t>
   </si>
   <si>
-    <t>PC2(HS111)-LL/HK</t>
-  </si>
-  <si>
     <t>PB10(PH271)-PL1/BCJ/MKC</t>
   </si>
   <si>
@@ -879,9 +846,6 @@
     <t>LA17,A18(HS111)-FF2/VRT</t>
   </si>
   <si>
-    <t>LB3,B4(PH211)-FF2/SPP</t>
-  </si>
-  <si>
     <t>LB11,B12(HS111)-FF3/APR</t>
   </si>
   <si>
@@ -900,9 +864,6 @@
     <t>LD1,D2(MA211)-FF3/SGL</t>
   </si>
   <si>
-    <t>LB3,B4(HS111)-FF2/PU</t>
-  </si>
-  <si>
     <t>LG1,G2(CI121)-FF4/RTK</t>
   </si>
   <si>
@@ -942,9 +903,6 @@
     <t>TG4(PH211)-TS7/RKG</t>
   </si>
   <si>
-    <t>TA15(CI121)-TS6/NSA</t>
-  </si>
-  <si>
     <t>TA5(CI121)-TS8/APR</t>
   </si>
   <si>
@@ -1138,9 +1096,6 @@
   </si>
   <si>
     <t>PA4(HS111)-LL1/AMI</t>
-  </si>
-  <si>
-    <t>PA17(HS111)-LL/SKU</t>
   </si>
   <si>
     <t>PB7(GE112)-EW1/GGL</t>
@@ -1828,13 +1783,7 @@
     <t>TG1(CI121)-TS12/SHR</t>
   </si>
   <si>
-    <t>TG3(HS111)-TS13/SP</t>
-  </si>
-  <si>
     <t>TC3(PH212)-TS12/DAM</t>
-  </si>
-  <si>
-    <t>TG1(HS111)-TS13/NSK</t>
   </si>
   <si>
     <t>TB10(CI121)-TS12/APJ</t>
@@ -2092,6 +2041,57 @@
   </si>
   <si>
     <t>LA3,A4(MA211)-G2/MPA</t>
+  </si>
+  <si>
+    <t>TB10(HS111)-TS11/MDU</t>
+  </si>
+  <si>
+    <t>TG1(HS111)-TS13/SDU</t>
+  </si>
+  <si>
+    <t>TG2(HS111)-TS11/ASU</t>
+  </si>
+  <si>
+    <t>TG3(HS111)-TS13/MDU</t>
+  </si>
+  <si>
+    <t>TG4(HS111)-TS7/ASU</t>
+  </si>
+  <si>
+    <t>PB3(HS111)--LL/AMI</t>
+  </si>
+  <si>
+    <t>PD1(HS111)--LL/MRB</t>
+  </si>
+  <si>
+    <t>PG4(HS111)--LL1/KMB</t>
+  </si>
+  <si>
+    <t>PC2(HS111)-LL/SKU</t>
+  </si>
+  <si>
+    <t>PA17(HS111)-LL/HK</t>
+  </si>
+  <si>
+    <t>TA15(CI121)-TS8/NSA</t>
+  </si>
+  <si>
+    <t>LB3,B4(HS111)-FF4/PU</t>
+  </si>
+  <si>
+    <t>LB3,B4(PH211)-FF4/SPP</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(HS111)- FF3/SMO</t>
+  </si>
+  <si>
+    <t>LC1,C2,C3(HS111)- G1/SMO</t>
+  </si>
+  <si>
+    <t>TC1(HS111)-TR326/DSH</t>
+  </si>
+  <si>
+    <t>TC2(HS111)-TR326/DSH</t>
   </si>
 </sst>
 </file>
@@ -2230,7 +2230,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2264,6 +2264,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,7 +2400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,6 +2551,77 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2554,70 +2631,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2840,10 +2853,10 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2865,16 +2878,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="70"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -2938,11 +2951,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>10</v>
@@ -2950,7 +2963,7 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="26"/>
@@ -2982,9 +2995,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="45" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>16</v>
@@ -2992,7 +3005,7 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
@@ -3022,7 +3035,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3045,7 @@
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="75"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
@@ -3062,7 +3075,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3085,7 @@
       <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3102,7 +3115,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
@@ -3112,18 +3125,15 @@
       <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -3144,29 +3154,29 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="75"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -3184,28 +3194,30 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="E9" s="75"/>
+        <v>521</v>
+      </c>
+      <c r="E9" s="91"/>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="26"/>
+      <c r="H9" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="I9" s="24"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -3222,29 +3234,32 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="45" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="E10" s="75"/>
+        <v>522</v>
+      </c>
+      <c r="E10" s="91"/>
+      <c r="F10" s="54" t="s">
+        <v>646</v>
+      </c>
       <c r="G10" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="27"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -3261,32 +3276,29 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="50"/>
       <c r="C11" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="75"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="58" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -3303,25 +3315,25 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="47" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C12" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="H12" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="2"/>
@@ -3343,23 +3355,23 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="45" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="75"/>
+        <v>60</v>
+      </c>
+      <c r="E13" s="91"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="2"/>
@@ -3381,19 +3393,21 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="23" t="s">
+        <v>651</v>
+      </c>
       <c r="C14" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="75"/>
+        <v>64</v>
+      </c>
+      <c r="E14" s="91"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="2"/>
@@ -3415,19 +3429,19 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="27"/>
       <c r="C15" s="23" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="75"/>
+        <v>636</v>
+      </c>
+      <c r="E15" s="91"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="2"/>
@@ -3449,11 +3463,13 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="23" t="s">
+        <v>652</v>
+      </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="75"/>
+      <c r="E16" s="91"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3477,21 +3493,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="63"/>
+      <c r="C17" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="69"/>
+      <c r="H17" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="69"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="11"/>
@@ -3511,21 +3527,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="63"/>
+      <c r="C18" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="69"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="69"/>
+      <c r="H18" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="69"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3545,21 +3561,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="77" t="s">
-        <v>630</v>
-      </c>
-      <c r="I19" s="63"/>
+      <c r="C19" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="95"/>
+      <c r="H19" s="70" t="s">
+        <v>613</v>
+      </c>
+      <c r="I19" s="69"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3579,21 +3595,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="77" t="s">
-        <v>632</v>
-      </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="77" t="s">
-        <v>634</v>
-      </c>
-      <c r="I20" s="63"/>
+      <c r="C20" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="70" t="s">
+        <v>615</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70" t="s">
+        <v>617</v>
+      </c>
+      <c r="I20" s="69"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -3613,21 +3629,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="63"/>
+      <c r="C21" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="68" t="s">
+        <v>641</v>
+      </c>
+      <c r="G21" s="69"/>
+      <c r="H21" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="69"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3647,21 +3663,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="63"/>
+      <c r="C22" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="69"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3681,21 +3697,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="63"/>
+      <c r="C23" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="69"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3715,21 +3731,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="63"/>
+      <c r="C24" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="69"/>
+      <c r="H24" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="69"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3749,13 +3765,13 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="76"/>
+      <c r="C25" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="69"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
@@ -3807,32 +3823,32 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="G27" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="H27" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
@@ -3853,28 +3869,28 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>104</v>
-      </c>
       <c r="H28" s="23" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
@@ -3895,25 +3911,25 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="75"/>
+        <v>103</v>
+      </c>
+      <c r="E29" s="91"/>
       <c r="F29" s="60" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="I29" s="27"/>
       <c r="J29" s="2"/>
@@ -3935,25 +3951,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="75"/>
+        <v>108</v>
+      </c>
+      <c r="E30" s="91"/>
       <c r="F30" s="23" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="2"/>
@@ -3975,23 +3991,23 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="75"/>
+        <v>111</v>
+      </c>
+      <c r="E31" s="91"/>
       <c r="F31" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G31" s="50"/>
       <c r="H31" s="23" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="2"/>
@@ -4013,23 +4029,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="51"/>
       <c r="C32" s="54" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="75"/>
+        <v>114</v>
+      </c>
+      <c r="E32" s="91"/>
       <c r="F32" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="2"/>
@@ -4051,20 +4067,20 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="45" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E33" s="75"/>
+        <v>523</v>
+      </c>
+      <c r="E33" s="91"/>
       <c r="F33" s="23" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="23"/>
@@ -4087,20 +4103,20 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="45" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="E34" s="75"/>
+        <v>524</v>
+      </c>
+      <c r="E34" s="91"/>
       <c r="F34" s="23" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="26"/>
@@ -4123,17 +4139,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="45" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="E35" s="75"/>
+        <v>574</v>
+      </c>
+      <c r="E35" s="91"/>
       <c r="F35" s="23" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -4157,21 +4173,21 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="45"/>
       <c r="C36" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="75"/>
+        <v>119</v>
+      </c>
+      <c r="E36" s="91"/>
       <c r="F36" s="23" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="G36" s="26"/>
       <c r="H36" s="23" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="I36" s="27"/>
       <c r="J36" s="2"/>
@@ -4193,23 +4209,23 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="26"/>
       <c r="C37" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="91"/>
+      <c r="F37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="2"/>
@@ -4231,23 +4247,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="27"/>
       <c r="C38" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="91"/>
+      <c r="F38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H38" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="2"/>
@@ -4269,21 +4285,21 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="26"/>
       <c r="C39" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="75"/>
+        <v>131</v>
+      </c>
+      <c r="E39" s="91"/>
       <c r="F39" s="50"/>
       <c r="G39" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H39" s="59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="2"/>
@@ -4305,19 +4321,19 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="23"/>
       <c r="C40" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D40" s="50"/>
-      <c r="E40" s="75"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="27"/>
       <c r="G40" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="2"/>
@@ -4339,13 +4355,13 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="23"/>
       <c r="D41" s="23"/>
-      <c r="E41" s="75"/>
+      <c r="E41" s="91"/>
       <c r="F41" s="23"/>
       <c r="G41" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="27"/>
@@ -4368,13 +4384,13 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
+      <c r="A42" s="66"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="75"/>
+      <c r="C42" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
@@ -4398,21 +4414,21 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="63"/>
-      <c r="H43" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="I43" s="63"/>
+      <c r="C43" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="69"/>
+      <c r="H43" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" s="69"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4432,21 +4448,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="77" t="s">
-        <v>629</v>
-      </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="63"/>
+      <c r="C44" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="70" t="s">
+        <v>612</v>
+      </c>
+      <c r="G44" s="69"/>
+      <c r="H44" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="69"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4466,21 +4482,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="77" t="s">
-        <v>627</v>
-      </c>
-      <c r="G45" s="63"/>
-      <c r="H45" s="77" t="s">
-        <v>625</v>
-      </c>
-      <c r="I45" s="63"/>
+      <c r="C45" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="70" t="s">
+        <v>610</v>
+      </c>
+      <c r="G45" s="69"/>
+      <c r="H45" s="70" t="s">
+        <v>608</v>
+      </c>
+      <c r="I45" s="69"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4500,21 +4516,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="63"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="78" t="s">
-        <v>638</v>
-      </c>
-      <c r="I46" s="79"/>
+      <c r="C46" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="69"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="68" t="s">
+        <v>642</v>
+      </c>
+      <c r="G46" s="69"/>
+      <c r="H46" s="93" t="s">
+        <v>621</v>
+      </c>
+      <c r="I46" s="94"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4534,21 +4550,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="23"/>
-      <c r="C47" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="I47" s="63"/>
+      <c r="C47" s="68" t="s">
+        <v>643</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="69"/>
+      <c r="H47" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="69"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4568,21 +4584,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" s="63"/>
+      <c r="C48" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="69"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" s="69"/>
+      <c r="H48" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="69"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4602,21 +4618,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="I49" s="63"/>
+      <c r="C49" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="69"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="69"/>
+      <c r="H49" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="69"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4636,17 +4652,17 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="23"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
-      <c r="E50" s="75"/>
+      <c r="E50" s="91"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
-      <c r="H50" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="I50" s="63"/>
+      <c r="H50" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" s="69"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4666,17 +4682,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="73"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="76"/>
+      <c r="E51" s="92"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="I51" s="63"/>
+      <c r="H51" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="69"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4724,27 +4740,27 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="71" t="s">
-        <v>162</v>
+      <c r="A53" s="65" t="s">
+        <v>156</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C53" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>581</v>
-      </c>
       <c r="G53" s="23" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>15</v>
@@ -4768,25 +4784,25 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="23" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E54" s="85"/>
+        <v>158</v>
+      </c>
+      <c r="E54" s="80"/>
       <c r="F54" s="58" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G54" s="58" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="3"/>
@@ -4807,22 +4823,22 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="23" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="85"/>
+        <v>163</v>
+      </c>
+      <c r="E55" s="80"/>
       <c r="F55" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H55" s="48" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I55" s="48" t="s">
         <v>24</v>
@@ -4846,28 +4862,28 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="23" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E56" s="85"/>
+        <v>166</v>
+      </c>
+      <c r="E56" s="80"/>
       <c r="F56" s="23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I56" s="23" t="s">
-        <v>175</v>
+        <v>649</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="3"/>
@@ -4888,24 +4904,24 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="23"/>
       <c r="C57" s="26"/>
       <c r="D57" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="85"/>
+        <v>169</v>
+      </c>
+      <c r="E57" s="80"/>
       <c r="F57" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4926,15 +4942,15 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="23"/>
       <c r="D58" s="26"/>
-      <c r="E58" s="85"/>
+      <c r="E58" s="80"/>
       <c r="F58" s="23" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H58" s="26"/>
       <c r="I58" s="26"/>
@@ -4957,22 +4973,19 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="23" t="s">
-        <v>179</v>
-      </c>
+      <c r="A59" s="66"/>
       <c r="C59" s="23" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E59" s="85"/>
+        <v>178</v>
+      </c>
+      <c r="E59" s="80"/>
       <c r="F59" s="23" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
@@ -4995,25 +5008,25 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
+      <c r="A60" s="66"/>
       <c r="B60" s="23" t="s">
-        <v>182</v>
+        <v>640</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="85"/>
+        <v>181</v>
+      </c>
+      <c r="E60" s="80"/>
       <c r="F60" s="23" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I60" s="26"/>
       <c r="J60" s="2"/>
@@ -5035,23 +5048,23 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C61" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="85"/>
+      <c r="E61" s="80"/>
       <c r="F61" s="23" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="2"/>
@@ -5073,21 +5086,21 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
+      <c r="A62" s="66"/>
       <c r="B62" s="23" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E62" s="85"/>
+        <v>187</v>
+      </c>
+      <c r="E62" s="80"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="2"/>
@@ -5109,26 +5122,26 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E63" s="85"/>
+      <c r="E63" s="80"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I63" s="24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
@@ -5149,23 +5162,23 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
+      <c r="A64" s="66"/>
       <c r="B64" s="48" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="E64" s="85"/>
+        <v>580</v>
+      </c>
+      <c r="E64" s="80"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="2"/>
@@ -5187,20 +5200,20 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="23" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="E65" s="85"/>
+        <v>579</v>
+      </c>
+      <c r="E65" s="80"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H65" s="26"/>
       <c r="I65" s="26"/>
@@ -5223,17 +5236,17 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="26"/>
       <c r="C66" s="61" t="s">
-        <v>647</v>
-      </c>
-      <c r="E66" s="85"/>
+        <v>630</v>
+      </c>
+      <c r="E66" s="80"/>
       <c r="F66" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="24"/>
@@ -5256,10 +5269,10 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="72"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="23"/>
       <c r="C67" s="27"/>
-      <c r="E67" s="85"/>
+      <c r="E67" s="80"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
@@ -5283,19 +5296,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="23"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="80" t="s">
-        <v>613</v>
-      </c>
-      <c r="G68" s="67"/>
-      <c r="H68" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="I68" s="67"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="G68" s="71"/>
+      <c r="H68" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" s="71"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5315,21 +5328,21 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" s="67"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="G69" s="67"/>
-      <c r="H69" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="I69" s="67"/>
+      <c r="C69" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="71"/>
+      <c r="H69" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="71"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5349,21 +5362,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
+      <c r="A70" s="66"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="G70" s="67"/>
-      <c r="H70" s="78" t="s">
-        <v>636</v>
-      </c>
-      <c r="I70" s="79"/>
+      <c r="C70" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="71"/>
+      <c r="H70" s="93" t="s">
+        <v>619</v>
+      </c>
+      <c r="I70" s="94"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5383,21 +5396,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="78" t="s">
-        <v>635</v>
-      </c>
-      <c r="G71" s="79"/>
-      <c r="H71" s="77" t="s">
-        <v>572</v>
-      </c>
-      <c r="I71" s="67"/>
+      <c r="C71" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="71"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="93" t="s">
+        <v>618</v>
+      </c>
+      <c r="G71" s="94"/>
+      <c r="H71" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="I71" s="71"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5417,19 +5430,19 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
+      <c r="A72" s="66"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="67"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="I72" s="67"/>
+      <c r="C72" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="71"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" s="71"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5449,21 +5462,21 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="23"/>
-      <c r="C73" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="G73" s="67"/>
-      <c r="H73" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="I73" s="67"/>
+      <c r="C73" s="84" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="71"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="71"/>
+      <c r="H73" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="I73" s="71"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5483,21 +5496,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="72"/>
+      <c r="A74" s="66"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="D74" s="67"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="G74" s="67"/>
-      <c r="H74" s="62" t="s">
-        <v>649</v>
-      </c>
-      <c r="I74" s="67"/>
+      <c r="C74" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="71"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="71"/>
+      <c r="H74" s="68" t="s">
+        <v>632</v>
+      </c>
+      <c r="I74" s="71"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5517,17 +5530,17 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="72"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="G75" s="67"/>
+      <c r="C75" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="71"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" s="71"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
       <c r="J75" s="2"/>
@@ -5549,17 +5562,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="67"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="G76" s="67"/>
+      <c r="C76" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" s="71"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="71"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
       <c r="J76" s="2"/>
@@ -5581,13 +5594,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="26"/>
-      <c r="C77" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="67"/>
-      <c r="E77" s="86"/>
+      <c r="C77" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="71"/>
+      <c r="E77" s="81"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
@@ -5639,30 +5652,30 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="71" t="s">
-        <v>224</v>
+      <c r="A79" s="65" t="s">
+        <v>216</v>
       </c>
       <c r="B79" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="74" t="s">
+      <c r="E79" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>11</v>
       </c>
       <c r="H79" s="50"/>
       <c r="I79" s="23" t="s">
-        <v>225</v>
+        <v>650</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
@@ -5683,9 +5696,9 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="23" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>26</v>
@@ -5693,18 +5706,18 @@
       <c r="D80" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="75"/>
+      <c r="E80" s="91"/>
       <c r="F80" s="23" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="23" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5725,9 +5738,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="72"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="23" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>31</v>
@@ -5735,18 +5748,18 @@
       <c r="D81" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="75"/>
+      <c r="E81" s="91"/>
       <c r="F81" s="23" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I81" s="59" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5767,15 +5780,15 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="23"/>
       <c r="C82" s="58" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="E82" s="75"/>
+        <v>222</v>
+      </c>
+      <c r="E82" s="91"/>
       <c r="F82" s="45" t="s">
         <v>28</v>
       </c>
@@ -5783,7 +5796,7 @@
         <v>35</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="2"/>
@@ -5805,25 +5818,25 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E83" s="75"/>
+        <v>225</v>
+      </c>
+      <c r="E83" s="91"/>
       <c r="F83" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="2"/>
@@ -5845,25 +5858,25 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="72"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="23" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E84" s="75"/>
+        <v>229</v>
+      </c>
+      <c r="E84" s="91"/>
       <c r="F84" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="2"/>
@@ -5885,22 +5898,22 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="72"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="23" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="E85" s="75"/>
+        <v>231</v>
+      </c>
+      <c r="E85" s="91"/>
       <c r="F85" s="23" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="2"/>
@@ -5922,25 +5935,25 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E86" s="75"/>
+        <v>234</v>
+      </c>
+      <c r="E86" s="91"/>
       <c r="F86" s="23" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="G86" s="50"/>
-      <c r="H86" s="77" t="s">
-        <v>245</v>
-      </c>
-      <c r="I86" s="63"/>
+      <c r="H86" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="I86" s="69"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
@@ -5960,25 +5973,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D87" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="E87" s="75"/>
+        <v>238</v>
+      </c>
+      <c r="E87" s="91"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="H87" s="62" t="s">
-        <v>248</v>
-      </c>
-      <c r="I87" s="63"/>
+        <v>639</v>
+      </c>
+      <c r="H87" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="I87" s="69"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -5998,27 +6011,27 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="72"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="23" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E88" s="75"/>
+        <v>241</v>
+      </c>
+      <c r="E88" s="91"/>
       <c r="F88" s="23" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G88" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="H88" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="I88" s="63"/>
+        <v>243</v>
+      </c>
+      <c r="H88" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="I88" s="69"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
@@ -6038,25 +6051,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="72"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="58" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>598</v>
-      </c>
-      <c r="E89" s="75"/>
+        <v>583</v>
+      </c>
+      <c r="E89" s="91"/>
       <c r="F89" s="23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G89" s="26"/>
-      <c r="H89" s="62" t="s">
-        <v>256</v>
-      </c>
-      <c r="I89" s="63"/>
+      <c r="H89" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="I89" s="69"/>
       <c r="J89" s="2"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -6076,23 +6089,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="72"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="50"/>
       <c r="C90" s="47" t="s">
-        <v>257</v>
+        <v>638</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>616</v>
-      </c>
-      <c r="E90" s="75"/>
+        <v>599</v>
+      </c>
+      <c r="E90" s="91"/>
       <c r="F90" s="23" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G90" s="26"/>
-      <c r="H90" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="I90" s="63"/>
+      <c r="H90" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="I90" s="69"/>
       <c r="J90" s="2"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
@@ -6112,13 +6125,13 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="72"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="50"/>
       <c r="C91" s="57"/>
       <c r="D91" s="23" t="s">
-        <v>643</v>
-      </c>
-      <c r="E91" s="75"/>
+        <v>626</v>
+      </c>
+      <c r="E91" s="91"/>
       <c r="F91" s="55"/>
       <c r="G91" s="56"/>
       <c r="H91" s="55"/>
@@ -6142,13 +6155,13 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="72"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="50"/>
       <c r="C92" s="57"/>
       <c r="D92" s="58" t="s">
-        <v>644</v>
-      </c>
-      <c r="E92" s="75"/>
+        <v>627</v>
+      </c>
+      <c r="E92" s="91"/>
       <c r="F92" s="55"/>
       <c r="G92" s="56"/>
       <c r="H92" s="55"/>
@@ -6172,21 +6185,21 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="72"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="26"/>
-      <c r="C93" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="75"/>
-      <c r="F93" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="G93" s="63"/>
-      <c r="H93" s="81" t="s">
-        <v>262</v>
-      </c>
-      <c r="I93" s="63"/>
+      <c r="C93" s="70" t="s">
+        <v>250</v>
+      </c>
+      <c r="D93" s="69"/>
+      <c r="E93" s="91"/>
+      <c r="F93" s="68" t="s">
+        <v>251</v>
+      </c>
+      <c r="G93" s="69"/>
+      <c r="H93" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I93" s="69"/>
       <c r="J93" s="2"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -6206,23 +6219,23 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="72"/>
+      <c r="A94" s="66"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="G94" s="63"/>
-      <c r="H94" s="77" t="s">
-        <v>626</v>
-      </c>
-      <c r="I94" s="63"/>
+      <c r="C94" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="69"/>
+      <c r="E94" s="91"/>
+      <c r="F94" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="G94" s="69"/>
+      <c r="H94" s="70" t="s">
+        <v>609</v>
+      </c>
+      <c r="I94" s="69"/>
       <c r="J94" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -6242,21 +6255,21 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="72"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="G95" s="63"/>
-      <c r="H95" s="62" t="s">
-        <v>615</v>
-      </c>
-      <c r="I95" s="63"/>
+      <c r="C95" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="69"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" s="69"/>
+      <c r="H95" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="I95" s="69"/>
       <c r="J95" s="2"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6276,17 +6289,17 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="72"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="G96" s="63"/>
+      <c r="C96" s="68" t="s">
+        <v>634</v>
+      </c>
+      <c r="D96" s="69"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" s="69"/>
       <c r="H96" s="26"/>
       <c r="I96" s="26"/>
       <c r="J96" s="2"/>
@@ -6308,17 +6321,17 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="72"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="62" t="s">
-        <v>269</v>
-      </c>
-      <c r="D97" s="63"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="81" t="s">
-        <v>270</v>
-      </c>
-      <c r="G97" s="63"/>
+      <c r="C97" s="68" t="s">
+        <v>259</v>
+      </c>
+      <c r="D97" s="69"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="G97" s="69"/>
       <c r="H97" s="26"/>
       <c r="I97" s="26"/>
       <c r="J97" s="2"/>
@@ -6340,17 +6353,17 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="72"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="23"/>
-      <c r="C98" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" s="63"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="81" t="s">
-        <v>272</v>
-      </c>
-      <c r="G98" s="63"/>
+      <c r="C98" s="68" t="s">
+        <v>644</v>
+      </c>
+      <c r="D98" s="69"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" s="69"/>
       <c r="H98" s="26"/>
       <c r="I98" s="26"/>
       <c r="J98" s="2"/>
@@ -6372,17 +6385,17 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
+      <c r="A99" s="66"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="62" t="s">
-        <v>273</v>
-      </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="G99" s="63"/>
+      <c r="C99" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" s="69"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="70" t="s">
+        <v>263</v>
+      </c>
+      <c r="G99" s="69"/>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
       <c r="J99" s="2"/>
@@ -6404,16 +6417,16 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="72"/>
-      <c r="B100" s="77" t="s">
-        <v>623</v>
-      </c>
-      <c r="C100" s="63"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="G100" s="63"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="70" t="s">
+        <v>606</v>
+      </c>
+      <c r="C100" s="69"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="70" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" s="69"/>
       <c r="H100" s="26"/>
       <c r="I100" s="26"/>
       <c r="J100" s="2"/>
@@ -6435,18 +6448,18 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73"/>
-      <c r="B101" s="82" t="s">
-        <v>612</v>
-      </c>
-      <c r="C101" s="96"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="77" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" s="78"/>
       <c r="D101" s="27"/>
-      <c r="E101" s="76"/>
+      <c r="E101" s="92"/>
       <c r="F101" s="26"/>
-      <c r="G101" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="H101" s="63"/>
+      <c r="G101" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="H101" s="69"/>
       <c r="I101" s="26"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
@@ -6495,16 +6508,16 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="71" t="s">
-        <v>277</v>
+      <c r="A103" s="65" t="s">
+        <v>266</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="E103" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="E103" s="97" t="s">
         <v>12</v>
       </c>
       <c r="F103" s="45" t="s">
@@ -6512,10 +6525,10 @@
       </c>
       <c r="G103" s="28"/>
       <c r="H103" s="23" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="I103" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
@@ -6536,28 +6549,28 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="72"/>
+      <c r="A104" s="66"/>
       <c r="B104" s="29" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="E104" s="65"/>
+        <v>541</v>
+      </c>
+      <c r="E104" s="98"/>
       <c r="F104" s="45" t="s">
         <v>18</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="I104" s="23" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
@@ -6578,28 +6591,28 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="72"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C105" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D105" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E105" s="98"/>
+      <c r="F105" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="I105" s="48" t="s">
         <v>278</v>
-      </c>
-      <c r="D105" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E105" s="65"/>
-      <c r="F105" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="I105" s="23" t="s">
-        <v>288</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6620,26 +6633,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="72"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="29" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C106" s="61" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E106" s="65"/>
+        <v>105</v>
+      </c>
+      <c r="E106" s="98"/>
       <c r="F106" s="45" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="H106" s="28"/>
-      <c r="I106" s="48" t="s">
-        <v>291</v>
+        <v>647</v>
+      </c>
+      <c r="H106" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="I106" s="29" t="s">
+        <v>284</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6660,28 +6675,28 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="72"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="29" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E107" s="65"/>
+        <v>280</v>
+      </c>
+      <c r="E107" s="98"/>
       <c r="F107" s="48" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G107" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I107" s="29" t="s">
         <v>295</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="I107" s="29" t="s">
-        <v>297</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6702,28 +6717,25 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="72"/>
+      <c r="A108" s="66"/>
       <c r="B108" s="29" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="E108" s="65"/>
+        <v>287</v>
+      </c>
+      <c r="E108" s="98"/>
       <c r="F108" s="24" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="I108" s="23" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
@@ -6744,27 +6756,27 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="72"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="29" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>558</v>
-      </c>
-      <c r="E109" s="65"/>
+        <v>543</v>
+      </c>
+      <c r="E109" s="98"/>
       <c r="F109" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="G109" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G109" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="H109" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="H109" s="26"/>
-      <c r="I109" s="29" t="s">
-        <v>309</v>
-      </c>
+      <c r="I109" s="63"/>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -6784,24 +6796,27 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="72"/>
+      <c r="A110" s="66"/>
       <c r="B110" s="29" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C110" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="E110" s="98"/>
+      <c r="F110" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H110" s="68" t="s">
         <v>311</v>
       </c>
-      <c r="D110" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="E110" s="65"/>
-      <c r="F110" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="H110" s="26"/>
+      <c r="I110" s="69"/>
       <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -6821,23 +6836,25 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="72"/>
+      <c r="A111" s="66"/>
       <c r="B111" s="61" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="E111" s="65"/>
+        <v>545</v>
+      </c>
+      <c r="E111" s="98"/>
       <c r="F111" s="26"/>
       <c r="G111" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="H111" s="26"/>
-      <c r="I111" s="27"/>
+        <v>302</v>
+      </c>
+      <c r="H111" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="I111" s="69"/>
       <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -6857,22 +6874,24 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="72"/>
+      <c r="A112" s="66"/>
       <c r="B112" s="61" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="E112" s="65"/>
+        <v>303</v>
+      </c>
+      <c r="E112" s="98"/>
       <c r="F112" s="23" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="H112" s="26"/>
-      <c r="I112" s="27"/>
+        <v>594</v>
+      </c>
+      <c r="H112" s="70" t="s">
+        <v>622</v>
+      </c>
+      <c r="I112" s="69"/>
       <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -6892,21 +6911,23 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="72"/>
+      <c r="A113" s="66"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="D113" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="E113" s="98"/>
+      <c r="F113" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="G113" s="26"/>
+      <c r="H113" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="E113" s="65"/>
-      <c r="F113" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="27"/>
+      <c r="I113" s="69"/>
       <c r="J113" s="2"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -6926,20 +6947,22 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="72"/>
+      <c r="A114" s="66"/>
       <c r="B114" s="29" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="E114" s="65"/>
+        <v>306</v>
+      </c>
+      <c r="E114" s="98"/>
       <c r="F114" s="24" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="G114" s="26"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="27"/>
+      <c r="H114" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="I114" s="69"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -6959,23 +6982,25 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="72"/>
+      <c r="A115" s="66"/>
       <c r="B115" s="29" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="E115" s="65"/>
+        <v>588</v>
+      </c>
+      <c r="E115" s="98"/>
       <c r="F115" s="24" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="G115" s="23"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
+      <c r="H115" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="I115" s="69"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -6995,23 +7020,23 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="72"/>
+      <c r="A116" s="66"/>
       <c r="B116" s="29"/>
       <c r="C116" s="23" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="E116" s="65"/>
-      <c r="F116" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="G116" s="67"/>
-      <c r="H116" s="62" t="s">
-        <v>322</v>
-      </c>
-      <c r="I116" s="63"/>
+        <v>590</v>
+      </c>
+      <c r="E116" s="98"/>
+      <c r="F116" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="G116" s="71"/>
+      <c r="H116" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="I116" s="71"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -7031,21 +7056,19 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="72"/>
+      <c r="A117" s="66"/>
       <c r="B117" s="26"/>
-      <c r="C117" s="62" t="s">
-        <v>323</v>
-      </c>
-      <c r="D117" s="67"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="G117" s="67"/>
-      <c r="H117" s="62" t="s">
-        <v>325</v>
-      </c>
-      <c r="I117" s="63"/>
+      <c r="C117" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" s="71"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="G117" s="71"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="69"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -7065,21 +7088,19 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="72"/>
+      <c r="A118" s="66"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="62" t="s">
-        <v>326</v>
-      </c>
-      <c r="D118" s="67"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="62" t="s">
-        <v>327</v>
-      </c>
-      <c r="G118" s="67"/>
-      <c r="H118" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="I118" s="63"/>
+      <c r="C118" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="D118" s="71"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="G118" s="71"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="69"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7099,21 +7120,19 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="72"/>
-      <c r="B119" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="C119" s="67"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="C119" s="71"/>
       <c r="D119" s="23"/>
-      <c r="E119" s="65"/>
-      <c r="F119" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="G119" s="67"/>
-      <c r="H119" s="77" t="s">
-        <v>639</v>
-      </c>
-      <c r="I119" s="63"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="G119" s="71"/>
+      <c r="H119" s="70"/>
+      <c r="I119" s="69"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7133,21 +7152,19 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="72"/>
-      <c r="B120" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="C120" s="67"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="C120" s="71"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="65"/>
-      <c r="F120" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="G120" s="67"/>
-      <c r="H120" s="77" t="s">
-        <v>333</v>
-      </c>
-      <c r="I120" s="63"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="G120" s="71"/>
+      <c r="H120" s="70"/>
+      <c r="I120" s="69"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7167,21 +7184,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="72"/>
-      <c r="B121" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="C121" s="67"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C121" s="71"/>
       <c r="D121" s="26"/>
-      <c r="E121" s="65"/>
-      <c r="F121" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="G121" s="67"/>
-      <c r="H121" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="I121" s="63"/>
+      <c r="E121" s="98"/>
+      <c r="F121" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="G121" s="71"/>
+      <c r="H121" s="68"/>
+      <c r="I121" s="69"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7201,21 +7216,19 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="72"/>
-      <c r="B122" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="C122" s="67"/>
+      <c r="A122" s="66"/>
+      <c r="B122" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C122" s="71"/>
       <c r="D122" s="27"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="81" t="s">
-        <v>338</v>
-      </c>
-      <c r="G122" s="67"/>
-      <c r="H122" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="I122" s="63"/>
+      <c r="E122" s="98"/>
+      <c r="F122" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="G122" s="71"/>
+      <c r="H122" s="68"/>
+      <c r="I122" s="69"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7235,19 +7248,17 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="72"/>
+      <c r="A123" s="66"/>
       <c r="B123" s="26"/>
       <c r="C123" s="23"/>
       <c r="D123" s="27"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="81" t="s">
-        <v>340</v>
-      </c>
-      <c r="G123" s="67"/>
-      <c r="H123" s="62" t="s">
-        <v>341</v>
-      </c>
-      <c r="I123" s="67"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="76" t="s">
+        <v>326</v>
+      </c>
+      <c r="G123" s="71"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="71"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7267,13 +7278,13 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="72"/>
+      <c r="A124" s="66"/>
       <c r="B124" s="23"/>
       <c r="C124" s="26"/>
       <c r="D124" s="27"/>
-      <c r="E124" s="66"/>
+      <c r="E124" s="99"/>
       <c r="F124" s="30" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G124" s="26"/>
       <c r="H124" s="31"/>
@@ -7297,18 +7308,18 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="72"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="19"/>
       <c r="C125" s="21"/>
-      <c r="D125" s="94" t="s">
-        <v>343</v>
-      </c>
-      <c r="E125" s="70"/>
+      <c r="D125" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="E125" s="73"/>
       <c r="F125" s="22"/>
-      <c r="G125" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="H125" s="67"/>
+      <c r="G125" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="H125" s="71"/>
       <c r="I125" s="8"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
@@ -7329,13 +7340,13 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="72"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
-      <c r="D126" s="94" t="s">
-        <v>345</v>
-      </c>
-      <c r="E126" s="70"/>
+      <c r="D126" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E126" s="73"/>
       <c r="F126" s="20"/>
       <c r="G126" s="20"/>
       <c r="H126" s="20"/>
@@ -7359,13 +7370,13 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="73"/>
+      <c r="A127" s="67"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="E127" s="67"/>
+      <c r="D127" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E127" s="71"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
@@ -7417,18 +7428,18 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="71" t="s">
-        <v>347</v>
+      <c r="A129" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="F129" s="89"/>
-      <c r="G129" s="90"/>
-      <c r="H129" s="67"/>
+        <v>335</v>
+      </c>
+      <c r="F129" s="74"/>
+      <c r="G129" s="75"/>
+      <c r="H129" s="71"/>
       <c r="I129" s="8"/>
       <c r="J129" s="2"/>
       <c r="K129" s="3"/>
@@ -7449,18 +7460,18 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="72"/>
+      <c r="A130" s="66"/>
       <c r="B130" s="25" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -7485,18 +7496,18 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="72"/>
+      <c r="A131" s="66"/>
       <c r="B131" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -7521,12 +7532,12 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="72"/>
+      <c r="A132" s="66"/>
       <c r="B132" s="23" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -7551,16 +7562,16 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="72"/>
+      <c r="A133" s="66"/>
       <c r="B133" s="23" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C133" s="28"/>
       <c r="D133" s="23" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -7585,13 +7596,13 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="72"/>
+      <c r="A134" s="66"/>
       <c r="B134" s="28"/>
       <c r="C134" s="23" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -7616,7 +7627,7 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="72"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="28"/>
       <c r="C135" s="23"/>
       <c r="E135" s="26"/>
@@ -7643,15 +7654,15 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="72"/>
+      <c r="A136" s="66"/>
       <c r="B136" s="24" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="33"/>
@@ -7677,13 +7688,13 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="72"/>
+      <c r="A137" s="66"/>
       <c r="B137" s="53"/>
       <c r="C137" s="23" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="33"/>
@@ -7709,13 +7720,13 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="72"/>
+      <c r="A138" s="66"/>
       <c r="B138" s="26"/>
       <c r="C138" s="24" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D138" s="24" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="33"/>
@@ -7741,15 +7752,15 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="72"/>
-      <c r="B139" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="C139" s="63"/>
-      <c r="D139" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="E139" s="63"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="C139" s="69"/>
+      <c r="D139" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="E139" s="69"/>
       <c r="F139" s="33"/>
       <c r="G139" s="34"/>
       <c r="H139" s="32"/>
@@ -7773,15 +7784,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="72"/>
-      <c r="B140" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="C140" s="63"/>
-      <c r="D140" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="E140" s="63"/>
+      <c r="A140" s="66"/>
+      <c r="B140" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="C140" s="69"/>
+      <c r="D140" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="E140" s="69"/>
       <c r="F140" s="33"/>
       <c r="G140" s="34"/>
       <c r="H140" s="32"/>
@@ -7805,15 +7816,15 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="72"/>
-      <c r="B141" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="C141" s="63"/>
-      <c r="D141" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="E141" s="63"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="68" t="s">
+        <v>645</v>
+      </c>
+      <c r="C141" s="69"/>
+      <c r="D141" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="E141" s="69"/>
       <c r="F141" s="33"/>
       <c r="G141" s="32"/>
       <c r="H141" s="32"/>
@@ -7837,15 +7848,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="72"/>
-      <c r="B142" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="C142" s="63"/>
-      <c r="D142" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="E142" s="63"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C142" s="69"/>
+      <c r="D142" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="E142" s="69"/>
       <c r="F142" s="33"/>
       <c r="G142" s="32"/>
       <c r="H142" s="32"/>
@@ -7869,15 +7880,15 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="72"/>
-      <c r="B143" s="77" t="s">
-        <v>624</v>
-      </c>
-      <c r="C143" s="63"/>
-      <c r="D143" s="94" t="s">
-        <v>374</v>
-      </c>
-      <c r="E143" s="63"/>
+      <c r="A143" s="66"/>
+      <c r="B143" s="70" t="s">
+        <v>607</v>
+      </c>
+      <c r="C143" s="69"/>
+      <c r="D143" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="E143" s="69"/>
       <c r="F143" s="32"/>
       <c r="G143" s="32"/>
       <c r="H143" s="32"/>
@@ -7901,15 +7912,15 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="72"/>
-      <c r="B144" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="C144" s="63"/>
-      <c r="D144" s="94" t="s">
-        <v>628</v>
-      </c>
-      <c r="E144" s="63"/>
+      <c r="A144" s="66"/>
+      <c r="B144" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="C144" s="69"/>
+      <c r="D144" s="72" t="s">
+        <v>611</v>
+      </c>
+      <c r="E144" s="69"/>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
@@ -7933,13 +7944,13 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="72"/>
-      <c r="B145" s="62" t="s">
-        <v>376</v>
-      </c>
-      <c r="C145" s="63"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="63"/>
+      <c r="A145" s="66"/>
+      <c r="B145" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="C145" s="69"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="69"/>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
       <c r="H145" s="32"/>
@@ -7963,11 +7974,11 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="72"/>
-      <c r="B146" s="94" t="s">
-        <v>377</v>
-      </c>
-      <c r="C146" s="70"/>
+      <c r="A146" s="66"/>
+      <c r="B146" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="C146" s="73"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
       <c r="F146" s="8"/>
@@ -7993,7 +8004,7 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="72"/>
+      <c r="A147" s="66"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20"/>
@@ -8020,7 +8031,7 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="73"/>
+      <c r="A148" s="67"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="10"/>
@@ -8075,17 +8086,17 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="B150" s="69"/>
-      <c r="C150" s="69"/>
-      <c r="D150" s="69"/>
-      <c r="E150" s="69"/>
-      <c r="F150" s="69"/>
-      <c r="G150" s="69"/>
-      <c r="H150" s="69"/>
-      <c r="I150" s="70"/>
+      <c r="A150" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="B150" s="87"/>
+      <c r="C150" s="87"/>
+      <c r="D150" s="87"/>
+      <c r="E150" s="87"/>
+      <c r="F150" s="87"/>
+      <c r="G150" s="87"/>
+      <c r="H150" s="87"/>
+      <c r="I150" s="73"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8133,17 +8144,17 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="89" t="s">
-        <v>379</v>
-      </c>
-      <c r="B152" s="90"/>
-      <c r="C152" s="90"/>
-      <c r="D152" s="90"/>
-      <c r="E152" s="90"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="90"/>
-      <c r="H152" s="90"/>
-      <c r="I152" s="67"/>
+      <c r="A152" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="B152" s="75"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="71"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8164,16 +8175,16 @@
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="89" t="s">
-        <v>380</v>
-      </c>
-      <c r="C153" s="90"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="67"/>
+      <c r="B153" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="C153" s="75"/>
+      <c r="D153" s="75"/>
+      <c r="E153" s="75"/>
+      <c r="F153" s="75"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="71"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8194,16 +8205,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="89" t="s">
-        <v>381</v>
-      </c>
-      <c r="C154" s="90"/>
-      <c r="D154" s="90"/>
-      <c r="E154" s="90"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
-      <c r="H154" s="90"/>
-      <c r="I154" s="67"/>
+      <c r="B154" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="C154" s="75"/>
+      <c r="D154" s="75"/>
+      <c r="E154" s="75"/>
+      <c r="F154" s="75"/>
+      <c r="G154" s="75"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="71"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8224,16 +8235,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="89" t="s">
-        <v>382</v>
-      </c>
-      <c r="C155" s="90"/>
-      <c r="D155" s="90"/>
-      <c r="E155" s="90"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
-      <c r="H155" s="90"/>
-      <c r="I155" s="67"/>
+      <c r="B155" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C155" s="75"/>
+      <c r="D155" s="75"/>
+      <c r="E155" s="75"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="75"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="71"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8254,16 +8265,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="89" t="s">
-        <v>383</v>
-      </c>
-      <c r="C156" s="90"/>
-      <c r="D156" s="90"/>
-      <c r="E156" s="90"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="90"/>
-      <c r="I156" s="67"/>
+      <c r="B156" s="74" t="s">
+        <v>368</v>
+      </c>
+      <c r="C156" s="75"/>
+      <c r="D156" s="75"/>
+      <c r="E156" s="75"/>
+      <c r="F156" s="75"/>
+      <c r="G156" s="75"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="71"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8284,16 +8295,16 @@
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
-      <c r="B157" s="89" t="s">
-        <v>384</v>
-      </c>
-      <c r="C157" s="90"/>
-      <c r="D157" s="90"/>
-      <c r="E157" s="90"/>
-      <c r="F157" s="90"/>
-      <c r="G157" s="90"/>
-      <c r="H157" s="90"/>
-      <c r="I157" s="67"/>
+      <c r="B157" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="C157" s="75"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="71"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8314,16 +8325,16 @@
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
-      <c r="B158" s="95" t="s">
-        <v>385</v>
-      </c>
-      <c r="C158" s="90"/>
-      <c r="D158" s="90"/>
-      <c r="E158" s="90"/>
-      <c r="F158" s="90"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="90"/>
-      <c r="I158" s="67"/>
+      <c r="B158" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C158" s="75"/>
+      <c r="D158" s="75"/>
+      <c r="E158" s="75"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="75"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="71"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8343,17 +8354,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="89" t="s">
-        <v>386</v>
-      </c>
-      <c r="B159" s="90"/>
-      <c r="C159" s="90"/>
-      <c r="D159" s="90"/>
-      <c r="E159" s="90"/>
-      <c r="F159" s="90"/>
-      <c r="G159" s="90"/>
-      <c r="H159" s="90"/>
-      <c r="I159" s="67"/>
+      <c r="A159" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="B159" s="75"/>
+      <c r="C159" s="75"/>
+      <c r="D159" s="75"/>
+      <c r="E159" s="75"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="75"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="71"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8373,21 +8384,21 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="93"/>
+      <c r="A160" s="79"/>
       <c r="B160" s="35" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="D160" s="91" t="s">
-        <v>389</v>
-      </c>
-      <c r="E160" s="90"/>
-      <c r="F160" s="90"/>
-      <c r="G160" s="90"/>
-      <c r="H160" s="90"/>
-      <c r="I160" s="67"/>
+        <v>373</v>
+      </c>
+      <c r="D160" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="75"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="71"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8407,19 +8418,19 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="85"/>
+      <c r="A161" s="80"/>
       <c r="B161" s="35"/>
       <c r="C161" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="D161" s="92" t="s">
-        <v>391</v>
-      </c>
-      <c r="E161" s="90"/>
-      <c r="F161" s="90"/>
-      <c r="G161" s="90"/>
-      <c r="H161" s="90"/>
-      <c r="I161" s="67"/>
+        <v>375</v>
+      </c>
+      <c r="D161" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="E161" s="75"/>
+      <c r="F161" s="75"/>
+      <c r="G161" s="75"/>
+      <c r="H161" s="75"/>
+      <c r="I161" s="71"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8439,19 +8450,19 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="86"/>
+      <c r="A162" s="81"/>
       <c r="B162" s="35"/>
       <c r="C162" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="D162" s="92" t="s">
-        <v>393</v>
-      </c>
-      <c r="E162" s="90"/>
-      <c r="F162" s="90"/>
-      <c r="G162" s="90"/>
-      <c r="H162" s="90"/>
-      <c r="I162" s="67"/>
+        <v>377</v>
+      </c>
+      <c r="D162" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="E162" s="75"/>
+      <c r="F162" s="75"/>
+      <c r="G162" s="75"/>
+      <c r="H162" s="75"/>
+      <c r="I162" s="71"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8499,30 +8510,30 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="93"/>
+      <c r="A164" s="79"/>
       <c r="B164" s="38" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C164" s="39" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D164" s="38" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E164" s="38" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="F164" s="38" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G164" s="38" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H164" s="38" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="I164" s="38" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
@@ -8543,30 +8554,30 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="85"/>
+      <c r="A165" s="80"/>
       <c r="B165" s="34" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D165" s="34" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E165" s="34" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="F165" s="34" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="G165" s="34" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="H165" s="40" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="I165" s="41" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8587,30 +8598,30 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="85"/>
+      <c r="A166" s="80"/>
       <c r="B166" s="34" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="F166" s="34" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="G166" s="34" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="H166" s="49" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="I166" s="41" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
@@ -8631,30 +8642,30 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="85"/>
+      <c r="A167" s="80"/>
       <c r="B167" s="34" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="F167" s="34" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="G167" s="34" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H167" s="40" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="I167" s="41" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8675,21 +8686,21 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="85"/>
+      <c r="A168" s="80"/>
       <c r="B168" s="34" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="G168" s="34"/>
       <c r="H168" s="40"/>
@@ -8713,28 +8724,28 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="85"/>
+      <c r="A169" s="80"/>
       <c r="B169" s="34" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F169" s="34" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G169" s="34"/>
       <c r="H169" s="40" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I169" s="42" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
@@ -8755,28 +8766,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="85"/>
+      <c r="A170" s="80"/>
       <c r="B170" s="34" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="40" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8797,30 +8808,30 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="85"/>
+      <c r="A171" s="80"/>
       <c r="B171" s="34" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="G171" s="34" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="H171" s="40" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8841,30 +8852,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="85"/>
+      <c r="A172" s="80"/>
       <c r="B172" s="34" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="H172" s="40" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8885,28 +8896,28 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="85"/>
+      <c r="A173" s="80"/>
       <c r="B173" s="34" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G173" s="34"/>
       <c r="H173" s="40" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8927,30 +8938,30 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="85"/>
+      <c r="A174" s="80"/>
       <c r="B174" s="34" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F174" s="34" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G174" s="34" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H174" s="40" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -8971,30 +8982,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="85"/>
+      <c r="A175" s="80"/>
       <c r="B175" s="34" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="H175" s="40" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -9015,30 +9026,30 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="85"/>
+      <c r="A176" s="80"/>
       <c r="B176" s="34" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="H176" s="40" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="I176" s="41" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
@@ -9059,28 +9070,28 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="85"/>
+      <c r="A177" s="80"/>
       <c r="B177" s="34" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G177" s="34"/>
       <c r="H177" s="40" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="I177" s="41" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
@@ -9101,24 +9112,24 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="85"/>
+      <c r="A178" s="80"/>
       <c r="B178" s="34" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="F178" s="34" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="G178" s="34" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="H178" s="44"/>
       <c r="I178" s="44"/>
@@ -9141,21 +9152,21 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="85"/>
+      <c r="A179" s="80"/>
       <c r="B179" s="34" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F179" s="34" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G179" s="34"/>
       <c r="H179" s="44"/>
@@ -9179,24 +9190,24 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="85"/>
+      <c r="A180" s="80"/>
       <c r="B180" s="34" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="F180" s="34" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="G180" s="34" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H180" s="44"/>
       <c r="I180" s="44"/>
@@ -9219,24 +9230,24 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="85"/>
+      <c r="A181" s="80"/>
       <c r="B181" s="34" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="F181" s="34" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="G181" s="34" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="H181" s="44"/>
       <c r="I181" s="44"/>
@@ -9259,24 +9270,24 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="86"/>
+      <c r="A182" s="81"/>
       <c r="B182" s="34" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="G182" s="34" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H182" s="44"/>
       <c r="I182" s="44"/>
@@ -9301,20 +9312,20 @@
     <row r="183" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="9" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="F183" s="9"/>
       <c r="G183" s="9" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
@@ -9339,16 +9350,16 @@
     <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="9" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -9375,14 +9386,14 @@
     <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="9" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -9412,7 +9423,7 @@
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -32313,7 +32324,157 @@
       <c r="Z1003" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="174">
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E103:E124"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="E3:E25"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A27:A51"/>
+    <mergeCell ref="E27:E51"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="E53:E77"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E79:E101"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="A150:I150"/>
+    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="B153:I153"/>
+    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="D161:I161"/>
+    <mergeCell ref="A160:A162"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A164:A182"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="B155:I155"/>
+    <mergeCell ref="B156:I156"/>
+    <mergeCell ref="B157:I157"/>
+    <mergeCell ref="B158:I158"/>
+    <mergeCell ref="A159:I159"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A53:A77"/>
+    <mergeCell ref="A79:A101"/>
     <mergeCell ref="A103:A127"/>
     <mergeCell ref="A129:A148"/>
     <mergeCell ref="F93:G93"/>
@@ -32338,150 +32499,6 @@
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="B101:C101"/>
-    <mergeCell ref="A164:A182"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="B155:I155"/>
-    <mergeCell ref="B156:I156"/>
-    <mergeCell ref="B157:I157"/>
-    <mergeCell ref="B158:I158"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A101"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="D160:I160"/>
-    <mergeCell ref="D161:I161"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E101"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E103:E124"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\EVEN 2026\TT_27 jan\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E04386-D92C-4512-BD97-051A238B19B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6B8E4-3BC4-42D9-AB2F-642B093B0B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B.TECH II SEM " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$190</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'B.TECH II SEM '!$A$1:$I$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1893,9 +1893,6 @@
     </r>
   </si>
   <si>
-    <t>PA5(CS121)-CL01/TNV, MAY</t>
-  </si>
-  <si>
     <t>TA7(HS111)-TS11/MB</t>
   </si>
   <si>
@@ -2034,9 +2031,6 @@
     <t>TA15(CI121)-TS8/NSA</t>
   </si>
   <si>
-    <t>LB3,B4(HS111)-FF4/PU</t>
-  </si>
-  <si>
     <t>LB3,B4(PH211)-FF4/SPP</t>
   </si>
   <si>
@@ -2085,10 +2079,16 @@
     <t>PD2(CS121)- CL09/NEH, SOS</t>
   </si>
   <si>
-    <t>PA15,A16(CS121)-CL21,22/ JSM,PTK,PRV,KRL</t>
-  </si>
-  <si>
     <t>PB11(CS121)-CL01/AM, AW</t>
+  </si>
+  <si>
+    <t>LB3,B4(HS111)-G2/PU</t>
+  </si>
+  <si>
+    <t>PA5(CS121)-CL01/TNV, KRL</t>
+  </si>
+  <si>
+    <t>PA15,A16(CS121)-CL21,22/ JSM,PTK,PRV,MAY</t>
   </si>
 </sst>
 </file>
@@ -2426,7 +2426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2595,24 +2595,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2625,6 +2608,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2635,17 +2634,24 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2663,6 +2669,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2685,9 +2694,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2908,13 +2914,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F116" sqref="F116:G116"/>
+      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2936,16 +2942,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="84"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3009,7 +3015,7 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -3021,7 +3027,7 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="26"/>
@@ -3053,7 +3059,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="45" t="s">
         <v>223</v>
       </c>
@@ -3063,7 +3069,7 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
@@ -3093,7 +3099,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="45" t="s">
         <v>21</v>
       </c>
@@ -3103,7 +3109,7 @@
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="78"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="45" t="s">
         <v>24</v>
       </c>
@@ -3133,7 +3139,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
@@ -3143,7 +3149,7 @@
       <c r="D6" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="78"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
@@ -3173,7 +3179,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="45" t="s">
         <v>33</v>
       </c>
@@ -3183,7 +3189,7 @@
       <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="78"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
@@ -3212,7 +3218,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="45" t="s">
         <v>38</v>
       </c>
@@ -3222,7 +3228,7 @@
       <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
@@ -3252,17 +3258,17 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="80"/>
       <c r="F9" s="23" t="s">
         <v>53</v>
       </c>
@@ -3294,7 +3300,7 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="45" t="s">
         <v>558</v>
       </c>
@@ -3304,9 +3310,9 @@
       <c r="D10" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="80"/>
       <c r="F10" s="53" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>48</v>
@@ -3336,7 +3342,7 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="49"/>
       <c r="C11" s="23" t="s">
         <v>51</v>
@@ -3344,7 +3350,7 @@
       <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="80"/>
       <c r="F11" s="55" t="s">
         <v>593</v>
       </c>
@@ -3375,7 +3381,7 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="47" t="s">
         <v>559</v>
       </c>
@@ -3385,7 +3391,7 @@
       <c r="D12" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="78"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="23" t="s">
         <v>594</v>
       </c>
@@ -3415,7 +3421,7 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="45" t="s">
         <v>560</v>
       </c>
@@ -3425,7 +3431,7 @@
       <c r="D13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
         <v>61</v>
@@ -3453,9 +3459,9 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="23" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>63</v>
@@ -3463,7 +3469,7 @@
       <c r="D14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -3489,15 +3495,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="27"/>
       <c r="C15" s="23" t="s">
         <v>551</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>622</v>
-      </c>
-      <c r="E15" s="78"/>
+        <v>621</v>
+      </c>
+      <c r="E15" s="80"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -3523,13 +3529,12 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="27"/>
       <c r="C16" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="78"/>
+        <v>636</v>
+      </c>
+      <c r="E16" s="80"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3553,25 +3558,21 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="71" t="s">
-        <v>67</v>
+      <c r="C17" s="53" t="s">
+        <v>649</v>
       </c>
       <c r="D17" s="72"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="71" t="s">
-        <v>68</v>
-      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="72"/>
-      <c r="H17" s="71" t="s">
-        <v>69</v>
-      </c>
+      <c r="H17" s="71"/>
       <c r="I17" s="72"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3587,21 +3588,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="72"/>
+      <c r="C18" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="83"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3621,21 +3622,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="80" t="s">
-        <v>602</v>
-      </c>
-      <c r="I19" s="72"/>
+      <c r="C19" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="83"/>
+      <c r="H19" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="83"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3655,25 +3656,25 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="75" t="s">
-        <v>639</v>
-      </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="80" t="s">
-        <v>605</v>
-      </c>
-      <c r="I20" s="72"/>
+      <c r="C20" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="84" t="s">
+        <v>602</v>
+      </c>
+      <c r="I20" s="83"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3689,21 +3690,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="75" t="s">
-        <v>642</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="71" t="s">
-        <v>627</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="72"/>
+      <c r="C21" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="83"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="85" t="s">
+        <v>637</v>
+      </c>
+      <c r="G21" s="86"/>
+      <c r="H21" s="84" t="s">
+        <v>605</v>
+      </c>
+      <c r="I21" s="83"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3722,22 +3723,22 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="72"/>
+      <c r="C22" s="85" t="s">
+        <v>640</v>
+      </c>
+      <c r="D22" s="86"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="82" t="s">
+        <v>626</v>
+      </c>
+      <c r="G22" s="83"/>
+      <c r="H22" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="83"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3757,21 +3758,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="77"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="72"/>
+      <c r="C23" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="83"/>
+      <c r="H23" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="83"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3791,21 +3792,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="72"/>
+      <c r="C24" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="83"/>
+      <c r="H24" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="83"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3825,21 +3826,25 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="C25" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="83"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3854,20 +3859,22 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="83"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3882,34 +3889,16 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>94</v>
-      </c>
+    <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="2"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -3928,29 +3917,33 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+    <row r="28" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="76" t="s">
+        <v>87</v>
+      </c>
       <c r="B28" s="47" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="78"/>
+        <v>90</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>532</v>
+        <v>329</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
@@ -3971,27 +3964,29 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="57" t="s">
-        <v>614</v>
-      </c>
-      <c r="G29" s="55" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="E29" s="80"/>
+      <c r="F29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I29" s="27"/>
+        <v>532</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -4011,25 +4006,25 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="E30" s="80"/>
+      <c r="F30" s="57" t="s">
+        <v>613</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="2"/>
@@ -4051,25 +4046,27 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>546</v>
+        <v>105</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>106</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" s="78"/>
+        <v>107</v>
+      </c>
+      <c r="E31" s="80"/>
       <c r="F31" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="49"/>
+        <v>604</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="H31" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="I31" s="23"/>
+        <v>554</v>
+      </c>
+      <c r="I31" s="27"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4089,23 +4086,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="53" t="s">
-        <v>607</v>
+      <c r="A32" s="77"/>
+      <c r="B32" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>546</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="E32" s="80"/>
       <c r="F32" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>115</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G32" s="49"/>
       <c r="H32" s="23" t="s">
-        <v>116</v>
+        <v>608</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="2"/>
@@ -4127,22 +4124,24 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="C33" s="26"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="53" t="s">
+        <v>606</v>
+      </c>
       <c r="D33" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="E33" s="78"/>
+        <v>113</v>
+      </c>
+      <c r="E33" s="80"/>
       <c r="F33" s="23" t="s">
-        <v>516</v>
+        <v>114</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="H33" s="49"/>
+        <v>115</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>116</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="2"/>
       <c r="K33" s="3"/>
@@ -4163,23 +4162,23 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="45" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C34" s="26"/>
-      <c r="D34" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="E34" s="78"/>
+      <c r="D34" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E34" s="80"/>
       <c r="F34" s="23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -4199,21 +4198,23 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="D35" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E35" s="78"/>
+      <c r="D35" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="E35" s="80"/>
       <c r="F35" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="23"/>
+        <v>517</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -4233,20 +4234,21 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="78"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="E36" s="80"/>
       <c r="F36" s="23" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="G36" s="26"/>
-      <c r="H36" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="I36" s="27"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -4266,23 +4268,18 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="45"/>
       <c r="C37" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>121</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E37" s="80"/>
+      <c r="F37" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="G37" s="26"/>
       <c r="H37" s="23" t="s">
-        <v>122</v>
+        <v>603</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="2"/>
@@ -4304,23 +4301,23 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="78"/>
+        <v>118</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="80"/>
       <c r="F38" s="24" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="2"/>
@@ -4342,21 +4339,23 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="77"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="80"/>
+      <c r="F39" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="2"/>
@@ -4378,19 +4377,21 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="27"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="80"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="H40" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="2"/>
@@ -4412,15 +4413,20 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="23"/>
+      <c r="C41" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H41" s="24"/>
+        <v>133</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>134</v>
+      </c>
       <c r="I41" s="27"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
@@ -4441,17 +4447,16 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="23"/>
-      <c r="C42" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4471,21 +4476,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" s="72"/>
+      <c r="C43" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="83"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4505,21 +4506,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="80" t="s">
-        <v>601</v>
-      </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I44" s="72"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="83"/>
+      <c r="H44" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" s="83"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4539,21 +4540,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="86"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="80" t="s">
-        <v>599</v>
-      </c>
-      <c r="G45" s="72"/>
-      <c r="H45" s="80" t="s">
-        <v>597</v>
-      </c>
-      <c r="I45" s="72"/>
+      <c r="C45" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="84" t="s">
+        <v>601</v>
+      </c>
+      <c r="G45" s="83"/>
+      <c r="H45" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="83"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4573,21 +4574,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="71" t="s">
-        <v>628</v>
-      </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="75" t="s">
-        <v>646</v>
-      </c>
-      <c r="I46" s="76"/>
+      <c r="C46" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="83"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="84" t="s">
+        <v>599</v>
+      </c>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84" t="s">
+        <v>597</v>
+      </c>
+      <c r="I46" s="83"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4607,21 +4608,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="86"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="71" t="s">
-        <v>629</v>
-      </c>
-      <c r="D47" s="72"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="72"/>
-      <c r="H47" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="I47" s="72"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="82" t="s">
+        <v>627</v>
+      </c>
+      <c r="G47" s="83"/>
+      <c r="H47" s="85" t="s">
+        <v>644</v>
+      </c>
+      <c r="I47" s="86"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4641,21 +4642,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="86"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="I48" s="72"/>
+      <c r="C48" s="82" t="s">
+        <v>628</v>
+      </c>
+      <c r="D48" s="83"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="83"/>
+      <c r="H48" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="83"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4675,21 +4676,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="86"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="72"/>
-      <c r="H49" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" s="72"/>
+      <c r="C49" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="83"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="83"/>
+      <c r="H49" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="I49" s="83"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4709,17 +4710,21 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="I50" s="72"/>
+      <c r="C50" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="83"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="83"/>
+      <c r="H50" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="83"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4739,17 +4744,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="87"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="77"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
-      <c r="E51" s="79"/>
+      <c r="E51" s="80"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
-      <c r="H51" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="I51" s="72"/>
+      <c r="H51" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="83"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4768,16 +4773,18 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="I52" s="83"/>
       <c r="J52" s="2"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -4796,32 +4803,16 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="I53" s="23" t="s">
-        <v>15</v>
-      </c>
+    <row r="53" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
       <c r="J53" s="2"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -4841,25 +4832,30 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
+      <c r="A54" s="76" t="s">
+        <v>154</v>
+      </c>
       <c r="B54" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" s="95"/>
-      <c r="F54" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>158</v>
+        <v>541</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>557</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>159</v>
+        <v>620</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="3"/>
@@ -4880,25 +4876,25 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="86"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" s="95"/>
-      <c r="F55" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H55" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="48" t="s">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="E55" s="96"/>
+      <c r="F55" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="3"/>
@@ -4919,28 +4915,25 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="86"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="23" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>542</v>
+        <v>160</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" s="95"/>
+        <v>161</v>
+      </c>
+      <c r="E56" s="96"/>
       <c r="F56" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>635</v>
+        <v>162</v>
+      </c>
+      <c r="H56" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="3"/>
@@ -4961,24 +4954,28 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>542</v>
+      </c>
       <c r="D57" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="95"/>
+        <v>164</v>
+      </c>
+      <c r="E57" s="96"/>
       <c r="F57" s="23" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>168</v>
+        <v>532</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4999,20 +4996,25 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="86"/>
+      <c r="A58" s="77"/>
       <c r="B58" s="23"/>
-      <c r="D58" s="53" t="s">
-        <v>640</v>
-      </c>
-      <c r="E58" s="95"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="96"/>
       <c r="F58" s="23" t="s">
-        <v>555</v>
+        <v>116</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>592</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -5032,19 +5034,17 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="C59" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="95"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="23"/>
+      <c r="D59" s="53" t="s">
+        <v>638</v>
+      </c>
+      <c r="E59" s="96"/>
       <c r="F59" s="23" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>521</v>
+        <v>172</v>
       </c>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
@@ -5066,27 +5066,22 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="86"/>
-      <c r="B60" s="23" t="s">
-        <v>626</v>
-      </c>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="77"/>
       <c r="C60" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="95"/>
+        <v>176</v>
+      </c>
+      <c r="E60" s="96"/>
       <c r="F60" s="23" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="H60" s="23" t="s">
-        <v>177</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="H60" s="26"/>
       <c r="I60" s="26"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3"/>
@@ -5106,21 +5101,26 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="86"/>
+    <row r="61" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="77"/>
       <c r="B61" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E61" s="95"/>
-      <c r="G61" s="23"/>
+        <v>625</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="96"/>
+      <c r="F61" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>522</v>
+      </c>
       <c r="H61" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="26"/>
       <c r="J61" s="2"/>
@@ -5142,21 +5142,20 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="86"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="23" t="s">
-        <v>617</v>
+        <v>174</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" s="95"/>
-      <c r="F62" s="23"/>
+        <v>175</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="96"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I62" s="26"/>
       <c r="J62" s="2"/>
@@ -5178,27 +5177,23 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86"/>
+      <c r="A63" s="77"/>
       <c r="B63" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>182</v>
+        <v>616</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="95"/>
+        <v>185</v>
+      </c>
+      <c r="E63" s="96"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="23" t="s">
-        <v>186</v>
-      </c>
+      <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>188</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="I63" s="26"/>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -5218,22 +5213,27 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
-      <c r="B64" s="48" t="s">
-        <v>565</v>
+      <c r="A64" s="77"/>
+      <c r="B64" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="E64" s="95"/>
+        <v>182</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="96"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I64" s="24"/>
+        <v>187</v>
+      </c>
+      <c r="I64" s="24" t="s">
+        <v>188</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -5253,23 +5253,22 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
-      <c r="B65" s="23" t="s">
-        <v>566</v>
+      <c r="A65" s="77"/>
+      <c r="B65" s="48" t="s">
+        <v>565</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="E65" s="95"/>
+        <v>567</v>
+      </c>
+      <c r="E65" s="96"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
+        <v>190</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I65" s="24"/>
       <c r="J65" s="2"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -5289,20 +5288,23 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="58" t="s">
-        <v>616</v>
-      </c>
-      <c r="E66" s="95"/>
-      <c r="F66" s="23" t="s">
-        <v>193</v>
-      </c>
+      <c r="A66" s="77"/>
+      <c r="B66" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E66" s="96"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
       <c r="J66" s="2"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -5322,12 +5324,18 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="86"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="27"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="A67" s="77"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="E67" s="96"/>
+      <c r="F67" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>194</v>
+      </c>
       <c r="H67" s="23"/>
       <c r="I67" s="24"/>
       <c r="J67" s="2"/>
@@ -5349,19 +5357,14 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+      <c r="A68" s="77"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="88" t="s">
-        <v>585</v>
-      </c>
-      <c r="G68" s="73"/>
-      <c r="H68" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I68" s="73"/>
+      <c r="C68" s="27"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="2"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -5381,21 +5384,19 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+      <c r="A69" s="77"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" s="73"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="71" t="s">
-        <v>197</v>
-      </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="I69" s="73"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" s="91"/>
+      <c r="H69" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" s="91"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5415,21 +5416,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="73"/>
-      <c r="H70" s="75" t="s">
-        <v>606</v>
-      </c>
-      <c r="I70" s="76"/>
+      <c r="C70" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="91"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="91"/>
+      <c r="H70" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="I70" s="91"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5449,21 +5450,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="73"/>
-      <c r="E71" s="95"/>
-      <c r="F71" s="75" t="s">
-        <v>647</v>
-      </c>
-      <c r="G71" s="76"/>
-      <c r="H71" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="I71" s="73"/>
+      <c r="A71" s="77"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="91"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="G71" s="91"/>
+      <c r="H71" s="85" t="s">
+        <v>650</v>
+      </c>
+      <c r="I71" s="86"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5483,19 +5484,21 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+      <c r="A72" s="77"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="95"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="I72" s="73"/>
+      <c r="C72" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="91"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G72" s="86"/>
+      <c r="H72" s="84" t="s">
+        <v>547</v>
+      </c>
+      <c r="I72" s="91"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5515,21 +5518,19 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="80" t="s">
-        <v>204</v>
-      </c>
-      <c r="D73" s="73"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="G73" s="73"/>
-      <c r="H73" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" s="73"/>
+      <c r="A73" s="77"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="91"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="I73" s="91"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5549,21 +5550,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="86"/>
+      <c r="A74" s="77"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D74" s="73"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="G74" s="73"/>
-      <c r="H74" s="71" t="s">
-        <v>618</v>
-      </c>
-      <c r="I74" s="73"/>
+      <c r="C74" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="91"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="91"/>
+      <c r="H74" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" s="91"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5583,19 +5584,21 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
+      <c r="A75" s="77"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" s="73"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
+      <c r="C75" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="91"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="G75" s="91"/>
+      <c r="H75" s="82" t="s">
+        <v>617</v>
+      </c>
+      <c r="I75" s="91"/>
       <c r="J75" s="2"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -5615,17 +5618,17 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="86"/>
+      <c r="A76" s="77"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="73"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" s="73"/>
+      <c r="C76" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="91"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="91"/>
       <c r="H76" s="26"/>
       <c r="I76" s="26"/>
       <c r="J76" s="2"/>
@@ -5647,15 +5650,17 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="87"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="73"/>
+      <c r="A77" s="77"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="91"/>
       <c r="E77" s="96"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="F77" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="G77" s="91"/>
       <c r="H77" s="26"/>
       <c r="I77" s="26"/>
       <c r="J77" s="2"/>
@@ -5676,16 +5681,18 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="78"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="90" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" s="91"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="2"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -5704,37 +5711,19 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="61" t="s">
-        <v>641</v>
-      </c>
-      <c r="I79" s="23" t="s">
-        <v>636</v>
-      </c>
+    <row r="79" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
       <c r="J79" s="2"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="11"/>
+      <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -5750,29 +5739,33 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="86"/>
+    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="76" t="s">
+        <v>214</v>
+      </c>
       <c r="B80" s="23" t="s">
-        <v>523</v>
+        <v>20</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="78"/>
+        <v>13</v>
+      </c>
+      <c r="E80" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="F80" s="23" t="s">
-        <v>327</v>
+        <v>531</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>215</v>
+        <v>11</v>
+      </c>
+      <c r="H80" s="61" t="s">
+        <v>639</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5793,28 +5786,28 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="78"/>
+        <v>19</v>
+      </c>
+      <c r="E81" s="80"/>
       <c r="F81" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G81" s="45" t="s">
-        <v>29</v>
+        <v>327</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>544</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5835,25 +5828,29 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="86"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="55" t="s">
-        <v>222</v>
+      <c r="A82" s="77"/>
+      <c r="B82" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="78"/>
-      <c r="F82" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="E82" s="80"/>
+      <c r="F82" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="I82" s="26"/>
+        <v>217</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>218</v>
+      </c>
       <c r="J82" s="2"/>
       <c r="K82" s="3"/>
       <c r="L82" s="11"/>
@@ -5873,25 +5870,23 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="86"/>
-      <c r="B83" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>226</v>
+      <c r="A83" s="77"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="55" t="s">
+        <v>222</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E83" s="78"/>
-      <c r="F83" s="23" t="s">
-        <v>34</v>
+        <v>220</v>
+      </c>
+      <c r="E83" s="80"/>
+      <c r="F83" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="2"/>
@@ -5913,27 +5908,27 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="77"/>
       <c r="B84" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>525</v>
+        <v>219</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E84" s="78"/>
-      <c r="F84" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="H84" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="I84" s="64"/>
+        <v>223</v>
+      </c>
+      <c r="E84" s="80"/>
+      <c r="F84" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="I84" s="26"/>
       <c r="J84" s="2"/>
       <c r="K84" s="3"/>
       <c r="L84" s="11"/>
@@ -5953,24 +5948,27 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="77"/>
       <c r="B85" s="23" t="s">
-        <v>225</v>
+        <v>618</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>525</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="E85" s="97"/>
-      <c r="F85" s="66" t="s">
-        <v>526</v>
-      </c>
-      <c r="G85" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="H85" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="I85" s="67"/>
+        <v>227</v>
+      </c>
+      <c r="E85" s="80"/>
+      <c r="F85" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="H85" s="63" t="s">
+        <v>573</v>
+      </c>
+      <c r="I85" s="64"/>
       <c r="J85" s="2"/>
       <c r="K85" s="3"/>
       <c r="L85" s="11"/>
@@ -5990,28 +5988,27 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="86"/>
+      <c r="A86" s="77"/>
       <c r="B86" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="97"/>
+        <v>229</v>
+      </c>
+      <c r="E86" s="98"/>
       <c r="F86" s="66" t="s">
-        <v>528</v>
-      </c>
-      <c r="G86" s="68"/>
-      <c r="H86" s="107" t="s">
-        <v>643</v>
-      </c>
-      <c r="I86" s="108"/>
+        <v>526</v>
+      </c>
+      <c r="G86" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="H86" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="I86" s="67"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -6028,25 +6025,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
+      <c r="A87" s="77"/>
       <c r="B87" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E87" s="97"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66" t="s">
-        <v>625</v>
-      </c>
-      <c r="H87" s="92" t="s">
-        <v>236</v>
-      </c>
-      <c r="I87" s="93"/>
+        <v>231</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="E87" s="98"/>
+      <c r="F87" s="66" t="s">
+        <v>528</v>
+      </c>
+      <c r="G87" s="68"/>
+      <c r="H87" s="110" t="s">
+        <v>641</v>
+      </c>
+      <c r="I87" s="111"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6066,25 +6063,23 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
+      <c r="A88" s="77"/>
       <c r="B88" s="23" t="s">
-        <v>570</v>
+        <v>230</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="97"/>
-      <c r="F88" s="66" t="s">
-        <v>239</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D88" s="46" t="s">
+        <v>235</v>
+      </c>
+      <c r="E88" s="98"/>
+      <c r="F88" s="66"/>
       <c r="G88" s="66" t="s">
-        <v>240</v>
+        <v>624</v>
       </c>
       <c r="H88" s="92" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I88" s="93"/>
       <c r="J88" s="2"/>
@@ -6106,23 +6101,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
-      <c r="B89" s="55" t="s">
-        <v>571</v>
+      <c r="A89" s="77"/>
+      <c r="B89" s="23" t="s">
+        <v>570</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="E89" s="97"/>
+        <v>238</v>
+      </c>
+      <c r="E89" s="98"/>
       <c r="F89" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="G89" s="67"/>
+        <v>239</v>
+      </c>
+      <c r="G89" s="66" t="s">
+        <v>240</v>
+      </c>
       <c r="H89" s="92" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I89" s="93"/>
       <c r="J89" s="2"/>
@@ -6144,23 +6141,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
-      <c r="B90" s="53" t="s">
-        <v>645</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>624</v>
-      </c>
-      <c r="D90" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="E90" s="97"/>
+      <c r="A90" s="77"/>
+      <c r="B90" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="E90" s="98"/>
       <c r="F90" s="66" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G90" s="67"/>
       <c r="H90" s="92" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I90" s="93"/>
       <c r="J90" s="2"/>
@@ -6182,19 +6179,25 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="86"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="E91" s="97"/>
-      <c r="F91" s="66"/>
+      <c r="A91" s="77"/>
+      <c r="B91" s="53" t="s">
+        <v>643</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="E91" s="98"/>
+      <c r="F91" s="66" t="s">
+        <v>245</v>
+      </c>
       <c r="G91" s="67"/>
-      <c r="H91" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="I91" s="74"/>
+      <c r="H91" s="92" t="s">
+        <v>246</v>
+      </c>
+      <c r="I91" s="93"/>
       <c r="J91" s="2"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6214,19 +6217,19 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+      <c r="A92" s="77"/>
       <c r="B92" s="49"/>
       <c r="C92" s="54"/>
-      <c r="D92" s="55" t="s">
-        <v>613</v>
-      </c>
-      <c r="E92" s="97"/>
+      <c r="D92" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="E92" s="98"/>
       <c r="F92" s="66"/>
       <c r="G92" s="67"/>
       <c r="H92" s="94" t="s">
-        <v>598</v>
-      </c>
-      <c r="I92" s="93"/>
+        <v>249</v>
+      </c>
+      <c r="I92" s="94"/>
       <c r="J92" s="2"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6246,19 +6249,17 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="G93" s="93"/>
-      <c r="H93" s="92" t="s">
-        <v>587</v>
+      <c r="A93" s="77"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="E93" s="98"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="100" t="s">
+        <v>598</v>
       </c>
       <c r="I93" s="93"/>
       <c r="J93" s="2"/>
@@ -6280,24 +6281,22 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
+      <c r="A94" s="77"/>
       <c r="B94" s="26"/>
-      <c r="C94" s="71" t="s">
-        <v>250</v>
-      </c>
-      <c r="D94" s="72"/>
-      <c r="E94" s="97"/>
+      <c r="C94" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="83"/>
+      <c r="E94" s="98"/>
       <c r="F94" s="92" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G94" s="93"/>
-      <c r="H94" s="69" t="s">
-        <v>648</v>
-      </c>
-      <c r="I94" s="70"/>
-      <c r="J94" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="H94" s="92" t="s">
+        <v>587</v>
+      </c>
+      <c r="I94" s="93"/>
+      <c r="J94" s="2"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -6316,20 +6315,24 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="26"/>
-      <c r="C95" s="71" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="72"/>
-      <c r="E95" s="97"/>
+      <c r="C95" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D95" s="83"/>
+      <c r="E95" s="98"/>
       <c r="F95" s="92" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G95" s="93"/>
-      <c r="H95" s="70"/>
+      <c r="H95" s="69" t="s">
+        <v>646</v>
+      </c>
       <c r="I95" s="70"/>
-      <c r="J95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -6348,19 +6351,19 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="26"/>
-      <c r="C96" s="71" t="s">
-        <v>620</v>
-      </c>
-      <c r="D96" s="72"/>
-      <c r="E96" s="97"/>
+      <c r="C96" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="83"/>
+      <c r="E96" s="98"/>
       <c r="F96" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G96" s="93"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="67"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
       <c r="J96" s="2"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -6380,15 +6383,15 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
+      <c r="A97" s="77"/>
       <c r="B97" s="26"/>
-      <c r="C97" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="D97" s="72"/>
-      <c r="E97" s="97"/>
-      <c r="F97" s="74" t="s">
-        <v>257</v>
+      <c r="C97" s="82" t="s">
+        <v>619</v>
+      </c>
+      <c r="D97" s="83"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="92" t="s">
+        <v>255</v>
       </c>
       <c r="G97" s="93"/>
       <c r="H97" s="67"/>
@@ -6412,15 +6415,15 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="86"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="71" t="s">
-        <v>630</v>
-      </c>
-      <c r="D98" s="72"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="74" t="s">
-        <v>258</v>
+      <c r="A98" s="77"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="83"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="94" t="s">
+        <v>257</v>
       </c>
       <c r="G98" s="93"/>
       <c r="H98" s="67"/>
@@ -6444,17 +6447,17 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="86"/>
+      <c r="A99" s="77"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="71" t="s">
-        <v>259</v>
-      </c>
-      <c r="D99" s="72"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="107" t="s">
-        <v>651</v>
-      </c>
-      <c r="G99" s="108"/>
+      <c r="C99" s="82" t="s">
+        <v>629</v>
+      </c>
+      <c r="D99" s="83"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="G99" s="93"/>
       <c r="H99" s="67"/>
       <c r="I99" s="67"/>
       <c r="J99" s="2"/>
@@ -6476,16 +6479,17 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="86"/>
-      <c r="B100" s="80" t="s">
-        <v>595</v>
-      </c>
-      <c r="C100" s="72"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="G100" s="93"/>
+      <c r="A100" s="77"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D100" s="83"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="110" t="s">
+        <v>648</v>
+      </c>
+      <c r="G100" s="111"/>
       <c r="H100" s="67"/>
       <c r="I100" s="67"/>
       <c r="J100" s="2"/>
@@ -6506,19 +6510,18 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="87"/>
-      <c r="B101" s="89" t="s">
-        <v>584</v>
-      </c>
-      <c r="C101" s="111"/>
-      <c r="D101" s="27"/>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="77"/>
+      <c r="B101" s="84" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" s="83"/>
       <c r="E101" s="98"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="H101" s="93"/>
+      <c r="F101" s="100" t="s">
+        <v>260</v>
+      </c>
+      <c r="G101" s="93"/>
+      <c r="H101" s="67"/>
       <c r="I101" s="67"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
@@ -6538,16 +6541,20 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
+    <row r="102" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="78"/>
+      <c r="B102" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="C102" s="114"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="H102" s="93"/>
+      <c r="I102" s="67"/>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -6566,29 +6573,16 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="E103" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="28"/>
-      <c r="H103" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="I103" s="23" t="s">
-        <v>90</v>
-      </c>
+    <row r="103" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -6608,25 +6602,27 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
-      <c r="B104" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>543</v>
+      <c r="A104" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E104" s="113"/>
+        <v>532</v>
+      </c>
+      <c r="E104" s="115" t="s">
+        <v>12</v>
+      </c>
       <c r="F104" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>266</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G104" s="28"/>
       <c r="H104" s="23" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="3"/>
@@ -6646,33 +6642,30 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="86"/>
+    <row r="105" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="77"/>
       <c r="B105" s="29" t="s">
-        <v>41</v>
+        <v>530</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D105" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="113"/>
+        <v>543</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="E105" s="116"/>
       <c r="F105" s="45" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I105" s="48" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
-      <c r="L105" s="11"/>
+      <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -6689,28 +6682,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="86"/>
+      <c r="A106" s="77"/>
       <c r="B106" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="C106" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E106" s="113"/>
+        <v>41</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="E106" s="116"/>
       <c r="F106" s="45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="H106" s="53" t="s">
-        <v>634</v>
-      </c>
-      <c r="I106" s="29" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="I106" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6731,28 +6724,25 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="86"/>
+      <c r="A107" s="77"/>
       <c r="B107" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>268</v>
+        <v>548</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>265</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E107" s="113"/>
-      <c r="F107" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>278</v>
+        <v>104</v>
+      </c>
+      <c r="E107" s="116"/>
+      <c r="F107" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="H107" s="53" t="s">
+        <v>632</v>
       </c>
       <c r="I107" s="29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6773,29 +6763,32 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="86"/>
+      <c r="A108" s="77"/>
       <c r="B108" s="29" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="E108" s="113"/>
-      <c r="F108" s="24" t="s">
-        <v>283</v>
+        <v>275</v>
+      </c>
+      <c r="E108" s="116"/>
+      <c r="F108" s="48" t="s">
+        <v>276</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>285</v>
+        <v>278</v>
+      </c>
+      <c r="I108" s="29" t="s">
+        <v>290</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
+      <c r="L108" s="11"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -6811,28 +6804,27 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="86"/>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="77"/>
       <c r="B109" s="29" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="E109" s="113"/>
-      <c r="F109" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="G109" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H109" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I109" s="60"/>
+        <v>282</v>
+      </c>
+      <c r="E109" s="116"/>
+      <c r="F109" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>285</v>
+      </c>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -6851,28 +6843,28 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="86"/>
+    <row r="110" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="77"/>
       <c r="B110" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="E110" s="113"/>
+        <v>533</v>
+      </c>
+      <c r="E110" s="116"/>
       <c r="F110" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H110" s="71" t="s">
-        <v>304</v>
-      </c>
-      <c r="I110" s="72"/>
+        <v>288</v>
+      </c>
+      <c r="G110" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="H110" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I110" s="60"/>
       <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -6892,25 +6884,27 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="86"/>
-      <c r="B111" s="58" t="s">
-        <v>295</v>
+      <c r="A111" s="77"/>
+      <c r="B111" s="29" t="s">
+        <v>291</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="E111" s="113"/>
-      <c r="F111" s="26"/>
+        <v>534</v>
+      </c>
+      <c r="E111" s="116"/>
+      <c r="F111" s="23" t="s">
+        <v>293</v>
+      </c>
       <c r="G111" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="H111" s="71" t="s">
-        <v>307</v>
-      </c>
-      <c r="I111" s="72"/>
+        <v>294</v>
+      </c>
+      <c r="H111" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="I111" s="83"/>
       <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -6930,24 +6924,25 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="86"/>
+      <c r="A112" s="77"/>
       <c r="B112" s="58" t="s">
-        <v>574</v>
+        <v>295</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E112" s="113"/>
-      <c r="F112" s="23" t="s">
-        <v>299</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="E112" s="116"/>
+      <c r="F112" s="26"/>
       <c r="G112" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="H112" s="80" t="s">
-        <v>608</v>
-      </c>
-      <c r="I112" s="72"/>
+        <v>297</v>
+      </c>
+      <c r="H112" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="I112" s="83"/>
       <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -6967,23 +6962,24 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="86"/>
-      <c r="B113" s="29"/>
+      <c r="A113" s="77"/>
+      <c r="B113" s="58" t="s">
+        <v>574</v>
+      </c>
       <c r="C113" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="D113" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E113" s="113"/>
-      <c r="F113" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G113" s="26"/>
-      <c r="H113" s="80" t="s">
-        <v>312</v>
-      </c>
-      <c r="I113" s="72"/>
+        <v>298</v>
+      </c>
+      <c r="E113" s="116"/>
+      <c r="F113" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="H113" s="84" t="s">
+        <v>607</v>
+      </c>
+      <c r="I113" s="83"/>
       <c r="J113" s="2"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -7003,22 +6999,23 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
-      <c r="B114" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="D114" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E114" s="113"/>
+      <c r="A114" s="77"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="116"/>
       <c r="F114" s="24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G114" s="26"/>
-      <c r="H114" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="I114" s="72"/>
+      <c r="H114" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="I114" s="83"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -7038,25 +7035,22 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="86"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="E115" s="113"/>
+        <v>301</v>
+      </c>
+      <c r="E115" s="116"/>
       <c r="F115" s="24" t="s">
-        <v>582</v>
-      </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="I115" s="72"/>
+        <v>581</v>
+      </c>
+      <c r="G115" s="26"/>
+      <c r="H115" s="82" t="s">
+        <v>315</v>
+      </c>
+      <c r="I115" s="83"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -7076,23 +7070,25 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="23" t="s">
-        <v>610</v>
+      <c r="A116" s="77"/>
+      <c r="B116" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>589</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="E116" s="113"/>
-      <c r="F116" s="75" t="s">
-        <v>650</v>
-      </c>
-      <c r="G116" s="76"/>
-      <c r="H116" s="71" t="s">
-        <v>320</v>
-      </c>
-      <c r="I116" s="73"/>
+        <v>577</v>
+      </c>
+      <c r="E116" s="116"/>
+      <c r="F116" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="G116" s="23"/>
+      <c r="H116" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="I116" s="83"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -7112,17 +7108,23 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="D117" s="73"/>
-      <c r="E117" s="113"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="110"/>
-      <c r="H117" s="71"/>
-      <c r="I117" s="72"/>
+      <c r="A117" s="77"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="E117" s="116"/>
+      <c r="F117" s="85" t="s">
+        <v>651</v>
+      </c>
+      <c r="G117" s="86"/>
+      <c r="H117" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="I117" s="91"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -7142,19 +7144,17 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="86"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="26"/>
-      <c r="C118" s="71" t="s">
-        <v>305</v>
-      </c>
-      <c r="D118" s="73"/>
-      <c r="E118" s="113"/>
-      <c r="F118" s="71" t="s">
-        <v>306</v>
-      </c>
-      <c r="G118" s="73"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="72"/>
+      <c r="C118" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="D118" s="91"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="113"/>
+      <c r="H118" s="82"/>
+      <c r="I118" s="83"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7174,19 +7174,19 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="86"/>
-      <c r="B119" s="71" t="s">
-        <v>308</v>
-      </c>
-      <c r="C119" s="73"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="113"/>
-      <c r="F119" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="G119" s="73"/>
-      <c r="H119" s="99"/>
-      <c r="I119" s="72"/>
+      <c r="A119" s="77"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="91"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="G119" s="91"/>
+      <c r="H119" s="82"/>
+      <c r="I119" s="83"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7206,19 +7206,19 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
-      <c r="B120" s="71" t="s">
-        <v>310</v>
-      </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="71" t="s">
-        <v>311</v>
-      </c>
-      <c r="G120" s="73"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="72"/>
+      <c r="A120" s="77"/>
+      <c r="B120" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="C120" s="91"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="G120" s="91"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="83"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7238,19 +7238,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
-      <c r="B121" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="C121" s="73"/>
+      <c r="A121" s="77"/>
+      <c r="B121" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="C121" s="91"/>
       <c r="D121" s="26"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="G121" s="73"/>
-      <c r="H121" s="71"/>
-      <c r="I121" s="72"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="G121" s="91"/>
+      <c r="H121" s="101"/>
+      <c r="I121" s="83"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7270,19 +7270,19 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="86"/>
-      <c r="B122" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122" s="73"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="113"/>
-      <c r="F122" s="81" t="s">
-        <v>317</v>
-      </c>
-      <c r="G122" s="73"/>
-      <c r="H122" s="71"/>
-      <c r="I122" s="72"/>
+      <c r="A122" s="77"/>
+      <c r="B122" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C122" s="91"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="G122" s="91"/>
+      <c r="H122" s="82"/>
+      <c r="I122" s="83"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7302,17 +7302,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="86"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="23"/>
+      <c r="A123" s="77"/>
+      <c r="B123" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="C123" s="91"/>
       <c r="D123" s="27"/>
-      <c r="E123" s="113"/>
-      <c r="F123" s="81" t="s">
-        <v>319</v>
-      </c>
-      <c r="G123" s="73"/>
-      <c r="H123" s="71"/>
-      <c r="I123" s="73"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="G123" s="91"/>
+      <c r="H123" s="82"/>
+      <c r="I123" s="83"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7332,17 +7334,17 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="26"/>
+      <c r="A124" s="77"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="23"/>
       <c r="D124" s="27"/>
-      <c r="E124" s="114"/>
-      <c r="F124" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G124" s="26"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G124" s="91"/>
+      <c r="H124" s="82"/>
+      <c r="I124" s="91"/>
       <c r="J124" s="2"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -7362,19 +7364,17 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="21"/>
-      <c r="D125" s="109" t="s">
-        <v>322</v>
-      </c>
-      <c r="E125" s="84"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="H125" s="73"/>
-      <c r="I125" s="8"/>
+      <c r="A125" s="77"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="117"/>
+      <c r="F125" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G125" s="26"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -7394,21 +7394,23 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="109" t="s">
-        <v>324</v>
-      </c>
-      <c r="E126" s="84"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="9"/>
+      <c r="A126" s="77"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="112" t="s">
+        <v>322</v>
+      </c>
+      <c r="E126" s="75"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="82" t="s">
+        <v>323</v>
+      </c>
+      <c r="H126" s="91"/>
+      <c r="I126" s="8"/>
       <c r="J126" s="2"/>
       <c r="K126" s="3"/>
-      <c r="L126" s="11"/>
-      <c r="M126" s="11"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
@@ -7424,16 +7426,16 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="87"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="71" t="s">
-        <v>325</v>
-      </c>
-      <c r="E127" s="73"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="A127" s="77"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="112" t="s">
+        <v>324</v>
+      </c>
+      <c r="E127" s="75"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
       <c r="I127" s="9"/>
       <c r="J127" s="2"/>
       <c r="K127" s="3"/>
@@ -7453,20 +7455,22 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="78"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" s="91"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
       <c r="J128" s="2"/>
       <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
@@ -7481,20 +7485,16 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="85" t="s">
-        <v>326</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E129" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F129" s="101"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="73"/>
-      <c r="I129" s="8"/>
+    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
       <c r="J129" s="2"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -7513,23 +7513,19 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="86"/>
-      <c r="B130" s="25" t="s">
-        <v>536</v>
+    <row r="130" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E130" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="32"/>
+        <v>328</v>
+      </c>
+      <c r="F130" s="103"/>
+      <c r="G130" s="104"/>
+      <c r="H130" s="91"/>
       <c r="I130" s="8"/>
       <c r="J130" s="2"/>
       <c r="K130" s="3"/>
@@ -7550,18 +7546,18 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="86"/>
-      <c r="B131" s="23" t="s">
-        <v>113</v>
+      <c r="A131" s="77"/>
+      <c r="B131" s="25" t="s">
+        <v>536</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>332</v>
+        <v>330</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -7586,12 +7582,18 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="86"/>
+      <c r="A132" s="77"/>
       <c r="B132" s="23" t="s">
-        <v>333</v>
+        <v>113</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -7616,13 +7618,12 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="86"/>
+      <c r="A133" s="77"/>
       <c r="B133" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="E133" s="24" t="s">
+        <v>334</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -7647,13 +7648,13 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="86"/>
-      <c r="B134" s="28"/>
-      <c r="C134" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E134" s="23" t="s">
-        <v>611</v>
+      <c r="A134" s="77"/>
+      <c r="B134" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="28"/>
+      <c r="D134" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -7678,10 +7679,14 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="86"/>
+      <c r="A135" s="77"/>
       <c r="B135" s="28"/>
-      <c r="C135" s="23"/>
-      <c r="E135" s="26"/>
+      <c r="C135" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>610</v>
+      </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
       <c r="H135" s="32"/>
@@ -7705,17 +7710,10 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="86"/>
-      <c r="B136" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E136" s="23"/>
+      <c r="A136" s="77"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="23"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="32"/>
@@ -7739,15 +7737,17 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="86"/>
-      <c r="B137" s="52"/>
+      <c r="A137" s="77"/>
+      <c r="B137" s="24" t="s">
+        <v>338</v>
+      </c>
       <c r="C137" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E137" s="24"/>
+        <v>340</v>
+      </c>
+      <c r="E137" s="23"/>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
       <c r="H137" s="32"/>
@@ -7771,13 +7771,13 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="86"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>344</v>
+      <c r="A138" s="77"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="33"/>
@@ -7803,17 +7803,17 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="86"/>
-      <c r="B139" s="71" t="s">
-        <v>586</v>
-      </c>
-      <c r="C139" s="72"/>
-      <c r="D139" s="71" t="s">
-        <v>345</v>
-      </c>
-      <c r="E139" s="72"/>
+      <c r="A139" s="77"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E139" s="24"/>
       <c r="F139" s="33"/>
-      <c r="G139" s="34"/>
+      <c r="G139" s="33"/>
       <c r="H139" s="32"/>
       <c r="I139" s="8"/>
       <c r="J139" s="2"/>
@@ -7835,15 +7835,15 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="86"/>
-      <c r="B140" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="E140" s="72"/>
+      <c r="A140" s="77"/>
+      <c r="B140" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="C140" s="83"/>
+      <c r="D140" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" s="83"/>
       <c r="F140" s="33"/>
       <c r="G140" s="34"/>
       <c r="H140" s="32"/>
@@ -7867,17 +7867,17 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="86"/>
-      <c r="B141" s="71" t="s">
-        <v>631</v>
-      </c>
-      <c r="C141" s="72"/>
-      <c r="D141" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="E141" s="72"/>
+      <c r="A141" s="77"/>
+      <c r="B141" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C141" s="83"/>
+      <c r="D141" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="E141" s="83"/>
       <c r="F141" s="33"/>
-      <c r="G141" s="32"/>
+      <c r="G141" s="34"/>
       <c r="H141" s="32"/>
       <c r="I141" s="8"/>
       <c r="J141" s="2"/>
@@ -7899,15 +7899,15 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="86"/>
-      <c r="B142" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="E142" s="72"/>
+      <c r="A142" s="77"/>
+      <c r="B142" s="82" t="s">
+        <v>630</v>
+      </c>
+      <c r="C142" s="83"/>
+      <c r="D142" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="E142" s="83"/>
       <c r="F142" s="33"/>
       <c r="G142" s="32"/>
       <c r="H142" s="32"/>
@@ -7931,16 +7931,16 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="86"/>
-      <c r="B143" s="80" t="s">
-        <v>596</v>
-      </c>
-      <c r="C143" s="72"/>
-      <c r="D143" s="115" t="s">
-        <v>649</v>
-      </c>
-      <c r="E143" s="76"/>
-      <c r="F143" s="32"/>
+      <c r="A143" s="77"/>
+      <c r="B143" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" s="83"/>
+      <c r="D143" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="E143" s="83"/>
+      <c r="F143" s="33"/>
       <c r="G143" s="32"/>
       <c r="H143" s="32"/>
       <c r="I143" s="8"/>
@@ -7963,15 +7963,15 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="86"/>
-      <c r="B144" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="81" t="s">
-        <v>600</v>
-      </c>
-      <c r="E144" s="72"/>
+      <c r="A144" s="77"/>
+      <c r="B144" s="84" t="s">
+        <v>596</v>
+      </c>
+      <c r="C144" s="83"/>
+      <c r="D144" s="108" t="s">
+        <v>647</v>
+      </c>
+      <c r="E144" s="86"/>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
@@ -7995,13 +7995,15 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="86"/>
-      <c r="B145" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="71"/>
-      <c r="E145" s="72"/>
+      <c r="A145" s="77"/>
+      <c r="B145" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" s="83"/>
+      <c r="D145" s="95" t="s">
+        <v>600</v>
+      </c>
+      <c r="E145" s="83"/>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
       <c r="H145" s="32"/>
@@ -8025,16 +8027,16 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="86"/>
-      <c r="B146" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="C146" s="84"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
+      <c r="A146" s="77"/>
+      <c r="B146" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="83"/>
+      <c r="D146" s="82"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
       <c r="I146" s="8"/>
       <c r="J146" s="2"/>
       <c r="K146" s="3"/>
@@ -8055,12 +8057,15 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="86"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="20"/>
+      <c r="A147" s="77"/>
+      <c r="B147" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="C147" s="75"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
       <c r="J147" s="2"/>
@@ -8082,12 +8087,12 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="87"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="10"/>
+      <c r="A148" s="77"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
       <c r="J148" s="2"/>
@@ -8108,16 +8113,15 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="78"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
       <c r="J149" s="2"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -8136,18 +8140,16 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="100" t="s">
-        <v>354</v>
-      </c>
-      <c r="B150" s="83"/>
-      <c r="C150" s="83"/>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="84"/>
+    <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
       <c r="J150" s="2"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
@@ -8166,16 +8168,18 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="I151" s="8"/>
+    <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="B151" s="74"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="74"/>
+      <c r="I151" s="75"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8194,18 +8198,16 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="B152" s="102"/>
-      <c r="C152" s="102"/>
-      <c r="D152" s="102"/>
-      <c r="E152" s="102"/>
-      <c r="F152" s="102"/>
-      <c r="G152" s="102"/>
-      <c r="H152" s="102"/>
-      <c r="I152" s="73"/>
+    <row r="152" spans="1:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
       <c r="J152" s="2"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
@@ -8225,17 +8227,17 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="35"/>
-      <c r="B153" s="101" t="s">
-        <v>356</v>
-      </c>
-      <c r="C153" s="102"/>
-      <c r="D153" s="102"/>
-      <c r="E153" s="102"/>
-      <c r="F153" s="102"/>
-      <c r="G153" s="102"/>
-      <c r="H153" s="102"/>
-      <c r="I153" s="73"/>
+      <c r="A153" s="103" t="s">
+        <v>355</v>
+      </c>
+      <c r="B153" s="104"/>
+      <c r="C153" s="104"/>
+      <c r="D153" s="104"/>
+      <c r="E153" s="104"/>
+      <c r="F153" s="104"/>
+      <c r="G153" s="104"/>
+      <c r="H153" s="104"/>
+      <c r="I153" s="91"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8256,16 +8258,16 @@
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="101" t="s">
-        <v>357</v>
-      </c>
-      <c r="C154" s="102"/>
-      <c r="D154" s="102"/>
-      <c r="E154" s="102"/>
-      <c r="F154" s="102"/>
-      <c r="G154" s="102"/>
-      <c r="H154" s="102"/>
-      <c r="I154" s="73"/>
+      <c r="B154" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C154" s="104"/>
+      <c r="D154" s="104"/>
+      <c r="E154" s="104"/>
+      <c r="F154" s="104"/>
+      <c r="G154" s="104"/>
+      <c r="H154" s="104"/>
+      <c r="I154" s="91"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8286,16 +8288,16 @@
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="101" t="s">
-        <v>358</v>
-      </c>
-      <c r="C155" s="102"/>
-      <c r="D155" s="102"/>
-      <c r="E155" s="102"/>
-      <c r="F155" s="102"/>
-      <c r="G155" s="102"/>
-      <c r="H155" s="102"/>
-      <c r="I155" s="73"/>
+      <c r="B155" s="103" t="s">
+        <v>357</v>
+      </c>
+      <c r="C155" s="104"/>
+      <c r="D155" s="104"/>
+      <c r="E155" s="104"/>
+      <c r="F155" s="104"/>
+      <c r="G155" s="104"/>
+      <c r="H155" s="104"/>
+      <c r="I155" s="91"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8316,16 +8318,16 @@
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="101" t="s">
-        <v>359</v>
-      </c>
-      <c r="C156" s="102"/>
-      <c r="D156" s="102"/>
-      <c r="E156" s="102"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="102"/>
-      <c r="H156" s="102"/>
-      <c r="I156" s="73"/>
+      <c r="B156" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" s="104"/>
+      <c r="D156" s="104"/>
+      <c r="E156" s="104"/>
+      <c r="F156" s="104"/>
+      <c r="G156" s="104"/>
+      <c r="H156" s="104"/>
+      <c r="I156" s="91"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8346,16 +8348,16 @@
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="35"/>
-      <c r="B157" s="101" t="s">
-        <v>360</v>
-      </c>
-      <c r="C157" s="102"/>
-      <c r="D157" s="102"/>
-      <c r="E157" s="102"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="102"/>
-      <c r="H157" s="102"/>
-      <c r="I157" s="73"/>
+      <c r="B157" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C157" s="104"/>
+      <c r="D157" s="104"/>
+      <c r="E157" s="104"/>
+      <c r="F157" s="104"/>
+      <c r="G157" s="104"/>
+      <c r="H157" s="104"/>
+      <c r="I157" s="91"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8376,16 +8378,16 @@
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="35"/>
-      <c r="B158" s="106" t="s">
-        <v>361</v>
-      </c>
-      <c r="C158" s="102"/>
-      <c r="D158" s="102"/>
-      <c r="E158" s="102"/>
-      <c r="F158" s="102"/>
-      <c r="G158" s="102"/>
-      <c r="H158" s="102"/>
-      <c r="I158" s="73"/>
+      <c r="B158" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="C158" s="104"/>
+      <c r="D158" s="104"/>
+      <c r="E158" s="104"/>
+      <c r="F158" s="104"/>
+      <c r="G158" s="104"/>
+      <c r="H158" s="104"/>
+      <c r="I158" s="91"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8405,17 +8407,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="101" t="s">
-        <v>362</v>
-      </c>
-      <c r="B159" s="102"/>
-      <c r="C159" s="102"/>
-      <c r="D159" s="102"/>
-      <c r="E159" s="102"/>
-      <c r="F159" s="102"/>
-      <c r="G159" s="102"/>
-      <c r="H159" s="102"/>
-      <c r="I159" s="73"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="109" t="s">
+        <v>361</v>
+      </c>
+      <c r="C159" s="104"/>
+      <c r="D159" s="104"/>
+      <c r="E159" s="104"/>
+      <c r="F159" s="104"/>
+      <c r="G159" s="104"/>
+      <c r="H159" s="104"/>
+      <c r="I159" s="91"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8435,21 +8437,17 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="105"/>
-      <c r="B160" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="C160" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D160" s="103" t="s">
-        <v>365</v>
-      </c>
-      <c r="E160" s="102"/>
-      <c r="F160" s="102"/>
-      <c r="G160" s="102"/>
-      <c r="H160" s="102"/>
-      <c r="I160" s="73"/>
+      <c r="A160" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="B160" s="104"/>
+      <c r="C160" s="104"/>
+      <c r="D160" s="104"/>
+      <c r="E160" s="104"/>
+      <c r="F160" s="104"/>
+      <c r="G160" s="104"/>
+      <c r="H160" s="104"/>
+      <c r="I160" s="91"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8469,19 +8467,21 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="95"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D161" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="E161" s="102"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="102"/>
-      <c r="H161" s="102"/>
-      <c r="I161" s="73"/>
+      <c r="A161" s="107"/>
+      <c r="B161" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D161" s="105" t="s">
+        <v>365</v>
+      </c>
+      <c r="E161" s="104"/>
+      <c r="F161" s="104"/>
+      <c r="G161" s="104"/>
+      <c r="H161" s="104"/>
+      <c r="I161" s="91"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8503,17 +8503,17 @@
     <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="96"/>
       <c r="B162" s="35"/>
-      <c r="C162" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D162" s="104" t="s">
-        <v>369</v>
-      </c>
-      <c r="E162" s="102"/>
-      <c r="F162" s="102"/>
-      <c r="G162" s="102"/>
-      <c r="H162" s="102"/>
-      <c r="I162" s="73"/>
+      <c r="C162" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D162" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="E162" s="104"/>
+      <c r="F162" s="104"/>
+      <c r="G162" s="104"/>
+      <c r="H162" s="104"/>
+      <c r="I162" s="91"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8532,16 +8532,20 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="33"/>
+    <row r="163" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="97"/>
       <c r="B163" s="35"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
+      <c r="C163" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D163" s="106" t="s">
+        <v>369</v>
+      </c>
+      <c r="E163" s="104"/>
+      <c r="F163" s="104"/>
+      <c r="G163" s="104"/>
+      <c r="H163" s="104"/>
+      <c r="I163" s="91"/>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -8560,32 +8564,16 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="105"/>
-      <c r="B164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="C164" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="F164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="G164" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="H164" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="I164" s="38" t="s">
-        <v>372</v>
-      </c>
+    <row r="164" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="33"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
+      <c r="I164" s="33"/>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -8604,31 +8592,31 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="95"/>
-      <c r="B165" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="C165" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="D165" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="E165" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="F165" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="G165" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="H165" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="I165" s="41" t="s">
-        <v>380</v>
+    <row r="165" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="107"/>
+      <c r="B165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C165" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="F165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="G165" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="H165" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="I165" s="38" t="s">
+        <v>372</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8648,31 +8636,31 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="95"/>
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="96"/>
       <c r="B166" s="34" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D166" s="34" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F166" s="34" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G166" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="H166" s="62" t="s">
-        <v>387</v>
+        <v>378</v>
+      </c>
+      <c r="H166" s="40" t="s">
+        <v>379</v>
       </c>
       <c r="I166" s="41" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
@@ -8692,31 +8680,31 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="95"/>
+    <row r="167" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="96"/>
       <c r="B167" s="34" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D167" s="34" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F167" s="34" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G167" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H167" s="40" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="H167" s="62" t="s">
+        <v>387</v>
       </c>
       <c r="I167" s="41" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8736,26 +8724,32 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="95"/>
+    <row r="168" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="96"/>
       <c r="B168" s="34" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D168" s="34" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="G168" s="34"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="42"/>
+        <v>393</v>
+      </c>
+      <c r="G168" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="H168" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="I168" s="41" t="s">
+        <v>396</v>
+      </c>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
@@ -8774,30 +8768,26 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="95"/>
+    <row r="169" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="96"/>
       <c r="B169" s="34" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D169" s="34" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E169" s="34" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F169" s="34" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G169" s="34"/>
-      <c r="H169" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="I169" s="42" t="s">
-        <v>408</v>
-      </c>
+      <c r="H169" s="40"/>
+      <c r="I169" s="42"/>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -8817,28 +8807,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="95"/>
+      <c r="A170" s="96"/>
       <c r="B170" s="34" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D170" s="34" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F170" s="34" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="G170" s="34"/>
       <c r="H170" s="40" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I170" s="42" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8859,30 +8849,28 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="95"/>
+      <c r="A171" s="96"/>
       <c r="B171" s="34" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D171" s="34" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="F171" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="G171" s="34" t="s">
-        <v>421</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="G171" s="34"/>
       <c r="H171" s="40" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="I171" s="42" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8903,30 +8891,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="95"/>
+      <c r="A172" s="96"/>
       <c r="B172" s="34" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D172" s="34" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F172" s="34" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G172" s="34" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H172" s="40" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="I172" s="42" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8947,28 +8935,30 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="95"/>
+      <c r="A173" s="96"/>
       <c r="B173" s="34" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D173" s="34" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F173" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="G173" s="34"/>
+        <v>428</v>
+      </c>
+      <c r="G173" s="34" t="s">
+        <v>429</v>
+      </c>
       <c r="H173" s="40" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="I173" s="42" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8989,30 +8979,28 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="95"/>
+      <c r="A174" s="96"/>
       <c r="B174" s="34" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D174" s="34" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F174" s="34" t="s">
-        <v>443</v>
-      </c>
-      <c r="G174" s="34" t="s">
-        <v>444</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="G174" s="34"/>
       <c r="H174" s="40" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="I174" s="42" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -9033,30 +9021,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="95"/>
+      <c r="A175" s="96"/>
       <c r="B175" s="34" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D175" s="34" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F175" s="34" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G175" s="34" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H175" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="I175" s="43" t="s">
-        <v>454</v>
+        <v>445</v>
+      </c>
+      <c r="I175" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -9077,30 +9065,30 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="95"/>
+      <c r="A176" s="96"/>
       <c r="B176" s="34" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D176" s="34" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F176" s="34" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G176" s="34" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H176" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="I176" s="41" t="s">
-        <v>462</v>
+        <v>453</v>
+      </c>
+      <c r="I176" s="43" t="s">
+        <v>454</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
@@ -9121,28 +9109,30 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="95"/>
+      <c r="A177" s="96"/>
       <c r="B177" s="34" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D177" s="34" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F177" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="G177" s="34"/>
+        <v>459</v>
+      </c>
+      <c r="G177" s="34" t="s">
+        <v>460</v>
+      </c>
       <c r="H177" s="40" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="I177" s="41" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
@@ -9162,28 +9152,30 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="95"/>
+    <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="96"/>
       <c r="B178" s="34" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D178" s="34" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F178" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="G178" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="H178" s="44"/>
-      <c r="I178" s="44"/>
+        <v>467</v>
+      </c>
+      <c r="G178" s="34"/>
+      <c r="H178" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="I178" s="41" t="s">
+        <v>469</v>
+      </c>
       <c r="J178" s="2"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
@@ -9203,23 +9195,25 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="95"/>
+      <c r="A179" s="96"/>
       <c r="B179" s="34" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D179" s="34" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F179" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="G179" s="34"/>
+        <v>474</v>
+      </c>
+      <c r="G179" s="34" t="s">
+        <v>475</v>
+      </c>
       <c r="H179" s="44"/>
       <c r="I179" s="44"/>
       <c r="J179" s="2"/>
@@ -9241,25 +9235,23 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="95"/>
+      <c r="A180" s="96"/>
       <c r="B180" s="34" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D180" s="34" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F180" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="G180" s="34" t="s">
-        <v>486</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="G180" s="34"/>
       <c r="H180" s="44"/>
       <c r="I180" s="44"/>
       <c r="J180" s="2"/>
@@ -9281,24 +9273,24 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="95"/>
+      <c r="A181" s="96"/>
       <c r="B181" s="34" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D181" s="34" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F181" s="34" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G181" s="34" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H181" s="44"/>
       <c r="I181" s="44"/>
@@ -9323,22 +9315,22 @@
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="96"/>
       <c r="B182" s="34" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D182" s="34" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G182" s="34" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H182" s="44"/>
       <c r="I182" s="44"/>
@@ -9360,26 +9352,28 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="F183" s="9"/>
-      <c r="G183" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="H183" s="18"/>
-      <c r="I183" s="18"/>
+    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="97"/>
+      <c r="B183" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="C183" s="34" t="s">
+        <v>494</v>
+      </c>
+      <c r="D183" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>496</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>497</v>
+      </c>
+      <c r="G183" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="H183" s="44"/>
+      <c r="I183" s="44"/>
       <c r="J183" s="2"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -9399,23 +9393,25 @@
       <c r="Z183" s="3"/>
     </row>
     <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E184" s="9" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
+      <c r="G184" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="H184" s="18"/>
+      <c r="I184" s="18"/>
       <c r="J184" s="2"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
@@ -9434,22 +9430,24 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
+    <row r="185" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
       <c r="B185" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="D185" s="9"/>
+        <v>505</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>506</v>
+      </c>
       <c r="E185" s="9" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
-      <c r="H185" s="18"/>
-      <c r="I185" s="18"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
       <c r="J185" s="2"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -9470,11 +9468,15 @@
     </row>
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
+      <c r="B186" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -9498,12 +9500,14 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-      <c r="E187" s="9"/>
+      <c r="E187" s="9" t="s">
+        <v>511</v>
+      </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
       <c r="H187" s="18"/>
@@ -9526,7 +9530,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -9556,12 +9560,12 @@
     </row>
     <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="18"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="18"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
       <c r="J189" s="2"/>
@@ -9584,7 +9588,7 @@
     </row>
     <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
-      <c r="B190" s="9"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="18"/>
       <c r="D190" s="9"/>
       <c r="E190" s="1"/>
@@ -9611,15 +9615,15 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
+      <c r="A191" s="18"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="18"/>
       <c r="J191" s="2"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -9668,7 +9672,7 @@
     </row>
     <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="3"/>
+      <c r="B193" s="11"/>
       <c r="C193" s="3"/>
       <c r="D193" s="11"/>
       <c r="E193" s="3"/>
@@ -9726,7 +9730,7 @@
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="D195" s="11"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="2"/>
@@ -9756,7 +9760,7 @@
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-      <c r="F196" s="2"/>
+      <c r="F196" s="3"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -10259,7 +10263,7 @@
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="3"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
@@ -10762,7 +10766,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="3"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -11377,7 +11381,7 @@
     <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
-      <c r="C254" s="2"/>
+      <c r="C254" s="3"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -11852,7 +11856,7 @@
     </row>
     <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="B271" s="3"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -14762,17 +14766,17 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
+    <row r="375" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
       <c r="G375" s="2"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="J375" s="3"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
       <c r="M375" s="3"/>
@@ -14797,7 +14801,7 @@
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
+      <c r="G376" s="2"/>
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
       <c r="J376" s="3"/>
@@ -14848,7 +14852,7 @@
     </row>
     <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
-      <c r="B378" s="3"/>
+      <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -14877,7 +14881,7 @@
     <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
+      <c r="C379" s="2"/>
       <c r="D379" s="3"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
@@ -15099,32 +15103,32 @@
       <c r="Z386" s="3"/>
     </row>
     <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="11"/>
-      <c r="B387" s="11"/>
-      <c r="C387" s="11"/>
-      <c r="D387" s="11"/>
-      <c r="E387" s="11"/>
-      <c r="F387" s="11"/>
-      <c r="G387" s="11"/>
-      <c r="H387" s="11"/>
-      <c r="I387" s="11"/>
-      <c r="J387" s="11"/>
-      <c r="K387" s="11"/>
-      <c r="L387" s="11"/>
-      <c r="M387" s="11"/>
-      <c r="N387" s="11"/>
-      <c r="O387" s="11"/>
-      <c r="P387" s="11"/>
-      <c r="Q387" s="11"/>
-      <c r="R387" s="11"/>
-      <c r="S387" s="11"/>
-      <c r="T387" s="11"/>
-      <c r="U387" s="11"/>
-      <c r="V387" s="11"/>
-      <c r="W387" s="11"/>
-      <c r="X387" s="11"/>
-      <c r="Y387" s="11"/>
-      <c r="Z387" s="11"/>
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+      <c r="E387" s="3"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="3"/>
+      <c r="H387" s="3"/>
+      <c r="I387" s="3"/>
+      <c r="J387" s="3"/>
+      <c r="K387" s="3"/>
+      <c r="L387" s="3"/>
+      <c r="M387" s="3"/>
+      <c r="N387" s="3"/>
+      <c r="O387" s="3"/>
+      <c r="P387" s="3"/>
+      <c r="Q387" s="3"/>
+      <c r="R387" s="3"/>
+      <c r="S387" s="3"/>
+      <c r="T387" s="3"/>
+      <c r="U387" s="3"/>
+      <c r="V387" s="3"/>
+      <c r="W387" s="3"/>
+      <c r="X387" s="3"/>
+      <c r="Y387" s="3"/>
+      <c r="Z387" s="3"/>
     </row>
     <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11"/>
@@ -32374,44 +32378,69 @@
       <c r="Y1003" s="11"/>
       <c r="Z1003" s="11"/>
     </row>
+    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="11"/>
+      <c r="B1004" s="11"/>
+      <c r="C1004" s="11"/>
+      <c r="D1004" s="11"/>
+      <c r="E1004" s="11"/>
+      <c r="F1004" s="11"/>
+      <c r="G1004" s="11"/>
+      <c r="H1004" s="11"/>
+      <c r="I1004" s="11"/>
+      <c r="J1004" s="11"/>
+      <c r="K1004" s="11"/>
+      <c r="L1004" s="11"/>
+      <c r="M1004" s="11"/>
+      <c r="N1004" s="11"/>
+      <c r="O1004" s="11"/>
+      <c r="P1004" s="11"/>
+      <c r="Q1004" s="11"/>
+      <c r="R1004" s="11"/>
+      <c r="S1004" s="11"/>
+      <c r="T1004" s="11"/>
+      <c r="U1004" s="11"/>
+      <c r="V1004" s="11"/>
+      <c r="W1004" s="11"/>
+      <c r="X1004" s="11"/>
+      <c r="Y1004" s="11"/>
+      <c r="Z1004" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F130:H130"/>
     <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
     <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="F123:G123"/>
     <mergeCell ref="H123:I123"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H110:I110"/>
     <mergeCell ref="H111:I111"/>
     <mergeCell ref="H112:I112"/>
     <mergeCell ref="H113:I113"/>
     <mergeCell ref="H114:I114"/>
     <mergeCell ref="H115:I115"/>
-    <mergeCell ref="E103:E124"/>
-    <mergeCell ref="F116:G116"/>
     <mergeCell ref="H116:I116"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E104:E125"/>
     <mergeCell ref="F117:G117"/>
     <mergeCell ref="H117:I117"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="H94:I94"/>
     <mergeCell ref="C118:D118"/>
     <mergeCell ref="F118:G118"/>
     <mergeCell ref="H118:I118"/>
-    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="C119:D119"/>
     <mergeCell ref="F119:G119"/>
     <mergeCell ref="H119:I119"/>
     <mergeCell ref="B120:C120"/>
@@ -32419,144 +32448,147 @@
     <mergeCell ref="H120:I120"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="F121:G121"/>
-    <mergeCell ref="A164:A182"/>
-    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A165:A183"/>
     <mergeCell ref="B155:I155"/>
     <mergeCell ref="B156:I156"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
-    <mergeCell ref="A159:I159"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B159:I159"/>
+    <mergeCell ref="A160:I160"/>
+    <mergeCell ref="D163:I163"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="F74:G74"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="F75:G75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
     <mergeCell ref="H87:I87"/>
     <mergeCell ref="H88:I88"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A53:A77"/>
-    <mergeCell ref="A79:A101"/>
-    <mergeCell ref="A103:A127"/>
-    <mergeCell ref="A150:I150"/>
-    <mergeCell ref="A152:I152"/>
-    <mergeCell ref="B153:I153"/>
-    <mergeCell ref="D160:I160"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A54:A78"/>
+    <mergeCell ref="A80:A102"/>
+    <mergeCell ref="A104:A128"/>
+    <mergeCell ref="A151:I151"/>
+    <mergeCell ref="A153:I153"/>
+    <mergeCell ref="B154:I154"/>
     <mergeCell ref="D161:I161"/>
-    <mergeCell ref="A160:A162"/>
-    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="A161:A163"/>
     <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B144:C144"/>
     <mergeCell ref="B140:C140"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
     <mergeCell ref="D142:E142"/>
     <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A129:A148"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A130:A149"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F98:G98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="E53:E77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E54:E78"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E79:E101"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="F70:G70"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E80:E102"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="E28:E52"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="E3:E26"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H20:I20"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A27:A51"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C48:D48"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E27:E51"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="E3:E25"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A28:A52"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0" footer="0"/>
   <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="78" max="8" man="1"/>
-    <brk id="149" max="16383" man="1"/>
-    <brk id="190" max="16383" man="1"/>
+    <brk id="79" max="8" man="1"/>
+    <brk id="150" max="16383" man="1"/>
+    <brk id="191" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="1048575" man="1"/>

--- a/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
+++ b/raw/time_tables/B.Tech 62 (btech-62)/2/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fileserver2\time table\JIIT Time Table EVEN 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F6B8E4-3BC4-42D9-AB2F-642B093B0B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8CF057-F572-442E-8D9A-9E694064B8E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="653">
   <si>
     <t>B.TECH II SEMESTER EVEN 2026</t>
   </si>
@@ -699,9 +699,6 @@
     <t>LB9,B10(CI121)-FF4/ASA</t>
   </si>
   <si>
-    <t>LA10,B14(HS111)-FF4/ASY</t>
-  </si>
-  <si>
     <t>TA18(HS111)-TS11/NES</t>
   </si>
   <si>
@@ -1036,9 +1033,6 @@
   </si>
   <si>
     <t>TA16(MA211)-TS8/YG</t>
-  </si>
-  <si>
-    <t>LB11,B12(MA211)-FF2/HPT</t>
   </si>
   <si>
     <t>TB7(GE112)-TS6/GGL</t>
@@ -1637,9 +1631,6 @@
   </si>
   <si>
     <t>LG3,G4(PH211)-CR425/EKY</t>
-  </si>
-  <si>
-    <t>LB11,B12(HS111)-FF1/APR</t>
   </si>
   <si>
     <t>LB3,B4(CI121)-CR325/ANP</t>
@@ -2090,12 +2081,68 @@
   <si>
     <t>PA15,A16(CS121)-CL21,22/ JSM,PTK,PRV,MAY</t>
   </si>
+  <si>
+    <r>
+      <t>LA10,B14(HS111)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CS2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/ASY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LA10,B14(HS111)-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CR501</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/ASY</t>
+    </r>
+  </si>
+  <si>
+    <t>LB11,B12(HS111)-CR301/APR</t>
+  </si>
+  <si>
+    <t>LB11,B12(MA211)-G9/HPT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2182,13 +2229,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -2426,7 +2466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2484,9 +2524,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2541,16 +2578,15 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2562,7 +2598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,7 +2608,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2588,7 +2624,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2620,41 +2656,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2662,7 +2698,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2671,20 +2707,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -2694,6 +2730,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2917,10 +2956,10 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
+      <selection pane="bottomRight" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2942,16 +2981,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="75"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="2"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -3015,11 +3054,11 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>537</v>
+      <c r="B3" s="44" t="s">
+        <v>534</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>10</v>
@@ -3027,10 +3066,10 @@
       <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="23" t="s">
         <v>13</v>
       </c>
@@ -3059,9 +3098,9 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77"/>
-      <c r="B4" s="45" t="s">
-        <v>223</v>
+      <c r="A4" s="75"/>
+      <c r="B4" s="44" t="s">
+        <v>649</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>16</v>
@@ -3069,7 +3108,7 @@
       <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="80"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="23" t="s">
         <v>18</v>
       </c>
@@ -3099,8 +3138,8 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -3109,8 +3148,8 @@
       <c r="D5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="78"/>
+      <c r="F5" s="44" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -3119,7 +3158,7 @@
       <c r="H5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -3139,27 +3178,27 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -3179,8 +3218,8 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="23" t="s">
@@ -3189,7 +3228,7 @@
       <c r="D7" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="80"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="23" t="s">
         <v>41</v>
       </c>
@@ -3218,8 +3257,8 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -3228,11 +3267,11 @@
       <c r="D8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="23" t="s">
         <v>42</v>
       </c>
@@ -3258,17 +3297,14 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="53" t="s">
-        <v>642</v>
-      </c>
       <c r="D9" s="19" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" s="80"/>
+        <v>510</v>
+      </c>
+      <c r="E9" s="78"/>
       <c r="F9" s="23" t="s">
         <v>53</v>
       </c>
@@ -3300,25 +3336,25 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="45" t="s">
-        <v>558</v>
+      <c r="A10" s="75"/>
+      <c r="B10" s="44" t="s">
+        <v>555</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="53" t="s">
-        <v>631</v>
+        <v>511</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="51" t="s">
+        <v>628</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
@@ -3342,26 +3378,26 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="55" t="s">
-        <v>593</v>
+      <c r="E11" s="78"/>
+      <c r="F11" s="53" t="s">
+        <v>590</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>50</v>
@@ -3381,27 +3417,27 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="80"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="G12" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3421,9 +3457,9 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="45" t="s">
-        <v>560</v>
+      <c r="A13" s="75"/>
+      <c r="B13" s="44" t="s">
+        <v>557</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>59</v>
@@ -3431,7 +3467,7 @@
       <c r="D13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="80"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23" t="s">
         <v>61</v>
@@ -3459,9 +3495,9 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>63</v>
@@ -3469,7 +3505,7 @@
       <c r="D14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="80"/>
+      <c r="E14" s="78"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -3495,15 +3531,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="23" t="s">
-        <v>551</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>621</v>
-      </c>
-      <c r="E15" s="80"/>
+        <v>548</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="78"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23" t="s">
@@ -3529,12 +3565,12 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="E16" s="80"/>
+        <v>633</v>
+      </c>
+      <c r="E16" s="78"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -3558,17 +3594,17 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="53" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="51" t="s">
+        <v>646</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -3588,21 +3624,21 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="82" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="82" t="s">
+      <c r="D18" s="81"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="83"/>
-      <c r="H18" s="82" t="s">
+      <c r="G18" s="81"/>
+      <c r="H18" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="11"/>
@@ -3622,21 +3658,21 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="82" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="83"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="82" t="s">
+      <c r="D19" s="81"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="88" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="81"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="11"/>
@@ -3656,21 +3692,21 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="82" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="84" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="84" t="s">
-        <v>602</v>
-      </c>
-      <c r="I20" s="83"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="82" t="s">
+        <v>599</v>
+      </c>
+      <c r="I20" s="81"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="11"/>
@@ -3690,21 +3726,21 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="84" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="85" t="s">
-        <v>637</v>
-      </c>
-      <c r="G21" s="86"/>
-      <c r="H21" s="84" t="s">
-        <v>605</v>
-      </c>
-      <c r="I21" s="83"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="82" t="s">
+        <v>602</v>
+      </c>
+      <c r="I21" s="81"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -3724,21 +3760,21 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="85" t="s">
-        <v>640</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="82" t="s">
-        <v>626</v>
-      </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="82" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="83" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="84"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -3758,21 +3794,21 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="82" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="82" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="82" t="s">
+      <c r="G23" s="81"/>
+      <c r="H23" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="83"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="2"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -3792,21 +3828,21 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="82" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="82" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="82" t="s">
+      <c r="G24" s="81"/>
+      <c r="H24" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="83"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -3826,21 +3862,21 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="82" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="82" t="s">
+      <c r="D25" s="81"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="82" t="s">
+      <c r="G25" s="81"/>
+      <c r="H25" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="83"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="2"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -3860,17 +3896,17 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="2"/>
       <c r="K26" s="3"/>
       <c r="L26" s="11"/>
@@ -3918,10 +3954,10 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="23" t="s">
@@ -3930,7 +3966,7 @@
       <c r="D28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="79" t="s">
+      <c r="E28" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="23" t="s">
@@ -3940,7 +3976,7 @@
         <v>92</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>94</v>
@@ -3964,8 +4000,8 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="46" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -3974,7 +4010,7 @@
       <c r="D29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="80"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="23" t="s">
         <v>98</v>
       </c>
@@ -3982,7 +4018,7 @@
         <v>99</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>112</v>
@@ -4006,8 +4042,8 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="46" t="s">
         <v>100</v>
       </c>
       <c r="C30" s="23" t="s">
@@ -4016,17 +4052,17 @@
       <c r="D30" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="G30" s="55" t="s">
+      <c r="E30" s="78"/>
+      <c r="F30" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="G30" s="53" t="s">
         <v>103</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="I30" s="27"/>
+        <v>550</v>
+      </c>
+      <c r="I30" s="26"/>
       <c r="J30" s="2"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -4046,27 +4082,27 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="47" t="s">
+      <c r="A31" s="75"/>
+      <c r="B31" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="53" t="s">
         <v>106</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="80"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="23" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>108</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="I31" s="27"/>
+        <v>551</v>
+      </c>
+      <c r="I31" s="26"/>
       <c r="J31" s="2"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -4086,23 +4122,23 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="47" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="45" t="s">
-        <v>546</v>
+      <c r="C32" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="2"/>
@@ -4124,15 +4160,17 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="53" t="s">
-        <v>606</v>
+      <c r="A33" s="75"/>
+      <c r="B33" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>603</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="80"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="23" t="s">
         <v>114</v>
       </c>
@@ -4162,22 +4200,22 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="C34" s="26"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="C34" s="25"/>
       <c r="D34" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E34" s="80"/>
-      <c r="F34" s="23" t="s">
+      <c r="G34" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="G34" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="H34" s="49"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="23"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
@@ -4198,23 +4236,23 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="45" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="E35" s="78"/>
+      <c r="F35" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="E35" s="80"/>
-      <c r="F35" s="23" t="s">
-        <v>517</v>
-      </c>
       <c r="G35" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H35" s="23"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -4234,20 +4272,20 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="45" t="s">
-        <v>563</v>
-      </c>
-      <c r="C36" s="26"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C36" s="25"/>
       <c r="D36" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="E36" s="80"/>
+        <v>561</v>
+      </c>
+      <c r="E36" s="78"/>
       <c r="F36" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+        <v>547</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="23"/>
       <c r="J36" s="2"/>
       <c r="K36" s="3"/>
@@ -4268,20 +4306,20 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="G37" s="26"/>
+        <v>587</v>
+      </c>
+      <c r="G37" s="25"/>
       <c r="H37" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="I37" s="27"/>
+        <v>600</v>
+      </c>
+      <c r="I37" s="26"/>
       <c r="J37" s="2"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -4301,15 +4339,15 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="26"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="80"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="24" t="s">
         <v>120</v>
       </c>
@@ -4319,7 +4357,7 @@
       <c r="H38" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="27"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="2"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4339,15 +4377,15 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="24" t="s">
         <v>125</v>
       </c>
@@ -4357,7 +4395,7 @@
       <c r="H39" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="27"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="2"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -4377,23 +4415,23 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="23" t="s">
         <v>128</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="49"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="56" t="s">
+      <c r="H40" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="27"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -4413,21 +4451,21 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="23"/>
       <c r="C41" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="27"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="24" t="s">
         <v>133</v>
       </c>
       <c r="H41" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -4447,16 +4485,16 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="23"/>
       <c r="D42" s="23"/>
-      <c r="E42" s="80"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="23"/>
       <c r="G42" s="24" t="s">
         <v>135</v>
       </c>
       <c r="H42" s="24"/>
-      <c r="I42" s="27"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4476,17 +4514,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="23"/>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="83"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -4506,21 +4544,21 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="23"/>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="82" t="s">
+      <c r="D44" s="81"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="G44" s="83"/>
-      <c r="H44" s="82" t="s">
+      <c r="G44" s="81"/>
+      <c r="H44" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="I44" s="83"/>
+      <c r="I44" s="81"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4540,21 +4578,21 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="84" t="s">
+      <c r="A45" s="75"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="84" t="s">
-        <v>601</v>
-      </c>
-      <c r="G45" s="83"/>
-      <c r="H45" s="82" t="s">
+      <c r="D45" s="81"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="82" t="s">
+        <v>598</v>
+      </c>
+      <c r="G45" s="81"/>
+      <c r="H45" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="I45" s="83"/>
+      <c r="I45" s="81"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4574,21 +4612,21 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="84" t="s">
+      <c r="A46" s="75"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="84" t="s">
-        <v>599</v>
-      </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84" t="s">
-        <v>597</v>
-      </c>
-      <c r="I46" s="83"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="82" t="s">
+        <v>596</v>
+      </c>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82" t="s">
+        <v>594</v>
+      </c>
+      <c r="I46" s="81"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -4608,21 +4646,21 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="82" t="s">
+      <c r="A47" s="75"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="83"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="82" t="s">
-        <v>627</v>
-      </c>
-      <c r="G47" s="83"/>
-      <c r="H47" s="85" t="s">
-        <v>644</v>
-      </c>
-      <c r="I47" s="86"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G47" s="81"/>
+      <c r="H47" s="83" t="s">
+        <v>641</v>
+      </c>
+      <c r="I47" s="84"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4642,21 +4680,21 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="75"/>
       <c r="B48" s="23"/>
-      <c r="C48" s="82" t="s">
-        <v>628</v>
-      </c>
-      <c r="D48" s="83"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="82" t="s">
+      <c r="C48" s="80" t="s">
+        <v>625</v>
+      </c>
+      <c r="D48" s="81"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G48" s="83"/>
-      <c r="H48" s="82" t="s">
+      <c r="G48" s="81"/>
+      <c r="H48" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="I48" s="83"/>
+      <c r="I48" s="81"/>
       <c r="J48" s="2"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -4676,21 +4714,21 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="75"/>
       <c r="B49" s="23"/>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="82" t="s">
+      <c r="D49" s="81"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="83"/>
-      <c r="H49" s="82" t="s">
+      <c r="G49" s="81"/>
+      <c r="H49" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="I49" s="83"/>
+      <c r="I49" s="81"/>
       <c r="J49" s="2"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4710,21 +4748,21 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
+      <c r="A50" s="75"/>
       <c r="B50" s="23"/>
-      <c r="C50" s="82" t="s">
+      <c r="C50" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="83"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="82" t="s">
+      <c r="D50" s="81"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="83"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="87" t="s">
         <v>151</v>
       </c>
-      <c r="I50" s="83"/>
+      <c r="I50" s="81"/>
       <c r="J50" s="2"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -4744,17 +4782,17 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="75"/>
       <c r="B51" s="23"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="82" t="s">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="I51" s="83"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="2"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -4774,17 +4812,17 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="95" t="s">
+      <c r="A52" s="76"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="83"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="2"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -4832,27 +4870,27 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
+      <c r="A54" s="74" t="s">
         <v>154</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="C54" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="79" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I54" s="23" t="s">
         <v>15</v>
@@ -4876,9 +4914,9 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="77"/>
+      <c r="A55" s="75"/>
       <c r="B55" s="23" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>155</v>
@@ -4886,11 +4924,11 @@
       <c r="D55" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="96"/>
-      <c r="F55" s="55" t="s">
+      <c r="E55" s="90"/>
+      <c r="F55" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="53" t="s">
         <v>158</v>
       </c>
       <c r="H55" s="23" t="s">
@@ -4915,9 +4953,9 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="77"/>
+      <c r="A56" s="75"/>
       <c r="B56" s="23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>160</v>
@@ -4925,14 +4963,14 @@
       <c r="D56" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="96"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="H56" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="47" t="s">
         <v>24</v>
       </c>
       <c r="J56" s="2"/>
@@ -4954,28 +4992,28 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="77"/>
+      <c r="A57" s="75"/>
       <c r="B57" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E57" s="96"/>
+      <c r="E57" s="90"/>
       <c r="F57" s="23" t="s">
         <v>165</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H57" s="23" t="s">
         <v>166</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="3"/>
@@ -4996,13 +5034,13 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
+      <c r="A58" s="75"/>
       <c r="B58" s="23"/>
-      <c r="C58" s="26"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="96"/>
+      <c r="E58" s="90"/>
       <c r="F58" s="23" t="s">
         <v>116</v>
       </c>
@@ -5013,7 +5051,7 @@
         <v>169</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="3"/>
@@ -5034,20 +5072,20 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="77"/>
+      <c r="A59" s="75"/>
       <c r="B59" s="23"/>
-      <c r="D59" s="53" t="s">
-        <v>638</v>
-      </c>
-      <c r="E59" s="96"/>
+      <c r="D59" s="51" t="s">
+        <v>635</v>
+      </c>
+      <c r="E59" s="90"/>
       <c r="F59" s="23" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="2"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -5067,22 +5105,22 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="77"/>
+      <c r="A60" s="75"/>
       <c r="C60" s="23" t="s">
         <v>171</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="96"/>
+      <c r="E60" s="90"/>
       <c r="F60" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="G60" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="G60" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -5102,9 +5140,9 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="77"/>
+      <c r="A61" s="75"/>
       <c r="B61" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>173</v>
@@ -5112,17 +5150,17 @@
       <c r="D61" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E61" s="96"/>
+      <c r="E61" s="90"/>
       <c r="F61" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>520</v>
-      </c>
-      <c r="G61" s="23" t="s">
-        <v>522</v>
       </c>
       <c r="H61" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="I61" s="26"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="2"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -5142,7 +5180,7 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="77"/>
+      <c r="A62" s="75"/>
       <c r="B62" s="23" t="s">
         <v>174</v>
       </c>
@@ -5152,12 +5190,12 @@
       <c r="D62" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="96"/>
+      <c r="E62" s="90"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="I62" s="26"/>
+      <c r="I62" s="25"/>
       <c r="J62" s="2"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -5177,9 +5215,9 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="75"/>
       <c r="B63" s="23" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>178</v>
@@ -5187,13 +5225,13 @@
       <c r="D63" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="96"/>
+      <c r="E63" s="90"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I63" s="26"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="2"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -5213,7 +5251,7 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="23" t="s">
         <v>181</v>
       </c>
@@ -5223,7 +5261,7 @@
       <c r="D64" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="E64" s="96"/>
+      <c r="E64" s="90"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23" t="s">
         <v>186</v>
@@ -5253,14 +5291,14 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="77"/>
-      <c r="B65" s="48" t="s">
-        <v>565</v>
+      <c r="A65" s="75"/>
+      <c r="B65" s="47" t="s">
+        <v>562</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="E65" s="96"/>
+        <v>564</v>
+      </c>
+      <c r="E65" s="90"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
         <v>190</v>
@@ -5288,23 +5326,23 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="75"/>
       <c r="B66" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>568</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="E66" s="96"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="2"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -5324,12 +5362,12 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="58" t="s">
-        <v>615</v>
-      </c>
-      <c r="E67" s="96"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="56" t="s">
+        <v>612</v>
+      </c>
+      <c r="E67" s="90"/>
       <c r="F67" s="23" t="s">
         <v>193</v>
       </c>
@@ -5357,10 +5395,10 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="77"/>
+      <c r="A68" s="75"/>
       <c r="B68" s="23"/>
-      <c r="C68" s="27"/>
-      <c r="E68" s="96"/>
+      <c r="C68" s="26"/>
+      <c r="E68" s="90"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -5384,19 +5422,19 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
+      <c r="A69" s="75"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="96"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="90"/>
       <c r="F69" s="87" t="s">
-        <v>585</v>
-      </c>
-      <c r="G69" s="91"/>
-      <c r="H69" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="G69" s="89"/>
+      <c r="H69" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="I69" s="91"/>
+      <c r="I69" s="89"/>
       <c r="J69" s="2"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -5416,21 +5454,21 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="75"/>
       <c r="B70" s="23"/>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="91"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="82" t="s">
+      <c r="D70" s="89"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="G70" s="91"/>
-      <c r="H70" s="82" t="s">
+      <c r="G70" s="89"/>
+      <c r="H70" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="I70" s="91"/>
+      <c r="I70" s="89"/>
       <c r="J70" s="2"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -5450,21 +5488,21 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="23"/>
-      <c r="C71" s="82" t="s">
+      <c r="C71" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D71" s="91"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="82" t="s">
+      <c r="D71" s="89"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="G71" s="91"/>
-      <c r="H71" s="85" t="s">
-        <v>650</v>
-      </c>
-      <c r="I71" s="86"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="83" t="s">
+        <v>647</v>
+      </c>
+      <c r="I71" s="84"/>
       <c r="J71" s="2"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -5484,21 +5522,21 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
+      <c r="A72" s="75"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D72" s="91"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="85" t="s">
-        <v>645</v>
-      </c>
-      <c r="G72" s="86"/>
-      <c r="H72" s="84" t="s">
-        <v>547</v>
-      </c>
-      <c r="I72" s="91"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="83" t="s">
+        <v>642</v>
+      </c>
+      <c r="G72" s="84"/>
+      <c r="H72" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="I72" s="89"/>
       <c r="J72" s="2"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -5518,19 +5556,19 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="77"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="24"/>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="101"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="82" t="s">
+      <c r="D73" s="89"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="I73" s="91"/>
+      <c r="I73" s="89"/>
       <c r="J73" s="2"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -5550,21 +5588,21 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="77"/>
+      <c r="A74" s="75"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="84" t="s">
+      <c r="C74" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="82" t="s">
+      <c r="D74" s="89"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="G74" s="91"/>
-      <c r="H74" s="82" t="s">
+      <c r="G74" s="89"/>
+      <c r="H74" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="I74" s="91"/>
+      <c r="I74" s="89"/>
       <c r="J74" s="2"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -5584,21 +5622,21 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="77"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="82" t="s">
+      <c r="C75" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="91"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="90" t="s">
+      <c r="D75" s="89"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="G75" s="91"/>
-      <c r="H75" s="82" t="s">
-        <v>617</v>
-      </c>
-      <c r="I75" s="91"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="80" t="s">
+        <v>614</v>
+      </c>
+      <c r="I75" s="89"/>
       <c r="J75" s="2"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -5618,19 +5656,19 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="77"/>
+      <c r="A76" s="75"/>
       <c r="B76" s="23"/>
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="91"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="82" t="s">
+      <c r="D76" s="89"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="G76" s="91"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
       <c r="J76" s="2"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -5650,19 +5688,19 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="77"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="23"/>
-      <c r="C77" s="82" t="s">
+      <c r="C77" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="D77" s="91"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="82" t="s">
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="G77" s="91"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="2"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -5682,17 +5720,17 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="90" t="s">
+      <c r="A78" s="76"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="D78" s="91"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="91"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
       <c r="J78" s="2"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -5740,7 +5778,7 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="76" t="s">
+      <c r="A80" s="74" t="s">
         <v>214</v>
       </c>
       <c r="B80" s="23" t="s">
@@ -5752,20 +5790,20 @@
       <c r="D80" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E80" s="79" t="s">
+      <c r="E80" s="77" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="61" t="s">
-        <v>639</v>
+      <c r="H80" s="59" t="s">
+        <v>636</v>
       </c>
       <c r="I80" s="23" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="3"/>
@@ -5786,9 +5824,9 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="77"/>
+      <c r="A81" s="75"/>
       <c r="B81" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>26</v>
@@ -5796,9 +5834,9 @@
       <c r="D81" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="80"/>
+      <c r="E81" s="78"/>
       <c r="F81" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>17</v>
@@ -5807,7 +5845,7 @@
         <v>215</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="3"/>
@@ -5828,9 +5866,9 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="77"/>
+      <c r="A82" s="75"/>
       <c r="B82" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C82" s="23" t="s">
         <v>31</v>
@@ -5838,17 +5876,17 @@
       <c r="D82" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="80"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G82" s="45" t="s">
+      <c r="G82" s="44" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="56" t="s">
+      <c r="I82" s="54" t="s">
         <v>218</v>
       </c>
       <c r="J82" s="2"/>
@@ -5870,16 +5908,16 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
+      <c r="A83" s="75"/>
       <c r="B83" s="23"/>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="53" t="s">
         <v>222</v>
       </c>
       <c r="D83" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="E83" s="80"/>
-      <c r="F83" s="45" t="s">
+      <c r="E83" s="78"/>
+      <c r="F83" s="44" t="s">
         <v>28</v>
       </c>
       <c r="G83" s="23" t="s">
@@ -5888,7 +5926,7 @@
       <c r="H83" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I83" s="26"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="2"/>
       <c r="K83" s="3"/>
       <c r="L83" s="11"/>
@@ -5908,17 +5946,17 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
+      <c r="A84" s="75"/>
       <c r="B84" s="23" t="s">
         <v>219</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="80"/>
+        <v>650</v>
+      </c>
+      <c r="E84" s="78"/>
       <c r="F84" s="23" t="s">
         <v>34</v>
       </c>
@@ -5926,9 +5964,9 @@
         <v>40</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="I84" s="26"/>
+        <v>223</v>
+      </c>
+      <c r="I84" s="25"/>
       <c r="J84" s="2"/>
       <c r="K84" s="3"/>
       <c r="L84" s="11"/>
@@ -5948,27 +5986,27 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="C85" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E85" s="78"/>
+      <c r="F85" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" s="61" t="s">
         <v>525</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G85" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="H85" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="I85" s="64"/>
+      <c r="H85" s="61" t="s">
+        <v>570</v>
+      </c>
+      <c r="I85" s="62"/>
       <c r="J85" s="2"/>
       <c r="K85" s="3"/>
       <c r="L85" s="11"/>
@@ -5988,24 +6026,24 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E86" s="98"/>
-      <c r="F86" s="66" t="s">
-        <v>526</v>
-      </c>
-      <c r="G86" s="66" t="s">
-        <v>529</v>
-      </c>
-      <c r="H86" s="66" t="s">
-        <v>622</v>
-      </c>
-      <c r="I86" s="67"/>
+      <c r="F86" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="G86" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="H86" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="I86" s="65"/>
       <c r="J86" s="2"/>
       <c r="K86" s="3"/>
       <c r="L86" s="11"/>
@@ -6025,25 +6063,25 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
+      <c r="A87" s="75"/>
       <c r="B87" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>232</v>
-      </c>
       <c r="E87" s="98"/>
-      <c r="F87" s="66" t="s">
-        <v>528</v>
-      </c>
-      <c r="G87" s="68"/>
-      <c r="H87" s="110" t="s">
-        <v>641</v>
-      </c>
-      <c r="I87" s="111"/>
+      <c r="F87" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="G87" s="66"/>
+      <c r="H87" s="108" t="s">
+        <v>638</v>
+      </c>
+      <c r="I87" s="109"/>
       <c r="J87" s="2"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6063,23 +6101,23 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
+      <c r="A88" s="75"/>
       <c r="B88" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C88" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="D88" s="46" t="s">
+      <c r="E88" s="98"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="H88" s="92" t="s">
         <v>235</v>
-      </c>
-      <c r="E88" s="98"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66" t="s">
-        <v>624</v>
-      </c>
-      <c r="H88" s="92" t="s">
-        <v>236</v>
       </c>
       <c r="I88" s="93"/>
       <c r="J88" s="2"/>
@@ -6101,25 +6139,25 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
+      <c r="A89" s="75"/>
       <c r="B89" s="23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C89" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D89" s="23" t="s">
+      <c r="E89" s="98"/>
+      <c r="F89" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="E89" s="98"/>
-      <c r="F89" s="66" t="s">
+      <c r="G89" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="G89" s="66" t="s">
+      <c r="H89" s="92" t="s">
         <v>240</v>
-      </c>
-      <c r="H89" s="92" t="s">
-        <v>241</v>
       </c>
       <c r="I89" s="93"/>
       <c r="J89" s="2"/>
@@ -6141,23 +6179,23 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
-      <c r="B90" s="55" t="s">
-        <v>571</v>
+      <c r="A90" s="75"/>
+      <c r="B90" s="53" t="s">
+        <v>568</v>
       </c>
       <c r="C90" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="E90" s="98"/>
+      <c r="F90" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="E90" s="98"/>
-      <c r="F90" s="66" t="s">
+      <c r="G90" s="65"/>
+      <c r="H90" s="92" t="s">
         <v>243</v>
-      </c>
-      <c r="G90" s="67"/>
-      <c r="H90" s="92" t="s">
-        <v>244</v>
       </c>
       <c r="I90" s="93"/>
       <c r="J90" s="2"/>
@@ -6179,23 +6217,23 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-      <c r="B91" s="53" t="s">
-        <v>643</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="D91" s="47" t="s">
-        <v>588</v>
+      <c r="A91" s="75"/>
+      <c r="B91" s="51" t="s">
+        <v>640</v>
+      </c>
+      <c r="C91" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="D91" s="46" t="s">
+        <v>585</v>
       </c>
       <c r="E91" s="98"/>
-      <c r="F91" s="66" t="s">
+      <c r="F91" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="65"/>
+      <c r="H91" s="92" t="s">
         <v>245</v>
-      </c>
-      <c r="G91" s="67"/>
-      <c r="H91" s="92" t="s">
-        <v>246</v>
       </c>
       <c r="I91" s="93"/>
       <c r="J91" s="2"/>
@@ -6217,19 +6255,19 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="54"/>
+      <c r="A92" s="75"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="23" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E92" s="98"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="I92" s="94"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="I92" s="97"/>
       <c r="J92" s="2"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
@@ -6249,17 +6287,17 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55" t="s">
-        <v>612</v>
+      <c r="A93" s="75"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="53" t="s">
+        <v>609</v>
       </c>
       <c r="E93" s="98"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="100" t="s">
-        <v>598</v>
+      <c r="F93" s="64"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="95" t="s">
+        <v>595</v>
       </c>
       <c r="I93" s="93"/>
       <c r="J93" s="2"/>
@@ -6281,19 +6319,19 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="83"/>
+      <c r="A94" s="75"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="81"/>
       <c r="E94" s="98"/>
       <c r="F94" s="92" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G94" s="93"/>
       <c r="H94" s="92" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I94" s="93"/>
       <c r="J94" s="2"/>
@@ -6315,23 +6353,23 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="82" t="s">
-        <v>250</v>
-      </c>
-      <c r="D95" s="83"/>
+      <c r="A95" s="75"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" s="81"/>
       <c r="E95" s="98"/>
       <c r="F95" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="G95" s="93"/>
+      <c r="H95" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="I95" s="68"/>
+      <c r="J95" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="G95" s="93"/>
-      <c r="H95" s="69" t="s">
-        <v>646</v>
-      </c>
-      <c r="I95" s="70"/>
-      <c r="J95" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -6351,19 +6389,19 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" s="83"/>
+      <c r="A96" s="75"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="81"/>
       <c r="E96" s="98"/>
       <c r="F96" s="92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G96" s="93"/>
-      <c r="H96" s="70"/>
-      <c r="I96" s="70"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="2"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -6383,19 +6421,19 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="D97" s="83"/>
+      <c r="A97" s="75"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="80" t="s">
+        <v>616</v>
+      </c>
+      <c r="D97" s="81"/>
       <c r="E97" s="98"/>
       <c r="F97" s="92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G97" s="93"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
       <c r="J97" s="2"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -6415,19 +6453,19 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="82" t="s">
+      <c r="A98" s="75"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" s="81"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="D98" s="83"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="94" t="s">
-        <v>257</v>
-      </c>
       <c r="G98" s="93"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="67"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
       <c r="J98" s="2"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -6447,19 +6485,19 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
+      <c r="A99" s="75"/>
       <c r="B99" s="23"/>
-      <c r="C99" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="D99" s="83"/>
+      <c r="C99" s="80" t="s">
+        <v>626</v>
+      </c>
+      <c r="D99" s="81"/>
       <c r="E99" s="98"/>
-      <c r="F99" s="94" t="s">
-        <v>258</v>
+      <c r="F99" s="97" t="s">
+        <v>257</v>
       </c>
       <c r="G99" s="93"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
       <c r="J99" s="2"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -6479,19 +6517,19 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
+      <c r="A100" s="75"/>
       <c r="B100" s="23"/>
-      <c r="C100" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="D100" s="83"/>
+      <c r="C100" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="81"/>
       <c r="E100" s="98"/>
-      <c r="F100" s="110" t="s">
-        <v>648</v>
-      </c>
-      <c r="G100" s="111"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="67"/>
+      <c r="F100" s="108" t="s">
+        <v>645</v>
+      </c>
+      <c r="G100" s="109"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
       <c r="J100" s="2"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -6511,18 +6549,21 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="77"/>
-      <c r="B101" s="84" t="s">
-        <v>595</v>
-      </c>
-      <c r="C101" s="83"/>
+      <c r="A101" s="75"/>
+      <c r="B101" s="82" t="s">
+        <v>592</v>
+      </c>
+      <c r="C101" s="81"/>
+      <c r="D101" s="51" t="s">
+        <v>652</v>
+      </c>
       <c r="E101" s="98"/>
-      <c r="F101" s="100" t="s">
-        <v>260</v>
+      <c r="F101" s="95" t="s">
+        <v>259</v>
       </c>
       <c r="G101" s="93"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
       <c r="J101" s="2"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -6542,19 +6583,19 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="78"/>
-      <c r="B102" s="88" t="s">
-        <v>584</v>
-      </c>
-      <c r="C102" s="114"/>
-      <c r="D102" s="27"/>
+      <c r="A102" s="76"/>
+      <c r="B102" s="85" t="s">
+        <v>581</v>
+      </c>
+      <c r="C102" s="112"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="99"/>
-      <c r="F102" s="67"/>
+      <c r="F102" s="65"/>
       <c r="G102" s="92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H102" s="93"/>
-      <c r="I102" s="67"/>
+      <c r="I102" s="65"/>
       <c r="J102" s="2"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -6579,10 +6620,10 @@
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="12"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="63"/>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
       <c r="J103" s="2"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -6602,24 +6643,24 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="76" t="s">
-        <v>262</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="E104" s="115" t="s">
+      <c r="A104" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>530</v>
+      </c>
+      <c r="E104" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="45" t="s">
+      <c r="F104" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G104" s="28"/>
+      <c r="G104" s="27"/>
       <c r="H104" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I104" s="23" t="s">
         <v>90</v>
@@ -6643,25 +6684,25 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="77"/>
-      <c r="B105" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="D105" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="E105" s="116"/>
-      <c r="F105" s="45" t="s">
+      <c r="A105" s="75"/>
+      <c r="B105" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E105" s="114"/>
+      <c r="F105" s="44" t="s">
         <v>18</v>
       </c>
       <c r="G105" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="H105" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>267</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="3"/>
@@ -6682,28 +6723,28 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="77"/>
-      <c r="B106" s="29" t="s">
+      <c r="A106" s="75"/>
+      <c r="B106" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="D106" s="58" t="s">
+      <c r="C106" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E106" s="114"/>
+      <c r="F106" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="E106" s="116"/>
-      <c r="F106" s="45" t="s">
+      <c r="G106" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="G106" s="23" t="s">
-        <v>271</v>
-      </c>
       <c r="H106" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="I106" s="48" t="s">
-        <v>273</v>
+        <v>232</v>
+      </c>
+      <c r="I106" s="47" t="s">
+        <v>272</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="3"/>
@@ -6724,25 +6765,25 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="77"/>
-      <c r="B107" s="29" t="s">
-        <v>548</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D107" s="29" t="s">
+      <c r="A107" s="75"/>
+      <c r="B107" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E107" s="116"/>
-      <c r="F107" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="H107" s="53" t="s">
-        <v>632</v>
-      </c>
-      <c r="I107" s="29" t="s">
-        <v>279</v>
+      <c r="E107" s="114"/>
+      <c r="F107" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="H107" s="51" t="s">
+        <v>629</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="3"/>
@@ -6763,28 +6804,28 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="77"/>
-      <c r="B108" s="29" t="s">
+      <c r="A108" s="75"/>
+      <c r="B108" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D108" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" s="29" t="s">
+      <c r="E108" s="114"/>
+      <c r="F108" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="E108" s="116"/>
-      <c r="F108" s="48" t="s">
+      <c r="G108" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="H108" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="H108" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="I108" s="29" t="s">
-        <v>290</v>
+      <c r="I108" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="3"/>
@@ -6805,25 +6846,25 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
-      <c r="B109" s="29" t="s">
+      <c r="A109" s="75"/>
+      <c r="B109" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="D109" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="E109" s="114"/>
+      <c r="F109" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="E109" s="116"/>
-      <c r="F109" s="24" t="s">
+      <c r="G109" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="G109" s="23" t="s">
+      <c r="H109" s="23" t="s">
         <v>284</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>285</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="3"/>
@@ -6844,27 +6885,27 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-      <c r="B110" s="29" t="s">
+      <c r="A110" s="75"/>
+      <c r="B110" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="D110" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="E110" s="114"/>
+      <c r="F110" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D110" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="E110" s="116"/>
-      <c r="F110" s="23" t="s">
+      <c r="G110" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="G110" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="H110" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I110" s="60"/>
+      <c r="H110" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="I110" s="58"/>
       <c r="J110" s="2"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
@@ -6884,27 +6925,27 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-      <c r="B111" s="29" t="s">
+      <c r="A111" s="75"/>
+      <c r="B111" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C111" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="D111" s="28" t="s">
+        <v>532</v>
+      </c>
+      <c r="E111" s="114"/>
+      <c r="F111" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D111" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="E111" s="116"/>
-      <c r="F111" s="23" t="s">
+      <c r="G111" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="G111" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H111" s="82" t="s">
-        <v>304</v>
-      </c>
-      <c r="I111" s="83"/>
+      <c r="H111" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="I111" s="81"/>
       <c r="J111" s="2"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -6924,25 +6965,25 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-      <c r="B112" s="58" t="s">
+      <c r="A112" s="75"/>
+      <c r="B112" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="D112" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="E112" s="114"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D112" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="E112" s="116"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="H112" s="82" t="s">
-        <v>307</v>
-      </c>
-      <c r="I112" s="83"/>
+      <c r="H112" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="I112" s="81"/>
       <c r="J112" s="2"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
@@ -6962,24 +7003,24 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
-      <c r="B113" s="58" t="s">
-        <v>574</v>
-      </c>
-      <c r="C113" s="29" t="s">
+      <c r="A113" s="75"/>
+      <c r="B113" s="56" t="s">
+        <v>571</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="E113" s="114"/>
+      <c r="F113" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E113" s="116"/>
-      <c r="F113" s="23" t="s">
-        <v>299</v>
-      </c>
       <c r="G113" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="H113" s="84" t="s">
-        <v>607</v>
-      </c>
-      <c r="I113" s="83"/>
+        <v>580</v>
+      </c>
+      <c r="H113" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="I113" s="81"/>
       <c r="J113" s="2"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -6999,23 +7040,25 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="77"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="D114" s="48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E114" s="116"/>
+      <c r="A114" s="75"/>
+      <c r="B114" s="51" t="s">
+        <v>639</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="D114" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="E114" s="114"/>
       <c r="F114" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="G114" s="26"/>
-      <c r="H114" s="84" t="s">
-        <v>312</v>
-      </c>
-      <c r="I114" s="83"/>
+        <v>577</v>
+      </c>
+      <c r="G114" s="25"/>
+      <c r="H114" s="82" t="s">
+        <v>311</v>
+      </c>
+      <c r="I114" s="81"/>
       <c r="J114" s="2"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
@@ -7035,22 +7078,22 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="77"/>
-      <c r="B115" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E115" s="116"/>
+      <c r="A115" s="75"/>
+      <c r="B115" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E115" s="114"/>
       <c r="F115" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="G115" s="26"/>
-      <c r="H115" s="82" t="s">
-        <v>315</v>
-      </c>
-      <c r="I115" s="83"/>
+        <v>578</v>
+      </c>
+      <c r="G115" s="25"/>
+      <c r="H115" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="I115" s="81"/>
       <c r="J115" s="2"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -7070,25 +7113,25 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="77"/>
-      <c r="B116" s="29" t="s">
-        <v>576</v>
+      <c r="A116" s="75"/>
+      <c r="B116" s="28" t="s">
+        <v>573</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="E116" s="116"/>
+        <v>586</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="E116" s="114"/>
       <c r="F116" s="24" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="82" t="s">
-        <v>318</v>
-      </c>
-      <c r="I116" s="83"/>
+      <c r="H116" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="I116" s="81"/>
       <c r="J116" s="2"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
@@ -7108,23 +7151,23 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="77"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="75"/>
+      <c r="B117" s="28"/>
       <c r="C117" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="E117" s="116"/>
-      <c r="F117" s="85" t="s">
-        <v>651</v>
-      </c>
-      <c r="G117" s="86"/>
-      <c r="H117" s="82" t="s">
-        <v>320</v>
-      </c>
-      <c r="I117" s="91"/>
+        <v>606</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="E117" s="114"/>
+      <c r="F117" s="83" t="s">
+        <v>648</v>
+      </c>
+      <c r="G117" s="84"/>
+      <c r="H117" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="I117" s="89"/>
       <c r="J117" s="2"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -7144,17 +7187,17 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="82" t="s">
-        <v>303</v>
-      </c>
-      <c r="D118" s="91"/>
-      <c r="E118" s="116"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="113"/>
-      <c r="H118" s="82"/>
-      <c r="I118" s="83"/>
+      <c r="A118" s="75"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="89"/>
+      <c r="E118" s="114"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="111"/>
+      <c r="H118" s="80"/>
+      <c r="I118" s="81"/>
       <c r="J118" s="2"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
@@ -7174,19 +7217,19 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="77"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="82" t="s">
+      <c r="A119" s="75"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="D119" s="89"/>
+      <c r="E119" s="114"/>
+      <c r="F119" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="91"/>
-      <c r="E119" s="116"/>
-      <c r="F119" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="G119" s="91"/>
-      <c r="H119" s="82"/>
-      <c r="I119" s="83"/>
+      <c r="G119" s="89"/>
+      <c r="H119" s="80"/>
+      <c r="I119" s="81"/>
       <c r="J119" s="2"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -7206,19 +7249,19 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="77"/>
-      <c r="B120" s="82" t="s">
+      <c r="A120" s="75"/>
+      <c r="B120" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C120" s="89"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="80" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="91"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="82" t="s">
-        <v>309</v>
-      </c>
-      <c r="G120" s="91"/>
-      <c r="H120" s="101"/>
-      <c r="I120" s="83"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="81"/>
       <c r="J120" s="2"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -7238,19 +7281,19 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="77"/>
-      <c r="B121" s="82" t="s">
+      <c r="A121" s="75"/>
+      <c r="B121" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="C121" s="89"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="114"/>
+      <c r="F121" s="80" t="s">
         <v>310</v>
       </c>
-      <c r="C121" s="91"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="116"/>
-      <c r="F121" s="82" t="s">
-        <v>311</v>
-      </c>
-      <c r="G121" s="91"/>
-      <c r="H121" s="101"/>
-      <c r="I121" s="83"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="81"/>
       <c r="J121" s="2"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -7270,19 +7313,19 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="77"/>
-      <c r="B122" s="82" t="s">
+      <c r="A122" s="75"/>
+      <c r="B122" s="80" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" s="89"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="114"/>
+      <c r="F122" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="C122" s="91"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="116"/>
-      <c r="F122" s="82" t="s">
-        <v>314</v>
-      </c>
-      <c r="G122" s="91"/>
-      <c r="H122" s="82"/>
-      <c r="I122" s="83"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="80"/>
+      <c r="I122" s="81"/>
       <c r="J122" s="2"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
@@ -7302,19 +7345,19 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="77"/>
-      <c r="B123" s="82" t="s">
+      <c r="A123" s="75"/>
+      <c r="B123" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C123" s="89"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="88" t="s">
         <v>316</v>
       </c>
-      <c r="C123" s="91"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="116"/>
-      <c r="F123" s="95" t="s">
-        <v>317</v>
-      </c>
-      <c r="G123" s="91"/>
-      <c r="H123" s="82"/>
-      <c r="I123" s="83"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="80"/>
+      <c r="I123" s="81"/>
       <c r="J123" s="2"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -7334,17 +7377,17 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="77"/>
-      <c r="B124" s="26"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="23"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="116"/>
-      <c r="F124" s="95" t="s">
-        <v>319</v>
-      </c>
-      <c r="G124" s="91"/>
-      <c r="H124" s="82"/>
-      <c r="I124" s="91"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="G124" s="89"/>
+      <c r="H124" s="80"/>
+      <c r="I124" s="89"/>
       <c r="J124" s="2"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
@@ -7364,17 +7407,17 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="77"/>
+      <c r="A125" s="75"/>
       <c r="B125" s="23"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G125" s="26"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" s="25"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
       <c r="J125" s="2"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -7394,18 +7437,18 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="77"/>
+      <c r="A126" s="75"/>
       <c r="B126" s="19"/>
       <c r="C126" s="21"/>
-      <c r="D126" s="112" t="s">
+      <c r="D126" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="E126" s="73"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="80" t="s">
         <v>322</v>
       </c>
-      <c r="E126" s="75"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="82" t="s">
-        <v>323</v>
-      </c>
-      <c r="H126" s="91"/>
+      <c r="H126" s="89"/>
       <c r="I126" s="8"/>
       <c r="J126" s="2"/>
       <c r="K126" s="3"/>
@@ -7426,13 +7469,13 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="77"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
-      <c r="D127" s="112" t="s">
-        <v>324</v>
-      </c>
-      <c r="E127" s="75"/>
+      <c r="D127" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="E127" s="73"/>
       <c r="F127" s="20"/>
       <c r="G127" s="20"/>
       <c r="H127" s="20"/>
@@ -7456,13 +7499,13 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="78"/>
+      <c r="A128" s="76"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="82" t="s">
-        <v>325</v>
-      </c>
-      <c r="E128" s="91"/>
+      <c r="D128" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="E128" s="89"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -7514,18 +7557,18 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="76" t="s">
+      <c r="A130" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="23" t="s">
+      <c r="E130" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E130" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F130" s="103"/>
-      <c r="G130" s="104"/>
-      <c r="H130" s="91"/>
+      <c r="F130" s="101"/>
+      <c r="G130" s="102"/>
+      <c r="H130" s="89"/>
       <c r="I130" s="8"/>
       <c r="J130" s="2"/>
       <c r="K130" s="3"/>
@@ -7546,22 +7589,19 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="77"/>
-      <c r="B131" s="25" t="s">
-        <v>536</v>
-      </c>
+      <c r="A131" s="75"/>
       <c r="C131" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="D131" s="23" t="s">
-        <v>330</v>
-      </c>
       <c r="E131" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="32"/>
+        <v>278</v>
+      </c>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="31"/>
       <c r="I131" s="8"/>
       <c r="J131" s="2"/>
       <c r="K131" s="3"/>
@@ -7582,22 +7622,22 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="77"/>
+      <c r="A132" s="75"/>
       <c r="B132" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="32"/>
+        <v>331</v>
+      </c>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="31"/>
       <c r="I132" s="8"/>
       <c r="J132" s="2"/>
       <c r="K132" s="3"/>
@@ -7618,16 +7658,19 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="77"/>
+      <c r="A133" s="75"/>
       <c r="B133" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E133" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="E133" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="31"/>
       <c r="I133" s="8"/>
       <c r="J133" s="2"/>
       <c r="K133" s="3"/>
@@ -7648,17 +7691,17 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="77"/>
+      <c r="A134" s="75"/>
       <c r="B134" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C134" s="28"/>
+        <v>334</v>
+      </c>
+      <c r="C134" s="27"/>
       <c r="D134" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="32"/>
+        <v>340</v>
+      </c>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="31"/>
       <c r="I134" s="8"/>
       <c r="J134" s="2"/>
       <c r="K134" s="3"/>
@@ -7679,17 +7722,20 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="77"/>
-      <c r="B135" s="28"/>
+      <c r="A135" s="75"/>
+      <c r="B135" s="27"/>
       <c r="C135" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>342</v>
       </c>
       <c r="E135" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="32"/>
+        <v>607</v>
+      </c>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="31"/>
       <c r="I135" s="8"/>
       <c r="J135" s="2"/>
       <c r="K135" s="3"/>
@@ -7710,13 +7756,13 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="77"/>
-      <c r="B136" s="28"/>
+      <c r="A136" s="75"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="23"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="32"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="31"/>
       <c r="I136" s="8"/>
       <c r="J136" s="2"/>
       <c r="K136" s="3"/>
@@ -7737,20 +7783,20 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="77"/>
+      <c r="A137" s="75"/>
       <c r="B137" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E137" s="23"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="32"/>
+        <v>337</v>
+      </c>
+      <c r="D137" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="E137" s="116"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="31"/>
       <c r="I137" s="8"/>
       <c r="J137" s="2"/>
       <c r="K137" s="3"/>
@@ -7771,18 +7817,18 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="77"/>
-      <c r="B138" s="52"/>
+      <c r="A138" s="75"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="32"/>
+        <v>339</v>
+      </c>
+      <c r="D138" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E138" s="116"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="31"/>
       <c r="I138" s="8"/>
       <c r="J138" s="2"/>
       <c r="K138" s="3"/>
@@ -7803,18 +7849,18 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="77"/>
-      <c r="B139" s="26"/>
+      <c r="A139" s="75"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D139" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="32"/>
+        <v>341</v>
+      </c>
+      <c r="D139" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="E139" s="116"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="31"/>
       <c r="I139" s="8"/>
       <c r="J139" s="2"/>
       <c r="K139" s="3"/>
@@ -7835,18 +7881,18 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="77"/>
-      <c r="B140" s="82" t="s">
-        <v>586</v>
-      </c>
-      <c r="C140" s="83"/>
-      <c r="D140" s="82" t="s">
-        <v>345</v>
-      </c>
-      <c r="E140" s="83"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="34"/>
-      <c r="H140" s="32"/>
+      <c r="A140" s="75"/>
+      <c r="B140" s="80" t="s">
+        <v>583</v>
+      </c>
+      <c r="C140" s="81"/>
+      <c r="D140" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="E140" s="81"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="31"/>
       <c r="I140" s="8"/>
       <c r="J140" s="2"/>
       <c r="K140" s="3"/>
@@ -7867,18 +7913,18 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="77"/>
-      <c r="B141" s="82" t="s">
-        <v>346</v>
-      </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="E141" s="83"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="34"/>
-      <c r="H141" s="32"/>
+      <c r="A141" s="75"/>
+      <c r="B141" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="C141" s="81"/>
+      <c r="D141" s="106" t="s">
+        <v>644</v>
+      </c>
+      <c r="E141" s="84"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="31"/>
       <c r="I141" s="8"/>
       <c r="J141" s="2"/>
       <c r="K141" s="3"/>
@@ -7899,18 +7945,18 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="77"/>
-      <c r="B142" s="82" t="s">
-        <v>630</v>
-      </c>
-      <c r="C142" s="83"/>
-      <c r="D142" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="E142" s="83"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="32"/>
+      <c r="A142" s="75"/>
+      <c r="B142" s="80" t="s">
+        <v>627</v>
+      </c>
+      <c r="C142" s="81"/>
+      <c r="D142" s="88" t="s">
+        <v>597</v>
+      </c>
+      <c r="E142" s="81"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
       <c r="I142" s="8"/>
       <c r="J142" s="2"/>
       <c r="K142" s="3"/>
@@ -7931,18 +7977,16 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="77"/>
-      <c r="B143" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="C143" s="83"/>
-      <c r="D143" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="E143" s="83"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
+      <c r="A143" s="75"/>
+      <c r="B143" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="C143" s="81"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
       <c r="I143" s="8"/>
       <c r="J143" s="2"/>
       <c r="K143" s="3"/>
@@ -7963,18 +8007,16 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="77"/>
-      <c r="B144" s="84" t="s">
-        <v>596</v>
-      </c>
-      <c r="C144" s="83"/>
-      <c r="D144" s="108" t="s">
-        <v>647</v>
-      </c>
-      <c r="E144" s="86"/>
-      <c r="F144" s="32"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="32"/>
+      <c r="A144" s="75"/>
+      <c r="B144" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="C144" s="81"/>
+      <c r="D144" s="106"/>
+      <c r="E144" s="84"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
       <c r="I144" s="8"/>
       <c r="J144" s="2"/>
       <c r="K144" s="3"/>
@@ -7995,18 +8037,16 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="77"/>
-      <c r="B145" s="84" t="s">
-        <v>351</v>
-      </c>
-      <c r="C145" s="83"/>
-      <c r="D145" s="95" t="s">
-        <v>600</v>
-      </c>
-      <c r="E145" s="83"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="32"/>
-      <c r="H145" s="32"/>
+      <c r="A145" s="75"/>
+      <c r="B145" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="81"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
       <c r="I145" s="8"/>
       <c r="J145" s="2"/>
       <c r="K145" s="3"/>
@@ -8027,16 +8067,16 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="77"/>
-      <c r="B146" s="82" t="s">
-        <v>352</v>
-      </c>
-      <c r="C146" s="83"/>
-      <c r="D146" s="82"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="32"/>
-      <c r="G146" s="32"/>
-      <c r="H146" s="32"/>
+      <c r="A146" s="75"/>
+      <c r="B146" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="C146" s="81"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
       <c r="I146" s="8"/>
       <c r="J146" s="2"/>
       <c r="K146" s="3"/>
@@ -8057,11 +8097,11 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="77"/>
-      <c r="B147" s="112" t="s">
-        <v>353</v>
-      </c>
-      <c r="C147" s="75"/>
+      <c r="A147" s="75"/>
+      <c r="B147" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="73"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
       <c r="F147" s="8"/>
@@ -8087,7 +8127,7 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="77"/>
+      <c r="A148" s="75"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
       <c r="D148" s="20"/>
@@ -8114,7 +8154,7 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="78"/>
+      <c r="A149" s="76"/>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="10"/>
@@ -8169,17 +8209,17 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="102" t="s">
-        <v>354</v>
-      </c>
-      <c r="B151" s="74"/>
-      <c r="C151" s="74"/>
-      <c r="D151" s="74"/>
-      <c r="E151" s="74"/>
-      <c r="F151" s="74"/>
-      <c r="G151" s="74"/>
-      <c r="H151" s="74"/>
-      <c r="I151" s="75"/>
+      <c r="A151" s="100" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" s="72"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="72"/>
+      <c r="F151" s="72"/>
+      <c r="G151" s="72"/>
+      <c r="H151" s="72"/>
+      <c r="I151" s="73"/>
       <c r="J151" s="2"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -8227,17 +8267,17 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="103" t="s">
-        <v>355</v>
-      </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
-      <c r="D153" s="104"/>
-      <c r="E153" s="104"/>
-      <c r="F153" s="104"/>
-      <c r="G153" s="104"/>
-      <c r="H153" s="104"/>
-      <c r="I153" s="91"/>
+      <c r="A153" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="B153" s="102"/>
+      <c r="C153" s="102"/>
+      <c r="D153" s="102"/>
+      <c r="E153" s="102"/>
+      <c r="F153" s="102"/>
+      <c r="G153" s="102"/>
+      <c r="H153" s="102"/>
+      <c r="I153" s="89"/>
       <c r="J153" s="2"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -8257,17 +8297,17 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="35"/>
-      <c r="B154" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="C154" s="104"/>
-      <c r="D154" s="104"/>
-      <c r="E154" s="104"/>
-      <c r="F154" s="104"/>
-      <c r="G154" s="104"/>
-      <c r="H154" s="104"/>
-      <c r="I154" s="91"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="C154" s="102"/>
+      <c r="D154" s="102"/>
+      <c r="E154" s="102"/>
+      <c r="F154" s="102"/>
+      <c r="G154" s="102"/>
+      <c r="H154" s="102"/>
+      <c r="I154" s="89"/>
       <c r="J154" s="2"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
@@ -8287,17 +8327,17 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" s="104"/>
-      <c r="D155" s="104"/>
-      <c r="E155" s="104"/>
-      <c r="F155" s="104"/>
-      <c r="G155" s="104"/>
-      <c r="H155" s="104"/>
-      <c r="I155" s="91"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" s="102"/>
+      <c r="D155" s="102"/>
+      <c r="E155" s="102"/>
+      <c r="F155" s="102"/>
+      <c r="G155" s="102"/>
+      <c r="H155" s="102"/>
+      <c r="I155" s="89"/>
       <c r="J155" s="2"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -8317,17 +8357,17 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="C156" s="104"/>
-      <c r="D156" s="104"/>
-      <c r="E156" s="104"/>
-      <c r="F156" s="104"/>
-      <c r="G156" s="104"/>
-      <c r="H156" s="104"/>
-      <c r="I156" s="91"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" s="102"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="102"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="89"/>
       <c r="J156" s="2"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
@@ -8347,17 +8387,17 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="35"/>
-      <c r="B157" s="103" t="s">
-        <v>359</v>
-      </c>
-      <c r="C157" s="104"/>
-      <c r="D157" s="104"/>
-      <c r="E157" s="104"/>
-      <c r="F157" s="104"/>
-      <c r="G157" s="104"/>
-      <c r="H157" s="104"/>
-      <c r="I157" s="91"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="101" t="s">
+        <v>357</v>
+      </c>
+      <c r="C157" s="102"/>
+      <c r="D157" s="102"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="102"/>
+      <c r="G157" s="102"/>
+      <c r="H157" s="102"/>
+      <c r="I157" s="89"/>
       <c r="J157" s="2"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -8377,17 +8417,17 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="35"/>
-      <c r="B158" s="103" t="s">
-        <v>360</v>
-      </c>
-      <c r="C158" s="104"/>
-      <c r="D158" s="104"/>
-      <c r="E158" s="104"/>
-      <c r="F158" s="104"/>
-      <c r="G158" s="104"/>
-      <c r="H158" s="104"/>
-      <c r="I158" s="91"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="C158" s="102"/>
+      <c r="D158" s="102"/>
+      <c r="E158" s="102"/>
+      <c r="F158" s="102"/>
+      <c r="G158" s="102"/>
+      <c r="H158" s="102"/>
+      <c r="I158" s="89"/>
       <c r="J158" s="2"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
@@ -8407,17 +8447,17 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="35"/>
-      <c r="B159" s="109" t="s">
-        <v>361</v>
-      </c>
-      <c r="C159" s="104"/>
-      <c r="D159" s="104"/>
-      <c r="E159" s="104"/>
-      <c r="F159" s="104"/>
-      <c r="G159" s="104"/>
-      <c r="H159" s="104"/>
-      <c r="I159" s="91"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="107" t="s">
+        <v>359</v>
+      </c>
+      <c r="C159" s="102"/>
+      <c r="D159" s="102"/>
+      <c r="E159" s="102"/>
+      <c r="F159" s="102"/>
+      <c r="G159" s="102"/>
+      <c r="H159" s="102"/>
+      <c r="I159" s="89"/>
       <c r="J159" s="2"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -8437,17 +8477,17 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="B160" s="104"/>
-      <c r="C160" s="104"/>
-      <c r="D160" s="104"/>
-      <c r="E160" s="104"/>
-      <c r="F160" s="104"/>
-      <c r="G160" s="104"/>
-      <c r="H160" s="104"/>
-      <c r="I160" s="91"/>
+      <c r="A160" s="101" t="s">
+        <v>360</v>
+      </c>
+      <c r="B160" s="102"/>
+      <c r="C160" s="102"/>
+      <c r="D160" s="102"/>
+      <c r="E160" s="102"/>
+      <c r="F160" s="102"/>
+      <c r="G160" s="102"/>
+      <c r="H160" s="102"/>
+      <c r="I160" s="89"/>
       <c r="J160" s="2"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
@@ -8467,21 +8507,21 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="107"/>
-      <c r="B161" s="35" t="s">
+      <c r="A161" s="105"/>
+      <c r="B161" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D161" s="103" t="s">
         <v>363</v>
       </c>
-      <c r="C161" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="D161" s="105" t="s">
-        <v>365</v>
-      </c>
-      <c r="E161" s="104"/>
-      <c r="F161" s="104"/>
-      <c r="G161" s="104"/>
-      <c r="H161" s="104"/>
-      <c r="I161" s="91"/>
+      <c r="E161" s="102"/>
+      <c r="F161" s="102"/>
+      <c r="G161" s="102"/>
+      <c r="H161" s="102"/>
+      <c r="I161" s="89"/>
       <c r="J161" s="2"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -8501,19 +8541,19 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="96"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="D162" s="106" t="s">
-        <v>367</v>
-      </c>
-      <c r="E162" s="104"/>
-      <c r="F162" s="104"/>
-      <c r="G162" s="104"/>
-      <c r="H162" s="104"/>
-      <c r="I162" s="91"/>
+      <c r="A162" s="90"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="D162" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="E162" s="102"/>
+      <c r="F162" s="102"/>
+      <c r="G162" s="102"/>
+      <c r="H162" s="102"/>
+      <c r="I162" s="89"/>
       <c r="J162" s="2"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
@@ -8533,19 +8573,19 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="97"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D163" s="106" t="s">
-        <v>369</v>
-      </c>
-      <c r="E163" s="104"/>
-      <c r="F163" s="104"/>
-      <c r="G163" s="104"/>
-      <c r="H163" s="104"/>
-      <c r="I163" s="91"/>
+      <c r="A163" s="91"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="E163" s="102"/>
+      <c r="F163" s="102"/>
+      <c r="G163" s="102"/>
+      <c r="H163" s="102"/>
+      <c r="I163" s="89"/>
       <c r="J163" s="2"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -8565,15 +8605,15 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="33"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="34"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
       <c r="J164" s="2"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
@@ -8593,30 +8633,30 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="107"/>
-      <c r="B165" s="38" t="s">
+      <c r="A165" s="105"/>
+      <c r="B165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="D165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="E165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="F165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="G165" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H165" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="I165" s="37" t="s">
         <v>370</v>
-      </c>
-      <c r="C165" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="E165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="F165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="G165" s="38" t="s">
-        <v>370</v>
-      </c>
-      <c r="H165" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="I165" s="38" t="s">
-        <v>372</v>
       </c>
       <c r="J165" s="2"/>
       <c r="K165" s="3"/>
@@ -8637,30 +8677,30 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="96"/>
-      <c r="B166" s="34" t="s">
+      <c r="A166" s="90"/>
+      <c r="B166" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D166" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="C166" s="34" t="s">
+      <c r="E166" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="F166" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="G166" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="F166" s="34" t="s">
+      <c r="H166" s="39" t="s">
         <v>377</v>
       </c>
-      <c r="G166" s="34" t="s">
+      <c r="I166" s="40" t="s">
         <v>378</v>
-      </c>
-      <c r="H166" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="I166" s="41" t="s">
-        <v>380</v>
       </c>
       <c r="J166" s="2"/>
       <c r="K166" s="3"/>
@@ -8681,30 +8721,30 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="96"/>
-      <c r="B167" s="34" t="s">
+      <c r="A167" s="90"/>
+      <c r="B167" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D167" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="C167" s="34" t="s">
+      <c r="E167" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="F167" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="G167" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="F167" s="34" t="s">
+      <c r="H167" s="60" t="s">
         <v>385</v>
       </c>
-      <c r="G167" s="34" t="s">
+      <c r="I167" s="40" t="s">
         <v>386</v>
-      </c>
-      <c r="H167" s="62" t="s">
-        <v>387</v>
-      </c>
-      <c r="I167" s="41" t="s">
-        <v>388</v>
       </c>
       <c r="J167" s="2"/>
       <c r="K167" s="3"/>
@@ -8725,30 +8765,30 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="96"/>
-      <c r="B168" s="34" t="s">
+      <c r="A168" s="90"/>
+      <c r="B168" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="D168" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C168" s="34" t="s">
+      <c r="E168" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="F168" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="E168" s="34" t="s">
+      <c r="G168" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="F168" s="34" t="s">
+      <c r="H168" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="G168" s="34" t="s">
+      <c r="I168" s="40" t="s">
         <v>394</v>
-      </c>
-      <c r="H168" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="I168" s="41" t="s">
-        <v>396</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="3"/>
@@ -8769,25 +8809,25 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="96"/>
-      <c r="B169" s="34" t="s">
+      <c r="A169" s="90"/>
+      <c r="B169" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D169" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="C169" s="34" t="s">
+      <c r="E169" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="F169" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="E169" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="G169" s="34"/>
-      <c r="H169" s="40"/>
-      <c r="I169" s="42"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="39"/>
+      <c r="I169" s="41"/>
       <c r="J169" s="2"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -8807,28 +8847,28 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="96"/>
-      <c r="B170" s="34" t="s">
+      <c r="A170" s="90"/>
+      <c r="B170" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D170" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="C170" s="34" t="s">
+      <c r="E170" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="F170" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="E170" s="34" t="s">
+      <c r="G170" s="33"/>
+      <c r="H170" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="F170" s="34" t="s">
+      <c r="I170" s="41" t="s">
         <v>406</v>
-      </c>
-      <c r="G170" s="34"/>
-      <c r="H170" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="I170" s="42" t="s">
-        <v>408</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="3"/>
@@ -8849,28 +8889,28 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="96"/>
-      <c r="B171" s="34" t="s">
+      <c r="A171" s="90"/>
+      <c r="B171" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D171" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="C171" s="34" t="s">
+      <c r="E171" s="33" t="s">
         <v>410</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="F171" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="G171" s="33"/>
+      <c r="H171" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="F171" s="34" t="s">
+      <c r="I171" s="41" t="s">
         <v>413</v>
-      </c>
-      <c r="G171" s="34"/>
-      <c r="H171" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="I171" s="42" t="s">
-        <v>415</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="3"/>
@@ -8891,30 +8931,30 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="96"/>
-      <c r="B172" s="34" t="s">
+      <c r="A172" s="90"/>
+      <c r="B172" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D172" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C172" s="34" t="s">
+      <c r="E172" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="F172" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="G172" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="F172" s="34" t="s">
+      <c r="H172" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="G172" s="34" t="s">
+      <c r="I172" s="41" t="s">
         <v>421</v>
-      </c>
-      <c r="H172" s="40" t="s">
-        <v>422</v>
-      </c>
-      <c r="I172" s="42" t="s">
-        <v>423</v>
       </c>
       <c r="J172" s="2"/>
       <c r="K172" s="3"/>
@@ -8935,30 +8975,30 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="96"/>
-      <c r="B173" s="34" t="s">
+      <c r="A173" s="90"/>
+      <c r="B173" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D173" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="C173" s="34" t="s">
+      <c r="E173" s="33" t="s">
         <v>425</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="F173" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="E173" s="34" t="s">
+      <c r="G173" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="F173" s="34" t="s">
+      <c r="H173" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="G173" s="34" t="s">
+      <c r="I173" s="41" t="s">
         <v>429</v>
-      </c>
-      <c r="H173" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="I173" s="42" t="s">
-        <v>431</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="3"/>
@@ -8979,28 +9019,28 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="96"/>
-      <c r="B174" s="34" t="s">
+      <c r="A174" s="90"/>
+      <c r="B174" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D174" s="33" t="s">
         <v>432</v>
       </c>
-      <c r="C174" s="34" t="s">
+      <c r="E174" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="F174" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="E174" s="34" t="s">
+      <c r="G174" s="33"/>
+      <c r="H174" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="F174" s="34" t="s">
+      <c r="I174" s="41" t="s">
         <v>436</v>
-      </c>
-      <c r="G174" s="34"/>
-      <c r="H174" s="40" t="s">
-        <v>437</v>
-      </c>
-      <c r="I174" s="42" t="s">
-        <v>438</v>
       </c>
       <c r="J174" s="2"/>
       <c r="K174" s="3"/>
@@ -9021,30 +9061,30 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="96"/>
-      <c r="B175" s="34" t="s">
+      <c r="A175" s="90"/>
+      <c r="B175" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D175" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C175" s="34" t="s">
+      <c r="E175" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="F175" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="G175" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="F175" s="34" t="s">
+      <c r="H175" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="G175" s="34" t="s">
+      <c r="I175" s="41" t="s">
         <v>444</v>
-      </c>
-      <c r="H175" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="I175" s="42" t="s">
-        <v>446</v>
       </c>
       <c r="J175" s="2"/>
       <c r="K175" s="3"/>
@@ -9065,30 +9105,30 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="96"/>
-      <c r="B176" s="34" t="s">
+      <c r="A176" s="90"/>
+      <c r="B176" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="D176" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="C176" s="34" t="s">
+      <c r="E176" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="F176" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="G176" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="F176" s="34" t="s">
+      <c r="H176" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="G176" s="34" t="s">
+      <c r="I176" s="42" t="s">
         <v>452</v>
-      </c>
-      <c r="H176" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="I176" s="43" t="s">
-        <v>454</v>
       </c>
       <c r="J176" s="2"/>
       <c r="K176" s="3"/>
@@ -9109,30 +9149,30 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="96"/>
-      <c r="B177" s="34" t="s">
+      <c r="A177" s="90"/>
+      <c r="B177" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="D177" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="E177" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="F177" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="E177" s="34" t="s">
+      <c r="G177" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="F177" s="34" t="s">
+      <c r="H177" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="G177" s="34" t="s">
+      <c r="I177" s="40" t="s">
         <v>460</v>
-      </c>
-      <c r="H177" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="I177" s="41" t="s">
-        <v>462</v>
       </c>
       <c r="J177" s="2"/>
       <c r="K177" s="3"/>
@@ -9153,28 +9193,28 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="96"/>
-      <c r="B178" s="34" t="s">
+      <c r="A178" s="90"/>
+      <c r="B178" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D178" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="C178" s="34" t="s">
+      <c r="E178" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="F178" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="E178" s="34" t="s">
+      <c r="G178" s="33"/>
+      <c r="H178" s="39" t="s">
         <v>466</v>
       </c>
-      <c r="F178" s="34" t="s">
+      <c r="I178" s="40" t="s">
         <v>467</v>
-      </c>
-      <c r="G178" s="34"/>
-      <c r="H178" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="I178" s="41" t="s">
-        <v>469</v>
       </c>
       <c r="J178" s="2"/>
       <c r="K178" s="3"/>
@@ -9195,27 +9235,27 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="96"/>
-      <c r="B179" s="34" t="s">
+      <c r="A179" s="90"/>
+      <c r="B179" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D179" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="C179" s="34" t="s">
+      <c r="E179" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="D179" s="34" t="s">
+      <c r="F179" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="E179" s="34" t="s">
+      <c r="G179" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="F179" s="34" t="s">
-        <v>474</v>
-      </c>
-      <c r="G179" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="H179" s="44"/>
-      <c r="I179" s="44"/>
+      <c r="H179" s="43"/>
+      <c r="I179" s="43"/>
       <c r="J179" s="2"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -9235,25 +9275,25 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="96"/>
-      <c r="B180" s="34" t="s">
+      <c r="A180" s="90"/>
+      <c r="B180" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D180" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="C180" s="34" t="s">
+      <c r="E180" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="F180" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="E180" s="34" t="s">
-        <v>479</v>
-      </c>
-      <c r="F180" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="G180" s="34"/>
-      <c r="H180" s="44"/>
-      <c r="I180" s="44"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="43"/>
+      <c r="I180" s="43"/>
       <c r="J180" s="2"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
@@ -9273,27 +9313,27 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="96"/>
-      <c r="B181" s="34" t="s">
+      <c r="A181" s="90"/>
+      <c r="B181" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="D181" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C181" s="34" t="s">
+      <c r="E181" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="D181" s="34" t="s">
+      <c r="F181" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="E181" s="34" t="s">
+      <c r="G181" s="33" t="s">
         <v>484</v>
       </c>
-      <c r="F181" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="G181" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="H181" s="44"/>
-      <c r="I181" s="44"/>
+      <c r="H181" s="43"/>
+      <c r="I181" s="43"/>
       <c r="J181" s="2"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -9313,27 +9353,27 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="96"/>
-      <c r="B182" s="34" t="s">
+      <c r="A182" s="90"/>
+      <c r="B182" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="C182" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="D182" s="33" t="s">
         <v>487</v>
       </c>
-      <c r="C182" s="34" t="s">
+      <c r="E182" s="33" t="s">
         <v>488</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="F182" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="E182" s="34" t="s">
+      <c r="G182" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="F182" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="G182" s="34" t="s">
-        <v>492</v>
-      </c>
-      <c r="H182" s="44"/>
-      <c r="I182" s="44"/>
+      <c r="H182" s="43"/>
+      <c r="I182" s="43"/>
       <c r="J182" s="2"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
@@ -9353,27 +9393,27 @@
       <c r="Z182" s="3"/>
     </row>
     <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="97"/>
-      <c r="B183" s="34" t="s">
+      <c r="A183" s="91"/>
+      <c r="B183" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="D183" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="C183" s="34" t="s">
+      <c r="E183" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D183" s="34" t="s">
+      <c r="F183" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="E183" s="34" t="s">
+      <c r="G183" s="33" t="s">
         <v>496</v>
       </c>
-      <c r="F183" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="G183" s="34" t="s">
-        <v>498</v>
-      </c>
-      <c r="H183" s="44"/>
-      <c r="I183" s="44"/>
+      <c r="H183" s="43"/>
+      <c r="I183" s="43"/>
       <c r="J183" s="2"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -9395,20 +9435,20 @@
     <row r="184" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="E184" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>502</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
@@ -9433,16 +9473,16 @@
     <row r="185" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D185" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="E185" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E185" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
@@ -9469,14 +9509,14 @@
     <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
@@ -9506,7 +9546,7 @@
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
@@ -32407,7 +32447,7 @@
       <c r="Z1004" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="174">
+  <mergeCells count="177">
     <mergeCell ref="D128:E128"/>
     <mergeCell ref="F130:H130"/>
     <mergeCell ref="B145:C145"/>
@@ -32455,6 +32495,7 @@
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
     <mergeCell ref="A165:A183"/>
     <mergeCell ref="B155:I155"/>
     <mergeCell ref="B156:I156"/>
@@ -32497,7 +32538,9 @@
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="A130:A149"/>
-    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
     <mergeCell ref="G102:H102"/>
     <mergeCell ref="H75:I75"/>
     <mergeCell ref="F71:G71"/>
@@ -32516,6 +32559,11 @@
     <mergeCell ref="F97:G97"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E80:E102"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="C24:D24"/>
@@ -32525,15 +32573,10 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H71:I71"/>
     <mergeCell ref="E54:E78"/>
     <mergeCell ref="F69:G69"/>
     <mergeCell ref="C70:D70"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E80:E102"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="C20:D20"/>
